--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -16,7 +16,7 @@
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ft_consolidated_revisit!$A$1:$O$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ft_consolidated_revisit!$A$1:$W$208</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -3452,10 +3452,10 @@
   <dimension ref="A1:W208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J186" sqref="J186"/>
+      <selection pane="bottomRight" activeCell="A195" sqref="A195:D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,64 +3607,58 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="C5">
-        <v>2020</v>
+        <v>1997</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>624</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>0.99784111842534284</v>
-      </c>
-      <c r="G5" t="s">
-        <v>606</v>
+        <v>0.95081877406880044</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J5" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="K5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="O5" t="s">
-        <v>603</v>
-      </c>
-      <c r="P5" t="s">
-        <v>723</v>
+        <v>605</v>
       </c>
       <c r="Q5" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="R5" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="S5" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="T5" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="U5" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="V5" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="W5" t="s">
-        <v>726</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -3729,58 +3723,70 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>627</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>0.99247800970533862</v>
+        <v>0.98913501268963322</v>
+      </c>
+      <c r="G9" t="s">
+        <v>607</v>
       </c>
       <c r="H9" t="s">
+        <v>558</v>
+      </c>
+      <c r="I9" t="s">
         <v>567</v>
       </c>
       <c r="J9" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
       <c r="K9" t="s">
-        <v>602</v>
+        <v>550</v>
+      </c>
+      <c r="L9" t="s">
+        <v>556</v>
       </c>
       <c r="M9" t="s">
-        <v>544</v>
+        <v>550</v>
+      </c>
+      <c r="N9" t="s">
+        <v>549</v>
       </c>
       <c r="P9" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="Q9" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="R9" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="S9" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="T9" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="U9" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="V9" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="W9" t="s">
-        <v>734</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -3925,67 +3931,52 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="C17">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="F17">
-        <v>0.91594384348707403</v>
-      </c>
-      <c r="G17" t="s">
-        <v>601</v>
+        <v>0.92724577416628151</v>
       </c>
       <c r="H17" t="s">
-        <v>559</v>
-      </c>
-      <c r="I17" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="J17" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="K17" t="s">
-        <v>550</v>
-      </c>
-      <c r="L17" t="s">
-        <v>554</v>
+        <v>604</v>
       </c>
       <c r="M17" t="s">
-        <v>550</v>
-      </c>
-      <c r="N17" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="P17" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="Q17" t="s">
-        <v>740</v>
-      </c>
-      <c r="R17" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="S17" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="T17" t="s">
-        <v>744</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s">
         <v>745</v>
       </c>
       <c r="V17" t="s">
-        <v>746</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s">
         <v>7</v>
@@ -4093,28 +4084,28 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C23">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="D23" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>0.95081877406880044</v>
+        <v>0.97897668902420254</v>
       </c>
       <c r="H23" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J23" t="s">
-        <v>748</v>
+        <v>787</v>
       </c>
       <c r="K23" t="s">
         <v>604</v>
@@ -4123,25 +4114,25 @@
         <v>604</v>
       </c>
       <c r="O23" t="s">
-        <v>605</v>
+        <v>788</v>
+      </c>
+      <c r="P23" t="s">
+        <v>790</v>
       </c>
       <c r="Q23" t="s">
         <v>740</v>
       </c>
-      <c r="R23" t="s">
-        <v>747</v>
-      </c>
       <c r="S23" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="T23" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="U23" t="s">
         <v>745</v>
       </c>
       <c r="V23" t="s">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="W23" t="s">
         <v>7</v>
@@ -4238,55 +4229,55 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="C28">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="D28" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E28" t="s">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="F28">
-        <v>0.92724577416628151</v>
+        <v>0.90633376228548657</v>
+      </c>
+      <c r="G28" t="s">
+        <v>613</v>
       </c>
       <c r="H28" t="s">
         <v>560</v>
       </c>
-      <c r="J28" t="s">
-        <v>752</v>
-      </c>
       <c r="K28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M28" t="s">
-        <v>604</v>
+        <v>544</v>
       </c>
       <c r="P28" t="s">
-        <v>753</v>
+        <v>852</v>
       </c>
       <c r="Q28" t="s">
-        <v>754</v>
+        <v>855</v>
+      </c>
+      <c r="R28" t="s">
+        <v>853</v>
       </c>
       <c r="S28" t="s">
-        <v>755</v>
+        <v>854</v>
       </c>
       <c r="T28" t="s">
-        <v>45</v>
+        <v>856</v>
       </c>
       <c r="U28" t="s">
-        <v>745</v>
+        <v>857</v>
       </c>
       <c r="V28" t="s">
-        <v>45</v>
-      </c>
-      <c r="W28" t="s">
-        <v>7</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -4311,70 +4302,52 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="C30">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="D30" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="F30">
-        <v>0.98913501268963322</v>
-      </c>
-      <c r="G30" t="s">
-        <v>607</v>
+        <v>0.99350047019181054</v>
       </c>
       <c r="H30" t="s">
-        <v>558</v>
-      </c>
-      <c r="I30" t="s">
-        <v>567</v>
-      </c>
-      <c r="J30" t="s">
-        <v>759</v>
+        <v>581</v>
       </c>
       <c r="K30" t="s">
-        <v>550</v>
-      </c>
-      <c r="L30" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
       <c r="M30" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="N30" t="s">
-        <v>549</v>
+        <v>604</v>
       </c>
       <c r="P30" t="s">
-        <v>760</v>
+        <v>837</v>
       </c>
       <c r="Q30" t="s">
-        <v>756</v>
+        <v>838</v>
       </c>
       <c r="R30" t="s">
-        <v>757</v>
-      </c>
-      <c r="S30" t="s">
-        <v>758</v>
+        <v>839</v>
       </c>
       <c r="T30" t="s">
-        <v>717</v>
+        <v>840</v>
       </c>
       <c r="U30" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="V30" t="s">
-        <v>762</v>
-      </c>
-      <c r="W30" t="s">
-        <v>763</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -4539,58 +4512,64 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="C39">
         <v>2020</v>
       </c>
       <c r="D39" t="s">
-        <v>341</v>
+        <v>206</v>
       </c>
       <c r="E39" t="s">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="F39">
-        <v>0.92473916763464115</v>
+        <v>0.99784111842534284</v>
       </c>
       <c r="G39" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="J39" t="s">
-        <v>766</v>
+        <v>737</v>
       </c>
       <c r="K39" t="s">
         <v>602</v>
       </c>
       <c r="M39" t="s">
-        <v>544</v>
+        <v>602</v>
+      </c>
+      <c r="O39" t="s">
+        <v>603</v>
       </c>
       <c r="P39" t="s">
-        <v>764</v>
+        <v>723</v>
       </c>
       <c r="Q39" t="s">
-        <v>765</v>
+        <v>721</v>
+      </c>
+      <c r="R39" t="s">
+        <v>722</v>
       </c>
       <c r="S39" t="s">
-        <v>768</v>
+        <v>729</v>
       </c>
       <c r="T39" t="s">
-        <v>769</v>
+        <v>724</v>
       </c>
       <c r="U39" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="V39" t="s">
-        <v>770</v>
+        <v>727</v>
       </c>
       <c r="W39" t="s">
-        <v>767</v>
+        <v>726</v>
       </c>
     </row>
     <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -5155,55 +5134,58 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s">
-        <v>455</v>
+        <v>340</v>
       </c>
       <c r="C68">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="D68" t="s">
-        <v>456</v>
+        <v>341</v>
       </c>
       <c r="E68" t="s">
-        <v>423</v>
+        <v>326</v>
       </c>
       <c r="F68">
-        <v>0.98052761532990129</v>
+        <v>0.92473916763464115</v>
+      </c>
+      <c r="G68" t="s">
+        <v>608</v>
       </c>
       <c r="H68" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="J68" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="K68" t="s">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="M68" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="P68" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="Q68" t="s">
-        <v>772</v>
-      </c>
-      <c r="R68" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="S68" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="T68" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="U68" t="s">
         <v>745</v>
       </c>
       <c r="V68" t="s">
-        <v>771</v>
+        <v>770</v>
+      </c>
+      <c r="W68" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -5388,64 +5370,67 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>393</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>394</v>
       </c>
       <c r="C78">
-        <v>1977</v>
+        <v>2023</v>
       </c>
       <c r="D78" t="s">
-        <v>651</v>
+        <v>395</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>326</v>
       </c>
       <c r="F78">
-        <v>0.98990510535464893</v>
+        <v>0.97458912963154121</v>
       </c>
       <c r="G78" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H78" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I78" t="s">
-        <v>559</v>
-      </c>
-      <c r="J78" t="s">
-        <v>785</v>
+        <v>577</v>
       </c>
       <c r="K78" t="s">
         <v>550</v>
       </c>
+      <c r="L78" t="s">
+        <v>557</v>
+      </c>
       <c r="M78" t="s">
         <v>550</v>
       </c>
+      <c r="N78" t="s">
+        <v>544</v>
+      </c>
       <c r="P78" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="Q78" t="s">
-        <v>777</v>
+        <v>834</v>
       </c>
       <c r="R78" t="s">
-        <v>778</v>
+        <v>835</v>
       </c>
       <c r="S78" t="s">
-        <v>781</v>
+        <v>832</v>
       </c>
       <c r="T78" t="s">
-        <v>783</v>
+        <v>45</v>
       </c>
       <c r="U78" t="s">
-        <v>782</v>
+        <v>745</v>
       </c>
       <c r="V78" t="s">
-        <v>784</v>
+        <v>836</v>
       </c>
       <c r="W78" t="s">
-        <v>786</v>
+        <v>833</v>
       </c>
     </row>
     <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -5530,28 +5515,28 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="C83">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="D83" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
       </c>
       <c r="F83">
-        <v>0.97897668902420254</v>
+        <v>0.95050734852012941</v>
+      </c>
+      <c r="G83" t="s">
+        <v>112</v>
       </c>
       <c r="H83" t="s">
-        <v>560</v>
-      </c>
-      <c r="J83" t="s">
-        <v>787</v>
+        <v>594</v>
       </c>
       <c r="K83" t="s">
         <v>604</v>
@@ -5559,29 +5544,29 @@
       <c r="M83" t="s">
         <v>604</v>
       </c>
-      <c r="O83" t="s">
-        <v>788</v>
-      </c>
       <c r="P83" t="s">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="Q83" t="s">
-        <v>740</v>
+        <v>826</v>
+      </c>
+      <c r="R83" t="s">
+        <v>827</v>
       </c>
       <c r="S83" t="s">
-        <v>789</v>
+        <v>821</v>
       </c>
       <c r="T83" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="U83" t="s">
         <v>745</v>
       </c>
       <c r="V83" t="s">
-        <v>792</v>
+        <v>45</v>
       </c>
       <c r="W83" t="s">
-        <v>7</v>
+        <v>823</v>
       </c>
     </row>
     <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -5966,55 +5951,58 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>475</v>
+        <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>476</v>
+        <v>227</v>
       </c>
       <c r="C103">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="D103" t="s">
-        <v>477</v>
+        <v>228</v>
       </c>
       <c r="E103" t="s">
-        <v>423</v>
+        <v>229</v>
       </c>
       <c r="F103">
-        <v>0.92120915300430206</v>
+        <v>0.99247800970533862</v>
       </c>
       <c r="H103" t="s">
         <v>567</v>
       </c>
+      <c r="J103" t="s">
+        <v>738</v>
+      </c>
       <c r="K103" t="s">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="M103" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P103" t="s">
-        <v>793</v>
+        <v>732</v>
       </c>
       <c r="Q103" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="R103" t="s">
-        <v>794</v>
+        <v>731</v>
       </c>
       <c r="S103" t="s">
-        <v>795</v>
+        <v>736</v>
       </c>
       <c r="T103" t="s">
-        <v>796</v>
+        <v>733</v>
       </c>
       <c r="U103" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="V103" t="s">
-        <v>797</v>
+        <v>735</v>
       </c>
       <c r="W103" t="s">
-        <v>7</v>
+        <v>734</v>
       </c>
     </row>
     <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -6039,55 +6027,64 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="C105">
-        <v>2008</v>
+        <v>1977</v>
       </c>
       <c r="D105" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
       </c>
       <c r="F105">
-        <v>0.9377232202339163</v>
+        <v>0.98990510535464893</v>
+      </c>
+      <c r="G105" t="s">
+        <v>609</v>
       </c>
       <c r="H105" t="s">
+        <v>567</v>
+      </c>
+      <c r="I105" t="s">
         <v>559</v>
       </c>
+      <c r="J105" t="s">
+        <v>785</v>
+      </c>
       <c r="K105" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="M105" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="P105" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="Q105" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="R105" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="S105" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="T105" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="U105" t="s">
-        <v>745</v>
+        <v>782</v>
       </c>
       <c r="V105" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="W105" t="s">
-        <v>7</v>
+        <v>786</v>
       </c>
     </row>
     <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -6152,58 +6149,52 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>372</v>
+        <v>475</v>
       </c>
       <c r="B109" t="s">
-        <v>373</v>
+        <v>476</v>
       </c>
       <c r="C109">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="D109" t="s">
-        <v>374</v>
+        <v>477</v>
       </c>
       <c r="E109" t="s">
-        <v>326</v>
+        <v>423</v>
       </c>
       <c r="F109">
-        <v>0.94589893918682422</v>
+        <v>0.92120915300430206</v>
       </c>
       <c r="H109" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="K109" t="s">
-        <v>550</v>
-      </c>
-      <c r="L109" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M109" t="s">
-        <v>550</v>
-      </c>
-      <c r="N109" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="P109" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="Q109" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="R109" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="S109" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="T109" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="U109" t="s">
         <v>745</v>
       </c>
       <c r="V109" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="W109" t="s">
         <v>7</v>
@@ -6251,55 +6242,67 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="B112" t="s">
-        <v>376</v>
+        <v>237</v>
       </c>
       <c r="C112">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D112" t="s">
-        <v>377</v>
+        <v>238</v>
       </c>
       <c r="E112" t="s">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="F112">
-        <v>0.91646497939055904</v>
+        <v>0.91594384348707403</v>
+      </c>
+      <c r="G112" t="s">
+        <v>601</v>
       </c>
       <c r="H112" t="s">
         <v>559</v>
       </c>
       <c r="I112" t="s">
-        <v>567</v>
+        <v>600</v>
+      </c>
+      <c r="J112" t="s">
+        <v>739</v>
       </c>
       <c r="K112" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L112" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M112" t="s">
-        <v>545</v>
+        <v>550</v>
+      </c>
+      <c r="N112" t="s">
+        <v>548</v>
       </c>
       <c r="P112" t="s">
-        <v>809</v>
+        <v>743</v>
       </c>
       <c r="Q112" t="s">
         <v>740</v>
       </c>
+      <c r="R112" t="s">
+        <v>741</v>
+      </c>
       <c r="S112" t="s">
-        <v>810</v>
+        <v>742</v>
       </c>
       <c r="T112" t="s">
-        <v>811</v>
+        <v>744</v>
       </c>
       <c r="U112" t="s">
         <v>745</v>
       </c>
       <c r="V112" t="s">
-        <v>812</v>
+        <v>746</v>
       </c>
       <c r="W112" t="s">
         <v>7</v>
@@ -6427,120 +6430,108 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>454</v>
       </c>
       <c r="B119" t="s">
-        <v>97</v>
+        <v>455</v>
       </c>
       <c r="C119">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="D119" t="s">
-        <v>670</v>
+        <v>456</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>423</v>
       </c>
       <c r="F119">
-        <v>0.98671295859140085</v>
-      </c>
-      <c r="G119" t="s">
-        <v>817</v>
+        <v>0.98052761532990129</v>
       </c>
       <c r="H119" t="s">
         <v>559</v>
       </c>
-      <c r="I119" t="s">
-        <v>561</v>
+      <c r="J119" t="s">
+        <v>780</v>
       </c>
       <c r="K119" t="s">
         <v>550</v>
       </c>
-      <c r="L119" t="s">
-        <v>554</v>
-      </c>
       <c r="M119" t="s">
         <v>550</v>
       </c>
-      <c r="N119" t="s">
-        <v>548</v>
-      </c>
       <c r="P119" t="s">
-        <v>813</v>
+        <v>775</v>
       </c>
       <c r="Q119" t="s">
-        <v>814</v>
+        <v>772</v>
       </c>
       <c r="R119" t="s">
-        <v>815</v>
+        <v>773</v>
       </c>
       <c r="S119" t="s">
-        <v>816</v>
+        <v>774</v>
       </c>
       <c r="T119" t="s">
-        <v>818</v>
+        <v>776</v>
       </c>
       <c r="U119" t="s">
         <v>745</v>
       </c>
       <c r="V119" t="s">
-        <v>819</v>
+        <v>771</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B120" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C120">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="D120" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
       </c>
       <c r="F120">
-        <v>0.95050734852012941</v>
-      </c>
-      <c r="G120" t="s">
-        <v>112</v>
+        <v>0.9377232202339163</v>
       </c>
       <c r="H120" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="K120" t="s">
-        <v>604</v>
+        <v>546</v>
       </c>
       <c r="M120" t="s">
-        <v>604</v>
+        <v>543</v>
       </c>
       <c r="P120" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="Q120" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="R120" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="S120" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="T120" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="U120" t="s">
         <v>745</v>
       </c>
       <c r="V120" t="s">
-        <v>45</v>
+        <v>803</v>
       </c>
       <c r="W120" t="s">
-        <v>823</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -6645,25 +6636,22 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B126" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C126">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="D126" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E126" t="s">
         <v>326</v>
       </c>
       <c r="F126">
-        <v>0.909473415779947</v>
-      </c>
-      <c r="G126" t="s">
-        <v>610</v>
+        <v>0.94589893918682422</v>
       </c>
       <c r="H126" t="s">
         <v>559</v>
@@ -6671,29 +6659,35 @@
       <c r="K126" t="s">
         <v>550</v>
       </c>
+      <c r="L126" t="s">
+        <v>554</v>
+      </c>
       <c r="M126" t="s">
         <v>550</v>
       </c>
+      <c r="N126" t="s">
+        <v>548</v>
+      </c>
       <c r="P126" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="Q126" t="s">
         <v>740</v>
       </c>
       <c r="R126" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="S126" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
       <c r="T126" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="U126" t="s">
         <v>745</v>
       </c>
       <c r="V126" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="W126" t="s">
         <v>7</v>
@@ -7141,67 +7135,58 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B149" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C149">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D149" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="E149" t="s">
         <v>326</v>
       </c>
       <c r="F149">
-        <v>0.97458912963154121</v>
-      </c>
-      <c r="G149" t="s">
-        <v>611</v>
+        <v>0.91646497939055904</v>
       </c>
       <c r="H149" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="I149" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="K149" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L149" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M149" t="s">
-        <v>550</v>
-      </c>
-      <c r="N149" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P149" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="Q149" t="s">
-        <v>834</v>
-      </c>
-      <c r="R149" t="s">
-        <v>835</v>
+        <v>740</v>
       </c>
       <c r="S149" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="T149" t="s">
-        <v>45</v>
+        <v>811</v>
       </c>
       <c r="U149" t="s">
         <v>745</v>
       </c>
       <c r="V149" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="W149" t="s">
-        <v>833</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -7226,52 +7211,64 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="B151" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="C151">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D151" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="E151" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="F151">
-        <v>0.99350047019181054</v>
+        <v>0.98671295859140085</v>
+      </c>
+      <c r="G151" t="s">
+        <v>817</v>
       </c>
       <c r="H151" t="s">
-        <v>581</v>
+        <v>559</v>
+      </c>
+      <c r="I151" t="s">
+        <v>561</v>
       </c>
       <c r="K151" t="s">
-        <v>604</v>
+        <v>550</v>
+      </c>
+      <c r="L151" t="s">
+        <v>554</v>
       </c>
       <c r="M151" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="N151" t="s">
-        <v>604</v>
+        <v>548</v>
       </c>
       <c r="P151" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="Q151" t="s">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="R151" t="s">
-        <v>839</v>
+        <v>815</v>
+      </c>
+      <c r="S151" t="s">
+        <v>816</v>
       </c>
       <c r="T151" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="U151" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="V151" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
     </row>
     <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -7454,7 +7451,7 @@
         <v>0.4582988328042289</v>
       </c>
     </row>
-    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -7474,7 +7471,7 @@
         <v>0.23920195213180984</v>
       </c>
     </row>
-    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>290</v>
       </c>
@@ -7494,7 +7491,7 @@
         <v>0.30269949039670829</v>
       </c>
     </row>
-    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>68</v>
       </c>
@@ -7514,7 +7511,7 @@
         <v>0.26186022556174315</v>
       </c>
     </row>
-    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>511</v>
       </c>
@@ -7534,7 +7531,7 @@
         <v>7.9207072315683691E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>293</v>
       </c>
@@ -7554,7 +7551,7 @@
         <v>0.50583927644494631</v>
       </c>
     </row>
-    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>70</v>
       </c>
@@ -7574,7 +7571,7 @@
         <v>0.89472865765298393</v>
       </c>
     </row>
-    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>217</v>
       </c>
@@ -7594,7 +7591,7 @@
         <v>0.85781123435434148</v>
       </c>
     </row>
-    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>514</v>
       </c>
@@ -7614,7 +7611,7 @@
         <v>0.63167371710375375</v>
       </c>
     </row>
-    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>296</v>
       </c>
@@ -7634,7 +7631,7 @@
         <v>0.14109683217325797</v>
       </c>
     </row>
-    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>402</v>
       </c>
@@ -7654,7 +7651,7 @@
         <v>0.32684380856723494</v>
       </c>
     </row>
-    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>299</v>
       </c>
@@ -7674,7 +7671,7 @@
         <v>0.52131912295853855</v>
       </c>
     </row>
-    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>405</v>
       </c>
@@ -7694,34 +7691,31 @@
         <v>0.2474266587890579</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="B173" t="s">
-        <v>303</v>
+        <v>385</v>
       </c>
       <c r="C173">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="D173" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="E173" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="F173">
-        <v>0.96001626119540306</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>612</v>
+        <v>0.909473415779947</v>
+      </c>
+      <c r="G173" t="s">
+        <v>610</v>
       </c>
       <c r="H173" t="s">
         <v>559</v>
       </c>
-      <c r="I173" t="s">
-        <v>580</v>
-      </c>
       <c r="K173" t="s">
         <v>550</v>
       </c>
@@ -7729,28 +7723,31 @@
         <v>550</v>
       </c>
       <c r="P173" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="Q173" t="s">
         <v>740</v>
       </c>
       <c r="R173" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="S173" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="T173" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="U173" t="s">
         <v>745</v>
       </c>
       <c r="V173" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+      <c r="W173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>220</v>
       </c>
@@ -7770,7 +7767,7 @@
         <v>0.8478060590412958</v>
       </c>
     </row>
-    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>305</v>
       </c>
@@ -7790,7 +7787,7 @@
         <v>0.82259738157325779</v>
       </c>
     </row>
-    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>155</v>
       </c>
@@ -7810,7 +7807,7 @@
         <v>0.82406871839071871</v>
       </c>
     </row>
-    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>408</v>
       </c>
@@ -7830,7 +7827,7 @@
         <v>0.16830327699084247</v>
       </c>
     </row>
-    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>72</v>
       </c>
@@ -7850,7 +7847,7 @@
         <v>0.64336201972799223</v>
       </c>
     </row>
-    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>157</v>
       </c>
@@ -7870,7 +7867,7 @@
         <v>0.52290166213799183</v>
       </c>
     </row>
-    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>411</v>
       </c>
@@ -7890,7 +7887,7 @@
         <v>0.77489464756864379</v>
       </c>
     </row>
-    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>517</v>
       </c>
@@ -7910,7 +7907,7 @@
         <v>0.38552152104531323</v>
       </c>
     </row>
-    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -7930,7 +7927,7 @@
         <v>0.68195928298704322</v>
       </c>
     </row>
-    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>74</v>
       </c>
@@ -7950,7 +7947,7 @@
         <v>0.67328120425693738</v>
       </c>
     </row>
-    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>104</v>
       </c>
@@ -7970,7 +7967,7 @@
         <v>0.76967267011478835</v>
       </c>
     </row>
-    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>520</v>
       </c>
@@ -7990,60 +7987,63 @@
         <v>0.4283608544625106</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="B186" t="s">
-        <v>77</v>
-      </c>
-      <c r="C186" t="s">
-        <v>7</v>
+        <v>303</v>
+      </c>
+      <c r="C186">
+        <v>2002</v>
       </c>
       <c r="D186" t="s">
-        <v>700</v>
+        <v>304</v>
       </c>
       <c r="E186" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="F186">
-        <v>0.95593579028494435</v>
+        <v>0.96001626119540306</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>612</v>
       </c>
       <c r="H186" t="s">
         <v>559</v>
       </c>
       <c r="I186" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="K186" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M186" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="P186" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="Q186" t="s">
         <v>740</v>
       </c>
+      <c r="R186" t="s">
+        <v>843</v>
+      </c>
       <c r="S186" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="T186" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="U186" t="s">
-        <v>850</v>
+        <v>745</v>
       </c>
       <c r="V186" t="s">
-        <v>851</v>
-      </c>
-      <c r="W186" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>523</v>
       </c>
@@ -8072,7 +8072,7 @@
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
     </row>
-    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>414</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>0.62284863857130934</v>
       </c>
     </row>
-    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>198</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>0.35332348050141593</v>
       </c>
     </row>
-    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>526</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>0.86625883364667722</v>
       </c>
     </row>
-    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>78</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>0.10404090788447473</v>
       </c>
     </row>
-    <row r="192" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>80</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>0.3739980983272112</v>
       </c>
     </row>
-    <row r="193" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>0.43770015968354758</v>
       </c>
     </row>
-    <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>529</v>
       </c>
@@ -8212,60 +8212,60 @@
         <v>0.40977105268787617</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="B195" t="s">
-        <v>309</v>
-      </c>
-      <c r="C195">
-        <v>2015</v>
+        <v>77</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>310</v>
+        <v>700</v>
       </c>
       <c r="E195" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="F195">
-        <v>0.90633376228548657</v>
-      </c>
-      <c r="G195" t="s">
-        <v>613</v>
+        <v>0.95593579028494435</v>
       </c>
       <c r="H195" t="s">
-        <v>560</v>
+        <v>559</v>
+      </c>
+      <c r="I195" t="s">
+        <v>600</v>
       </c>
       <c r="K195" t="s">
-        <v>602</v>
+        <v>551</v>
       </c>
       <c r="M195" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="P195" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q195" t="s">
-        <v>855</v>
-      </c>
-      <c r="R195" t="s">
-        <v>853</v>
+        <v>740</v>
       </c>
       <c r="S195" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="T195" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="U195" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="V195" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+      <c r="W195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>223</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>0.49874744263805126</v>
       </c>
     </row>
-    <row r="197" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>532</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>0.46222181946868313</v>
       </c>
     </row>
-    <row r="198" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>82</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>7.3971468220319303E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>159</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>0.25122784488383565</v>
       </c>
     </row>
-    <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>314</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>0.33212404034706278</v>
       </c>
     </row>
-    <row r="201" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>161</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>2.4867554476732945E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>535</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0.72179019754562168</v>
       </c>
     </row>
-    <row r="203" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>317</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>5.4698861004331745E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>0.47047041171008219</v>
       </c>
     </row>
-    <row r="205" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>417</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>9.2272756155660773E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>320</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>0.47589895850307629</v>
       </c>
     </row>
-    <row r="207" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>84</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>0.49876287852409595</v>
       </c>
     </row>
-    <row r="208" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>163</v>
       </c>
@@ -8526,14 +8526,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O208">
-    <filterColumn colId="5">
+  <autoFilter ref="A1:W208">
+    <filterColumn colId="7">
       <customFilters>
-        <customFilter operator="greaterThan" val="0.9"/>
+        <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A5:O196">
-      <sortCondition ref="B1:B209"/>
+    <sortState ref="A5:W195">
+      <sortCondition ref="H1:H208"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:Q209">

--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="1562">
   <si>
     <t>title</t>
   </si>
@@ -2693,9 +2693,6 @@
   </si>
   <si>
     <t>The role of Earth observation (EO) data in addressing societal problems from environmental through to humanitarian should not be understated. Recent innovation in EO means provision of analysis ready data and data cubes, which allows for rapid use of EO data. This in combination with processing technologies, such as Google Earth Engine and open source algorithms/ software for EO data integration and analyses, has afforded an explosion of information to answer research questions and/or inform policy making. However, there is still a need for both training and validation data within EO projects – often this can be challenging to obtain. It has been suggested that citizen science can help here to provide these data, yet there is some perceived hesitancy in using citizen science within EO projects.</t>
-  </si>
-  <si>
-    <t>various;eudaimonistic</t>
   </si>
   <si>
     <t>Space systems play an important role in today’s society by generating or transmitting information from source to sink(s). The acquisition of the space system is often justified by the type, quantity and quality of information provided or transmitted. This work posits that the value of a class of space systems derives from and can be assessed through the value of information these systems provide.</t>
@@ -4709,6 +4706,12 @@
   </si>
   <si>
     <t>improved crop profitability and avoided losses</t>
+  </si>
+  <si>
+    <t>instrumental;fundamental</t>
+  </si>
+  <si>
+    <t>instrumental;fundamental;eudaimonistic</t>
   </si>
 </sst>
 </file>
@@ -5563,10 +5566,10 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G134" sqref="G134"/>
+      <selection pane="bottomRight" activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6191,6 +6194,12 @@
       <c r="I11" s="5" t="s">
         <v>795</v>
       </c>
+      <c r="J11" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="O11" s="8" t="s">
         <v>792</v>
       </c>
@@ -6836,6 +6845,15 @@
       <c r="I23" t="s">
         <v>859</v>
       </c>
+      <c r="J23" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="O23" s="8" t="s">
         <v>855</v>
       </c>
@@ -7244,7 +7262,7 @@
         <v>887</v>
       </c>
       <c r="T30" t="s">
-        <v>890</v>
+        <v>1561</v>
       </c>
       <c r="U30" t="s">
         <v>888</v>
@@ -7279,25 +7297,25 @@
         <v>452</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P31" t="s">
         <v>626</v>
       </c>
       <c r="Q31" t="s">
+        <v>891</v>
+      </c>
+      <c r="R31" t="s">
         <v>892</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>893</v>
-      </c>
-      <c r="S31" t="s">
-        <v>894</v>
       </c>
       <c r="T31" t="s">
         <v>631</v>
       </c>
       <c r="U31" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="V31" t="s">
         <v>7</v>
@@ -7323,7 +7341,7 @@
         <v>507</v>
       </c>
       <c r="I32" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J32" t="s">
         <v>458</v>
@@ -7332,16 +7350,16 @@
         <v>454</v>
       </c>
       <c r="O32" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="P32" t="s">
         <v>896</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>897</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>898</v>
-      </c>
-      <c r="R32" t="s">
-        <v>899</v>
       </c>
       <c r="S32" t="s">
         <v>726</v>
@@ -7350,7 +7368,7 @@
         <v>736</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="V32" s="5" t="s">
         <v>7</v>
@@ -7379,7 +7397,7 @@
         <v>480</v>
       </c>
       <c r="I33" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J33" t="s">
         <v>457</v>
@@ -7388,28 +7406,28 @@
         <v>457</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="P33" t="s">
         <v>886</v>
       </c>
       <c r="Q33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R33" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="S33" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T33" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="V33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -7485,7 +7503,7 @@
         <v>466</v>
       </c>
       <c r="I35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J35" t="s">
         <v>457</v>
@@ -7494,25 +7512,25 @@
         <v>457</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="P35" t="s">
         <v>626</v>
       </c>
       <c r="Q35" t="s">
+        <v>909</v>
+      </c>
+      <c r="R35" t="s">
         <v>910</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>911</v>
-      </c>
-      <c r="S35" t="s">
-        <v>912</v>
       </c>
       <c r="T35" t="s">
         <v>631</v>
       </c>
       <c r="U35" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="V35" t="s">
         <v>7</v>
@@ -7544,25 +7562,25 @@
         <v>457</v>
       </c>
       <c r="O36" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="P36" t="s">
         <v>915</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>916</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>917</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>918</v>
-      </c>
-      <c r="S36" t="s">
-        <v>919</v>
       </c>
       <c r="T36" t="s">
         <v>631</v>
       </c>
       <c r="U36" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="V36" t="s">
         <v>7</v>
@@ -7588,7 +7606,7 @@
         <v>480</v>
       </c>
       <c r="I37" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J37" t="s">
         <v>457</v>
@@ -7597,28 +7615,28 @@
         <v>457</v>
       </c>
       <c r="O37" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="P37" t="s">
         <v>921</v>
       </c>
-      <c r="P37" t="s">
-        <v>922</v>
-      </c>
       <c r="Q37" t="s">
+        <v>923</v>
+      </c>
+      <c r="R37" t="s">
+        <v>925</v>
+      </c>
+      <c r="S37" t="s">
         <v>924</v>
-      </c>
-      <c r="R37" t="s">
-        <v>926</v>
-      </c>
-      <c r="S37" t="s">
-        <v>925</v>
       </c>
       <c r="T37" t="s">
         <v>668</v>
       </c>
       <c r="U37" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V37" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -7641,7 +7659,7 @@
         <v>466</v>
       </c>
       <c r="I38" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J38" t="s">
         <v>457</v>
@@ -7656,25 +7674,25 @@
         <v>452</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="P38" t="s">
         <v>626</v>
       </c>
       <c r="Q38" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R38" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S38" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T38" t="s">
         <v>631</v>
       </c>
       <c r="U38" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -7700,7 +7718,7 @@
         <v>467</v>
       </c>
       <c r="I39" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J39" t="s">
         <v>453</v>
@@ -7709,25 +7727,25 @@
         <v>450</v>
       </c>
       <c r="O39" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="P39" t="s">
+        <v>935</v>
+      </c>
+      <c r="R39" t="s">
         <v>934</v>
       </c>
-      <c r="P39" t="s">
-        <v>936</v>
-      </c>
-      <c r="R39" t="s">
-        <v>935</v>
-      </c>
       <c r="S39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="T39" t="s">
         <v>631</v>
       </c>
       <c r="U39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="V39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -7750,34 +7768,34 @@
         <v>466</v>
       </c>
       <c r="I40" t="s">
+        <v>943</v>
+      </c>
+      <c r="J40" t="s">
+        <v>457</v>
+      </c>
+      <c r="L40" t="s">
+        <v>457</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="P40" t="s">
+        <v>941</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>942</v>
+      </c>
+      <c r="R40" t="s">
+        <v>940</v>
+      </c>
+      <c r="S40" t="s">
         <v>944</v>
-      </c>
-      <c r="J40" t="s">
-        <v>457</v>
-      </c>
-      <c r="L40" t="s">
-        <v>457</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>940</v>
-      </c>
-      <c r="P40" t="s">
-        <v>942</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>943</v>
-      </c>
-      <c r="R40" t="s">
-        <v>941</v>
-      </c>
-      <c r="S40" t="s">
-        <v>945</v>
       </c>
       <c r="T40" t="s">
         <v>631</v>
       </c>
       <c r="U40" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="V40" t="s">
         <v>7</v>
@@ -7806,7 +7824,7 @@
         <v>475</v>
       </c>
       <c r="I41" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J41" t="s">
         <v>457</v>
@@ -7821,28 +7839,28 @@
         <v>456</v>
       </c>
       <c r="O41" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="P41" t="s">
         <v>947</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>948</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
+        <v>953</v>
+      </c>
+      <c r="S41" t="s">
+        <v>924</v>
+      </c>
+      <c r="T41" t="s">
+        <v>950</v>
+      </c>
+      <c r="U41" t="s">
+        <v>951</v>
+      </c>
+      <c r="V41" t="s">
         <v>949</v>
-      </c>
-      <c r="R41" t="s">
-        <v>954</v>
-      </c>
-      <c r="S41" t="s">
-        <v>925</v>
-      </c>
-      <c r="T41" t="s">
-        <v>951</v>
-      </c>
-      <c r="U41" t="s">
-        <v>952</v>
-      </c>
-      <c r="V41" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -7868,7 +7886,7 @@
         <v>468</v>
       </c>
       <c r="I42" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J42" t="s">
         <v>460</v>
@@ -7877,22 +7895,22 @@
         <v>452</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P42" t="s">
         <v>640</v>
       </c>
       <c r="R42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="S42" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T42" t="s">
         <v>631</v>
       </c>
       <c r="U42" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V42" t="s">
         <v>7</v>
@@ -7921,7 +7939,7 @@
         <v>466</v>
       </c>
       <c r="I43" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J43" t="s">
         <v>457</v>
@@ -7930,22 +7948,22 @@
         <v>457</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P43" t="s">
         <v>626</v>
       </c>
       <c r="R43" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="S43" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="T43" t="s">
         <v>631</v>
       </c>
       <c r="U43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="V43" t="s">
         <v>7</v>
@@ -7971,7 +7989,7 @@
         <v>466</v>
       </c>
       <c r="I44" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J44" t="s">
         <v>460</v>
@@ -7980,22 +7998,22 @@
         <v>452</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P44" t="s">
         <v>640</v>
       </c>
       <c r="R44" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="S44" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T44" t="s">
         <v>631</v>
       </c>
       <c r="U44" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V44" t="s">
         <v>7</v>
@@ -8021,7 +8039,7 @@
         <v>466</v>
       </c>
       <c r="I45" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J45" t="s">
         <v>457</v>
@@ -8036,25 +8054,25 @@
         <v>456</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="P45" t="s">
         <v>626</v>
       </c>
       <c r="Q45" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="R45" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="S45" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T45" t="s">
         <v>631</v>
       </c>
       <c r="U45" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="V45" t="s">
         <v>7</v>
@@ -8092,25 +8110,25 @@
         <v>456</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="P46" t="s">
         <v>720</v>
       </c>
       <c r="Q46" t="s">
+        <v>973</v>
+      </c>
+      <c r="R46" t="s">
         <v>974</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>975</v>
-      </c>
-      <c r="S46" t="s">
-        <v>976</v>
       </c>
       <c r="T46" t="s">
         <v>631</v>
       </c>
       <c r="U46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="V46" t="s">
         <v>7</v>
@@ -8148,25 +8166,25 @@
         <v>456</v>
       </c>
       <c r="O47" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="P47" t="s">
         <v>979</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>980</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
+        <v>982</v>
+      </c>
+      <c r="S47" t="s">
         <v>981</v>
-      </c>
-      <c r="R47" t="s">
-        <v>983</v>
-      </c>
-      <c r="S47" t="s">
-        <v>982</v>
       </c>
       <c r="T47" t="s">
         <v>631</v>
       </c>
       <c r="U47" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="V47" t="s">
         <v>7</v>
@@ -8204,22 +8222,22 @@
         <v>456</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="P48" t="s">
         <v>780</v>
       </c>
       <c r="R48" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="S48" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="T48" t="s">
         <v>631</v>
       </c>
       <c r="U48" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="V48" t="s">
         <v>7</v>
@@ -8260,22 +8278,22 @@
         <v>452</v>
       </c>
       <c r="O49" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="P49" t="s">
         <v>987</v>
       </c>
-      <c r="P49" t="s">
+      <c r="R49" t="s">
+        <v>990</v>
+      </c>
+      <c r="S49" t="s">
         <v>988</v>
-      </c>
-      <c r="R49" t="s">
-        <v>991</v>
-      </c>
-      <c r="S49" t="s">
-        <v>989</v>
       </c>
       <c r="T49" t="s">
         <v>668</v>
       </c>
       <c r="U49" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="V49" t="s">
         <v>7</v>
@@ -8301,7 +8319,7 @@
         <v>501</v>
       </c>
       <c r="I50" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J50" t="s">
         <v>457</v>
@@ -8316,25 +8334,25 @@
         <v>455</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="P50" t="s">
         <v>720</v>
       </c>
       <c r="R50" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="S50" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="T50" t="s">
         <v>631</v>
       </c>
       <c r="U50" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="V50" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -8360,7 +8378,7 @@
         <v>480</v>
       </c>
       <c r="I51" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J51" t="s">
         <v>457</v>
@@ -8369,28 +8387,28 @@
         <v>457</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="P51" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="Q51" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R51" t="s">
         <v>1001</v>
       </c>
-      <c r="R51" t="s">
-        <v>1002</v>
-      </c>
       <c r="S51" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="T51" t="s">
         <v>615</v>
       </c>
       <c r="U51" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="V51" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -8416,7 +8434,7 @@
         <v>480</v>
       </c>
       <c r="I52" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J52" t="s">
         <v>457</v>
@@ -8425,13 +8443,13 @@
         <v>457</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="P52" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="R52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="S52" t="s">
         <v>847</v>
@@ -8440,10 +8458,10 @@
         <v>668</v>
       </c>
       <c r="U52" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V52" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -8466,7 +8484,7 @@
         <v>480</v>
       </c>
       <c r="I53" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J53" t="s">
         <v>457</v>
@@ -8475,16 +8493,16 @@
         <v>457</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="T53" t="s">
         <v>668</v>
       </c>
       <c r="U53" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V53" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -8513,25 +8531,25 @@
         <v>455</v>
       </c>
       <c r="O54" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P54" t="s">
         <v>1013</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>1014</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>1015</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>1016</v>
-      </c>
-      <c r="S54" t="s">
-        <v>1017</v>
       </c>
       <c r="T54" t="s">
         <v>736</v>
       </c>
       <c r="U54" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V54" t="s">
         <v>7</v>
@@ -8569,28 +8587,28 @@
         <v>451</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P55" t="s">
         <v>1019</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>1020</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>1021</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>1022</v>
-      </c>
-      <c r="S55" t="s">
-        <v>1023</v>
       </c>
       <c r="T55" t="s">
         <v>615</v>
       </c>
       <c r="U55" t="s">
+        <v>1023</v>
+      </c>
+      <c r="V55" t="s">
         <v>1024</v>
-      </c>
-      <c r="V55" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -8613,7 +8631,7 @@
         <v>501</v>
       </c>
       <c r="I56" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J56" t="s">
         <v>458</v>
@@ -8622,25 +8640,25 @@
         <v>454</v>
       </c>
       <c r="O56" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R56" t="s">
         <v>1026</v>
       </c>
-      <c r="P56" t="s">
+      <c r="S56" t="s">
         <v>1028</v>
-      </c>
-      <c r="R56" t="s">
-        <v>1027</v>
-      </c>
-      <c r="S56" t="s">
-        <v>1029</v>
       </c>
       <c r="T56" t="s">
         <v>668</v>
       </c>
       <c r="U56" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V56" t="s">
         <v>1030</v>
-      </c>
-      <c r="V56" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -8669,25 +8687,25 @@
         <v>455</v>
       </c>
       <c r="O57" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P57" t="s">
         <v>1033</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>1034</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>1035</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>1036</v>
-      </c>
-      <c r="S57" t="s">
-        <v>1037</v>
       </c>
       <c r="T57" t="s">
         <v>631</v>
       </c>
       <c r="U57" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V57" t="s">
         <v>7</v>
@@ -8766,7 +8784,7 @@
         <v>474</v>
       </c>
       <c r="I59" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J59" t="s">
         <v>462</v>
@@ -8781,19 +8799,19 @@
         <v>451</v>
       </c>
       <c r="O59" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P59" t="s">
         <v>1039</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>1040</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>1041</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>1042</v>
-      </c>
-      <c r="S59" t="s">
-        <v>1043</v>
       </c>
       <c r="T59" t="s">
         <v>668</v>
@@ -8802,7 +8820,7 @@
         <v>41</v>
       </c>
       <c r="V59" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -8831,16 +8849,16 @@
         <v>456</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="P60" t="s">
         <v>720</v>
       </c>
       <c r="Q60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R60" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="S60" t="s">
         <v>726</v>
@@ -8849,7 +8867,7 @@
         <v>668</v>
       </c>
       <c r="U60" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="V60" t="s">
         <v>7</v>
@@ -8875,7 +8893,7 @@
         <v>466</v>
       </c>
       <c r="I61" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J61" t="s">
         <v>461</v>
@@ -8890,16 +8908,16 @@
         <v>457</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="P61" t="s">
         <v>626</v>
       </c>
       <c r="Q61" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R61" t="s">
         <v>1051</v>
-      </c>
-      <c r="R61" t="s">
-        <v>1052</v>
       </c>
       <c r="S61" t="s">
         <v>812</v>
@@ -8908,7 +8926,7 @@
         <v>631</v>
       </c>
       <c r="U61" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="V61" t="s">
         <v>7</v>
@@ -8934,7 +8952,7 @@
         <v>480</v>
       </c>
       <c r="I62" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J62" t="s">
         <v>457</v>
@@ -8949,28 +8967,28 @@
         <v>452</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="P62" t="s">
         <v>651</v>
       </c>
       <c r="Q62" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="R62" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S62" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="T62" t="s">
         <v>736</v>
       </c>
       <c r="U62" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V62" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -8993,7 +9011,7 @@
         <v>466</v>
       </c>
       <c r="I63" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="J63" t="s">
         <v>457</v>
@@ -9008,25 +9026,25 @@
         <v>452</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="P63" t="s">
         <v>626</v>
       </c>
       <c r="Q63" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R63" t="s">
         <v>1063</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>1064</v>
-      </c>
-      <c r="S63" t="s">
-        <v>1065</v>
       </c>
       <c r="T63" t="s">
         <v>736</v>
       </c>
       <c r="U63" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V63" t="s">
         <v>7</v>
@@ -9055,10 +9073,19 @@
         <v>467</v>
       </c>
       <c r="I64" t="s">
-        <v>1069</v>
+        <v>1068</v>
+      </c>
+      <c r="J64" t="s">
+        <v>511</v>
+      </c>
+      <c r="L64" t="s">
+        <v>511</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
+      </c>
+      <c r="T64" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -9081,7 +9108,7 @@
         <v>468</v>
       </c>
       <c r="I65" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="J65" t="s">
         <v>453</v>
@@ -9090,13 +9117,13 @@
         <v>453</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P65" t="s">
         <v>780</v>
       </c>
       <c r="R65" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="S65" t="s">
         <v>726</v>
@@ -9105,7 +9132,7 @@
         <v>631</v>
       </c>
       <c r="U65" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="V65" t="s">
         <v>7</v>
@@ -9193,7 +9220,7 @@
         <v>480</v>
       </c>
       <c r="I67" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J67" t="s">
         <v>457</v>
@@ -9205,28 +9232,28 @@
         <v>457</v>
       </c>
       <c r="O67" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="P67" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="Q67" s="5" t="s">
         <v>1075</v>
       </c>
-      <c r="Q67" s="5" t="s">
+      <c r="R67" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="R67" s="5" t="s">
-        <v>1077</v>
-      </c>
       <c r="S67" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="T67" s="5" t="s">
         <v>615</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="V67" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -9249,7 +9276,7 @@
         <v>466</v>
       </c>
       <c r="I68" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="J68" t="s">
         <v>461</v>
@@ -9258,25 +9285,25 @@
         <v>455</v>
       </c>
       <c r="O68" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="P68" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="Q68" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="R68" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="R68" s="5" t="s">
-        <v>1085</v>
-      </c>
       <c r="S68" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="T68" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>7</v>
@@ -9302,34 +9329,34 @@
         <v>466</v>
       </c>
       <c r="I69" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J69" t="s">
+        <v>457</v>
+      </c>
+      <c r="L69" t="s">
+        <v>457</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="R69" t="s">
+        <v>1091</v>
+      </c>
+      <c r="S69" s="5" t="s">
         <v>1092</v>
-      </c>
-      <c r="J69" t="s">
-        <v>457</v>
-      </c>
-      <c r="L69" t="s">
-        <v>457</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="P69" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>1091</v>
-      </c>
-      <c r="R69" t="s">
-        <v>1092</v>
-      </c>
-      <c r="S69" s="5" t="s">
-        <v>1093</v>
       </c>
       <c r="T69" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>7</v>
@@ -9408,34 +9435,34 @@
         <v>466</v>
       </c>
       <c r="I71" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J71" t="s">
+        <v>457</v>
+      </c>
+      <c r="L71" t="s">
+        <v>457</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q71" t="s">
         <v>1099</v>
       </c>
-      <c r="J71" t="s">
-        <v>457</v>
-      </c>
-      <c r="L71" t="s">
-        <v>457</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="P71" t="s">
+      <c r="R71" t="s">
+        <v>1097</v>
+      </c>
+      <c r="S71" t="s">
         <v>1096</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>1100</v>
-      </c>
-      <c r="R71" t="s">
-        <v>1098</v>
-      </c>
-      <c r="S71" t="s">
-        <v>1097</v>
       </c>
       <c r="T71" t="s">
         <v>631</v>
       </c>
       <c r="U71" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="V71" t="s">
         <v>7</v>
@@ -9461,7 +9488,7 @@
         <v>469</v>
       </c>
       <c r="I72" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J72" t="s">
         <v>511</v>
@@ -9470,13 +9497,13 @@
         <v>511</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="P72" t="s">
         <v>720</v>
       </c>
       <c r="R72" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="S72" t="s">
         <v>41</v>
@@ -9485,7 +9512,7 @@
         <v>631</v>
       </c>
       <c r="U72" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V72" t="s">
         <v>7</v>
@@ -9517,25 +9544,25 @@
         <v>456</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P73" t="s">
         <v>626</v>
       </c>
       <c r="Q73" t="s">
+        <v>1106</v>
+      </c>
+      <c r="R73" t="s">
         <v>1107</v>
       </c>
-      <c r="R73" t="s">
-        <v>1108</v>
-      </c>
       <c r="S73" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="T73" t="s">
         <v>668</v>
       </c>
       <c r="U73" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="V73" t="s">
         <v>7</v>
@@ -9564,7 +9591,7 @@
         <v>469</v>
       </c>
       <c r="I74" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J74" t="s">
         <v>511</v>
@@ -9573,22 +9600,22 @@
         <v>511</v>
       </c>
       <c r="O74" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="P74" t="s">
         <v>1110</v>
       </c>
-      <c r="P74" t="s">
+      <c r="R74" t="s">
         <v>1111</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>1112</v>
-      </c>
-      <c r="S74" t="s">
-        <v>1113</v>
       </c>
       <c r="T74" t="s">
         <v>631</v>
       </c>
       <c r="U74" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V74" t="s">
         <v>7</v>
@@ -9614,7 +9641,7 @@
         <v>480</v>
       </c>
       <c r="I75" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J75" t="s">
         <v>463</v>
@@ -9626,25 +9653,25 @@
         <v>456</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="P75" t="s">
         <v>640</v>
       </c>
       <c r="Q75" t="s">
+        <v>1116</v>
+      </c>
+      <c r="S75" t="s">
         <v>1117</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
+        <v>1119</v>
+      </c>
+      <c r="U75" t="s">
+        <v>1120</v>
+      </c>
+      <c r="V75" t="s">
         <v>1118</v>
-      </c>
-      <c r="T75" t="s">
-        <v>1120</v>
-      </c>
-      <c r="U75" t="s">
-        <v>1121</v>
-      </c>
-      <c r="V75" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -9667,7 +9694,7 @@
         <v>480</v>
       </c>
       <c r="I76" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J76" t="s">
         <v>457</v>
@@ -9676,28 +9703,28 @@
         <v>457</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="P76" t="s">
         <v>712</v>
       </c>
       <c r="Q76" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R76" t="s">
         <v>1126</v>
       </c>
-      <c r="R76" t="s">
-        <v>1127</v>
-      </c>
       <c r="S76" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="T76" t="s">
         <v>736</v>
       </c>
       <c r="U76" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="V76" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -9726,16 +9753,16 @@
         <v>450</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P77" t="s">
         <v>626</v>
       </c>
       <c r="Q77" t="s">
+        <v>1129</v>
+      </c>
+      <c r="R77" t="s">
         <v>1130</v>
-      </c>
-      <c r="R77" t="s">
-        <v>1131</v>
       </c>
       <c r="S77" t="s">
         <v>854</v>
@@ -9744,7 +9771,7 @@
         <v>631</v>
       </c>
       <c r="U77" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V77" t="s">
         <v>7</v>
@@ -9773,7 +9800,7 @@
         <v>467</v>
       </c>
       <c r="I78" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="J78" t="s">
         <v>457</v>
@@ -9782,19 +9809,19 @@
         <v>457</v>
       </c>
       <c r="O78" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q78" t="s">
         <v>1133</v>
-      </c>
-      <c r="P78" t="s">
-        <v>1090</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>1134</v>
       </c>
       <c r="T78" t="s">
         <v>631</v>
       </c>
       <c r="U78" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="V78" t="s">
         <v>7</v>
@@ -9826,25 +9853,25 @@
         <v>456</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="P79" t="s">
         <v>752</v>
       </c>
       <c r="Q79" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="R79" t="s">
+        <v>1136</v>
+      </c>
+      <c r="S79" t="s">
         <v>1137</v>
-      </c>
-      <c r="S79" t="s">
-        <v>1138</v>
       </c>
       <c r="T79" t="s">
         <v>668</v>
       </c>
       <c r="U79" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -9870,7 +9897,7 @@
         <v>468</v>
       </c>
       <c r="I80" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J80" t="s">
         <v>457</v>
@@ -9879,16 +9906,16 @@
         <v>457</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="P80" t="s">
         <v>626</v>
       </c>
       <c r="Q80" t="s">
+        <v>1143</v>
+      </c>
+      <c r="R80" t="s">
         <v>1144</v>
-      </c>
-      <c r="R80" t="s">
-        <v>1145</v>
       </c>
       <c r="S80" t="s">
         <v>847</v>
@@ -9897,7 +9924,7 @@
         <v>631</v>
       </c>
       <c r="U80" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V80" t="s">
         <v>7</v>
@@ -9923,7 +9950,7 @@
         <v>501</v>
       </c>
       <c r="I81" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J81" t="s">
         <v>511</v>
@@ -9932,25 +9959,25 @@
         <v>511</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="P81" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="R81" t="s">
+        <v>1149</v>
+      </c>
+      <c r="S81" t="s">
         <v>1150</v>
-      </c>
-      <c r="S81" t="s">
-        <v>1151</v>
       </c>
       <c r="T81" t="s">
         <v>631</v>
       </c>
       <c r="U81" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V81" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
@@ -9976,7 +10003,7 @@
         <v>501</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J82" t="s">
         <v>457</v>
@@ -9985,28 +10012,28 @@
         <v>457</v>
       </c>
       <c r="O82" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="P82" t="s">
+        <v>979</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1154</v>
+      </c>
+      <c r="R82" t="s">
         <v>1153</v>
       </c>
-      <c r="P82" t="s">
-        <v>980</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>1155</v>
-      </c>
-      <c r="R82" t="s">
-        <v>1154</v>
-      </c>
       <c r="S82" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="T82" t="s">
         <v>631</v>
       </c>
       <c r="U82" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V82" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -10029,7 +10056,7 @@
         <v>467</v>
       </c>
       <c r="I83" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J83" t="s">
         <v>463</v>
@@ -10041,22 +10068,22 @@
         <v>456</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P83" t="s">
         <v>720</v>
       </c>
       <c r="Q83" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R83" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="T83" t="s">
         <v>831</v>
       </c>
       <c r="U83" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="V83" t="s">
         <v>7</v>
@@ -10088,25 +10115,25 @@
         <v>457</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="P84" t="s">
         <v>626</v>
       </c>
       <c r="Q84" t="s">
+        <v>1164</v>
+      </c>
+      <c r="R84" t="s">
         <v>1165</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>1166</v>
-      </c>
-      <c r="S84" t="s">
-        <v>1167</v>
       </c>
       <c r="T84" t="s">
         <v>631</v>
       </c>
       <c r="U84" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V84" t="s">
         <v>7</v>
@@ -10132,7 +10159,7 @@
         <v>466</v>
       </c>
       <c r="I85" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J85" t="s">
         <v>457</v>
@@ -10141,25 +10168,25 @@
         <v>457</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="P85" t="s">
         <v>626</v>
       </c>
       <c r="Q85" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="R85" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="S85" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T85" t="s">
         <v>631</v>
       </c>
       <c r="U85" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -10182,7 +10209,7 @@
         <v>466</v>
       </c>
       <c r="I86" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J86" t="s">
         <v>511</v>
@@ -10191,25 +10218,25 @@
         <v>511</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="P86" t="s">
         <v>626</v>
       </c>
       <c r="Q86" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="R86" t="s">
+        <v>1174</v>
+      </c>
+      <c r="S86" t="s">
         <v>1175</v>
-      </c>
-      <c r="S86" t="s">
-        <v>1176</v>
       </c>
       <c r="T86" t="s">
         <v>631</v>
       </c>
       <c r="U86" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -10232,7 +10259,7 @@
         <v>466</v>
       </c>
       <c r="I87" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="J87" t="s">
         <v>457</v>
@@ -10241,25 +10268,25 @@
         <v>457</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="P87" t="s">
         <v>806</v>
       </c>
       <c r="Q87" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R87" t="s">
         <v>1180</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>1181</v>
-      </c>
-      <c r="S87" t="s">
-        <v>1182</v>
       </c>
       <c r="T87" t="s">
         <v>631</v>
       </c>
       <c r="U87" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V87" t="s">
         <v>7</v>
@@ -10335,7 +10362,7 @@
         <v>501</v>
       </c>
       <c r="I89" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="J89" t="s">
         <v>457</v>
@@ -10344,28 +10371,28 @@
         <v>457</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="P89" t="s">
         <v>626</v>
       </c>
       <c r="Q89" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R89" t="s">
         <v>1186</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>1187</v>
-      </c>
-      <c r="S89" t="s">
-        <v>1188</v>
       </c>
       <c r="T89" t="s">
         <v>631</v>
       </c>
       <c r="U89" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="V89" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -10438,7 +10465,7 @@
         <v>501</v>
       </c>
       <c r="I91" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="J91" t="s">
         <v>462</v>
@@ -10447,25 +10474,25 @@
         <v>509</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="P91" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="R91" t="s">
+        <v>1193</v>
+      </c>
+      <c r="S91" t="s">
         <v>1194</v>
-      </c>
-      <c r="S91" t="s">
-        <v>1195</v>
       </c>
       <c r="T91" t="s">
         <v>631</v>
       </c>
       <c r="U91" t="s">
+        <v>1195</v>
+      </c>
+      <c r="V91" t="s">
         <v>1196</v>
-      </c>
-      <c r="V91" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -10488,7 +10515,7 @@
         <v>466</v>
       </c>
       <c r="I92" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J92" t="s">
         <v>462</v>
@@ -10497,22 +10524,22 @@
         <v>509</v>
       </c>
       <c r="O92" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P92" t="s">
         <v>1199</v>
       </c>
-      <c r="P92" t="s">
+      <c r="R92" t="s">
+        <v>1197</v>
+      </c>
+      <c r="S92" t="s">
         <v>1200</v>
-      </c>
-      <c r="R92" t="s">
-        <v>1198</v>
-      </c>
-      <c r="S92" t="s">
-        <v>1201</v>
       </c>
       <c r="T92" t="s">
         <v>631</v>
       </c>
       <c r="U92" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="V92" t="s">
         <v>7</v>
@@ -10544,25 +10571,25 @@
         <v>455</v>
       </c>
       <c r="O93" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>1206</v>
+      </c>
+      <c r="R93" t="s">
+        <v>1207</v>
+      </c>
+      <c r="S93" t="s">
         <v>1204</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1206</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>1207</v>
-      </c>
-      <c r="R93" t="s">
-        <v>1208</v>
-      </c>
-      <c r="S93" t="s">
-        <v>1205</v>
       </c>
       <c r="T93" t="s">
         <v>736</v>
       </c>
       <c r="U93" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V93" t="s">
         <v>7</v>
@@ -10644,7 +10671,7 @@
         <v>507</v>
       </c>
       <c r="I95" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="J95" t="s">
         <v>457</v>
@@ -10653,13 +10680,13 @@
         <v>457</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P95" t="s">
         <v>626</v>
       </c>
       <c r="R95" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="S95" t="s">
         <v>847</v>
@@ -10668,10 +10695,10 @@
         <v>631</v>
       </c>
       <c r="U95" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="V95" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -10694,7 +10721,7 @@
         <v>480</v>
       </c>
       <c r="I96" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J96" t="s">
         <v>457</v>
@@ -10706,25 +10733,25 @@
         <v>451</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="P96" t="s">
         <v>784</v>
       </c>
       <c r="Q96" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="S96" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="T96" t="s">
         <v>631</v>
       </c>
       <c r="U96" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="V96" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -10803,7 +10830,7 @@
         <v>466</v>
       </c>
       <c r="I98" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J98" t="s">
         <v>462</v>
@@ -10818,25 +10845,25 @@
         <v>511</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="P98" t="s">
         <v>626</v>
       </c>
       <c r="R98" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="S98" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="T98" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="U98" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="V98" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -10859,34 +10886,34 @@
         <v>466</v>
       </c>
       <c r="I99" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J99" t="s">
+        <v>457</v>
+      </c>
+      <c r="L99" t="s">
+        <v>457</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P99" t="s">
         <v>1229</v>
       </c>
-      <c r="J99" t="s">
-        <v>457</v>
-      </c>
-      <c r="L99" t="s">
-        <v>457</v>
-      </c>
-      <c r="O99" s="8" t="s">
+      <c r="Q99" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R99" t="s">
         <v>1227</v>
       </c>
-      <c r="P99" t="s">
-        <v>1230</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>1231</v>
-      </c>
-      <c r="R99" t="s">
-        <v>1228</v>
-      </c>
       <c r="S99" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T99" t="s">
         <v>631</v>
       </c>
       <c r="U99" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="V99" t="s">
         <v>7</v>
@@ -10918,25 +10945,25 @@
         <v>509</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P100" t="s">
         <v>626</v>
       </c>
       <c r="Q100" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R100" t="s">
         <v>1234</v>
       </c>
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>1235</v>
-      </c>
-      <c r="S100" t="s">
-        <v>1236</v>
       </c>
       <c r="T100" t="s">
         <v>631</v>
       </c>
       <c r="U100" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="V100" t="s">
         <v>7</v>
@@ -10965,7 +10992,7 @@
         <v>507</v>
       </c>
       <c r="I101" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="J101" t="s">
         <v>461</v>
@@ -10974,25 +11001,25 @@
         <v>455</v>
       </c>
       <c r="O101" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P101" t="s">
         <v>1238</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>1239</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="R101" t="s">
         <v>1240</v>
       </c>
-      <c r="R101" t="s">
-        <v>1241</v>
-      </c>
       <c r="S101" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T101" t="s">
         <v>668</v>
       </c>
       <c r="U101" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V101" t="s">
         <v>7</v>
@@ -11021,7 +11048,7 @@
         <v>507</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="J102" t="s">
         <v>457</v>
@@ -11030,28 +11057,28 @@
         <v>457</v>
       </c>
       <c r="O102" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P102" t="s">
         <v>1244</v>
       </c>
-      <c r="P102" t="s">
+      <c r="Q102" t="s">
         <v>1245</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="R102" t="s">
         <v>1246</v>
       </c>
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>1247</v>
-      </c>
-      <c r="S102" t="s">
-        <v>1248</v>
       </c>
       <c r="T102" t="s">
         <v>631</v>
       </c>
       <c r="U102" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="V102" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -11189,7 +11216,7 @@
         <v>474</v>
       </c>
       <c r="I105" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J105" t="s">
         <v>457</v>
@@ -11198,28 +11225,28 @@
         <v>457</v>
       </c>
       <c r="O105" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="P105" t="s">
         <v>1252</v>
       </c>
-      <c r="P105" t="s">
+      <c r="Q105" t="s">
         <v>1253</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="R105" t="s">
         <v>1254</v>
       </c>
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>1255</v>
-      </c>
-      <c r="S105" t="s">
-        <v>1256</v>
       </c>
       <c r="T105" t="s">
         <v>668</v>
       </c>
       <c r="U105" t="s">
+        <v>1257</v>
+      </c>
+      <c r="V105" t="s">
         <v>1258</v>
-      </c>
-      <c r="V105" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -11248,22 +11275,22 @@
         <v>511</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="P106" t="s">
         <v>780</v>
       </c>
       <c r="R106" t="s">
+        <v>1260</v>
+      </c>
+      <c r="S106" t="s">
         <v>1261</v>
-      </c>
-      <c r="S106" t="s">
-        <v>1262</v>
       </c>
       <c r="T106" t="s">
         <v>631</v>
       </c>
       <c r="U106" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="V106" t="s">
         <v>7</v>
@@ -11345,7 +11372,7 @@
         <v>467</v>
       </c>
       <c r="I108" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="J108" t="s">
         <v>453</v>
@@ -11360,25 +11387,25 @@
         <v>455</v>
       </c>
       <c r="O108" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="P108" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q108" t="s">
         <v>1264</v>
       </c>
-      <c r="P108" t="s">
-        <v>916</v>
-      </c>
-      <c r="Q108" t="s">
+      <c r="S108" t="s">
         <v>1265</v>
-      </c>
-      <c r="S108" t="s">
-        <v>1266</v>
       </c>
       <c r="T108" t="s">
         <v>631</v>
       </c>
       <c r="U108" t="s">
+        <v>1267</v>
+      </c>
+      <c r="V108" t="s">
         <v>1268</v>
-      </c>
-      <c r="V108" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -11401,7 +11428,7 @@
         <v>507</v>
       </c>
       <c r="I109" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J109" t="s">
         <v>462</v>
@@ -11410,16 +11437,16 @@
         <v>509</v>
       </c>
       <c r="O109" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="S109" t="s">
         <v>1270</v>
-      </c>
-      <c r="S109" t="s">
-        <v>1271</v>
       </c>
       <c r="T109" t="s">
         <v>668</v>
       </c>
       <c r="U109" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="V109" t="s">
         <v>7</v>
@@ -11448,7 +11475,7 @@
         <v>501</v>
       </c>
       <c r="I110" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="J110" t="s">
         <v>511</v>
@@ -11457,13 +11484,13 @@
         <v>511</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="P110" t="s">
         <v>640</v>
       </c>
       <c r="Q110" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="S110" t="s">
         <v>708</v>
@@ -11472,10 +11499,10 @@
         <v>631</v>
       </c>
       <c r="U110" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V110" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -11498,7 +11525,7 @@
         <v>465</v>
       </c>
       <c r="I111" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="J111" t="s">
         <v>462</v>
@@ -11507,22 +11534,22 @@
         <v>509</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="P111" t="s">
         <v>780</v>
       </c>
       <c r="R111" t="s">
+        <v>1279</v>
+      </c>
+      <c r="S111" t="s">
         <v>1280</v>
-      </c>
-      <c r="S111" t="s">
-        <v>1281</v>
       </c>
       <c r="T111" t="s">
         <v>631</v>
       </c>
       <c r="U111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="V111" t="s">
         <v>7</v>
@@ -11554,25 +11581,25 @@
         <v>457</v>
       </c>
       <c r="O112" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P112" t="s">
         <v>1283</v>
       </c>
-      <c r="P112" t="s">
+      <c r="Q112" t="s">
         <v>1284</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="R112" t="s">
         <v>1285</v>
       </c>
-      <c r="R112" t="s">
+      <c r="S112" t="s">
         <v>1286</v>
-      </c>
-      <c r="S112" t="s">
-        <v>1287</v>
       </c>
       <c r="T112" t="s">
         <v>631</v>
       </c>
       <c r="U112" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -11595,7 +11622,7 @@
         <v>480</v>
       </c>
       <c r="I113" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="J113" t="s">
         <v>511</v>
@@ -11604,19 +11631,19 @@
         <v>511</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="S113" t="s">
         <v>708</v>
       </c>
       <c r="T113" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="U113" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="V113" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
@@ -11648,22 +11675,22 @@
         <v>453</v>
       </c>
       <c r="O114" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="P114" t="s">
         <v>1293</v>
       </c>
-      <c r="P114" t="s">
+      <c r="R114" t="s">
         <v>1294</v>
       </c>
-      <c r="R114" t="s">
+      <c r="S114" t="s">
         <v>1295</v>
-      </c>
-      <c r="S114" t="s">
-        <v>1296</v>
       </c>
       <c r="T114" t="s">
         <v>668</v>
       </c>
       <c r="U114" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="V114" t="s">
         <v>7</v>
@@ -11695,25 +11722,25 @@
         <v>457</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="P115" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="R115" t="s">
+        <v>1299</v>
+      </c>
+      <c r="S115" t="s">
         <v>1300</v>
-      </c>
-      <c r="S115" t="s">
-        <v>1301</v>
       </c>
       <c r="T115" t="s">
         <v>631</v>
       </c>
       <c r="U115" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="V115" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
@@ -11742,19 +11769,19 @@
         <v>511</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="P116" t="s">
         <v>780</v>
       </c>
       <c r="S116" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="T116" t="s">
+        <v>1303</v>
+      </c>
+      <c r="U116" t="s">
         <v>1304</v>
-      </c>
-      <c r="U116" t="s">
-        <v>1305</v>
       </c>
       <c r="V116" t="s">
         <v>7</v>
@@ -11780,7 +11807,7 @@
         <v>467</v>
       </c>
       <c r="I117" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J117" t="s">
         <v>511</v>
@@ -11789,19 +11816,19 @@
         <v>511</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="P117" t="s">
         <v>712</v>
       </c>
       <c r="S117" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="T117" t="s">
         <v>647</v>
       </c>
       <c r="U117" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="V117" t="s">
         <v>7</v>
@@ -11842,22 +11869,22 @@
         <v>511</v>
       </c>
       <c r="O118" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P118" t="s">
+        <v>1309</v>
+      </c>
+      <c r="S118" t="s">
         <v>1311</v>
-      </c>
-      <c r="P118" t="s">
-        <v>1310</v>
-      </c>
-      <c r="S118" t="s">
-        <v>1312</v>
       </c>
       <c r="T118" t="s">
         <v>668</v>
       </c>
       <c r="U118" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="V118" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
@@ -11880,7 +11907,7 @@
         <v>466</v>
       </c>
       <c r="I119" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J119" t="s">
         <v>457</v>
@@ -11889,25 +11916,25 @@
         <v>457</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="P119" t="s">
         <v>784</v>
       </c>
       <c r="Q119" t="s">
+        <v>1316</v>
+      </c>
+      <c r="R119" t="s">
         <v>1317</v>
       </c>
-      <c r="R119" t="s">
-        <v>1318</v>
-      </c>
       <c r="S119" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="T119" t="s">
         <v>631</v>
       </c>
       <c r="U119" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="V119" t="s">
         <v>7</v>
@@ -11936,7 +11963,7 @@
         <v>467</v>
       </c>
       <c r="I120" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="J120" t="s">
         <v>457</v>
@@ -11945,25 +11972,25 @@
         <v>457</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="P120" t="s">
         <v>806</v>
       </c>
       <c r="Q120" t="s">
+        <v>1320</v>
+      </c>
+      <c r="R120" t="s">
         <v>1321</v>
       </c>
-      <c r="R120" t="s">
+      <c r="S120" t="s">
         <v>1322</v>
-      </c>
-      <c r="S120" t="s">
-        <v>1323</v>
       </c>
       <c r="T120" t="s">
         <v>631</v>
       </c>
       <c r="U120" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="V120" t="s">
         <v>7</v>
@@ -11989,7 +12016,7 @@
         <v>466</v>
       </c>
       <c r="I121" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J121" t="s">
         <v>457</v>
@@ -11998,16 +12025,16 @@
         <v>457</v>
       </c>
       <c r="O121" s="8" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="P121" t="s">
         <v>784</v>
       </c>
       <c r="Q121" t="s">
+        <v>1326</v>
+      </c>
+      <c r="R121" t="s">
         <v>1327</v>
-      </c>
-      <c r="R121" t="s">
-        <v>1328</v>
       </c>
       <c r="S121" t="s">
         <v>787</v>
@@ -12016,7 +12043,7 @@
         <v>631</v>
       </c>
       <c r="U121" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="V121" t="s">
         <v>7</v>
@@ -12045,7 +12072,7 @@
         <v>467</v>
       </c>
       <c r="I122" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="J122" t="s">
         <v>511</v>
@@ -12054,19 +12081,19 @@
         <v>511</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="P122" t="s">
         <v>712</v>
       </c>
       <c r="S122" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="T122" t="s">
         <v>631</v>
       </c>
       <c r="U122" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="V122" t="s">
         <v>7</v>
@@ -12098,13 +12125,13 @@
         <v>453</v>
       </c>
       <c r="O123" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="P123" t="s">
         <v>1335</v>
       </c>
-      <c r="P123" t="s">
+      <c r="Q123" t="s">
         <v>1336</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>1337</v>
       </c>
       <c r="S123" t="s">
         <v>854</v>
@@ -12113,7 +12140,7 @@
         <v>631</v>
       </c>
       <c r="U123" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="V123" t="s">
         <v>7</v>
@@ -12145,19 +12172,19 @@
         <v>454</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="P124" t="s">
         <v>626</v>
       </c>
       <c r="S124" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="T124" t="s">
         <v>668</v>
       </c>
       <c r="U124" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="V124" t="s">
         <v>7</v>
@@ -12292,7 +12319,7 @@
         <v>501</v>
       </c>
       <c r="I127" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J127" t="s">
         <v>462</v>
@@ -12301,25 +12328,25 @@
         <v>509</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="P127" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="R127" t="s">
+        <v>1343</v>
+      </c>
+      <c r="S127" t="s">
         <v>1344</v>
-      </c>
-      <c r="S127" t="s">
-        <v>1345</v>
       </c>
       <c r="T127" t="s">
         <v>631</v>
       </c>
       <c r="U127" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V127" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -12345,7 +12372,7 @@
         <v>467</v>
       </c>
       <c r="I128" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="J128" t="s">
         <v>458</v>
@@ -12360,25 +12387,25 @@
         <v>457</v>
       </c>
       <c r="O128" s="8" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="P128" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q128" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="R128" t="s">
+        <v>1349</v>
+      </c>
+      <c r="S128" t="s">
         <v>1350</v>
-      </c>
-      <c r="S128" t="s">
-        <v>1351</v>
       </c>
       <c r="T128" t="s">
         <v>631</v>
       </c>
       <c r="U128" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="V128" t="s">
         <v>7</v>
@@ -12404,7 +12431,7 @@
         <v>466</v>
       </c>
       <c r="I129" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J129" t="s">
         <v>457</v>
@@ -12413,25 +12440,25 @@
         <v>457</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="P129" t="s">
         <v>658</v>
       </c>
       <c r="Q129" t="s">
+        <v>1354</v>
+      </c>
+      <c r="R129" t="s">
         <v>1355</v>
       </c>
-      <c r="R129" t="s">
-        <v>1356</v>
-      </c>
       <c r="S129" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="T129" t="s">
         <v>631</v>
       </c>
       <c r="U129" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="V129" t="s">
         <v>7</v>
@@ -12463,25 +12490,25 @@
         <v>457</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="P130" t="s">
         <v>700</v>
       </c>
       <c r="Q130" t="s">
+        <v>1359</v>
+      </c>
+      <c r="R130" t="s">
         <v>1360</v>
       </c>
-      <c r="R130" t="s">
+      <c r="S130" t="s">
         <v>1361</v>
-      </c>
-      <c r="S130" t="s">
-        <v>1362</v>
       </c>
       <c r="T130" t="s">
         <v>631</v>
       </c>
       <c r="U130" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="V130" t="s">
         <v>7</v>
@@ -12513,22 +12540,22 @@
         <v>455</v>
       </c>
       <c r="O131" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="P131" t="s">
         <v>626</v>
       </c>
       <c r="Q131" t="s">
+        <v>1364</v>
+      </c>
+      <c r="S131" t="s">
         <v>1365</v>
-      </c>
-      <c r="S131" t="s">
-        <v>1366</v>
       </c>
       <c r="T131" t="s">
         <v>631</v>
       </c>
       <c r="U131" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="V131" t="s">
         <v>7</v>
@@ -12563,25 +12590,25 @@
         <v>509</v>
       </c>
       <c r="O132" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="P132" t="s">
         <v>1368</v>
       </c>
-      <c r="P132" t="s">
+      <c r="Q132" t="s">
         <v>1369</v>
       </c>
-      <c r="Q132" t="s">
+      <c r="R132" t="s">
         <v>1370</v>
       </c>
-      <c r="R132" t="s">
-        <v>1371</v>
-      </c>
       <c r="S132" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="T132" t="s">
         <v>668</v>
       </c>
       <c r="U132" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="V132" t="s">
         <v>7</v>
@@ -12616,22 +12643,22 @@
         <v>509</v>
       </c>
       <c r="O133" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="P133" t="s">
+        <v>1262</v>
+      </c>
+      <c r="Q133" t="s">
         <v>1373</v>
       </c>
-      <c r="P133" t="s">
-        <v>1263</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>1374</v>
-      </c>
       <c r="S133" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T133" t="s">
         <v>631</v>
       </c>
       <c r="U133" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
@@ -12654,7 +12681,7 @@
         <v>474</v>
       </c>
       <c r="I134" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="J134" t="s">
         <v>509</v>
@@ -12663,19 +12690,19 @@
         <v>509</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="S134" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="T134" t="s">
         <v>631</v>
       </c>
       <c r="U134" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="V134" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
@@ -12704,19 +12731,19 @@
         <v>457</v>
       </c>
       <c r="O135" s="8" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="P135" t="s">
         <v>780</v>
       </c>
       <c r="S135" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="T135" t="s">
         <v>631</v>
       </c>
       <c r="U135" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="V135" t="s">
         <v>7</v>
@@ -12742,7 +12769,7 @@
         <v>466</v>
       </c>
       <c r="I136" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="J136" t="s">
         <v>463</v>
@@ -12754,25 +12781,25 @@
         <v>456</v>
       </c>
       <c r="O136" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="P136" t="s">
         <v>1384</v>
       </c>
-      <c r="P136" t="s">
+      <c r="Q136" t="s">
         <v>1385</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="R136" t="s">
         <v>1386</v>
       </c>
-      <c r="R136" t="s">
+      <c r="S136" t="s">
         <v>1387</v>
       </c>
-      <c r="S136" t="s">
+      <c r="T136" t="s">
         <v>1388</v>
       </c>
-      <c r="T136" t="s">
+      <c r="U136" t="s">
         <v>1389</v>
-      </c>
-      <c r="U136" t="s">
-        <v>1390</v>
       </c>
       <c r="V136" t="s">
         <v>7</v>
@@ -12798,7 +12825,7 @@
         <v>466</v>
       </c>
       <c r="I137" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="J137" t="s">
         <v>511</v>
@@ -12807,16 +12834,16 @@
         <v>511</v>
       </c>
       <c r="O137" s="8" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="S137" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="T137" t="s">
         <v>668</v>
       </c>
       <c r="U137" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="V137" t="s">
         <v>7</v>
@@ -12842,7 +12869,7 @@
         <v>466</v>
       </c>
       <c r="I138" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J138" t="s">
         <v>460</v>
@@ -12857,25 +12884,25 @@
         <v>457</v>
       </c>
       <c r="O138" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="P138" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q138" t="s">
         <v>1395</v>
       </c>
-      <c r="P138" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Q138" t="s">
+      <c r="R138" t="s">
         <v>1396</v>
       </c>
-      <c r="R138" t="s">
+      <c r="S138" t="s">
         <v>1397</v>
-      </c>
-      <c r="S138" t="s">
-        <v>1398</v>
       </c>
       <c r="T138" t="s">
         <v>668</v>
       </c>
       <c r="U138" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="V138" t="s">
         <v>7</v>
@@ -12907,16 +12934,16 @@
         <v>454</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="S139" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="T139" t="s">
         <v>631</v>
       </c>
       <c r="U139" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="V139" t="s">
         <v>7</v>
@@ -12948,7 +12975,7 @@
         <v>511</v>
       </c>
       <c r="O140" s="8" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="R140" t="s">
         <v>41</v>
@@ -12957,10 +12984,10 @@
         <v>787</v>
       </c>
       <c r="T140" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="U140" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="V140" t="s">
         <v>7</v>
@@ -12989,7 +13016,7 @@
         <v>480</v>
       </c>
       <c r="I141" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J141" t="s">
         <v>511</v>
@@ -12998,25 +13025,25 @@
         <v>511</v>
       </c>
       <c r="O141" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="P141" t="s">
+        <v>1409</v>
+      </c>
+      <c r="Q141" t="s">
         <v>1410</v>
       </c>
-      <c r="Q141" t="s">
+      <c r="R141" t="s">
         <v>1411</v>
-      </c>
-      <c r="R141" t="s">
-        <v>1412</v>
       </c>
       <c r="T141" t="s">
         <v>668</v>
       </c>
       <c r="U141" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="V141" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
@@ -13039,7 +13066,7 @@
         <v>467</v>
       </c>
       <c r="I142" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="J142" t="s">
         <v>463</v>
@@ -13051,25 +13078,25 @@
         <v>456</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="P142" t="s">
         <v>626</v>
       </c>
       <c r="Q142" t="s">
+        <v>1414</v>
+      </c>
+      <c r="R142" t="s">
         <v>1415</v>
       </c>
-      <c r="R142" t="s">
+      <c r="S142" t="s">
         <v>1416</v>
-      </c>
-      <c r="S142" t="s">
-        <v>1417</v>
       </c>
       <c r="T142" t="s">
         <v>736</v>
       </c>
       <c r="U142" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="V142" t="s">
         <v>7</v>
@@ -13095,7 +13122,7 @@
         <v>487</v>
       </c>
       <c r="I143" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="J143" t="s">
         <v>457</v>
@@ -13107,25 +13134,25 @@
         <v>451</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="P143" t="s">
         <v>626</v>
       </c>
       <c r="Q143" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="S143" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="T143" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="U143" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="V143" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
@@ -13204,7 +13231,7 @@
         <v>467</v>
       </c>
       <c r="I145" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="J145" t="s">
         <v>463</v>
@@ -13213,25 +13240,25 @@
         <v>456</v>
       </c>
       <c r="O145" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="P145" t="s">
         <v>1425</v>
       </c>
-      <c r="P145" t="s">
+      <c r="Q145" t="s">
         <v>1426</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="R145" t="s">
         <v>1427</v>
       </c>
-      <c r="R145" t="s">
+      <c r="S145" t="s">
         <v>1428</v>
-      </c>
-      <c r="S145" t="s">
-        <v>1429</v>
       </c>
       <c r="T145" t="s">
         <v>736</v>
       </c>
       <c r="U145" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="V145" t="s">
         <v>7</v>
@@ -13257,7 +13284,7 @@
         <v>466</v>
       </c>
       <c r="I146" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="J146" t="s">
         <v>461</v>
@@ -13266,25 +13293,25 @@
         <v>455</v>
       </c>
       <c r="O146" s="8" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="P146" t="s">
         <v>626</v>
       </c>
       <c r="Q146" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="R146" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="S146" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T146" t="s">
         <v>668</v>
       </c>
       <c r="U146" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="V146" t="s">
         <v>7</v>
@@ -13313,7 +13340,7 @@
         <v>474</v>
       </c>
       <c r="I147" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="J147" t="s">
         <v>453</v>
@@ -13328,25 +13355,25 @@
         <v>455</v>
       </c>
       <c r="O147" s="8" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="P147" t="s">
         <v>886</v>
       </c>
       <c r="Q147" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="S147" t="s">
+        <v>1439</v>
+      </c>
+      <c r="T147" t="s">
+        <v>950</v>
+      </c>
+      <c r="U147" t="s">
+        <v>1441</v>
+      </c>
+      <c r="V147" t="s">
         <v>1440</v>
-      </c>
-      <c r="T147" t="s">
-        <v>951</v>
-      </c>
-      <c r="U147" t="s">
-        <v>1442</v>
-      </c>
-      <c r="V147" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
@@ -13369,7 +13396,7 @@
         <v>466</v>
       </c>
       <c r="I148" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="J148" t="s">
         <v>509</v>
@@ -13381,22 +13408,22 @@
         <v>509</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="P148" t="s">
         <v>617</v>
       </c>
       <c r="R148" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="S148" t="s">
         <v>742</v>
       </c>
       <c r="T148" t="s">
+        <v>1444</v>
+      </c>
+      <c r="U148" t="s">
         <v>1445</v>
-      </c>
-      <c r="U148" t="s">
-        <v>1446</v>
       </c>
       <c r="V148" t="s">
         <v>7</v>
@@ -13422,7 +13449,7 @@
         <v>465</v>
       </c>
       <c r="I149" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J149" t="s">
         <v>457</v>
@@ -13431,22 +13458,22 @@
         <v>457</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="P149" t="s">
         <v>626</v>
       </c>
       <c r="R149" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="S149" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T149" t="s">
         <v>631</v>
       </c>
       <c r="U149" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="V149" t="s">
         <v>7</v>
@@ -13475,7 +13502,7 @@
         <v>467</v>
       </c>
       <c r="I150" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="J150" t="s">
         <v>457</v>
@@ -13484,22 +13511,22 @@
         <v>457</v>
       </c>
       <c r="O150" s="8" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="P150" t="s">
         <v>784</v>
       </c>
       <c r="R150" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="S150" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="T150" t="s">
         <v>631</v>
       </c>
       <c r="U150" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="V150" t="s">
         <v>7</v>
@@ -13528,7 +13555,7 @@
         <v>467</v>
       </c>
       <c r="I151" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="J151" t="s">
         <v>457</v>
@@ -13537,22 +13564,22 @@
         <v>457</v>
       </c>
       <c r="O151" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="P151" t="s">
         <v>1456</v>
       </c>
-      <c r="P151" t="s">
+      <c r="R151" t="s">
         <v>1457</v>
       </c>
-      <c r="R151" t="s">
-        <v>1458</v>
-      </c>
       <c r="S151" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="T151" t="s">
         <v>631</v>
       </c>
       <c r="U151" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="V151" t="s">
         <v>7</v>
@@ -13578,7 +13605,7 @@
         <v>467</v>
       </c>
       <c r="I152" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="J152" t="s">
         <v>511</v>
@@ -13587,19 +13614,19 @@
         <v>511</v>
       </c>
       <c r="O152" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="R152" t="s">
         <v>1463</v>
       </c>
-      <c r="R152" t="s">
+      <c r="S152" t="s">
         <v>1464</v>
-      </c>
-      <c r="S152" t="s">
-        <v>1465</v>
       </c>
       <c r="T152" t="s">
         <v>631</v>
       </c>
       <c r="U152" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="V152" t="s">
         <v>7</v>
@@ -13625,7 +13652,7 @@
         <v>466</v>
       </c>
       <c r="I153" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="J153" t="s">
         <v>461</v>
@@ -13640,25 +13667,25 @@
         <v>454</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="P153" t="s">
         <v>626</v>
       </c>
       <c r="Q153" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="R153" t="s">
+        <v>1469</v>
+      </c>
+      <c r="S153" t="s">
         <v>1470</v>
-      </c>
-      <c r="S153" t="s">
-        <v>1471</v>
       </c>
       <c r="T153" t="s">
         <v>668</v>
       </c>
       <c r="U153" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="V153" t="s">
         <v>7</v>
@@ -13696,28 +13723,28 @@
         <v>509</v>
       </c>
       <c r="O154" s="8" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="P154" t="s">
         <v>626</v>
       </c>
       <c r="Q154" t="s">
+        <v>1474</v>
+      </c>
+      <c r="R154" t="s">
         <v>1475</v>
       </c>
-      <c r="R154" t="s">
+      <c r="S154" t="s">
         <v>1476</v>
       </c>
-      <c r="S154" t="s">
+      <c r="T154" t="s">
         <v>1477</v>
       </c>
-      <c r="T154" t="s">
+      <c r="U154" t="s">
         <v>1478</v>
       </c>
-      <c r="U154" t="s">
+      <c r="V154" t="s">
         <v>1479</v>
-      </c>
-      <c r="V154" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
@@ -13792,7 +13819,7 @@
       </c>
       <c r="H156"/>
       <c r="I156" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="J156" t="s">
         <v>457</v>
@@ -13808,16 +13835,16 @@
       </c>
       <c r="N156"/>
       <c r="O156" s="8" t="s">
+        <v>1480</v>
+      </c>
+      <c r="P156" t="s">
         <v>1481</v>
       </c>
-      <c r="P156" t="s">
+      <c r="Q156" t="s">
         <v>1482</v>
       </c>
-      <c r="Q156" t="s">
-        <v>1483</v>
-      </c>
       <c r="R156" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="S156" t="s">
         <v>854</v>
@@ -13826,7 +13853,7 @@
         <v>668</v>
       </c>
       <c r="U156" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="V156" t="s">
         <v>7</v>
@@ -13852,7 +13879,7 @@
         <v>466</v>
       </c>
       <c r="I157" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="J157" t="s">
         <v>463</v>
@@ -13861,25 +13888,25 @@
         <v>456</v>
       </c>
       <c r="O157" s="8" t="s">
+        <v>1485</v>
+      </c>
+      <c r="P157" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q157" t="s">
         <v>1486</v>
       </c>
-      <c r="P157" t="s">
-        <v>1090</v>
-      </c>
-      <c r="Q157" t="s">
+      <c r="R157" t="s">
         <v>1487</v>
       </c>
-      <c r="R157" t="s">
-        <v>1488</v>
-      </c>
       <c r="S157" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="T157" t="s">
         <v>736</v>
       </c>
       <c r="U157" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="V157" t="s">
         <v>7</v>
@@ -13908,7 +13935,7 @@
         <v>478</v>
       </c>
       <c r="I158" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="J158" t="s">
         <v>511</v>
@@ -13917,13 +13944,13 @@
         <v>511</v>
       </c>
       <c r="O158" s="8" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="P158" t="s">
         <v>784</v>
       </c>
       <c r="R158" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="S158" t="s">
         <v>787</v>
@@ -13932,10 +13959,10 @@
         <v>631</v>
       </c>
       <c r="U158" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="V158" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.25">
@@ -13958,7 +13985,7 @@
         <v>466</v>
       </c>
       <c r="I159" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="J159" t="s">
         <v>511</v>
@@ -13967,16 +13994,16 @@
         <v>511</v>
       </c>
       <c r="O159" s="8" t="s">
+        <v>1497</v>
+      </c>
+      <c r="S159" t="s">
         <v>1498</v>
-      </c>
-      <c r="S159" t="s">
-        <v>1499</v>
       </c>
       <c r="T159" t="s">
         <v>631</v>
       </c>
       <c r="U159" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="V159" t="s">
         <v>7</v>
@@ -14008,25 +14035,25 @@
         <v>450</v>
       </c>
       <c r="O160" s="8" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="P160" t="s">
         <v>626</v>
       </c>
       <c r="R160" t="s">
+        <v>1503</v>
+      </c>
+      <c r="S160" t="s">
         <v>1504</v>
-      </c>
-      <c r="S160" t="s">
-        <v>1505</v>
       </c>
       <c r="T160" t="s">
         <v>668</v>
       </c>
       <c r="U160" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="V160" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.25">
@@ -14052,7 +14079,7 @@
         <v>480</v>
       </c>
       <c r="I161" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="J161" t="s">
         <v>509</v>
@@ -14064,13 +14091,13 @@
         <v>451</v>
       </c>
       <c r="O161" s="8" t="s">
+        <v>1506</v>
+      </c>
+      <c r="P161" t="s">
         <v>1507</v>
       </c>
-      <c r="P161" t="s">
+      <c r="R161" t="s">
         <v>1508</v>
-      </c>
-      <c r="R161" t="s">
-        <v>1509</v>
       </c>
       <c r="S161" t="s">
         <v>854</v>
@@ -14079,10 +14106,10 @@
         <v>736</v>
       </c>
       <c r="U161" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="V161" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.25">
@@ -14158,7 +14185,7 @@
         <v>480</v>
       </c>
       <c r="I163" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="J163" t="s">
         <v>457</v>
@@ -14173,28 +14200,28 @@
         <v>455</v>
       </c>
       <c r="O163" s="8" t="s">
+        <v>1512</v>
+      </c>
+      <c r="P163" t="s">
         <v>1513</v>
       </c>
-      <c r="P163" t="s">
+      <c r="Q163" t="s">
         <v>1514</v>
       </c>
-      <c r="Q163" t="s">
+      <c r="R163" t="s">
         <v>1515</v>
       </c>
-      <c r="R163" t="s">
+      <c r="S163" t="s">
         <v>1516</v>
-      </c>
-      <c r="S163" t="s">
-        <v>1517</v>
       </c>
       <c r="T163" t="s">
         <v>631</v>
       </c>
       <c r="U163" t="s">
+        <v>1518</v>
+      </c>
+      <c r="V163" t="s">
         <v>1519</v>
-      </c>
-      <c r="V163" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.25">
@@ -14223,25 +14250,25 @@
         <v>457</v>
       </c>
       <c r="O164" s="8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="P164" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>1523</v>
+      </c>
+      <c r="R164" t="s">
         <v>1521</v>
       </c>
-      <c r="P164" t="s">
-        <v>1523</v>
-      </c>
-      <c r="Q164" t="s">
+      <c r="S164" t="s">
         <v>1524</v>
-      </c>
-      <c r="R164" t="s">
-        <v>1522</v>
-      </c>
-      <c r="S164" t="s">
-        <v>1525</v>
       </c>
       <c r="T164" t="s">
         <v>668</v>
       </c>
       <c r="U164" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="V164" t="s">
         <v>7</v>
@@ -14273,25 +14300,25 @@
         <v>457</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="P165" t="s">
         <v>626</v>
       </c>
       <c r="Q165" t="s">
+        <v>1527</v>
+      </c>
+      <c r="R165" t="s">
         <v>1528</v>
       </c>
-      <c r="R165" t="s">
+      <c r="S165" t="s">
         <v>1529</v>
-      </c>
-      <c r="S165" t="s">
-        <v>1530</v>
       </c>
       <c r="T165" t="s">
         <v>668</v>
       </c>
       <c r="U165" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="V165" t="s">
         <v>7</v>
@@ -14323,25 +14350,25 @@
         <v>457</v>
       </c>
       <c r="O166" s="8" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="P166" t="s">
         <v>626</v>
       </c>
       <c r="Q166" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="R166" t="s">
+        <v>1532</v>
+      </c>
+      <c r="S166" t="s">
         <v>1533</v>
-      </c>
-      <c r="S166" t="s">
-        <v>1534</v>
       </c>
       <c r="T166" t="s">
         <v>647</v>
       </c>
       <c r="U166" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="V166" t="s">
         <v>7</v>
@@ -14370,7 +14397,7 @@
         <v>466</v>
       </c>
       <c r="I167" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="J167" t="s">
         <v>463</v>
@@ -14382,16 +14409,16 @@
         <v>456</v>
       </c>
       <c r="O167" s="8" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P167" t="s">
         <v>1536</v>
       </c>
-      <c r="P167" t="s">
+      <c r="Q167" t="s">
         <v>1537</v>
       </c>
-      <c r="Q167" t="s">
+      <c r="R167" t="s">
         <v>1538</v>
-      </c>
-      <c r="R167" t="s">
-        <v>1539</v>
       </c>
       <c r="S167" t="s">
         <v>742</v>
@@ -14400,7 +14427,7 @@
         <v>631</v>
       </c>
       <c r="U167" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="V167" t="s">
         <v>7</v>
@@ -14426,7 +14453,7 @@
         <v>466</v>
       </c>
       <c r="I168" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="J168" t="s">
         <v>462</v>
@@ -14438,22 +14465,22 @@
         <v>452</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="P168" t="s">
         <v>780</v>
       </c>
       <c r="R168" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S168" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="T168" t="s">
         <v>631</v>
       </c>
       <c r="U168" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="V168" t="s">
         <v>7</v>
@@ -14479,7 +14506,7 @@
         <v>466</v>
       </c>
       <c r="I169" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J169" t="s">
         <v>509</v>
@@ -14488,25 +14515,25 @@
         <v>451</v>
       </c>
       <c r="O169" s="8" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="P169" t="s">
         <v>617</v>
       </c>
       <c r="Q169" t="s">
+        <v>1548</v>
+      </c>
+      <c r="R169" t="s">
+        <v>1547</v>
+      </c>
+      <c r="S169" t="s">
         <v>1549</v>
       </c>
-      <c r="R169" t="s">
-        <v>1548</v>
-      </c>
-      <c r="S169" t="s">
+      <c r="T169" t="s">
+        <v>1444</v>
+      </c>
+      <c r="U169" t="s">
         <v>1550</v>
-      </c>
-      <c r="T169" t="s">
-        <v>1445</v>
-      </c>
-      <c r="U169" t="s">
-        <v>1551</v>
       </c>
       <c r="V169" t="s">
         <v>7</v>
@@ -14538,28 +14565,28 @@
         <v>456</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="P170" t="s">
         <v>658</v>
       </c>
       <c r="Q170" t="s">
+        <v>1552</v>
+      </c>
+      <c r="R170" t="s">
         <v>1553</v>
       </c>
-      <c r="R170" t="s">
+      <c r="S170" t="s">
         <v>1554</v>
-      </c>
-      <c r="S170" t="s">
-        <v>1555</v>
       </c>
       <c r="T170" t="s">
         <v>668</v>
       </c>
       <c r="U170" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="V170" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.25">
@@ -14588,25 +14615,25 @@
         <v>457</v>
       </c>
       <c r="O171" s="8" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="P171" t="s">
         <v>626</v>
       </c>
       <c r="Q171" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="R171" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="S171" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="T171" t="s">
         <v>631</v>
       </c>
       <c r="U171" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="V171" t="s">
         <v>7</v>

--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="1562">
   <si>
     <t>title</t>
   </si>
@@ -1945,15 +1945,9 @@
     <t>The purpose of this paper is to present the Advanced Systems Performance Evaluation tool for NOAA (ASPEN) as an answer to the pressing need to assess and optimize the planning and design of an observing system (including the processing and distribution of observations) given the considerations outlined above.</t>
   </si>
   <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>ASPEN is designed to measure the degree to which one or more observing systems are able to satisfy the needs of one or more environmental applications. In essence, ASPEN is a performance/gap analysis tool that measures how much an observing system fulfills the (prioritized) requirements ranges of the applications. The higher this degree of satisfaction, the more the observing system is considered beneficial.</t>
   </si>
   <si>
-    <t>case 1: Netherlands; case 2: Australia</t>
-  </si>
-  <si>
     <t>case 1: Dutch portion of the North Sea; case 2: Great Barrier Reef lagoon</t>
   </si>
   <si>
@@ -2014,9 +2008,6 @@
     <t>Landsat;SPOT</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
     <t>West African Sahel</t>
   </si>
   <si>
@@ -3142,9 +3133,6 @@
     <t>The first high-impact weather testbed in tropical Africa was recently carried out through the African Science for Weather Information and Forecasting Techniques (SWIFT) program, with participation from researchers and forecasters from Senegal, Ghana, Nigeria, Kenya, the United Kingdom, and international and pan-African organizations. The testbed aims were to trial new forecasting and nowcasting products with operational forecasters, to inform future research, and to act as a template for future testbeds in the tropics. The African SWIFT testbed integrated users and researchers throughout the process to facilitate development of impact-based forecasting methods and new research ideas driven both by operations and user input.</t>
   </si>
   <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>Kenya, Nigeria, Ghana, and Senegal</t>
   </si>
   <si>
@@ -3247,9 +3235,6 @@
     <t>Deforestation monitoring is changing the nature of conservation practices in increasingly profound ways. This study illustrates how forest co-management by means of earth-observation technologies among Indigenous communities opens up new debates and perspectives on transformational actions for inclusion and equity in globalization.</t>
   </si>
   <si>
-    <t>Brazil, Peru</t>
-  </si>
-  <si>
     <t>Shipibo Conibo and other Indigenous people on both sides (Peru and Brazil) of the Sierra del Divisor National Park</t>
   </si>
   <si>
@@ -3353,9 +3338,6 @@
   </si>
   <si>
     <t>The study evaluated the impacts and potential benefits of meteorological and hydrological information services in Albania, Bosnia-Herzegovina, FYR Macedonia, Moldova and Montenegro. The services were analysed for the sectors of transport, construction industry, energy production, flood protection and agriculture production. The study was part of a larger project for the development of weather and climate observation networks and meteorological services in South Eastern Europe countries.</t>
-  </si>
-  <si>
-    <t>Albania, Bosnia-Herzegovina, FYR Macedonia, Moldova and Montenegro</t>
   </si>
   <si>
     <t>There is a great need to demonstrate convincingly that meteorological services contribute to the well-being and safety of citizens and various organisations and to provide sustainable socio-economic development of the countries. It is important for national decision-makers and the public to appreciate that the services provided by national meteorological and hydrological services redound to the benefit of the communities they serve.</t>
@@ -3624,9 +3606,6 @@
     <t>Observations, nowcasts, and forecasts of ocean surface wind conditions are of economic value to activities such as maritime transportation, commercial fishing, offshore energy, recreational boating, and search and rescue. In this paper, we estimate the value to the maritime shipping industry of ocean surface wind information and of wind and wave condition forecasts based on this information.</t>
   </si>
   <si>
-    <t>North Atlantic and North Pacific</t>
-  </si>
-  <si>
     <t>Various instrument systems</t>
   </si>
   <si>
@@ -3757,9 +3736,6 @@
   </si>
   <si>
     <t>As part of the Hudson Bay drainage system in North America, the Red River of the North Basin (RRB) has been subject to Spring River flooding in the past century. Previously, forecast errors had led to inadequate flood preparations that resulted in tremendous losses and overspending of taxpayer's dollars in flood response. National Aeronautics and Space Administration’s satellite microwave remote sensing technology offers improved snow water equivalent measurement information needed for spring flood forecasting in this region. This study evaluates the economic benefits of the technology use to the farm sector in the RRB.</t>
-  </si>
-  <si>
-    <t>Canada, United States</t>
   </si>
   <si>
     <t>The Red River of the North Basin (RRB) is approximately 124,000 km2 with about 80% of the basin within the US border, while the remaining 20% lies within Manitoba, Canada (Red River Basin Commission [RRBC], 2011). On the US side, the RRB borders eastern North Dakota (ND) and western Minnesota (MN), where 18 MN counties and 22 ND counties lie either entirely or partially in the basin (RRBC, 2011).</t>
@@ -3784,9 +3760,6 @@
     <t>Several donors and governments in the region are keenly interested in these technologies and in developing forecast delivery channels on the assumption that this information will prove valuable to the vulnerable populations it is meant to help not only indirectly, as an input into top-down early warning systems, but also directly, as a basis for improving choice under uncertainty. We explore the value of such external climate forecast information to pastoralists in a large study area spanning southern Ethiopia and northern Kenya using original data collected using both open-ended qualitative methods to identify and understand indigenous climate forecasting methods and quantitative data collected using survey instruments fielded in two rounds, one before and one after the long rains of 2001.</t>
   </si>
   <si>
-    <t>Ethiopia, Kenya</t>
-  </si>
-  <si>
     <t>11 sites in northern Kenya and southern Ethiopia</t>
   </si>
   <si>
@@ -3955,9 +3928,6 @@
     <t>marginal socio economic value of a publication</t>
   </si>
   <si>
-    <t>Madagascar, Indonesia, Bolivia and Peru</t>
-  </si>
-  <si>
     <t>To better understand the utility of NRT monitoring technologies in improving environmental protection and management, from 2008 to 2016 Conservation International conducted a series of surveys and interviews with users of these systems in four countries where wildfires threaten tropical forest ecosystems: Madagascar, Indonesia, Bolivia and Peru</t>
   </si>
   <si>
@@ -4132,9 +4102,6 @@
     <t>The High Impact Weather Lake System (HIGHWAY) project was established to develop an Early Warning System for Lake Victoria. Prior to HIGHWAY, weather forecasts for the lake were overly general and not trusted. Under the HIGHWAY project, forecasters from weather service offices in East Africa worked with leaders of fishing communities and Beach Management Units to develop marine forecasts and hazardous-weather warnings that were meaningful to fishermen and other stakeholders. Forecasters used high-resolution satellite, radar, and lightning observations collected during a HIGHWAY field campaign, along with guidance from numerical weather prediction models and a 4.4-km resolution Tropical Africa model, to produce specific forecasts and warnings for 10 zones over the lake.</t>
   </si>
   <si>
-    <t>East Africa</t>
-  </si>
-  <si>
     <t>Lake Victoria</t>
   </si>
   <si>
@@ -4255,9 +4222,6 @@
     <t>choices of users concerning the spectral ranges preferred for each application domain - ag/food, air quality, coast/marine monitoring, ecosystem/biodiversity, emergency services, ground motion, hydro meteorology/climate, water resources</t>
   </si>
   <si>
-    <t>Italy, United States</t>
-  </si>
-  <si>
     <t>Italian Copernicus Users Forum and potential users of the NASA Surface Biology and Geology (SBG) mission</t>
   </si>
   <si>
@@ -4712,6 +4676,42 @@
   </si>
   <si>
     <t>instrumental;fundamental;eudaimonistic</t>
+  </si>
+  <si>
+    <t>Netherlands;Australia</t>
+  </si>
+  <si>
+    <t>Brazil;Peru</t>
+  </si>
+  <si>
+    <t>Albania;Bosnia and Herzegovina;Macedonia;Moldova;Montenegro</t>
+  </si>
+  <si>
+    <t>North Atlantic; North Pacific</t>
+  </si>
+  <si>
+    <t>Canada;United States</t>
+  </si>
+  <si>
+    <t>Ethiopia;Kenya</t>
+  </si>
+  <si>
+    <t>Madagascar;Indonesia;Bolivia;Peru</t>
+  </si>
+  <si>
+    <t>Italy;United States</t>
+  </si>
+  <si>
+    <t>Norway;Spain;Indonesia;Thailand</t>
+  </si>
+  <si>
+    <t>Senegal;Ghana;Nigeria;Niger;Kenya</t>
+  </si>
+  <si>
+    <t>Western Africa</t>
+  </si>
+  <si>
+    <t>Eastern Africa</t>
   </si>
 </sst>
 </file>
@@ -5566,10 +5566,10 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M64" sqref="M64"/>
+      <selection pane="bottomRight" activeCell="O132" sqref="O132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5676,7 +5676,7 @@
         <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G2" t="s">
         <v>474</v>
@@ -5685,7 +5685,7 @@
         <v>484</v>
       </c>
       <c r="I2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="J2" t="s">
         <v>457</v>
@@ -5694,25 +5694,25 @@
         <v>457</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="P2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="R2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="S2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="T2" t="s">
         <v>631</v>
       </c>
       <c r="U2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="V2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -5738,7 +5738,7 @@
         <v>465</v>
       </c>
       <c r="I3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J3" t="s">
         <v>457</v>
@@ -5747,25 +5747,25 @@
         <v>457</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="P3" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>750</v>
+      </c>
+      <c r="R3" t="s">
         <v>751</v>
       </c>
-      <c r="P3" t="s">
-        <v>752</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>753</v>
-      </c>
-      <c r="R3" t="s">
-        <v>754</v>
-      </c>
       <c r="S3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="T3" t="s">
         <v>631</v>
       </c>
       <c r="U3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -5794,7 +5794,7 @@
         <v>465</v>
       </c>
       <c r="I4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J4" t="s">
         <v>457</v>
@@ -5803,25 +5803,25 @@
         <v>457</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="P4" t="s">
         <v>626</v>
       </c>
       <c r="Q4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="R4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="S4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="T4" t="s">
         <v>631</v>
       </c>
       <c r="U4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="V4" t="s">
         <v>7</v>
@@ -5844,7 +5844,7 @@
         <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G5" t="s">
         <v>475</v>
@@ -5909,7 +5909,7 @@
         <v>474</v>
       </c>
       <c r="I6" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J6" t="s">
         <v>457</v>
@@ -5918,25 +5918,25 @@
         <v>457</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="P6" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="Q6" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="S6" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="T6" t="s">
         <v>631</v>
       </c>
       <c r="U6" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="V6" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5980,10 +5980,10 @@
         <v>622</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>621</v>
@@ -6012,7 +6012,7 @@
         <v>466</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>457</v>
@@ -6027,25 +6027,25 @@
         <v>455</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>7</v>
@@ -6068,7 +6068,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>466</v>
@@ -6077,31 +6077,31 @@
         <v>465</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>780</v>
-      </c>
       <c r="R9" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>7</v>
@@ -6124,13 +6124,13 @@
         <v>193</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>466</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>457</v>
@@ -6145,25 +6145,25 @@
         <v>452</v>
       </c>
       <c r="O10" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="R10" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="T10" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>785</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>788</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>7</v>
@@ -6192,7 +6192,7 @@
         <v>467</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>457</v>
@@ -6201,22 +6201,22 @@
         <v>457</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>626</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="S11" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>793</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
         <v>501</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>509</v>
@@ -6248,28 +6248,28 @@
         <v>450</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="P12" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="R12" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>800</v>
-      </c>
       <c r="S12" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6292,7 +6292,7 @@
         <v>466</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>457</v>
@@ -6301,25 +6301,25 @@
         <v>457</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="R13" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>809</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>7</v>
@@ -6410,7 +6410,7 @@
         <v>466</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>461</v>
@@ -6425,25 +6425,25 @@
         <v>457</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>626</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>7</v>
@@ -6466,13 +6466,13 @@
         <v>8</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>465</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>460</v>
@@ -6481,25 +6481,25 @@
         <v>452</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>626</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6522,7 +6522,7 @@
         <v>466</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>457</v>
@@ -6537,22 +6537,22 @@
         <v>455</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>626</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="T17" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6581,25 +6581,25 @@
         <v>456</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>626</v>
       </c>
       <c r="Q18" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>832</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>7</v>
@@ -6637,7 +6637,7 @@
         <v>512</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="P19" t="s">
         <v>626</v>
@@ -6681,7 +6681,7 @@
         <v>501</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>453</v>
@@ -6690,28 +6690,28 @@
         <v>453</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="P20" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="S20" s="5" t="s">
         <v>834</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>837</v>
       </c>
       <c r="T20" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -6734,7 +6734,7 @@
         <v>474</v>
       </c>
       <c r="I21" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>457</v>
@@ -6743,28 +6743,28 @@
         <v>457</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>626</v>
       </c>
       <c r="Q21" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="R21" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="T21" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="V21" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -6787,7 +6787,7 @@
         <v>507</v>
       </c>
       <c r="I22" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>457</v>
@@ -6802,22 +6802,22 @@
         <v>452</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="R22" t="s">
+        <v>848</v>
+      </c>
+      <c r="S22" s="5" t="s">
         <v>851</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>854</v>
       </c>
       <c r="T22" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="V22" s="5" t="s">
         <v>7</v>
@@ -6843,7 +6843,7 @@
         <v>466</v>
       </c>
       <c r="I23" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>458</v>
@@ -6855,25 +6855,25 @@
         <v>451</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>617</v>
       </c>
       <c r="Q23" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="R23" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="S23" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>857</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>860</v>
       </c>
       <c r="V23" s="5" t="s">
         <v>7</v>
@@ -6911,10 +6911,10 @@
         <v>639</v>
       </c>
       <c r="P24" t="s">
+        <v>709</v>
+      </c>
+      <c r="R24" t="s">
         <v>640</v>
-      </c>
-      <c r="R24" t="s">
-        <v>641</v>
       </c>
       <c r="S24" t="s">
         <v>41</v>
@@ -6952,7 +6952,7 @@
         <v>474</v>
       </c>
       <c r="I25" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="J25" t="s">
         <v>463</v>
@@ -6967,28 +6967,28 @@
         <v>457</v>
       </c>
       <c r="O25" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="P25" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>860</v>
+      </c>
+      <c r="R25" t="s">
         <v>861</v>
       </c>
-      <c r="P25" t="s">
+      <c r="S25" t="s">
+        <v>870</v>
+      </c>
+      <c r="T25" t="s">
+        <v>665</v>
+      </c>
+      <c r="U25" t="s">
+        <v>868</v>
+      </c>
+      <c r="V25" t="s">
         <v>862</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>863</v>
-      </c>
-      <c r="R25" t="s">
-        <v>864</v>
-      </c>
-      <c r="S25" t="s">
-        <v>873</v>
-      </c>
-      <c r="T25" t="s">
-        <v>668</v>
-      </c>
-      <c r="U25" t="s">
-        <v>871</v>
-      </c>
-      <c r="V25" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -7017,7 +7017,7 @@
         <v>474</v>
       </c>
       <c r="I26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J26" t="s">
         <v>457</v>
@@ -7032,16 +7032,16 @@
         <v>456</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="P26" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>641</v>
+      </c>
+      <c r="R26" t="s">
         <v>642</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>643</v>
-      </c>
-      <c r="R26" t="s">
-        <v>644</v>
       </c>
       <c r="S26" t="s">
         <v>604</v>
@@ -7050,10 +7050,10 @@
         <v>631</v>
       </c>
       <c r="U26" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="V26" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -7079,7 +7079,7 @@
         <v>474</v>
       </c>
       <c r="I27" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="J27" t="s">
         <v>463</v>
@@ -7088,28 +7088,28 @@
         <v>456</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="P27" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="Q27" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="R27" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="S27" t="s">
+        <v>869</v>
+      </c>
+      <c r="T27" t="s">
+        <v>665</v>
+      </c>
+      <c r="U27" t="s">
+        <v>871</v>
+      </c>
+      <c r="V27" t="s">
         <v>872</v>
-      </c>
-      <c r="T27" t="s">
-        <v>668</v>
-      </c>
-      <c r="U27" t="s">
-        <v>874</v>
-      </c>
-      <c r="V27" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -7129,7 +7129,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="G28" t="s">
         <v>465</v>
@@ -7144,28 +7144,28 @@
         <v>456</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="P28" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="Q28" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="R28" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="S28" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="T28" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U28" t="s">
+        <v>871</v>
+      </c>
+      <c r="V28" t="s">
         <v>874</v>
-      </c>
-      <c r="V28" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -7194,25 +7194,25 @@
         <v>456</v>
       </c>
       <c r="O29" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="P29" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q29" t="s">
         <v>880</v>
       </c>
-      <c r="P29" t="s">
-        <v>882</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>883</v>
-      </c>
       <c r="R29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="S29" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="T29" t="s">
         <v>631</v>
       </c>
       <c r="U29" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="V29" t="s">
         <v>7</v>
@@ -7250,22 +7250,22 @@
         <v>451</v>
       </c>
       <c r="O30" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="P30" t="s">
+        <v>883</v>
+      </c>
+      <c r="R30" t="s">
+        <v>886</v>
+      </c>
+      <c r="S30" t="s">
+        <v>884</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U30" t="s">
         <v>885</v>
-      </c>
-      <c r="P30" t="s">
-        <v>886</v>
-      </c>
-      <c r="R30" t="s">
-        <v>889</v>
-      </c>
-      <c r="S30" t="s">
-        <v>887</v>
-      </c>
-      <c r="T30" t="s">
-        <v>1561</v>
-      </c>
-      <c r="U30" t="s">
-        <v>888</v>
       </c>
       <c r="V30" t="s">
         <v>7</v>
@@ -7297,25 +7297,25 @@
         <v>452</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="P31" t="s">
         <v>626</v>
       </c>
       <c r="Q31" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="R31" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="S31" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="T31" t="s">
         <v>631</v>
       </c>
       <c r="U31" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="V31" t="s">
         <v>7</v>
@@ -7341,7 +7341,7 @@
         <v>507</v>
       </c>
       <c r="I32" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="J32" t="s">
         <v>458</v>
@@ -7350,25 +7350,25 @@
         <v>454</v>
       </c>
       <c r="O32" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="P32" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>894</v>
+      </c>
+      <c r="R32" t="s">
         <v>895</v>
       </c>
-      <c r="P32" t="s">
+      <c r="S32" t="s">
+        <v>723</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="U32" s="5" t="s">
         <v>896</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>897</v>
-      </c>
-      <c r="R32" t="s">
-        <v>898</v>
-      </c>
-      <c r="S32" t="s">
-        <v>726</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>899</v>
       </c>
       <c r="V32" s="5" t="s">
         <v>7</v>
@@ -7397,7 +7397,7 @@
         <v>480</v>
       </c>
       <c r="I33" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="J33" t="s">
         <v>457</v>
@@ -7406,28 +7406,28 @@
         <v>457</v>
       </c>
       <c r="O33" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="P33" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>900</v>
+      </c>
+      <c r="R33" t="s">
         <v>902</v>
       </c>
-      <c r="P33" t="s">
-        <v>886</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>903</v>
-      </c>
-      <c r="R33" t="s">
-        <v>905</v>
-      </c>
       <c r="S33" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="T33" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="V33" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -7453,7 +7453,7 @@
         <v>480</v>
       </c>
       <c r="I34" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J34" t="s">
         <v>509</v>
@@ -7462,25 +7462,25 @@
         <v>451</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="P34" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="R34" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="S34" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="T34" t="s">
         <v>631</v>
       </c>
       <c r="U34" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="V34" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -7503,7 +7503,7 @@
         <v>466</v>
       </c>
       <c r="I35" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="J35" t="s">
         <v>457</v>
@@ -7512,25 +7512,25 @@
         <v>457</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="P35" t="s">
         <v>626</v>
       </c>
       <c r="Q35" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="R35" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="S35" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="T35" t="s">
         <v>631</v>
       </c>
       <c r="U35" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="V35" t="s">
         <v>7</v>
@@ -7562,25 +7562,25 @@
         <v>457</v>
       </c>
       <c r="O36" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="P36" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>913</v>
+      </c>
+      <c r="R36" t="s">
         <v>914</v>
       </c>
-      <c r="P36" t="s">
+      <c r="S36" t="s">
         <v>915</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>916</v>
-      </c>
-      <c r="R36" t="s">
-        <v>917</v>
-      </c>
-      <c r="S36" t="s">
-        <v>918</v>
       </c>
       <c r="T36" t="s">
         <v>631</v>
       </c>
       <c r="U36" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="V36" t="s">
         <v>7</v>
@@ -7606,7 +7606,7 @@
         <v>480</v>
       </c>
       <c r="I37" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J37" t="s">
         <v>457</v>
@@ -7615,28 +7615,28 @@
         <v>457</v>
       </c>
       <c r="O37" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="P37" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q37" t="s">
         <v>920</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
+        <v>922</v>
+      </c>
+      <c r="S37" t="s">
         <v>921</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="T37" t="s">
+        <v>665</v>
+      </c>
+      <c r="U37" t="s">
         <v>923</v>
       </c>
-      <c r="R37" t="s">
-        <v>925</v>
-      </c>
-      <c r="S37" t="s">
-        <v>924</v>
-      </c>
-      <c r="T37" t="s">
-        <v>668</v>
-      </c>
-      <c r="U37" t="s">
-        <v>926</v>
-      </c>
       <c r="V37" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -7659,7 +7659,7 @@
         <v>466</v>
       </c>
       <c r="I38" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J38" t="s">
         <v>457</v>
@@ -7674,25 +7674,25 @@
         <v>452</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="P38" t="s">
         <v>626</v>
       </c>
       <c r="Q38" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="R38" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="S38" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="T38" t="s">
         <v>631</v>
       </c>
       <c r="U38" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -7718,7 +7718,7 @@
         <v>467</v>
       </c>
       <c r="I39" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J39" t="s">
         <v>453</v>
@@ -7727,25 +7727,25 @@
         <v>450</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="P39" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="R39" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="S39" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="T39" t="s">
         <v>631</v>
       </c>
       <c r="U39" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="V39" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -7768,7 +7768,7 @@
         <v>466</v>
       </c>
       <c r="I40" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J40" t="s">
         <v>457</v>
@@ -7777,25 +7777,25 @@
         <v>457</v>
       </c>
       <c r="O40" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="P40" t="s">
+        <v>938</v>
+      </c>
+      <c r="Q40" t="s">
         <v>939</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
+        <v>937</v>
+      </c>
+      <c r="S40" t="s">
         <v>941</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>942</v>
-      </c>
-      <c r="R40" t="s">
-        <v>940</v>
-      </c>
-      <c r="S40" t="s">
-        <v>944</v>
       </c>
       <c r="T40" t="s">
         <v>631</v>
       </c>
       <c r="U40" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="V40" t="s">
         <v>7</v>
@@ -7824,7 +7824,7 @@
         <v>475</v>
       </c>
       <c r="I41" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J41" t="s">
         <v>457</v>
@@ -7839,28 +7839,28 @@
         <v>456</v>
       </c>
       <c r="O41" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="P41" t="s">
+        <v>944</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>945</v>
+      </c>
+      <c r="R41" t="s">
+        <v>950</v>
+      </c>
+      <c r="S41" t="s">
+        <v>921</v>
+      </c>
+      <c r="T41" t="s">
+        <v>947</v>
+      </c>
+      <c r="U41" t="s">
+        <v>948</v>
+      </c>
+      <c r="V41" t="s">
         <v>946</v>
-      </c>
-      <c r="P41" t="s">
-        <v>947</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>948</v>
-      </c>
-      <c r="R41" t="s">
-        <v>953</v>
-      </c>
-      <c r="S41" t="s">
-        <v>924</v>
-      </c>
-      <c r="T41" t="s">
-        <v>950</v>
-      </c>
-      <c r="U41" t="s">
-        <v>951</v>
-      </c>
-      <c r="V41" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -7886,7 +7886,7 @@
         <v>468</v>
       </c>
       <c r="I42" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J42" t="s">
         <v>460</v>
@@ -7895,22 +7895,22 @@
         <v>452</v>
       </c>
       <c r="O42" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="P42" t="s">
+        <v>709</v>
+      </c>
+      <c r="R42" t="s">
         <v>954</v>
       </c>
-      <c r="P42" t="s">
-        <v>640</v>
-      </c>
-      <c r="R42" t="s">
-        <v>957</v>
-      </c>
       <c r="S42" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="T42" t="s">
         <v>631</v>
       </c>
       <c r="U42" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="V42" t="s">
         <v>7</v>
@@ -7939,7 +7939,7 @@
         <v>466</v>
       </c>
       <c r="I43" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J43" t="s">
         <v>457</v>
@@ -7948,22 +7948,22 @@
         <v>457</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="P43" t="s">
         <v>626</v>
       </c>
       <c r="R43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="S43" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="T43" t="s">
         <v>631</v>
       </c>
       <c r="U43" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="V43" t="s">
         <v>7</v>
@@ -7989,7 +7989,7 @@
         <v>466</v>
       </c>
       <c r="I44" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J44" t="s">
         <v>460</v>
@@ -7998,22 +7998,22 @@
         <v>452</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="P44" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="R44" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="S44" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="T44" t="s">
         <v>631</v>
       </c>
       <c r="U44" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="V44" t="s">
         <v>7</v>
@@ -8039,7 +8039,7 @@
         <v>466</v>
       </c>
       <c r="I45" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="J45" t="s">
         <v>457</v>
@@ -8054,25 +8054,25 @@
         <v>456</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="P45" t="s">
         <v>626</v>
       </c>
       <c r="Q45" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="R45" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="S45" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="T45" t="s">
         <v>631</v>
       </c>
       <c r="U45" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="V45" t="s">
         <v>7</v>
@@ -8110,25 +8110,25 @@
         <v>456</v>
       </c>
       <c r="O46" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="P46" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>970</v>
+      </c>
+      <c r="R46" t="s">
+        <v>971</v>
+      </c>
+      <c r="S46" t="s">
         <v>972</v>
-      </c>
-      <c r="P46" t="s">
-        <v>720</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>973</v>
-      </c>
-      <c r="R46" t="s">
-        <v>974</v>
-      </c>
-      <c r="S46" t="s">
-        <v>975</v>
       </c>
       <c r="T46" t="s">
         <v>631</v>
       </c>
       <c r="U46" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="V46" t="s">
         <v>7</v>
@@ -8166,25 +8166,25 @@
         <v>456</v>
       </c>
       <c r="O47" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="P47" t="s">
+        <v>976</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>977</v>
+      </c>
+      <c r="R47" t="s">
+        <v>979</v>
+      </c>
+      <c r="S47" t="s">
         <v>978</v>
-      </c>
-      <c r="P47" t="s">
-        <v>979</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>980</v>
-      </c>
-      <c r="R47" t="s">
-        <v>982</v>
-      </c>
-      <c r="S47" t="s">
-        <v>981</v>
       </c>
       <c r="T47" t="s">
         <v>631</v>
       </c>
       <c r="U47" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="V47" t="s">
         <v>7</v>
@@ -8222,22 +8222,22 @@
         <v>456</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="P48" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="R48" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S48" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="T48" t="s">
         <v>631</v>
       </c>
       <c r="U48" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="V48" t="s">
         <v>7</v>
@@ -8278,22 +8278,22 @@
         <v>452</v>
       </c>
       <c r="O49" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="P49" t="s">
+        <v>984</v>
+      </c>
+      <c r="R49" t="s">
+        <v>987</v>
+      </c>
+      <c r="S49" t="s">
+        <v>985</v>
+      </c>
+      <c r="T49" t="s">
+        <v>665</v>
+      </c>
+      <c r="U49" t="s">
         <v>986</v>
-      </c>
-      <c r="P49" t="s">
-        <v>987</v>
-      </c>
-      <c r="R49" t="s">
-        <v>990</v>
-      </c>
-      <c r="S49" t="s">
-        <v>988</v>
-      </c>
-      <c r="T49" t="s">
-        <v>668</v>
-      </c>
-      <c r="U49" t="s">
-        <v>989</v>
       </c>
       <c r="V49" t="s">
         <v>7</v>
@@ -8319,7 +8319,7 @@
         <v>501</v>
       </c>
       <c r="I50" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="J50" t="s">
         <v>457</v>
@@ -8334,25 +8334,25 @@
         <v>455</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="P50" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="R50" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="S50" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="T50" t="s">
         <v>631</v>
       </c>
       <c r="U50" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="V50" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -8378,37 +8378,37 @@
         <v>480</v>
       </c>
       <c r="I51" t="s">
+        <v>995</v>
+      </c>
+      <c r="J51" t="s">
+        <v>457</v>
+      </c>
+      <c r="L51" t="s">
+        <v>457</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="P51" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>997</v>
+      </c>
+      <c r="R51" t="s">
         <v>998</v>
       </c>
-      <c r="J51" t="s">
-        <v>457</v>
-      </c>
-      <c r="L51" t="s">
-        <v>457</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>997</v>
-      </c>
-      <c r="P51" t="s">
-        <v>915</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>1000</v>
-      </c>
-      <c r="R51" t="s">
-        <v>1001</v>
-      </c>
       <c r="S51" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="T51" t="s">
         <v>615</v>
       </c>
       <c r="U51" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="V51" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -8434,34 +8434,34 @@
         <v>480</v>
       </c>
       <c r="I52" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J52" t="s">
+        <v>457</v>
+      </c>
+      <c r="L52" t="s">
+        <v>457</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P52" t="s">
+        <v>912</v>
+      </c>
+      <c r="R52" t="s">
         <v>1004</v>
       </c>
-      <c r="J52" t="s">
-        <v>457</v>
-      </c>
-      <c r="L52" t="s">
-        <v>457</v>
-      </c>
-      <c r="O52" s="8" t="s">
+      <c r="S52" t="s">
+        <v>844</v>
+      </c>
+      <c r="T52" t="s">
+        <v>665</v>
+      </c>
+      <c r="U52" t="s">
         <v>1003</v>
       </c>
-      <c r="P52" t="s">
-        <v>915</v>
-      </c>
-      <c r="R52" t="s">
-        <v>1007</v>
-      </c>
-      <c r="S52" t="s">
-        <v>847</v>
-      </c>
-      <c r="T52" t="s">
-        <v>668</v>
-      </c>
-      <c r="U52" t="s">
-        <v>1006</v>
-      </c>
       <c r="V52" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -8484,7 +8484,7 @@
         <v>480</v>
       </c>
       <c r="I53" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="J53" t="s">
         <v>457</v>
@@ -8493,16 +8493,19 @@
         <v>457</v>
       </c>
       <c r="O53" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P53" t="s">
+        <v>709</v>
+      </c>
+      <c r="T53" t="s">
+        <v>665</v>
+      </c>
+      <c r="U53" t="s">
         <v>1008</v>
       </c>
-      <c r="T53" t="s">
-        <v>668</v>
-      </c>
-      <c r="U53" t="s">
-        <v>1011</v>
-      </c>
       <c r="V53" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -8531,25 +8534,25 @@
         <v>455</v>
       </c>
       <c r="O54" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R54" t="s">
         <v>1012</v>
       </c>
-      <c r="P54" t="s">
+      <c r="S54" t="s">
         <v>1013</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="T54" t="s">
+        <v>733</v>
+      </c>
+      <c r="U54" t="s">
         <v>1014</v>
-      </c>
-      <c r="R54" t="s">
-        <v>1015</v>
-      </c>
-      <c r="S54" t="s">
-        <v>1016</v>
-      </c>
-      <c r="T54" t="s">
-        <v>736</v>
-      </c>
-      <c r="U54" t="s">
-        <v>1017</v>
       </c>
       <c r="V54" t="s">
         <v>7</v>
@@ -8587,28 +8590,28 @@
         <v>451</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R55" t="s">
         <v>1018</v>
       </c>
-      <c r="P55" t="s">
+      <c r="S55" t="s">
         <v>1019</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R55" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S55" t="s">
-        <v>1022</v>
       </c>
       <c r="T55" t="s">
         <v>615</v>
       </c>
       <c r="U55" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="V55" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -8631,7 +8634,7 @@
         <v>501</v>
       </c>
       <c r="I56" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="J56" t="s">
         <v>458</v>
@@ -8640,25 +8643,25 @@
         <v>454</v>
       </c>
       <c r="O56" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1024</v>
+      </c>
+      <c r="R56" t="s">
+        <v>1023</v>
+      </c>
+      <c r="S56" t="s">
         <v>1025</v>
       </c>
-      <c r="P56" t="s">
+      <c r="T56" t="s">
+        <v>665</v>
+      </c>
+      <c r="U56" t="s">
+        <v>1026</v>
+      </c>
+      <c r="V56" t="s">
         <v>1027</v>
-      </c>
-      <c r="R56" t="s">
-        <v>1026</v>
-      </c>
-      <c r="S56" t="s">
-        <v>1028</v>
-      </c>
-      <c r="T56" t="s">
-        <v>668</v>
-      </c>
-      <c r="U56" t="s">
-        <v>1029</v>
-      </c>
-      <c r="V56" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -8687,25 +8690,25 @@
         <v>455</v>
       </c>
       <c r="O57" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R57" t="s">
         <v>1032</v>
       </c>
-      <c r="P57" t="s">
+      <c r="S57" t="s">
         <v>1033</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>1034</v>
-      </c>
-      <c r="R57" t="s">
-        <v>1035</v>
-      </c>
-      <c r="S57" t="s">
-        <v>1036</v>
       </c>
       <c r="T57" t="s">
         <v>631</v>
       </c>
       <c r="U57" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="V57" t="s">
         <v>7</v>
@@ -8731,7 +8734,7 @@
         <v>466</v>
       </c>
       <c r="I58" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J58" t="s">
         <v>457</v>
@@ -8740,25 +8743,25 @@
         <v>457</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P58" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>657</v>
+      </c>
+      <c r="R58" t="s">
         <v>658</v>
       </c>
-      <c r="Q58" t="s">
-        <v>659</v>
-      </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>660</v>
-      </c>
-      <c r="S58" t="s">
-        <v>662</v>
       </c>
       <c r="T58" t="s">
         <v>631</v>
       </c>
       <c r="U58" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="V58" t="s">
         <v>7</v>
@@ -8784,7 +8787,7 @@
         <v>474</v>
       </c>
       <c r="I59" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="J59" t="s">
         <v>462</v>
@@ -8799,28 +8802,28 @@
         <v>451</v>
       </c>
       <c r="O59" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1559</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>1036</v>
+      </c>
+      <c r="R59" t="s">
+        <v>1037</v>
+      </c>
+      <c r="S59" t="s">
         <v>1038</v>
       </c>
-      <c r="P59" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>1040</v>
-      </c>
-      <c r="R59" t="s">
-        <v>1041</v>
-      </c>
-      <c r="S59" t="s">
-        <v>1042</v>
-      </c>
       <c r="T59" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U59" t="s">
         <v>41</v>
       </c>
       <c r="V59" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -8849,25 +8852,25 @@
         <v>456</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="P60" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Q60" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="R60" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="S60" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="T60" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U60" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="V60" t="s">
         <v>7</v>
@@ -8893,7 +8896,7 @@
         <v>466</v>
       </c>
       <c r="I61" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="J61" t="s">
         <v>461</v>
@@ -8908,25 +8911,25 @@
         <v>457</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="P61" t="s">
         <v>626</v>
       </c>
       <c r="Q61" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="R61" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="S61" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="T61" t="s">
         <v>631</v>
       </c>
       <c r="U61" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="V61" t="s">
         <v>7</v>
@@ -8952,7 +8955,7 @@
         <v>480</v>
       </c>
       <c r="I62" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="J62" t="s">
         <v>457</v>
@@ -8967,28 +8970,28 @@
         <v>452</v>
       </c>
       <c r="O62" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="P62" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>1055</v>
+      </c>
+      <c r="R62" t="s">
         <v>1054</v>
       </c>
-      <c r="P62" t="s">
-        <v>651</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>1059</v>
-      </c>
-      <c r="R62" t="s">
-        <v>1058</v>
-      </c>
       <c r="S62" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="T62" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U62" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="V62" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -9011,7 +9014,7 @@
         <v>466</v>
       </c>
       <c r="I63" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="J63" t="s">
         <v>457</v>
@@ -9026,25 +9029,25 @@
         <v>452</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="P63" t="s">
         <v>626</v>
       </c>
       <c r="Q63" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="R63" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="S63" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="T63" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U63" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="V63" t="s">
         <v>7</v>
@@ -9073,7 +9076,7 @@
         <v>467</v>
       </c>
       <c r="I64" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="J64" t="s">
         <v>511</v>
@@ -9082,10 +9085,13 @@
         <v>511</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>1067</v>
+        <v>1063</v>
+      </c>
+      <c r="P64" t="s">
+        <v>777</v>
       </c>
       <c r="T64" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -9108,7 +9114,7 @@
         <v>468</v>
       </c>
       <c r="I65" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="J65" t="s">
         <v>453</v>
@@ -9117,22 +9123,22 @@
         <v>453</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="P65" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="R65" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="S65" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="T65" t="s">
         <v>631</v>
       </c>
       <c r="U65" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="V65" t="s">
         <v>7</v>
@@ -9164,7 +9170,7 @@
         <v>466</v>
       </c>
       <c r="I66" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="J66" t="s">
         <v>457</v>
@@ -9173,28 +9179,28 @@
         <v>457</v>
       </c>
       <c r="O66" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1560</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>661</v>
+      </c>
+      <c r="R66" t="s">
+        <v>664</v>
+      </c>
+      <c r="S66" t="s">
+        <v>666</v>
+      </c>
+      <c r="T66" t="s">
         <v>665</v>
       </c>
-      <c r="P66" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>664</v>
-      </c>
-      <c r="R66" t="s">
+      <c r="U66" t="s">
         <v>667</v>
       </c>
-      <c r="S66" t="s">
+      <c r="V66" t="s">
         <v>669</v>
-      </c>
-      <c r="T66" t="s">
-        <v>668</v>
-      </c>
-      <c r="U66" t="s">
-        <v>670</v>
-      </c>
-      <c r="V66" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -9220,7 +9226,7 @@
         <v>480</v>
       </c>
       <c r="I67" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="J67" t="s">
         <v>457</v>
@@ -9232,28 +9238,28 @@
         <v>457</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="P67" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S67" s="5" t="s">
         <v>1074</v>
-      </c>
-      <c r="Q67" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>1079</v>
       </c>
       <c r="T67" s="5" t="s">
         <v>615</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="V67" s="5" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -9276,7 +9282,7 @@
         <v>466</v>
       </c>
       <c r="I68" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="J68" t="s">
         <v>461</v>
@@ -9285,25 +9291,25 @@
         <v>455</v>
       </c>
       <c r="O68" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="S68" s="5" t="s">
         <v>1081</v>
-      </c>
-      <c r="P68" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="Q68" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="R68" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="S68" s="5" t="s">
-        <v>1086</v>
       </c>
       <c r="T68" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>7</v>
@@ -9329,7 +9335,7 @@
         <v>466</v>
       </c>
       <c r="I69" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="J69" t="s">
         <v>457</v>
@@ -9338,25 +9344,25 @@
         <v>457</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="R69" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="T69" s="5" t="s">
         <v>631</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>7</v>
@@ -9382,7 +9388,7 @@
         <v>467</v>
       </c>
       <c r="I70" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="J70" t="s">
         <v>511</v>
@@ -9391,25 +9397,25 @@
         <v>511</v>
       </c>
       <c r="N70" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="P70" t="s">
         <v>626</v>
       </c>
       <c r="R70" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="S70" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="T70" t="s">
         <v>631</v>
       </c>
       <c r="U70" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="V70" t="s">
         <v>7</v>
@@ -9435,7 +9441,7 @@
         <v>466</v>
       </c>
       <c r="I71" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="J71" t="s">
         <v>457</v>
@@ -9444,25 +9450,25 @@
         <v>457</v>
       </c>
       <c r="O71" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q71" t="s">
         <v>1094</v>
       </c>
-      <c r="P71" t="s">
-        <v>1095</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>1099</v>
-      </c>
       <c r="R71" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="S71" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="T71" t="s">
         <v>631</v>
       </c>
       <c r="U71" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="V71" t="s">
         <v>7</v>
@@ -9488,7 +9494,7 @@
         <v>469</v>
       </c>
       <c r="I72" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="J72" t="s">
         <v>511</v>
@@ -9497,13 +9503,13 @@
         <v>511</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="P72" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="R72" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="S72" t="s">
         <v>41</v>
@@ -9512,7 +9518,7 @@
         <v>631</v>
       </c>
       <c r="U72" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="V72" t="s">
         <v>7</v>
@@ -9544,25 +9550,25 @@
         <v>456</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="P73" t="s">
         <v>626</v>
       </c>
       <c r="Q73" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="R73" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="S73" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="T73" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U73" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="V73" t="s">
         <v>7</v>
@@ -9591,7 +9597,7 @@
         <v>469</v>
       </c>
       <c r="I74" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="J74" t="s">
         <v>511</v>
@@ -9600,22 +9606,22 @@
         <v>511</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="P74" t="s">
-        <v>1110</v>
+        <v>1552</v>
       </c>
       <c r="R74" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="S74" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="T74" t="s">
         <v>631</v>
       </c>
       <c r="U74" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="V74" t="s">
         <v>7</v>
@@ -9641,7 +9647,7 @@
         <v>480</v>
       </c>
       <c r="I75" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="J75" t="s">
         <v>463</v>
@@ -9653,25 +9659,25 @@
         <v>456</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="P75" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="Q75" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="S75" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="T75" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="U75" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="V75" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -9694,7 +9700,7 @@
         <v>480</v>
       </c>
       <c r="I76" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="J76" t="s">
         <v>457</v>
@@ -9703,28 +9709,28 @@
         <v>457</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="P76" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Q76" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="R76" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="S76" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="T76" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U76" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="V76" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -9753,25 +9759,25 @@
         <v>450</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="P77" t="s">
         <v>626</v>
       </c>
       <c r="Q77" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="R77" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="S77" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="T77" t="s">
         <v>631</v>
       </c>
       <c r="U77" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="V77" t="s">
         <v>7</v>
@@ -9800,7 +9806,7 @@
         <v>467</v>
       </c>
       <c r="I78" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="J78" t="s">
         <v>457</v>
@@ -9809,19 +9815,19 @@
         <v>457</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="P78" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="Q78" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="T78" t="s">
         <v>631</v>
       </c>
       <c r="U78" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="V78" t="s">
         <v>7</v>
@@ -9853,25 +9859,25 @@
         <v>456</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="P79" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="Q79" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="R79" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="S79" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="T79" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U79" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -9897,7 +9903,7 @@
         <v>468</v>
       </c>
       <c r="I80" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="J80" t="s">
         <v>457</v>
@@ -9906,25 +9912,25 @@
         <v>457</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="P80" t="s">
         <v>626</v>
       </c>
       <c r="Q80" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="R80" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="S80" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="T80" t="s">
         <v>631</v>
       </c>
       <c r="U80" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="V80" t="s">
         <v>7</v>
@@ -9950,7 +9956,7 @@
         <v>501</v>
       </c>
       <c r="I81" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="J81" t="s">
         <v>511</v>
@@ -9959,25 +9965,25 @@
         <v>511</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="P81" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="R81" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="S81" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="T81" t="s">
         <v>631</v>
       </c>
       <c r="U81" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="V81" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
@@ -10003,7 +10009,7 @@
         <v>501</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="J82" t="s">
         <v>457</v>
@@ -10012,28 +10018,28 @@
         <v>457</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="P82" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="Q82" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="R82" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="S82" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="T82" t="s">
         <v>631</v>
       </c>
       <c r="U82" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="V82" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -10056,7 +10062,7 @@
         <v>467</v>
       </c>
       <c r="I83" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="J83" t="s">
         <v>463</v>
@@ -10068,22 +10074,22 @@
         <v>456</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="P83" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Q83" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="R83" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="T83" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="U83" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="V83" t="s">
         <v>7</v>
@@ -10115,25 +10121,25 @@
         <v>457</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="P84" t="s">
         <v>626</v>
       </c>
       <c r="Q84" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="R84" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="S84" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="T84" t="s">
         <v>631</v>
       </c>
       <c r="U84" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="V84" t="s">
         <v>7</v>
@@ -10159,7 +10165,7 @@
         <v>466</v>
       </c>
       <c r="I85" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="J85" t="s">
         <v>457</v>
@@ -10168,25 +10174,25 @@
         <v>457</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="P85" t="s">
         <v>626</v>
       </c>
       <c r="Q85" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="R85" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="S85" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="T85" t="s">
         <v>631</v>
       </c>
       <c r="U85" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -10209,7 +10215,7 @@
         <v>466</v>
       </c>
       <c r="I86" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="J86" t="s">
         <v>511</v>
@@ -10218,25 +10224,25 @@
         <v>511</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="P86" t="s">
         <v>626</v>
       </c>
       <c r="Q86" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="R86" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="S86" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="T86" t="s">
         <v>631</v>
       </c>
       <c r="U86" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -10259,7 +10265,7 @@
         <v>466</v>
       </c>
       <c r="I87" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="J87" t="s">
         <v>457</v>
@@ -10268,25 +10274,25 @@
         <v>457</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="P87" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q87" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="R87" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="S87" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="T87" t="s">
         <v>631</v>
       </c>
       <c r="U87" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="V87" t="s">
         <v>7</v>
@@ -10318,25 +10324,25 @@
         <v>452</v>
       </c>
       <c r="O88" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="P88" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>677</v>
+      </c>
+      <c r="R88" t="s">
+        <v>678</v>
+      </c>
+      <c r="S88" t="s">
         <v>679</v>
-      </c>
-      <c r="P88" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>680</v>
-      </c>
-      <c r="R88" t="s">
-        <v>681</v>
-      </c>
-      <c r="S88" t="s">
-        <v>682</v>
       </c>
       <c r="T88" t="s">
         <v>631</v>
       </c>
       <c r="U88" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="V88" t="s">
         <v>7</v>
@@ -10362,7 +10368,7 @@
         <v>501</v>
       </c>
       <c r="I89" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="J89" t="s">
         <v>457</v>
@@ -10371,28 +10377,28 @@
         <v>457</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="P89" t="s">
         <v>626</v>
       </c>
       <c r="Q89" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="R89" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="S89" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="T89" t="s">
         <v>631</v>
       </c>
       <c r="U89" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="V89" s="6" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -10421,25 +10427,25 @@
         <v>450</v>
       </c>
       <c r="O90" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="P90" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>683</v>
+      </c>
+      <c r="R90" t="s">
         <v>684</v>
       </c>
-      <c r="P90" t="s">
+      <c r="S90" t="s">
         <v>685</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>686</v>
-      </c>
-      <c r="R90" t="s">
-        <v>687</v>
-      </c>
-      <c r="S90" t="s">
-        <v>688</v>
       </c>
       <c r="T90" t="s">
         <v>631</v>
       </c>
       <c r="U90" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="V90" t="s">
         <v>7</v>
@@ -10465,7 +10471,7 @@
         <v>501</v>
       </c>
       <c r="I91" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="J91" t="s">
         <v>462</v>
@@ -10474,25 +10480,25 @@
         <v>509</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="P91" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="R91" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="S91" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="T91" t="s">
         <v>631</v>
       </c>
       <c r="U91" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="V91" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -10515,7 +10521,7 @@
         <v>466</v>
       </c>
       <c r="I92" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="J92" t="s">
         <v>462</v>
@@ -10524,22 +10530,22 @@
         <v>509</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="P92" t="s">
-        <v>1199</v>
+        <v>1553</v>
       </c>
       <c r="R92" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="S92" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="T92" t="s">
         <v>631</v>
       </c>
       <c r="U92" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="V92" t="s">
         <v>7</v>
@@ -10571,25 +10577,25 @@
         <v>455</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="P93" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="Q93" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="R93" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="S93" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="T93" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U93" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="V93" t="s">
         <v>7</v>
@@ -10627,25 +10633,25 @@
         <v>455</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="P94" t="s">
         <v>626</v>
       </c>
       <c r="Q94" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="R94" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="S94" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="T94" t="s">
         <v>631</v>
       </c>
       <c r="U94" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="V94" t="s">
         <v>7</v>
@@ -10671,7 +10677,7 @@
         <v>507</v>
       </c>
       <c r="I95" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="J95" t="s">
         <v>457</v>
@@ -10680,25 +10686,25 @@
         <v>457</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="P95" t="s">
         <v>626</v>
       </c>
       <c r="R95" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="S95" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="T95" t="s">
         <v>631</v>
       </c>
       <c r="U95" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="V95" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -10721,7 +10727,7 @@
         <v>480</v>
       </c>
       <c r="I96" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="J96" t="s">
         <v>457</v>
@@ -10733,25 +10739,25 @@
         <v>451</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="P96" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="Q96" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="S96" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="T96" t="s">
         <v>631</v>
       </c>
       <c r="U96" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="V96" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -10786,22 +10792,22 @@
         <v>452</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="P97" t="s">
         <v>626</v>
       </c>
       <c r="R97" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="S97" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="T97" t="s">
         <v>631</v>
       </c>
       <c r="U97" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="V97" t="s">
         <v>7</v>
@@ -10830,7 +10836,7 @@
         <v>466</v>
       </c>
       <c r="I98" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="J98" t="s">
         <v>462</v>
@@ -10845,25 +10851,25 @@
         <v>511</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="P98" t="s">
         <v>626</v>
       </c>
       <c r="R98" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="S98" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="T98" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="U98" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="V98" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -10886,7 +10892,7 @@
         <v>466</v>
       </c>
       <c r="I99" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="J99" t="s">
         <v>457</v>
@@ -10895,25 +10901,25 @@
         <v>457</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="P99" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="Q99" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="R99" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="S99" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="T99" t="s">
         <v>631</v>
       </c>
       <c r="U99" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="V99" t="s">
         <v>7</v>
@@ -10945,25 +10951,25 @@
         <v>509</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="P100" t="s">
         <v>626</v>
       </c>
       <c r="Q100" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="R100" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="S100" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="T100" t="s">
         <v>631</v>
       </c>
       <c r="U100" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="V100" t="s">
         <v>7</v>
@@ -10992,7 +10998,7 @@
         <v>507</v>
       </c>
       <c r="I101" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="J101" t="s">
         <v>461</v>
@@ -11001,25 +11007,25 @@
         <v>455</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="P101" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="Q101" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="R101" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="S101" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="T101" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U101" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="V101" t="s">
         <v>7</v>
@@ -11048,7 +11054,7 @@
         <v>507</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J102" t="s">
         <v>457</v>
@@ -11057,28 +11063,28 @@
         <v>457</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="P102" t="s">
-        <v>1244</v>
+        <v>1554</v>
       </c>
       <c r="Q102" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="R102" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="S102" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="T102" t="s">
         <v>631</v>
       </c>
       <c r="U102" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="V102" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -11098,7 +11104,7 @@
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G103" t="s">
         <v>466</v>
@@ -11119,25 +11125,25 @@
         <v>455</v>
       </c>
       <c r="O103" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="P103" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>698</v>
+      </c>
+      <c r="R103" t="s">
         <v>699</v>
       </c>
-      <c r="P103" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q103" t="s">
+      <c r="S103" t="s">
         <v>701</v>
-      </c>
-      <c r="R103" t="s">
-        <v>702</v>
-      </c>
-      <c r="S103" t="s">
-        <v>704</v>
       </c>
       <c r="T103" t="s">
         <v>631</v>
       </c>
       <c r="U103" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -11169,19 +11175,19 @@
         <v>511</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="P104" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Q104" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="R104" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="S104" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="T104" t="s">
         <v>631</v>
@@ -11190,7 +11196,7 @@
         <v>41</v>
       </c>
       <c r="V104" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -11216,7 +11222,7 @@
         <v>474</v>
       </c>
       <c r="I105" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="J105" t="s">
         <v>457</v>
@@ -11225,28 +11231,28 @@
         <v>457</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="P105" t="s">
-        <v>1252</v>
+        <v>1555</v>
       </c>
       <c r="Q105" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="R105" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="S105" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="T105" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U105" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="V105" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -11275,22 +11281,22 @@
         <v>511</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="P106" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="R106" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="S106" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="T106" t="s">
         <v>631</v>
       </c>
       <c r="U106" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="V106" t="s">
         <v>7</v>
@@ -11325,25 +11331,25 @@
         <v>457</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="P107" t="s">
         <v>626</v>
       </c>
       <c r="Q107" t="s">
+        <v>708</v>
+      </c>
+      <c r="R107" t="s">
         <v>711</v>
       </c>
-      <c r="R107" t="s">
-        <v>714</v>
-      </c>
       <c r="S107" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="T107" t="s">
         <v>631</v>
       </c>
       <c r="U107" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="V107" t="s">
         <v>7</v>
@@ -11372,7 +11378,7 @@
         <v>467</v>
       </c>
       <c r="I108" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="J108" t="s">
         <v>453</v>
@@ -11387,25 +11393,25 @@
         <v>455</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="P108" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="Q108" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="S108" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="T108" t="s">
         <v>631</v>
       </c>
       <c r="U108" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="V108" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -11428,7 +11434,7 @@
         <v>507</v>
       </c>
       <c r="I109" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="J109" t="s">
         <v>462</v>
@@ -11437,16 +11443,19 @@
         <v>509</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>1269</v>
+        <v>1260</v>
+      </c>
+      <c r="P109" t="s">
+        <v>626</v>
       </c>
       <c r="S109" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="T109" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U109" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="V109" t="s">
         <v>7</v>
@@ -11475,7 +11484,7 @@
         <v>501</v>
       </c>
       <c r="I110" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="J110" t="s">
         <v>511</v>
@@ -11484,25 +11493,25 @@
         <v>511</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="P110" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="Q110" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="S110" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="T110" t="s">
         <v>631</v>
       </c>
       <c r="U110" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="V110" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -11525,7 +11534,7 @@
         <v>465</v>
       </c>
       <c r="I111" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="J111" t="s">
         <v>462</v>
@@ -11534,22 +11543,22 @@
         <v>509</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="P111" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="R111" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="S111" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="T111" t="s">
         <v>631</v>
       </c>
       <c r="U111" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="V111" t="s">
         <v>7</v>
@@ -11581,25 +11590,25 @@
         <v>457</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="P112" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="Q112" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="R112" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="S112" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="T112" t="s">
         <v>631</v>
       </c>
       <c r="U112" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -11622,7 +11631,7 @@
         <v>480</v>
       </c>
       <c r="I113" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="J113" t="s">
         <v>511</v>
@@ -11631,19 +11640,22 @@
         <v>511</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>1288</v>
+        <v>1279</v>
+      </c>
+      <c r="P113" t="s">
+        <v>709</v>
       </c>
       <c r="S113" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="T113" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="U113" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="V113" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
@@ -11675,22 +11687,22 @@
         <v>453</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="P114" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="R114" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="S114" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="T114" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U114" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="V114" t="s">
         <v>7</v>
@@ -11722,25 +11734,25 @@
         <v>457</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="P115" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="R115" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="S115" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="T115" t="s">
         <v>631</v>
       </c>
       <c r="U115" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="V115" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
@@ -11769,19 +11781,19 @@
         <v>511</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="P116" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="S116" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="T116" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="U116" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="V116" t="s">
         <v>7</v>
@@ -11807,7 +11819,7 @@
         <v>467</v>
       </c>
       <c r="I117" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="J117" t="s">
         <v>511</v>
@@ -11816,19 +11828,19 @@
         <v>511</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="P117" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="S117" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="T117" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="U117" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="V117" t="s">
         <v>7</v>
@@ -11869,22 +11881,22 @@
         <v>511</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="P118" t="s">
-        <v>1309</v>
+        <v>1556</v>
       </c>
       <c r="S118" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="T118" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U118" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="V118" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
@@ -11907,7 +11919,7 @@
         <v>466</v>
       </c>
       <c r="I119" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="J119" t="s">
         <v>457</v>
@@ -11916,25 +11928,25 @@
         <v>457</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="P119" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="Q119" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="R119" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="S119" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="T119" t="s">
         <v>631</v>
       </c>
       <c r="U119" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="V119" t="s">
         <v>7</v>
@@ -11963,7 +11975,7 @@
         <v>467</v>
       </c>
       <c r="I120" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="J120" t="s">
         <v>457</v>
@@ -11972,25 +11984,25 @@
         <v>457</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="P120" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q120" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="R120" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="S120" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="T120" t="s">
         <v>631</v>
       </c>
       <c r="U120" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="V120" t="s">
         <v>7</v>
@@ -12016,7 +12028,7 @@
         <v>466</v>
       </c>
       <c r="I121" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="J121" t="s">
         <v>457</v>
@@ -12025,25 +12037,25 @@
         <v>457</v>
       </c>
       <c r="O121" s="8" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="P121" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>1316</v>
+      </c>
+      <c r="R121" t="s">
+        <v>1317</v>
+      </c>
+      <c r="S121" t="s">
         <v>784</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>1326</v>
-      </c>
-      <c r="R121" t="s">
-        <v>1327</v>
-      </c>
-      <c r="S121" t="s">
-        <v>787</v>
       </c>
       <c r="T121" t="s">
         <v>631</v>
       </c>
       <c r="U121" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="V121" t="s">
         <v>7</v>
@@ -12072,7 +12084,7 @@
         <v>467</v>
       </c>
       <c r="I122" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="J122" t="s">
         <v>511</v>
@@ -12081,19 +12093,19 @@
         <v>511</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="P122" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="S122" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="T122" t="s">
         <v>631</v>
       </c>
       <c r="U122" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="V122" t="s">
         <v>7</v>
@@ -12125,22 +12137,22 @@
         <v>453</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="P123" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="Q123" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="S123" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="T123" t="s">
         <v>631</v>
       </c>
       <c r="U123" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="V123" t="s">
         <v>7</v>
@@ -12172,19 +12184,19 @@
         <v>454</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="P124" t="s">
         <v>626</v>
       </c>
       <c r="S124" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="T124" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U124" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="V124" t="s">
         <v>7</v>
@@ -12228,16 +12240,16 @@
         <v>451</v>
       </c>
       <c r="O125" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="P125" t="s">
         <v>717</v>
       </c>
-      <c r="P125" t="s">
-        <v>720</v>
-      </c>
       <c r="Q125" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="R125" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="S125" t="s">
         <v>41</v>
@@ -12246,10 +12258,10 @@
         <v>631</v>
       </c>
       <c r="U125" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="V125" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
@@ -12281,22 +12293,22 @@
         <v>511</v>
       </c>
       <c r="O126" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="P126" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>722</v>
+      </c>
+      <c r="S126" t="s">
         <v>723</v>
-      </c>
-      <c r="P126" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>725</v>
-      </c>
-      <c r="S126" t="s">
-        <v>726</v>
       </c>
       <c r="T126" t="s">
         <v>615</v>
       </c>
       <c r="U126" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
@@ -12319,7 +12331,7 @@
         <v>501</v>
       </c>
       <c r="I127" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="J127" t="s">
         <v>462</v>
@@ -12328,25 +12340,25 @@
         <v>509</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="P127" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="R127" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="S127" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="T127" t="s">
         <v>631</v>
       </c>
       <c r="U127" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="V127" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -12372,7 +12384,7 @@
         <v>467</v>
       </c>
       <c r="I128" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="J128" t="s">
         <v>458</v>
@@ -12387,25 +12399,25 @@
         <v>457</v>
       </c>
       <c r="O128" s="8" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="P128" t="s">
-        <v>1244</v>
+        <v>1554</v>
       </c>
       <c r="Q128" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="R128" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="S128" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="T128" t="s">
         <v>631</v>
       </c>
       <c r="U128" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="V128" t="s">
         <v>7</v>
@@ -12431,7 +12443,7 @@
         <v>466</v>
       </c>
       <c r="I129" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="J129" t="s">
         <v>457</v>
@@ -12440,25 +12452,25 @@
         <v>457</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="P129" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="Q129" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="R129" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="S129" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="T129" t="s">
         <v>631</v>
       </c>
       <c r="U129" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="V129" t="s">
         <v>7</v>
@@ -12490,25 +12502,25 @@
         <v>457</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="P130" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="Q130" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="R130" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="S130" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="T130" t="s">
         <v>631</v>
       </c>
       <c r="U130" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="V130" t="s">
         <v>7</v>
@@ -12540,22 +12552,22 @@
         <v>455</v>
       </c>
       <c r="O131" s="8" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="P131" t="s">
         <v>626</v>
       </c>
       <c r="Q131" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="S131" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="T131" t="s">
         <v>631</v>
       </c>
       <c r="U131" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="V131" t="s">
         <v>7</v>
@@ -12590,25 +12602,25 @@
         <v>509</v>
       </c>
       <c r="O132" s="8" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="P132" t="s">
-        <v>1368</v>
+        <v>1561</v>
       </c>
       <c r="Q132" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="R132" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="S132" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="T132" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U132" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="V132" t="s">
         <v>7</v>
@@ -12643,22 +12655,22 @@
         <v>509</v>
       </c>
       <c r="O133" s="8" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
       <c r="P133" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="Q133" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="S133" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="T133" t="s">
         <v>631</v>
       </c>
       <c r="U133" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
@@ -12681,7 +12693,7 @@
         <v>474</v>
       </c>
       <c r="I134" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
       <c r="J134" t="s">
         <v>509</v>
@@ -12690,19 +12702,22 @@
         <v>509</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>1375</v>
+        <v>1364</v>
+      </c>
+      <c r="P134" t="s">
+        <v>709</v>
       </c>
       <c r="S134" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="T134" t="s">
         <v>631</v>
       </c>
       <c r="U134" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
       <c r="V134" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
@@ -12731,19 +12746,19 @@
         <v>457</v>
       </c>
       <c r="O135" s="8" t="s">
-        <v>1380</v>
+        <v>1369</v>
       </c>
       <c r="P135" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="S135" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
       <c r="T135" t="s">
         <v>631</v>
       </c>
       <c r="U135" t="s">
-        <v>1382</v>
+        <v>1371</v>
       </c>
       <c r="V135" t="s">
         <v>7</v>
@@ -12769,7 +12784,7 @@
         <v>466</v>
       </c>
       <c r="I136" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="J136" t="s">
         <v>463</v>
@@ -12781,25 +12796,25 @@
         <v>456</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>1383</v>
+        <v>1372</v>
       </c>
       <c r="P136" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="Q136" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="R136" t="s">
-        <v>1386</v>
+        <v>1375</v>
       </c>
       <c r="S136" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
       <c r="T136" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="U136" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="V136" t="s">
         <v>7</v>
@@ -12825,7 +12840,7 @@
         <v>466</v>
       </c>
       <c r="I137" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
       <c r="J137" t="s">
         <v>511</v>
@@ -12834,16 +12849,19 @@
         <v>511</v>
       </c>
       <c r="O137" s="8" t="s">
-        <v>1391</v>
+        <v>1380</v>
+      </c>
+      <c r="P137" t="s">
+        <v>709</v>
       </c>
       <c r="S137" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="T137" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U137" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="V137" t="s">
         <v>7</v>
@@ -12869,7 +12887,7 @@
         <v>466</v>
       </c>
       <c r="I138" t="s">
-        <v>1399</v>
+        <v>1388</v>
       </c>
       <c r="J138" t="s">
         <v>460</v>
@@ -12884,25 +12902,25 @@
         <v>457</v>
       </c>
       <c r="O138" s="8" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="P138" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Q138" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="R138" t="s">
-        <v>1396</v>
+        <v>1385</v>
       </c>
       <c r="S138" t="s">
-        <v>1397</v>
+        <v>1386</v>
       </c>
       <c r="T138" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U138" t="s">
-        <v>1398</v>
+        <v>1387</v>
       </c>
       <c r="V138" t="s">
         <v>7</v>
@@ -12934,16 +12952,19 @@
         <v>454</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>1400</v>
+        <v>1389</v>
+      </c>
+      <c r="P139" t="s">
+        <v>777</v>
       </c>
       <c r="S139" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="T139" t="s">
         <v>631</v>
       </c>
       <c r="U139" t="s">
-        <v>1401</v>
+        <v>1390</v>
       </c>
       <c r="V139" t="s">
         <v>7</v>
@@ -12975,19 +12996,22 @@
         <v>511</v>
       </c>
       <c r="O140" s="8" t="s">
-        <v>1403</v>
+        <v>1392</v>
+      </c>
+      <c r="P140" t="s">
+        <v>709</v>
       </c>
       <c r="R140" t="s">
         <v>41</v>
       </c>
       <c r="S140" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="T140" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="U140" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="V140" t="s">
         <v>7</v>
@@ -13016,7 +13040,7 @@
         <v>480</v>
       </c>
       <c r="I141" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="J141" t="s">
         <v>511</v>
@@ -13025,25 +13049,25 @@
         <v>511</v>
       </c>
       <c r="O141" s="8" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="P141" t="s">
-        <v>1409</v>
+        <v>1557</v>
       </c>
       <c r="Q141" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="R141" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="T141" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U141" t="s">
-        <v>1408</v>
+        <v>1397</v>
       </c>
       <c r="V141" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
@@ -13066,7 +13090,7 @@
         <v>467</v>
       </c>
       <c r="I142" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="J142" t="s">
         <v>463</v>
@@ -13078,25 +13102,25 @@
         <v>456</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="P142" t="s">
         <v>626</v>
       </c>
       <c r="Q142" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="R142" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="S142" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="T142" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U142" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="V142" t="s">
         <v>7</v>
@@ -13122,7 +13146,7 @@
         <v>487</v>
       </c>
       <c r="I143" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="J143" t="s">
         <v>457</v>
@@ -13134,25 +13158,25 @@
         <v>451</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="P143" t="s">
         <v>626</v>
       </c>
       <c r="Q143" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="S143" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="T143" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="U143" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="V143" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
@@ -13187,25 +13211,25 @@
         <v>457</v>
       </c>
       <c r="O144" s="8" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="P144" t="s">
         <v>626</v>
       </c>
       <c r="Q144" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="R144" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="S144" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="T144" t="s">
         <v>631</v>
       </c>
       <c r="U144" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
@@ -13231,7 +13255,7 @@
         <v>467</v>
       </c>
       <c r="I145" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="J145" t="s">
         <v>463</v>
@@ -13240,25 +13264,25 @@
         <v>456</v>
       </c>
       <c r="O145" s="8" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="P145" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="Q145" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="R145" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="S145" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="T145" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U145" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="V145" t="s">
         <v>7</v>
@@ -13284,7 +13308,7 @@
         <v>466</v>
       </c>
       <c r="I146" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="J146" t="s">
         <v>461</v>
@@ -13293,25 +13317,25 @@
         <v>455</v>
       </c>
       <c r="O146" s="8" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="P146" t="s">
         <v>626</v>
       </c>
       <c r="Q146" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="R146" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="S146" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="T146" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U146" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="V146" t="s">
         <v>7</v>
@@ -13340,7 +13364,7 @@
         <v>474</v>
       </c>
       <c r="I147" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="J147" t="s">
         <v>453</v>
@@ -13355,25 +13379,25 @@
         <v>455</v>
       </c>
       <c r="O147" s="8" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="P147" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="Q147" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="S147" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="T147" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="U147" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
       <c r="V147" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
@@ -13396,7 +13420,7 @@
         <v>466</v>
       </c>
       <c r="I148" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="J148" t="s">
         <v>509</v>
@@ -13408,22 +13432,22 @@
         <v>509</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="P148" t="s">
         <v>617</v>
       </c>
       <c r="R148" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="S148" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="T148" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="U148" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
       <c r="V148" t="s">
         <v>7</v>
@@ -13449,7 +13473,7 @@
         <v>465</v>
       </c>
       <c r="I149" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="J149" t="s">
         <v>457</v>
@@ -13458,22 +13482,22 @@
         <v>457</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="P149" t="s">
         <v>626</v>
       </c>
       <c r="R149" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="S149" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="T149" t="s">
         <v>631</v>
       </c>
       <c r="U149" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="V149" t="s">
         <v>7</v>
@@ -13502,7 +13526,7 @@
         <v>467</v>
       </c>
       <c r="I150" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="J150" t="s">
         <v>457</v>
@@ -13511,22 +13535,22 @@
         <v>457</v>
       </c>
       <c r="O150" s="8" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="P150" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="R150" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
       <c r="S150" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="T150" t="s">
         <v>631</v>
       </c>
       <c r="U150" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="V150" t="s">
         <v>7</v>
@@ -13555,7 +13579,7 @@
         <v>467</v>
       </c>
       <c r="I151" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="J151" t="s">
         <v>457</v>
@@ -13564,22 +13588,22 @@
         <v>457</v>
       </c>
       <c r="O151" s="8" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="P151" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="R151" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="S151" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="T151" t="s">
         <v>631</v>
       </c>
       <c r="U151" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="V151" t="s">
         <v>7</v>
@@ -13605,7 +13629,7 @@
         <v>467</v>
       </c>
       <c r="I152" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="J152" t="s">
         <v>511</v>
@@ -13614,19 +13638,22 @@
         <v>511</v>
       </c>
       <c r="O152" s="8" t="s">
-        <v>1462</v>
+        <v>1450</v>
+      </c>
+      <c r="P152" t="s">
+        <v>1558</v>
       </c>
       <c r="R152" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="S152" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
       <c r="T152" t="s">
         <v>631</v>
       </c>
       <c r="U152" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="V152" t="s">
         <v>7</v>
@@ -13652,7 +13679,7 @@
         <v>466</v>
       </c>
       <c r="I153" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="J153" t="s">
         <v>461</v>
@@ -13667,25 +13694,25 @@
         <v>454</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="P153" t="s">
         <v>626</v>
       </c>
       <c r="Q153" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
       <c r="R153" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="S153" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="T153" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U153" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="V153" t="s">
         <v>7</v>
@@ -13723,28 +13750,28 @@
         <v>509</v>
       </c>
       <c r="O154" s="8" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
       <c r="P154" t="s">
         <v>626</v>
       </c>
       <c r="Q154" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="R154" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="S154" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="T154" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="U154" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="V154" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
@@ -13776,22 +13803,22 @@
         <v>454</v>
       </c>
       <c r="O155" s="8" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="P155" t="s">
         <v>626</v>
       </c>
       <c r="R155" t="s">
+        <v>731</v>
+      </c>
+      <c r="S155" t="s">
+        <v>732</v>
+      </c>
+      <c r="T155" t="s">
+        <v>733</v>
+      </c>
+      <c r="U155" t="s">
         <v>734</v>
-      </c>
-      <c r="S155" t="s">
-        <v>735</v>
-      </c>
-      <c r="T155" t="s">
-        <v>736</v>
-      </c>
-      <c r="U155" t="s">
-        <v>737</v>
       </c>
       <c r="V155" t="s">
         <v>7</v>
@@ -13819,7 +13846,7 @@
       </c>
       <c r="H156"/>
       <c r="I156" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
       <c r="J156" t="s">
         <v>457</v>
@@ -13835,25 +13862,25 @@
       </c>
       <c r="N156"/>
       <c r="O156" s="8" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="P156" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="Q156" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="R156" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="S156" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="T156" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U156" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
       <c r="V156" t="s">
         <v>7</v>
@@ -13879,7 +13906,7 @@
         <v>466</v>
       </c>
       <c r="I157" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="J157" t="s">
         <v>463</v>
@@ -13888,25 +13915,25 @@
         <v>456</v>
       </c>
       <c r="O157" s="8" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="P157" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="Q157" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="R157" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="S157" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="T157" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U157" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
       <c r="V157" t="s">
         <v>7</v>
@@ -13935,7 +13962,7 @@
         <v>478</v>
       </c>
       <c r="I158" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
       <c r="J158" t="s">
         <v>511</v>
@@ -13944,25 +13971,25 @@
         <v>511</v>
       </c>
       <c r="O158" s="8" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
       <c r="P158" t="s">
+        <v>781</v>
+      </c>
+      <c r="R158" t="s">
+        <v>1481</v>
+      </c>
+      <c r="S158" t="s">
         <v>784</v>
-      </c>
-      <c r="R158" t="s">
-        <v>1493</v>
-      </c>
-      <c r="S158" t="s">
-        <v>787</v>
       </c>
       <c r="T158" t="s">
         <v>631</v>
       </c>
       <c r="U158" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
       <c r="V158" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.25">
@@ -13985,7 +14012,7 @@
         <v>466</v>
       </c>
       <c r="I159" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="J159" t="s">
         <v>511</v>
@@ -13994,16 +14021,19 @@
         <v>511</v>
       </c>
       <c r="O159" s="8" t="s">
-        <v>1497</v>
+        <v>1485</v>
+      </c>
+      <c r="P159" t="s">
+        <v>717</v>
       </c>
       <c r="S159" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="T159" t="s">
         <v>631</v>
       </c>
       <c r="U159" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="V159" t="s">
         <v>7</v>
@@ -14035,25 +14065,25 @@
         <v>450</v>
       </c>
       <c r="O160" s="8" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
       <c r="P160" t="s">
         <v>626</v>
       </c>
       <c r="R160" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
       <c r="S160" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
       <c r="T160" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U160" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="V160" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.25">
@@ -14079,7 +14109,7 @@
         <v>480</v>
       </c>
       <c r="I161" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
       <c r="J161" t="s">
         <v>509</v>
@@ -14091,25 +14121,25 @@
         <v>451</v>
       </c>
       <c r="O161" s="8" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="P161" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="R161" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="S161" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="T161" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U161" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="V161" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.25">
@@ -14141,25 +14171,25 @@
         <v>451</v>
       </c>
       <c r="O162" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="P162" t="s">
         <v>738</v>
       </c>
-      <c r="P162" t="s">
-        <v>741</v>
-      </c>
       <c r="Q162" t="s">
+        <v>736</v>
+      </c>
+      <c r="R162" t="s">
+        <v>737</v>
+      </c>
+      <c r="S162" t="s">
         <v>739</v>
       </c>
-      <c r="R162" t="s">
+      <c r="T162" t="s">
+        <v>665</v>
+      </c>
+      <c r="U162" t="s">
         <v>740</v>
-      </c>
-      <c r="S162" t="s">
-        <v>742</v>
-      </c>
-      <c r="T162" t="s">
-        <v>668</v>
-      </c>
-      <c r="U162" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.25">
@@ -14185,7 +14215,7 @@
         <v>480</v>
       </c>
       <c r="I163" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="J163" t="s">
         <v>457</v>
@@ -14200,28 +14230,28 @@
         <v>455</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
       <c r="P163" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="Q163" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="R163" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
       <c r="S163" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="T163" t="s">
         <v>631</v>
       </c>
       <c r="U163" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="V163" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.25">
@@ -14250,25 +14280,25 @@
         <v>457</v>
       </c>
       <c r="O164" s="8" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="P164" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
       <c r="Q164" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="R164" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
       <c r="S164" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="T164" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U164" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="V164" t="s">
         <v>7</v>
@@ -14300,25 +14330,25 @@
         <v>457</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="P165" t="s">
         <v>626</v>
       </c>
       <c r="Q165" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="R165" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="S165" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="T165" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U165" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="V165" t="s">
         <v>7</v>
@@ -14350,25 +14380,25 @@
         <v>457</v>
       </c>
       <c r="O166" s="8" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="P166" t="s">
         <v>626</v>
       </c>
       <c r="Q166" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="R166" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="S166" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="T166" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="U166" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="V166" t="s">
         <v>7</v>
@@ -14397,7 +14427,7 @@
         <v>466</v>
       </c>
       <c r="I167" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="J167" t="s">
         <v>463</v>
@@ -14409,25 +14439,25 @@
         <v>456</v>
       </c>
       <c r="O167" s="8" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="P167" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="Q167" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="R167" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="S167" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="T167" t="s">
         <v>631</v>
       </c>
       <c r="U167" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
       <c r="V167" t="s">
         <v>7</v>
@@ -14453,7 +14483,7 @@
         <v>466</v>
       </c>
       <c r="I168" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="J168" t="s">
         <v>462</v>
@@ -14465,22 +14495,22 @@
         <v>452</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
       <c r="P168" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="R168" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
       <c r="S168" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="T168" t="s">
         <v>631</v>
       </c>
       <c r="U168" t="s">
-        <v>1544</v>
+        <v>1532</v>
       </c>
       <c r="V168" t="s">
         <v>7</v>
@@ -14506,7 +14536,7 @@
         <v>466</v>
       </c>
       <c r="I169" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
       <c r="J169" t="s">
         <v>509</v>
@@ -14515,25 +14545,25 @@
         <v>451</v>
       </c>
       <c r="O169" s="8" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="P169" t="s">
         <v>617</v>
       </c>
       <c r="Q169" t="s">
-        <v>1548</v>
+        <v>1536</v>
       </c>
       <c r="R169" t="s">
-        <v>1547</v>
+        <v>1535</v>
       </c>
       <c r="S169" t="s">
-        <v>1549</v>
+        <v>1537</v>
       </c>
       <c r="T169" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="U169" t="s">
-        <v>1550</v>
+        <v>1538</v>
       </c>
       <c r="V169" t="s">
         <v>7</v>
@@ -14565,28 +14595,28 @@
         <v>456</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
       <c r="P170" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="Q170" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
       <c r="R170" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
       <c r="S170" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
       <c r="T170" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U170" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="V170" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.25">
@@ -14615,25 +14645,25 @@
         <v>457</v>
       </c>
       <c r="O171" s="8" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
       <c r="P171" t="s">
         <v>626</v>
       </c>
       <c r="Q171" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="R171" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="S171" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="T171" t="s">
         <v>631</v>
       </c>
       <c r="U171" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="V171" t="s">
         <v>7</v>

--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5548" uniqueCount="1563">
   <si>
     <t>title</t>
   </si>
@@ -4712,6 +4712,9 @@
   </si>
   <si>
     <t>Eastern Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whale conservation goals are due to legal protections - not intrinsic value, but legal value… </t>
   </si>
 </sst>
 </file>
@@ -5566,10 +5569,10 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O132" sqref="O132"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6571,6 +6574,9 @@
       <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F18" s="5" t="s">
+        <v>1562</v>
+      </c>
       <c r="G18" s="5" t="s">
         <v>466</v>
       </c>
@@ -6596,7 +6602,7 @@
         <v>827</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>828</v>
+        <v>665</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>829</v>
@@ -8792,11 +8798,8 @@
       <c r="J59" t="s">
         <v>462</v>
       </c>
-      <c r="K59" t="s">
-        <v>511</v>
-      </c>
       <c r="L59" t="s">
-        <v>511</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s">
         <v>451</v>
@@ -9671,7 +9674,7 @@
         <v>1111</v>
       </c>
       <c r="T75" t="s">
-        <v>1113</v>
+        <v>733</v>
       </c>
       <c r="U75" t="s">
         <v>1114</v>
@@ -10086,7 +10089,7 @@
         <v>1153</v>
       </c>
       <c r="T83" t="s">
-        <v>828</v>
+        <v>665</v>
       </c>
       <c r="U83" t="s">
         <v>1156</v>
@@ -11649,7 +11652,7 @@
         <v>705</v>
       </c>
       <c r="T113" t="s">
-        <v>1113</v>
+        <v>665</v>
       </c>
       <c r="U113" t="s">
         <v>1282</v>
@@ -12230,9 +12233,6 @@
       <c r="J125" t="s">
         <v>457</v>
       </c>
-      <c r="K125" t="s">
-        <v>464</v>
-      </c>
       <c r="L125" t="s">
         <v>457</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>1376</v>
       </c>
       <c r="T136" t="s">
-        <v>1377</v>
+        <v>1548</v>
       </c>
       <c r="U136" t="s">
         <v>1378</v>

--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5548" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="1560">
   <si>
     <t>title</t>
   </si>
@@ -1648,9 +1648,6 @@
     <t>cooke_informationclimateobservingsystems_2014</t>
   </si>
   <si>
-    <t>costello_elniÃ±oforecastsmanagement_2020</t>
-  </si>
-  <si>
     <t>cristini_costmultidisciplinaryfixedocean_2016</t>
   </si>
   <si>
@@ -2509,9 +2506,6 @@
     <t>Remotely sensed data and information</t>
   </si>
   <si>
-    <t>intrinsic;instrumental</t>
-  </si>
-  <si>
     <t>Reduced cost to shippers to achieve mortality target</t>
   </si>
   <si>
@@ -3362,9 +3356,6 @@
   </si>
   <si>
     <t>We identified leading experts in the field of marine animal tracking and asked them to identify case studies where information they had published on animal movements or distribution led to policy change or management action. Experts were selected from the list of previous coauthors on two recent papers that involved tracking data from across multiple taxa [6,12] or had contributed data to two ongoing international collaborative projects, the Marine Megafauna Movement Analytical Program (MMMAP; https://mmmap.wordpress.com) and Migratory Connectivity in the Oceans (MiCO; https://mico.eco), that are synthesizing tracking data across multiple taxa and developing tools to provide policy makers and managers with greater access to usable results from tracking studies. Additional experts were also solicited based on their publications and experience.</t>
-  </si>
-  <si>
-    <t>fundamental;intrinsic</t>
   </si>
   <si>
     <t>improved conservation outcomes</t>
@@ -4159,9 +4150,6 @@
     <t>remote sensing at different scales</t>
   </si>
   <si>
-    <t>intrinsic;fundamental</t>
-  </si>
-  <si>
     <t>biodiversity conservation planning</t>
   </si>
   <si>
@@ -4715,13 +4703,16 @@
   </si>
   <si>
     <t xml:space="preserve">Whale conservation goals are due to legal protections - not intrinsic value, but legal value… </t>
+  </si>
+  <si>
+    <t>costello_elninoforecastsmanagement_2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4876,6 +4867,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -5225,7 +5222,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5245,6 +5242,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5569,10 +5567,10 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="M148" sqref="M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5611,7 +5609,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>504</v>
@@ -5620,7 +5618,7 @@
         <v>503</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>446</v>
@@ -5638,28 +5636,28 @@
         <v>447</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="V1" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -5679,7 +5677,7 @@
         <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G2" t="s">
         <v>474</v>
@@ -5688,34 +5686,34 @@
         <v>484</v>
       </c>
       <c r="I2" t="s">
+        <v>741</v>
+      </c>
+      <c r="J2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L2" t="s">
+        <v>457</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="P2" t="s">
+        <v>648</v>
+      </c>
+      <c r="R2" t="s">
+        <v>746</v>
+      </c>
+      <c r="S2" t="s">
         <v>742</v>
       </c>
-      <c r="J2" t="s">
-        <v>457</v>
-      </c>
-      <c r="L2" t="s">
-        <v>457</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="P2" t="s">
-        <v>649</v>
-      </c>
-      <c r="R2" t="s">
-        <v>747</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>630</v>
+      </c>
+      <c r="U2" t="s">
+        <v>744</v>
+      </c>
+      <c r="V2" t="s">
         <v>743</v>
-      </c>
-      <c r="T2" t="s">
-        <v>631</v>
-      </c>
-      <c r="U2" t="s">
-        <v>745</v>
-      </c>
-      <c r="V2" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -5741,34 +5739,34 @@
         <v>465</v>
       </c>
       <c r="I3" t="s">
+        <v>751</v>
+      </c>
+      <c r="J3" t="s">
+        <v>457</v>
+      </c>
+      <c r="L3" t="s">
+        <v>457</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="P3" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>749</v>
+      </c>
+      <c r="R3" t="s">
+        <v>750</v>
+      </c>
+      <c r="S3" t="s">
+        <v>769</v>
+      </c>
+      <c r="T3" t="s">
+        <v>630</v>
+      </c>
+      <c r="U3" t="s">
         <v>752</v>
-      </c>
-      <c r="J3" t="s">
-        <v>457</v>
-      </c>
-      <c r="L3" t="s">
-        <v>457</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="P3" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>750</v>
-      </c>
-      <c r="R3" t="s">
-        <v>751</v>
-      </c>
-      <c r="S3" t="s">
-        <v>770</v>
-      </c>
-      <c r="T3" t="s">
-        <v>631</v>
-      </c>
-      <c r="U3" t="s">
-        <v>753</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -5797,7 +5795,7 @@
         <v>465</v>
       </c>
       <c r="I4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J4" t="s">
         <v>457</v>
@@ -5806,25 +5804,25 @@
         <v>457</v>
       </c>
       <c r="O4" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="P4" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>755</v>
+      </c>
+      <c r="R4" t="s">
+        <v>756</v>
+      </c>
+      <c r="S4" t="s">
+        <v>769</v>
+      </c>
+      <c r="T4" t="s">
+        <v>630</v>
+      </c>
+      <c r="U4" t="s">
         <v>754</v>
-      </c>
-      <c r="P4" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>756</v>
-      </c>
-      <c r="R4" t="s">
-        <v>757</v>
-      </c>
-      <c r="S4" t="s">
-        <v>770</v>
-      </c>
-      <c r="T4" t="s">
-        <v>631</v>
-      </c>
-      <c r="U4" t="s">
-        <v>755</v>
       </c>
       <c r="V4" t="s">
         <v>7</v>
@@ -5847,13 +5845,13 @@
         <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G5" t="s">
         <v>475</v>
       </c>
       <c r="I5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J5" t="s">
         <v>509</v>
@@ -5865,28 +5863,28 @@
         <v>510</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="P5" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>608</v>
+      </c>
+      <c r="R5" t="s">
+        <v>615</v>
+      </c>
+      <c r="S5" t="s">
         <v>610</v>
       </c>
-      <c r="P5" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>609</v>
-      </c>
-      <c r="R5" t="s">
-        <v>616</v>
-      </c>
-      <c r="S5" t="s">
-        <v>611</v>
-      </c>
       <c r="T5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="V5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -5912,34 +5910,34 @@
         <v>474</v>
       </c>
       <c r="I6" t="s">
+        <v>761</v>
+      </c>
+      <c r="J6" t="s">
+        <v>457</v>
+      </c>
+      <c r="L6" t="s">
+        <v>457</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P6" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q6" t="s">
         <v>762</v>
       </c>
-      <c r="J6" t="s">
-        <v>457</v>
-      </c>
-      <c r="L6" t="s">
-        <v>457</v>
-      </c>
-      <c r="O6" s="8" t="s">
+      <c r="S6" t="s">
+        <v>770</v>
+      </c>
+      <c r="T6" t="s">
+        <v>630</v>
+      </c>
+      <c r="U6" t="s">
         <v>759</v>
       </c>
-      <c r="P6" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="V6" t="s">
         <v>763</v>
-      </c>
-      <c r="S6" t="s">
-        <v>771</v>
-      </c>
-      <c r="T6" t="s">
-        <v>631</v>
-      </c>
-      <c r="U6" t="s">
-        <v>760</v>
-      </c>
-      <c r="V6" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5962,7 +5960,7 @@
         <v>474</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>509</v>
@@ -5971,28 +5969,28 @@
         <v>451</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6015,7 +6013,7 @@
         <v>466</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>457</v>
@@ -6030,25 +6028,25 @@
         <v>455</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>767</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>768</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>7</v>
@@ -6071,7 +6069,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>466</v>
@@ -6080,31 +6078,31 @@
         <v>465</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="P9" s="5" t="s">
+      <c r="S9" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>777</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>778</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>7</v>
@@ -6127,13 +6125,13 @@
         <v>193</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>466</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>457</v>
@@ -6148,25 +6146,25 @@
         <v>452</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P10" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>784</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>785</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>7</v>
@@ -6195,31 +6193,31 @@
         <v>467</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6242,7 +6240,7 @@
         <v>501</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>509</v>
@@ -6251,28 +6249,28 @@
         <v>450</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="P12" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>796</v>
-      </c>
       <c r="T12" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U12" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>800</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6295,7 +6293,7 @@
         <v>466</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>457</v>
@@ -6304,25 +6302,25 @@
         <v>457</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="Q13" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="R13" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U13" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>807</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>7</v>
@@ -6354,7 +6352,7 @@
         <v>507</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>457</v>
@@ -6369,25 +6367,25 @@
         <v>455</v>
       </c>
       <c r="O14" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="S14" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="S14" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>7</v>
@@ -6413,7 +6411,7 @@
         <v>466</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>461</v>
@@ -6428,25 +6426,25 @@
         <v>457</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q15" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U15" s="5" t="s">
         <v>812</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>813</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>7</v>
@@ -6469,13 +6467,13 @@
         <v>8</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>465</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>460</v>
@@ -6484,25 +6482,25 @@
         <v>452</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6525,7 +6523,7 @@
         <v>466</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>457</v>
@@ -6540,22 +6538,22 @@
         <v>455</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q17" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U17" s="5" t="s">
         <v>812</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6575,7 +6573,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>466</v>
@@ -6587,25 +6585,25 @@
         <v>456</v>
       </c>
       <c r="O18" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q18" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="T18" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="U18" s="5" t="s">
         <v>827</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>829</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>7</v>
@@ -6631,7 +6629,7 @@
         <v>465</v>
       </c>
       <c r="I19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J19" t="s">
         <v>511</v>
@@ -6643,25 +6641,25 @@
         <v>512</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="P19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="R19" t="s">
+        <v>635</v>
+      </c>
+      <c r="S19" t="s">
+        <v>634</v>
+      </c>
+      <c r="T19" t="s">
+        <v>630</v>
+      </c>
+      <c r="U19" t="s">
         <v>636</v>
-      </c>
-      <c r="S19" t="s">
-        <v>635</v>
-      </c>
-      <c r="T19" t="s">
-        <v>631</v>
-      </c>
-      <c r="U19" t="s">
-        <v>637</v>
       </c>
       <c r="V19" t="s">
         <v>7</v>
@@ -6687,7 +6685,7 @@
         <v>501</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>453</v>
@@ -6696,28 +6694,28 @@
         <v>453</v>
       </c>
       <c r="O20" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="S20" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="R20" s="5" t="s">
+      <c r="T20" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U20" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="V20" s="5" t="s">
         <v>834</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -6740,37 +6738,37 @@
         <v>474</v>
       </c>
       <c r="I21" t="s">
+        <v>839</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>840</v>
+      </c>
+      <c r="R21" t="s">
         <v>841</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="S21" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U21" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="S21" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>845</v>
-      </c>
       <c r="V21" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -6793,7 +6791,7 @@
         <v>507</v>
       </c>
       <c r="I22" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>457</v>
@@ -6808,22 +6806,22 @@
         <v>452</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="R22" t="s">
         <v>846</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="S22" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U22" s="5" t="s">
         <v>847</v>
-      </c>
-      <c r="R22" t="s">
-        <v>848</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>849</v>
       </c>
       <c r="V22" s="5" t="s">
         <v>7</v>
@@ -6849,7 +6847,7 @@
         <v>466</v>
       </c>
       <c r="I23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>458</v>
@@ -6861,25 +6859,25 @@
         <v>451</v>
       </c>
       <c r="O23" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>853</v>
+      </c>
+      <c r="R23" t="s">
+        <v>851</v>
+      </c>
+      <c r="S23" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="T23" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>855</v>
-      </c>
-      <c r="R23" t="s">
-        <v>853</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>857</v>
       </c>
       <c r="V23" s="5" t="s">
         <v>7</v>
@@ -6905,7 +6903,7 @@
         <v>467</v>
       </c>
       <c r="I24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J24" t="s">
         <v>511</v>
@@ -6914,19 +6912,19 @@
         <v>511</v>
       </c>
       <c r="O24" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="P24" t="s">
+        <v>708</v>
+      </c>
+      <c r="R24" t="s">
         <v>639</v>
-      </c>
-      <c r="P24" t="s">
-        <v>709</v>
-      </c>
-      <c r="R24" t="s">
-        <v>640</v>
       </c>
       <c r="S24" t="s">
         <v>41</v>
       </c>
       <c r="T24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U24" t="s">
         <v>41</v>
@@ -6958,7 +6956,7 @@
         <v>474</v>
       </c>
       <c r="I25" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J25" t="s">
         <v>463</v>
@@ -6973,28 +6971,28 @@
         <v>457</v>
       </c>
       <c r="O25" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="P25" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q25" t="s">
         <v>858</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>859</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
+        <v>868</v>
+      </c>
+      <c r="T25" t="s">
+        <v>664</v>
+      </c>
+      <c r="U25" t="s">
+        <v>866</v>
+      </c>
+      <c r="V25" t="s">
         <v>860</v>
-      </c>
-      <c r="R25" t="s">
-        <v>861</v>
-      </c>
-      <c r="S25" t="s">
-        <v>870</v>
-      </c>
-      <c r="T25" t="s">
-        <v>665</v>
-      </c>
-      <c r="U25" t="s">
-        <v>868</v>
-      </c>
-      <c r="V25" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -7023,7 +7021,7 @@
         <v>474</v>
       </c>
       <c r="I26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J26" t="s">
         <v>457</v>
@@ -7038,28 +7036,28 @@
         <v>456</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P26" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="Q26" t="s">
+        <v>640</v>
+      </c>
+      <c r="R26" t="s">
         <v>641</v>
       </c>
-      <c r="R26" t="s">
-        <v>642</v>
-      </c>
       <c r="S26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U26" t="s">
+        <v>645</v>
+      </c>
+      <c r="V26" t="s">
         <v>646</v>
-      </c>
-      <c r="V26" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -7085,7 +7083,7 @@
         <v>474</v>
       </c>
       <c r="I27" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J27" t="s">
         <v>463</v>
@@ -7094,28 +7092,28 @@
         <v>456</v>
       </c>
       <c r="O27" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="P27" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>862</v>
+      </c>
+      <c r="R27" t="s">
         <v>863</v>
       </c>
-      <c r="P27" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>864</v>
-      </c>
-      <c r="R27" t="s">
-        <v>865</v>
-      </c>
       <c r="S27" t="s">
+        <v>867</v>
+      </c>
+      <c r="T27" t="s">
+        <v>664</v>
+      </c>
+      <c r="U27" t="s">
         <v>869</v>
       </c>
-      <c r="T27" t="s">
-        <v>665</v>
-      </c>
-      <c r="U27" t="s">
-        <v>871</v>
-      </c>
       <c r="V27" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -7135,7 +7133,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G28" t="s">
         <v>465</v>
@@ -7150,28 +7148,28 @@
         <v>456</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="P28" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Q28" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="R28" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="S28" t="s">
+        <v>867</v>
+      </c>
+      <c r="T28" t="s">
+        <v>664</v>
+      </c>
+      <c r="U28" t="s">
         <v>869</v>
       </c>
-      <c r="T28" t="s">
-        <v>665</v>
-      </c>
-      <c r="U28" t="s">
-        <v>871</v>
-      </c>
       <c r="V28" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -7200,25 +7198,25 @@
         <v>456</v>
       </c>
       <c r="O29" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="P29" t="s">
         <v>877</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
+        <v>878</v>
+      </c>
+      <c r="R29" t="s">
+        <v>876</v>
+      </c>
+      <c r="S29" t="s">
+        <v>704</v>
+      </c>
+      <c r="T29" t="s">
+        <v>630</v>
+      </c>
+      <c r="U29" t="s">
         <v>879</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>880</v>
-      </c>
-      <c r="R29" t="s">
-        <v>878</v>
-      </c>
-      <c r="S29" t="s">
-        <v>705</v>
-      </c>
-      <c r="T29" t="s">
-        <v>631</v>
-      </c>
-      <c r="U29" t="s">
-        <v>881</v>
       </c>
       <c r="V29" t="s">
         <v>7</v>
@@ -7256,22 +7254,22 @@
         <v>451</v>
       </c>
       <c r="O30" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="P30" t="s">
+        <v>881</v>
+      </c>
+      <c r="R30" t="s">
+        <v>884</v>
+      </c>
+      <c r="S30" t="s">
         <v>882</v>
       </c>
-      <c r="P30" t="s">
+      <c r="T30" t="s">
+        <v>1545</v>
+      </c>
+      <c r="U30" t="s">
         <v>883</v>
-      </c>
-      <c r="R30" t="s">
-        <v>886</v>
-      </c>
-      <c r="S30" t="s">
-        <v>884</v>
-      </c>
-      <c r="T30" t="s">
-        <v>1549</v>
-      </c>
-      <c r="U30" t="s">
-        <v>885</v>
       </c>
       <c r="V30" t="s">
         <v>7</v>
@@ -7303,25 +7301,25 @@
         <v>452</v>
       </c>
       <c r="O31" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="P31" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>886</v>
+      </c>
+      <c r="R31" t="s">
         <v>887</v>
       </c>
-      <c r="P31" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>888</v>
       </c>
-      <c r="R31" t="s">
+      <c r="T31" t="s">
+        <v>630</v>
+      </c>
+      <c r="U31" t="s">
         <v>889</v>
-      </c>
-      <c r="S31" t="s">
-        <v>890</v>
-      </c>
-      <c r="T31" t="s">
-        <v>631</v>
-      </c>
-      <c r="U31" t="s">
-        <v>891</v>
       </c>
       <c r="V31" t="s">
         <v>7</v>
@@ -7347,7 +7345,7 @@
         <v>507</v>
       </c>
       <c r="I32" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J32" t="s">
         <v>458</v>
@@ -7356,25 +7354,25 @@
         <v>454</v>
       </c>
       <c r="O32" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="P32" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q32" t="s">
         <v>892</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>893</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="S32" t="s">
+        <v>722</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="U32" s="5" t="s">
         <v>894</v>
-      </c>
-      <c r="R32" t="s">
-        <v>895</v>
-      </c>
-      <c r="S32" t="s">
-        <v>723</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>896</v>
       </c>
       <c r="V32" s="5" t="s">
         <v>7</v>
@@ -7403,7 +7401,7 @@
         <v>480</v>
       </c>
       <c r="I33" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J33" t="s">
         <v>457</v>
@@ -7412,28 +7410,28 @@
         <v>457</v>
       </c>
       <c r="O33" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="P33" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>898</v>
+      </c>
+      <c r="R33" t="s">
+        <v>900</v>
+      </c>
+      <c r="S33" t="s">
+        <v>896</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="V33" t="s">
         <v>899</v>
-      </c>
-      <c r="P33" t="s">
-        <v>883</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>900</v>
-      </c>
-      <c r="R33" t="s">
-        <v>902</v>
-      </c>
-      <c r="S33" t="s">
-        <v>898</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="V33" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -7459,7 +7457,7 @@
         <v>480</v>
       </c>
       <c r="I34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J34" t="s">
         <v>509</v>
@@ -7468,25 +7466,25 @@
         <v>451</v>
       </c>
       <c r="O34" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="P34" t="s">
         <v>648</v>
       </c>
-      <c r="P34" t="s">
-        <v>649</v>
-      </c>
       <c r="R34" t="s">
+        <v>651</v>
+      </c>
+      <c r="S34" t="s">
         <v>652</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
+        <v>630</v>
+      </c>
+      <c r="U34" t="s">
         <v>653</v>
       </c>
-      <c r="T34" t="s">
-        <v>631</v>
-      </c>
-      <c r="U34" t="s">
-        <v>654</v>
-      </c>
       <c r="V34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -7509,7 +7507,7 @@
         <v>466</v>
       </c>
       <c r="I35" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J35" t="s">
         <v>457</v>
@@ -7518,25 +7516,25 @@
         <v>457</v>
       </c>
       <c r="O35" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="P35" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>904</v>
+      </c>
+      <c r="R35" t="s">
         <v>905</v>
       </c>
-      <c r="P35" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="S35" t="s">
         <v>906</v>
       </c>
-      <c r="R35" t="s">
-        <v>907</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
+        <v>630</v>
+      </c>
+      <c r="U35" t="s">
         <v>908</v>
-      </c>
-      <c r="T35" t="s">
-        <v>631</v>
-      </c>
-      <c r="U35" t="s">
-        <v>910</v>
       </c>
       <c r="V35" t="s">
         <v>7</v>
@@ -7568,25 +7566,25 @@
         <v>457</v>
       </c>
       <c r="O36" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="P36" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q36" t="s">
         <v>911</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>912</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="S36" t="s">
         <v>913</v>
       </c>
-      <c r="R36" t="s">
+      <c r="T36" t="s">
+        <v>630</v>
+      </c>
+      <c r="U36" t="s">
         <v>914</v>
-      </c>
-      <c r="S36" t="s">
-        <v>915</v>
-      </c>
-      <c r="T36" t="s">
-        <v>631</v>
-      </c>
-      <c r="U36" t="s">
-        <v>916</v>
       </c>
       <c r="V36" t="s">
         <v>7</v>
@@ -7612,7 +7610,7 @@
         <v>480</v>
       </c>
       <c r="I37" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J37" t="s">
         <v>457</v>
@@ -7621,28 +7619,28 @@
         <v>457</v>
       </c>
       <c r="O37" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="P37" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>918</v>
+      </c>
+      <c r="R37" t="s">
+        <v>920</v>
+      </c>
+      <c r="S37" t="s">
+        <v>919</v>
+      </c>
+      <c r="T37" t="s">
+        <v>664</v>
+      </c>
+      <c r="U37" t="s">
+        <v>921</v>
+      </c>
+      <c r="V37" t="s">
         <v>917</v>
-      </c>
-      <c r="P37" t="s">
-        <v>918</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>920</v>
-      </c>
-      <c r="R37" t="s">
-        <v>922</v>
-      </c>
-      <c r="S37" t="s">
-        <v>921</v>
-      </c>
-      <c r="T37" t="s">
-        <v>665</v>
-      </c>
-      <c r="U37" t="s">
-        <v>923</v>
-      </c>
-      <c r="V37" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -7665,7 +7663,7 @@
         <v>466</v>
       </c>
       <c r="I38" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J38" t="s">
         <v>457</v>
@@ -7680,25 +7678,25 @@
         <v>452</v>
       </c>
       <c r="O38" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="P38" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q38" t="s">
         <v>925</v>
       </c>
-      <c r="P38" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
+        <v>924</v>
+      </c>
+      <c r="S38" t="s">
+        <v>906</v>
+      </c>
+      <c r="T38" t="s">
+        <v>630</v>
+      </c>
+      <c r="U38" t="s">
         <v>927</v>
-      </c>
-      <c r="R38" t="s">
-        <v>926</v>
-      </c>
-      <c r="S38" t="s">
-        <v>908</v>
-      </c>
-      <c r="T38" t="s">
-        <v>631</v>
-      </c>
-      <c r="U38" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -7724,7 +7722,7 @@
         <v>467</v>
       </c>
       <c r="I39" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J39" t="s">
         <v>453</v>
@@ -7733,25 +7731,25 @@
         <v>450</v>
       </c>
       <c r="O39" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="P39" t="s">
         <v>930</v>
       </c>
-      <c r="P39" t="s">
-        <v>932</v>
-      </c>
       <c r="R39" t="s">
+        <v>929</v>
+      </c>
+      <c r="S39" t="s">
+        <v>919</v>
+      </c>
+      <c r="T39" t="s">
+        <v>630</v>
+      </c>
+      <c r="U39" t="s">
+        <v>933</v>
+      </c>
+      <c r="V39" t="s">
         <v>931</v>
-      </c>
-      <c r="S39" t="s">
-        <v>921</v>
-      </c>
-      <c r="T39" t="s">
-        <v>631</v>
-      </c>
-      <c r="U39" t="s">
-        <v>935</v>
-      </c>
-      <c r="V39" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -7774,34 +7772,34 @@
         <v>466</v>
       </c>
       <c r="I40" t="s">
+        <v>938</v>
+      </c>
+      <c r="J40" t="s">
+        <v>457</v>
+      </c>
+      <c r="L40" t="s">
+        <v>457</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="P40" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>937</v>
+      </c>
+      <c r="R40" t="s">
+        <v>935</v>
+      </c>
+      <c r="S40" t="s">
+        <v>939</v>
+      </c>
+      <c r="T40" t="s">
+        <v>630</v>
+      </c>
+      <c r="U40" t="s">
         <v>940</v>
-      </c>
-      <c r="J40" t="s">
-        <v>457</v>
-      </c>
-      <c r="L40" t="s">
-        <v>457</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="P40" t="s">
-        <v>938</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>939</v>
-      </c>
-      <c r="R40" t="s">
-        <v>937</v>
-      </c>
-      <c r="S40" t="s">
-        <v>941</v>
-      </c>
-      <c r="T40" t="s">
-        <v>631</v>
-      </c>
-      <c r="U40" t="s">
-        <v>942</v>
       </c>
       <c r="V40" t="s">
         <v>7</v>
@@ -7830,7 +7828,7 @@
         <v>475</v>
       </c>
       <c r="I41" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="J41" t="s">
         <v>457</v>
@@ -7845,28 +7843,28 @@
         <v>456</v>
       </c>
       <c r="O41" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="P41" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q41" t="s">
         <v>943</v>
       </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
+        <v>948</v>
+      </c>
+      <c r="S41" t="s">
+        <v>919</v>
+      </c>
+      <c r="T41" t="s">
+        <v>945</v>
+      </c>
+      <c r="U41" t="s">
+        <v>946</v>
+      </c>
+      <c r="V41" t="s">
         <v>944</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>945</v>
-      </c>
-      <c r="R41" t="s">
-        <v>950</v>
-      </c>
-      <c r="S41" t="s">
-        <v>921</v>
-      </c>
-      <c r="T41" t="s">
-        <v>947</v>
-      </c>
-      <c r="U41" t="s">
-        <v>948</v>
-      </c>
-      <c r="V41" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -7892,7 +7890,7 @@
         <v>468</v>
       </c>
       <c r="I42" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="J42" t="s">
         <v>460</v>
@@ -7901,22 +7899,22 @@
         <v>452</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="P42" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="R42" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="S42" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="T42" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U42" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="V42" t="s">
         <v>7</v>
@@ -7945,7 +7943,7 @@
         <v>466</v>
       </c>
       <c r="I43" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J43" t="s">
         <v>457</v>
@@ -7954,22 +7952,22 @@
         <v>457</v>
       </c>
       <c r="O43" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="P43" t="s">
+        <v>625</v>
+      </c>
+      <c r="R43" t="s">
         <v>956</v>
       </c>
-      <c r="P43" t="s">
-        <v>626</v>
-      </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
+        <v>955</v>
+      </c>
+      <c r="T43" t="s">
+        <v>630</v>
+      </c>
+      <c r="U43" t="s">
         <v>958</v>
-      </c>
-      <c r="S43" t="s">
-        <v>957</v>
-      </c>
-      <c r="T43" t="s">
-        <v>631</v>
-      </c>
-      <c r="U43" t="s">
-        <v>960</v>
       </c>
       <c r="V43" t="s">
         <v>7</v>
@@ -7995,7 +7993,7 @@
         <v>466</v>
       </c>
       <c r="I44" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="J44" t="s">
         <v>460</v>
@@ -8004,22 +8002,22 @@
         <v>452</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="P44" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="R44" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="S44" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="T44" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U44" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="V44" t="s">
         <v>7</v>
@@ -8035,8 +8033,8 @@
       <c r="C45">
         <v>1998</v>
       </c>
-      <c r="D45" t="s">
-        <v>541</v>
+      <c r="D45" s="9" t="s">
+        <v>1559</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -8045,7 +8043,7 @@
         <v>466</v>
       </c>
       <c r="I45" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J45" t="s">
         <v>457</v>
@@ -8060,25 +8058,25 @@
         <v>456</v>
       </c>
       <c r="O45" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="P45" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>964</v>
+      </c>
+      <c r="R45" t="s">
+        <v>962</v>
+      </c>
+      <c r="S45" t="s">
+        <v>906</v>
+      </c>
+      <c r="T45" t="s">
+        <v>630</v>
+      </c>
+      <c r="U45" t="s">
         <v>965</v>
-      </c>
-      <c r="P45" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>966</v>
-      </c>
-      <c r="R45" t="s">
-        <v>964</v>
-      </c>
-      <c r="S45" t="s">
-        <v>908</v>
-      </c>
-      <c r="T45" t="s">
-        <v>631</v>
-      </c>
-      <c r="U45" t="s">
-        <v>967</v>
       </c>
       <c r="V45" t="s">
         <v>7</v>
@@ -8095,7 +8093,7 @@
         <v>2016</v>
       </c>
       <c r="D46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -8116,25 +8114,25 @@
         <v>456</v>
       </c>
       <c r="O46" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="P46" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>968</v>
+      </c>
+      <c r="R46" t="s">
         <v>969</v>
       </c>
-      <c r="P46" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>970</v>
       </c>
-      <c r="R46" t="s">
+      <c r="T46" t="s">
+        <v>630</v>
+      </c>
+      <c r="U46" t="s">
         <v>971</v>
-      </c>
-      <c r="S46" t="s">
-        <v>972</v>
-      </c>
-      <c r="T46" t="s">
-        <v>631</v>
-      </c>
-      <c r="U46" t="s">
-        <v>973</v>
       </c>
       <c r="V46" t="s">
         <v>7</v>
@@ -8151,7 +8149,7 @@
         <v>2016</v>
       </c>
       <c r="D47" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -8172,25 +8170,25 @@
         <v>456</v>
       </c>
       <c r="O47" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="P47" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q47" t="s">
         <v>975</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
+        <v>977</v>
+      </c>
+      <c r="S47" t="s">
         <v>976</v>
       </c>
-      <c r="Q47" t="s">
-        <v>977</v>
-      </c>
-      <c r="R47" t="s">
-        <v>979</v>
-      </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
+        <v>630</v>
+      </c>
+      <c r="U47" t="s">
         <v>978</v>
-      </c>
-      <c r="T47" t="s">
-        <v>631</v>
-      </c>
-      <c r="U47" t="s">
-        <v>980</v>
       </c>
       <c r="V47" t="s">
         <v>7</v>
@@ -8207,7 +8205,7 @@
         <v>2020</v>
       </c>
       <c r="D48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -8228,22 +8226,22 @@
         <v>456</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="P48" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R48" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="S48" t="s">
+        <v>976</v>
+      </c>
+      <c r="T48" t="s">
+        <v>630</v>
+      </c>
+      <c r="U48" t="s">
         <v>978</v>
-      </c>
-      <c r="T48" t="s">
-        <v>631</v>
-      </c>
-      <c r="U48" t="s">
-        <v>980</v>
       </c>
       <c r="V48" t="s">
         <v>7</v>
@@ -8284,22 +8282,22 @@
         <v>452</v>
       </c>
       <c r="O49" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="P49" t="s">
+        <v>982</v>
+      </c>
+      <c r="R49" t="s">
+        <v>985</v>
+      </c>
+      <c r="S49" t="s">
         <v>983</v>
       </c>
-      <c r="P49" t="s">
+      <c r="T49" t="s">
+        <v>664</v>
+      </c>
+      <c r="U49" t="s">
         <v>984</v>
-      </c>
-      <c r="R49" t="s">
-        <v>987</v>
-      </c>
-      <c r="S49" t="s">
-        <v>985</v>
-      </c>
-      <c r="T49" t="s">
-        <v>665</v>
-      </c>
-      <c r="U49" t="s">
-        <v>986</v>
       </c>
       <c r="V49" t="s">
         <v>7</v>
@@ -8316,7 +8314,7 @@
         <v>2013</v>
       </c>
       <c r="D50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -8325,7 +8323,7 @@
         <v>501</v>
       </c>
       <c r="I50" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J50" t="s">
         <v>457</v>
@@ -8340,25 +8338,25 @@
         <v>455</v>
       </c>
       <c r="O50" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="P50" t="s">
+        <v>716</v>
+      </c>
+      <c r="R50" t="s">
         <v>990</v>
       </c>
-      <c r="P50" t="s">
-        <v>717</v>
-      </c>
-      <c r="R50" t="s">
-        <v>992</v>
-      </c>
       <c r="S50" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="T50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U50" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="V50" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -8384,37 +8382,37 @@
         <v>480</v>
       </c>
       <c r="I51" t="s">
+        <v>993</v>
+      </c>
+      <c r="J51" t="s">
+        <v>457</v>
+      </c>
+      <c r="L51" t="s">
+        <v>457</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="P51" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q51" t="s">
         <v>995</v>
       </c>
-      <c r="J51" t="s">
-        <v>457</v>
-      </c>
-      <c r="L51" t="s">
-        <v>457</v>
-      </c>
-      <c r="O51" s="8" t="s">
+      <c r="R51" t="s">
+        <v>996</v>
+      </c>
+      <c r="S51" t="s">
+        <v>972</v>
+      </c>
+      <c r="T51" t="s">
+        <v>614</v>
+      </c>
+      <c r="U51" t="s">
+        <v>997</v>
+      </c>
+      <c r="V51" t="s">
         <v>994</v>
-      </c>
-      <c r="P51" t="s">
-        <v>912</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>997</v>
-      </c>
-      <c r="R51" t="s">
-        <v>998</v>
-      </c>
-      <c r="S51" t="s">
-        <v>974</v>
-      </c>
-      <c r="T51" t="s">
-        <v>615</v>
-      </c>
-      <c r="U51" t="s">
-        <v>999</v>
-      </c>
-      <c r="V51" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -8428,7 +8426,7 @@
         <v>2020</v>
       </c>
       <c r="D52" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -8440,34 +8438,34 @@
         <v>480</v>
       </c>
       <c r="I52" t="s">
+        <v>999</v>
+      </c>
+      <c r="J52" t="s">
+        <v>457</v>
+      </c>
+      <c r="L52" t="s">
+        <v>457</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="P52" t="s">
+        <v>910</v>
+      </c>
+      <c r="R52" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S52" t="s">
+        <v>842</v>
+      </c>
+      <c r="T52" t="s">
+        <v>664</v>
+      </c>
+      <c r="U52" t="s">
         <v>1001</v>
       </c>
-      <c r="J52" t="s">
-        <v>457</v>
-      </c>
-      <c r="L52" t="s">
-        <v>457</v>
-      </c>
-      <c r="O52" s="8" t="s">
+      <c r="V52" t="s">
         <v>1000</v>
-      </c>
-      <c r="P52" t="s">
-        <v>912</v>
-      </c>
-      <c r="R52" t="s">
-        <v>1004</v>
-      </c>
-      <c r="S52" t="s">
-        <v>844</v>
-      </c>
-      <c r="T52" t="s">
-        <v>665</v>
-      </c>
-      <c r="U52" t="s">
-        <v>1003</v>
-      </c>
-      <c r="V52" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -8490,7 +8488,7 @@
         <v>480</v>
       </c>
       <c r="I53" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="J53" t="s">
         <v>457</v>
@@ -8499,19 +8497,19 @@
         <v>457</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="P53" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="T53" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U53" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="V53" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -8525,7 +8523,7 @@
         <v>2010</v>
       </c>
       <c r="D54" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E54" t="s">
         <v>155</v>
@@ -8540,25 +8538,25 @@
         <v>455</v>
       </c>
       <c r="O54" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Q54" t="s">
         <v>1009</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>1010</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="S54" t="s">
         <v>1011</v>
       </c>
-      <c r="R54" t="s">
+      <c r="T54" t="s">
+        <v>732</v>
+      </c>
+      <c r="U54" t="s">
         <v>1012</v>
-      </c>
-      <c r="S54" t="s">
-        <v>1013</v>
-      </c>
-      <c r="T54" t="s">
-        <v>733</v>
-      </c>
-      <c r="U54" t="s">
-        <v>1014</v>
       </c>
       <c r="V54" t="s">
         <v>7</v>
@@ -8596,28 +8594,28 @@
         <v>451</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q55" t="s">
         <v>1015</v>
       </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>1016</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="S55" t="s">
         <v>1017</v>
       </c>
-      <c r="R55" t="s">
+      <c r="T55" t="s">
+        <v>614</v>
+      </c>
+      <c r="U55" t="s">
         <v>1018</v>
       </c>
-      <c r="S55" t="s">
+      <c r="V55" t="s">
         <v>1019</v>
-      </c>
-      <c r="T55" t="s">
-        <v>615</v>
-      </c>
-      <c r="U55" t="s">
-        <v>1020</v>
-      </c>
-      <c r="V55" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -8640,7 +8638,7 @@
         <v>501</v>
       </c>
       <c r="I56" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="J56" t="s">
         <v>458</v>
@@ -8649,25 +8647,25 @@
         <v>454</v>
       </c>
       <c r="O56" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P56" t="s">
         <v>1022</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S56" t="s">
+        <v>1023</v>
+      </c>
+      <c r="T56" t="s">
+        <v>664</v>
+      </c>
+      <c r="U56" t="s">
         <v>1024</v>
       </c>
-      <c r="R56" t="s">
-        <v>1023</v>
-      </c>
-      <c r="S56" t="s">
+      <c r="V56" t="s">
         <v>1025</v>
-      </c>
-      <c r="T56" t="s">
-        <v>665</v>
-      </c>
-      <c r="U56" t="s">
-        <v>1026</v>
-      </c>
-      <c r="V56" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -8696,25 +8694,25 @@
         <v>455</v>
       </c>
       <c r="O57" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q57" t="s">
         <v>1029</v>
       </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>1030</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="S57" t="s">
         <v>1031</v>
       </c>
-      <c r="R57" t="s">
+      <c r="T57" t="s">
+        <v>630</v>
+      </c>
+      <c r="U57" t="s">
         <v>1032</v>
-      </c>
-      <c r="S57" t="s">
-        <v>1033</v>
-      </c>
-      <c r="T57" t="s">
-        <v>631</v>
-      </c>
-      <c r="U57" t="s">
-        <v>1034</v>
       </c>
       <c r="V57" t="s">
         <v>7</v>
@@ -8740,7 +8738,7 @@
         <v>466</v>
       </c>
       <c r="I58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J58" t="s">
         <v>457</v>
@@ -8749,25 +8747,25 @@
         <v>457</v>
       </c>
       <c r="O58" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="P58" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>656</v>
+      </c>
+      <c r="R58" t="s">
+        <v>657</v>
+      </c>
+      <c r="S58" t="s">
         <v>659</v>
       </c>
-      <c r="P58" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>657</v>
-      </c>
-      <c r="R58" t="s">
-        <v>658</v>
-      </c>
-      <c r="S58" t="s">
-        <v>660</v>
-      </c>
       <c r="T58" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U58" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="V58" t="s">
         <v>7</v>
@@ -8793,7 +8791,7 @@
         <v>474</v>
       </c>
       <c r="I59" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="J59" t="s">
         <v>462</v>
@@ -8805,28 +8803,28 @@
         <v>451</v>
       </c>
       <c r="O59" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1555</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="R59" t="s">
         <v>1035</v>
       </c>
-      <c r="P59" t="s">
-        <v>1559</v>
-      </c>
-      <c r="Q59" t="s">
+      <c r="S59" t="s">
         <v>1036</v>
       </c>
-      <c r="R59" t="s">
-        <v>1037</v>
-      </c>
-      <c r="S59" t="s">
-        <v>1038</v>
-      </c>
       <c r="T59" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U59" t="s">
         <v>41</v>
       </c>
       <c r="V59" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -8855,25 +8853,25 @@
         <v>456</v>
       </c>
       <c r="O60" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P60" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q60" t="s">
         <v>1041</v>
       </c>
-      <c r="P60" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>1043</v>
-      </c>
       <c r="R60" t="s">
+        <v>1040</v>
+      </c>
+      <c r="S60" t="s">
+        <v>722</v>
+      </c>
+      <c r="T60" t="s">
+        <v>664</v>
+      </c>
+      <c r="U60" t="s">
         <v>1042</v>
-      </c>
-      <c r="S60" t="s">
-        <v>723</v>
-      </c>
-      <c r="T60" t="s">
-        <v>665</v>
-      </c>
-      <c r="U60" t="s">
-        <v>1044</v>
       </c>
       <c r="V60" t="s">
         <v>7</v>
@@ -8890,7 +8888,7 @@
         <v>2012</v>
       </c>
       <c r="D61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -8899,7 +8897,7 @@
         <v>466</v>
       </c>
       <c r="I61" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J61" t="s">
         <v>461</v>
@@ -8914,25 +8912,25 @@
         <v>457</v>
       </c>
       <c r="O61" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P61" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>1044</v>
+      </c>
+      <c r="R61" t="s">
         <v>1045</v>
       </c>
-      <c r="P61" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>1046</v>
-      </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
+        <v>808</v>
+      </c>
+      <c r="T61" t="s">
+        <v>630</v>
+      </c>
+      <c r="U61" t="s">
         <v>1047</v>
-      </c>
-      <c r="S61" t="s">
-        <v>809</v>
-      </c>
-      <c r="T61" t="s">
-        <v>631</v>
-      </c>
-      <c r="U61" t="s">
-        <v>1049</v>
       </c>
       <c r="V61" t="s">
         <v>7</v>
@@ -8958,7 +8956,7 @@
         <v>480</v>
       </c>
       <c r="I62" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J62" t="s">
         <v>457</v>
@@ -8973,28 +8971,28 @@
         <v>452</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="P62" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q62" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="R62" t="s">
+        <v>1052</v>
+      </c>
+      <c r="S62" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T62" t="s">
+        <v>732</v>
+      </c>
+      <c r="U62" t="s">
+        <v>1051</v>
+      </c>
+      <c r="V62" t="s">
         <v>1054</v>
-      </c>
-      <c r="S62" t="s">
-        <v>1051</v>
-      </c>
-      <c r="T62" t="s">
-        <v>733</v>
-      </c>
-      <c r="U62" t="s">
-        <v>1053</v>
-      </c>
-      <c r="V62" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -9017,7 +9015,7 @@
         <v>466</v>
       </c>
       <c r="I63" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="J63" t="s">
         <v>457</v>
@@ -9032,25 +9030,25 @@
         <v>452</v>
       </c>
       <c r="O63" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="P63" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R63" t="s">
         <v>1057</v>
       </c>
-      <c r="P63" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q63" t="s">
+      <c r="S63" t="s">
         <v>1058</v>
       </c>
-      <c r="R63" t="s">
+      <c r="T63" t="s">
+        <v>732</v>
+      </c>
+      <c r="U63" t="s">
         <v>1059</v>
-      </c>
-      <c r="S63" t="s">
-        <v>1060</v>
-      </c>
-      <c r="T63" t="s">
-        <v>733</v>
-      </c>
-      <c r="U63" t="s">
-        <v>1061</v>
       </c>
       <c r="V63" t="s">
         <v>7</v>
@@ -9067,7 +9065,7 @@
         <v>2008</v>
       </c>
       <c r="D64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -9079,7 +9077,7 @@
         <v>467</v>
       </c>
       <c r="I64" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="J64" t="s">
         <v>511</v>
@@ -9088,13 +9086,13 @@
         <v>511</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="P64" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="T64" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -9117,7 +9115,7 @@
         <v>468</v>
       </c>
       <c r="I65" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="J65" t="s">
         <v>453</v>
@@ -9126,22 +9124,22 @@
         <v>453</v>
       </c>
       <c r="O65" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="P65" t="s">
+        <v>776</v>
+      </c>
+      <c r="R65" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S65" t="s">
+        <v>722</v>
+      </c>
+      <c r="T65" t="s">
+        <v>630</v>
+      </c>
+      <c r="U65" t="s">
         <v>1065</v>
-      </c>
-      <c r="P65" t="s">
-        <v>777</v>
-      </c>
-      <c r="R65" t="s">
-        <v>1066</v>
-      </c>
-      <c r="S65" t="s">
-        <v>723</v>
-      </c>
-      <c r="T65" t="s">
-        <v>631</v>
-      </c>
-      <c r="U65" t="s">
-        <v>1067</v>
       </c>
       <c r="V65" t="s">
         <v>7</v>
@@ -9158,7 +9156,7 @@
         <v>1977</v>
       </c>
       <c r="D66" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -9173,37 +9171,37 @@
         <v>466</v>
       </c>
       <c r="I66" t="s">
+        <v>667</v>
+      </c>
+      <c r="J66" t="s">
+        <v>457</v>
+      </c>
+      <c r="L66" t="s">
+        <v>457</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>660</v>
+      </c>
+      <c r="R66" t="s">
+        <v>663</v>
+      </c>
+      <c r="S66" t="s">
+        <v>665</v>
+      </c>
+      <c r="T66" t="s">
+        <v>664</v>
+      </c>
+      <c r="U66" t="s">
+        <v>666</v>
+      </c>
+      <c r="V66" t="s">
         <v>668</v>
-      </c>
-      <c r="J66" t="s">
-        <v>457</v>
-      </c>
-      <c r="L66" t="s">
-        <v>457</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="P66" t="s">
-        <v>1560</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>661</v>
-      </c>
-      <c r="R66" t="s">
-        <v>664</v>
-      </c>
-      <c r="S66" t="s">
-        <v>666</v>
-      </c>
-      <c r="T66" t="s">
-        <v>665</v>
-      </c>
-      <c r="U66" t="s">
-        <v>667</v>
-      </c>
-      <c r="V66" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -9229,7 +9227,7 @@
         <v>480</v>
       </c>
       <c r="I67" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="J67" t="s">
         <v>457</v>
@@ -9241,28 +9239,28 @@
         <v>457</v>
       </c>
       <c r="O67" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>1547</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="R67" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="P67" s="5" t="s">
-        <v>1551</v>
-      </c>
-      <c r="Q67" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="R67" s="5" t="s">
+      <c r="S67" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="V67" s="5" t="s">
         <v>1071</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="T67" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="U67" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="V67" s="5" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -9276,7 +9274,7 @@
         <v>2006</v>
       </c>
       <c r="D68" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -9285,7 +9283,7 @@
         <v>466</v>
       </c>
       <c r="I68" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="J68" t="s">
         <v>461</v>
@@ -9294,25 +9292,25 @@
         <v>455</v>
       </c>
       <c r="O68" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Q68" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="R68" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="S68" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U68" s="5" t="s">
         <v>1078</v>
-      </c>
-      <c r="R68" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="S68" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="T68" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U68" s="5" t="s">
-        <v>1080</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>7</v>
@@ -9338,34 +9336,34 @@
         <v>466</v>
       </c>
       <c r="I69" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J69" t="s">
+        <v>457</v>
+      </c>
+      <c r="L69" t="s">
+        <v>457</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R69" t="s">
+        <v>1084</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U69" s="5" t="s">
         <v>1086</v>
-      </c>
-      <c r="J69" t="s">
-        <v>457</v>
-      </c>
-      <c r="L69" t="s">
-        <v>457</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>1083</v>
-      </c>
-      <c r="P69" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="R69" t="s">
-        <v>1086</v>
-      </c>
-      <c r="S69" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="T69" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="U69" s="5" t="s">
-        <v>1088</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>7</v>
@@ -9382,7 +9380,7 @@
         <v>2004</v>
       </c>
       <c r="D70" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -9391,7 +9389,7 @@
         <v>467</v>
       </c>
       <c r="I70" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J70" t="s">
         <v>511</v>
@@ -9400,25 +9398,25 @@
         <v>511</v>
       </c>
       <c r="N70" t="s">
+        <v>670</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="P70" t="s">
+        <v>625</v>
+      </c>
+      <c r="R70" t="s">
         <v>671</v>
       </c>
-      <c r="O70" s="8" t="s">
+      <c r="S70" t="s">
         <v>673</v>
       </c>
-      <c r="P70" t="s">
-        <v>626</v>
-      </c>
-      <c r="R70" t="s">
-        <v>672</v>
-      </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
+        <v>630</v>
+      </c>
+      <c r="U70" t="s">
         <v>674</v>
-      </c>
-      <c r="T70" t="s">
-        <v>631</v>
-      </c>
-      <c r="U70" t="s">
-        <v>675</v>
       </c>
       <c r="V70" t="s">
         <v>7</v>
@@ -9435,7 +9433,7 @@
         <v>2009</v>
       </c>
       <c r="D71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -9444,34 +9442,34 @@
         <v>466</v>
       </c>
       <c r="I71" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J71" t="s">
+        <v>457</v>
+      </c>
+      <c r="L71" t="s">
+        <v>457</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>1092</v>
+      </c>
+      <c r="R71" t="s">
+        <v>1090</v>
+      </c>
+      <c r="S71" t="s">
+        <v>1089</v>
+      </c>
+      <c r="T71" t="s">
+        <v>630</v>
+      </c>
+      <c r="U71" t="s">
         <v>1093</v>
-      </c>
-      <c r="J71" t="s">
-        <v>457</v>
-      </c>
-      <c r="L71" t="s">
-        <v>457</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="P71" t="s">
-        <v>1090</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>1094</v>
-      </c>
-      <c r="R71" t="s">
-        <v>1092</v>
-      </c>
-      <c r="S71" t="s">
-        <v>1091</v>
-      </c>
-      <c r="T71" t="s">
-        <v>631</v>
-      </c>
-      <c r="U71" t="s">
-        <v>1095</v>
       </c>
       <c r="V71" t="s">
         <v>7</v>
@@ -9488,7 +9486,7 @@
         <v>2000</v>
       </c>
       <c r="D72" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
@@ -9497,7 +9495,7 @@
         <v>469</v>
       </c>
       <c r="I72" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J72" t="s">
         <v>511</v>
@@ -9506,22 +9504,22 @@
         <v>511</v>
       </c>
       <c r="O72" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P72" t="s">
+        <v>716</v>
+      </c>
+      <c r="R72" t="s">
         <v>1096</v>
-      </c>
-      <c r="P72" t="s">
-        <v>717</v>
-      </c>
-      <c r="R72" t="s">
-        <v>1098</v>
       </c>
       <c r="S72" t="s">
         <v>41</v>
       </c>
       <c r="T72" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U72" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="V72" t="s">
         <v>7</v>
@@ -9553,25 +9551,25 @@
         <v>456</v>
       </c>
       <c r="O73" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="P73" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1099</v>
+      </c>
+      <c r="R73" t="s">
         <v>1100</v>
       </c>
-      <c r="P73" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q73" t="s">
+      <c r="S73" t="s">
+        <v>919</v>
+      </c>
+      <c r="T73" t="s">
+        <v>664</v>
+      </c>
+      <c r="U73" t="s">
         <v>1101</v>
-      </c>
-      <c r="R73" t="s">
-        <v>1102</v>
-      </c>
-      <c r="S73" t="s">
-        <v>921</v>
-      </c>
-      <c r="T73" t="s">
-        <v>665</v>
-      </c>
-      <c r="U73" t="s">
-        <v>1103</v>
       </c>
       <c r="V73" t="s">
         <v>7</v>
@@ -9588,7 +9586,7 @@
         <v>2008</v>
       </c>
       <c r="D74" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -9600,7 +9598,7 @@
         <v>469</v>
       </c>
       <c r="I74" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="J74" t="s">
         <v>511</v>
@@ -9609,22 +9607,22 @@
         <v>511</v>
       </c>
       <c r="O74" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1548</v>
+      </c>
+      <c r="R74" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S74" t="s">
         <v>1104</v>
       </c>
-      <c r="P74" t="s">
-        <v>1552</v>
-      </c>
-      <c r="R74" t="s">
+      <c r="T74" t="s">
+        <v>630</v>
+      </c>
+      <c r="U74" t="s">
         <v>1105</v>
-      </c>
-      <c r="S74" t="s">
-        <v>1106</v>
-      </c>
-      <c r="T74" t="s">
-        <v>631</v>
-      </c>
-      <c r="U74" t="s">
-        <v>1107</v>
       </c>
       <c r="V74" t="s">
         <v>7</v>
@@ -9650,7 +9648,7 @@
         <v>480</v>
       </c>
       <c r="I75" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="J75" t="s">
         <v>463</v>
@@ -9662,25 +9660,25 @@
         <v>456</v>
       </c>
       <c r="O75" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P75" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1108</v>
+      </c>
+      <c r="S75" t="s">
         <v>1109</v>
       </c>
-      <c r="P75" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q75" t="s">
+      <c r="T75" t="s">
+        <v>732</v>
+      </c>
+      <c r="U75" t="s">
+        <v>1111</v>
+      </c>
+      <c r="V75" t="s">
         <v>1110</v>
-      </c>
-      <c r="S75" t="s">
-        <v>1111</v>
-      </c>
-      <c r="T75" t="s">
-        <v>733</v>
-      </c>
-      <c r="U75" t="s">
-        <v>1114</v>
-      </c>
-      <c r="V75" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -9703,37 +9701,37 @@
         <v>480</v>
       </c>
       <c r="I76" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J76" t="s">
+        <v>457</v>
+      </c>
+      <c r="L76" t="s">
+        <v>457</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="P76" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R76" t="s">
         <v>1117</v>
       </c>
-      <c r="J76" t="s">
-        <v>457</v>
-      </c>
-      <c r="L76" t="s">
-        <v>457</v>
-      </c>
-      <c r="O76" s="8" t="s">
+      <c r="S76" t="s">
+        <v>1119</v>
+      </c>
+      <c r="T76" t="s">
+        <v>732</v>
+      </c>
+      <c r="U76" t="s">
         <v>1115</v>
       </c>
-      <c r="P76" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>1119</v>
-      </c>
-      <c r="R76" t="s">
-        <v>1120</v>
-      </c>
-      <c r="S76" t="s">
-        <v>1122</v>
-      </c>
-      <c r="T76" t="s">
-        <v>733</v>
-      </c>
-      <c r="U76" t="s">
-        <v>1118</v>
-      </c>
       <c r="V76" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -9747,7 +9745,7 @@
         <v>2020</v>
       </c>
       <c r="D77" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -9762,25 +9760,25 @@
         <v>450</v>
       </c>
       <c r="O77" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="P77" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1120</v>
+      </c>
+      <c r="R77" t="s">
         <v>1121</v>
       </c>
-      <c r="P77" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>1123</v>
-      </c>
-      <c r="R77" t="s">
-        <v>1124</v>
-      </c>
       <c r="S77" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="T77" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U77" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="V77" t="s">
         <v>7</v>
@@ -9809,7 +9807,7 @@
         <v>467</v>
       </c>
       <c r="I78" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="J78" t="s">
         <v>457</v>
@@ -9818,19 +9816,19 @@
         <v>457</v>
       </c>
       <c r="O78" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1124</v>
+      </c>
+      <c r="T78" t="s">
+        <v>630</v>
+      </c>
+      <c r="U78" t="s">
         <v>1126</v>
-      </c>
-      <c r="P78" t="s">
-        <v>1084</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>1127</v>
-      </c>
-      <c r="T78" t="s">
-        <v>631</v>
-      </c>
-      <c r="U78" t="s">
-        <v>1129</v>
       </c>
       <c r="V78" t="s">
         <v>7</v>
@@ -9862,25 +9860,25 @@
         <v>456</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="P79" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Q79" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="R79" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="S79" t="s">
+        <v>1128</v>
+      </c>
+      <c r="T79" t="s">
+        <v>664</v>
+      </c>
+      <c r="U79" t="s">
         <v>1131</v>
-      </c>
-      <c r="T79" t="s">
-        <v>665</v>
-      </c>
-      <c r="U79" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -9894,7 +9892,7 @@
         <v>2005</v>
       </c>
       <c r="D80" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E80" t="s">
         <v>155</v>
@@ -9906,34 +9904,34 @@
         <v>468</v>
       </c>
       <c r="I80" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J80" t="s">
+        <v>457</v>
+      </c>
+      <c r="L80" t="s">
+        <v>457</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="P80" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>1134</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1135</v>
+      </c>
+      <c r="S80" t="s">
+        <v>842</v>
+      </c>
+      <c r="T80" t="s">
+        <v>630</v>
+      </c>
+      <c r="U80" t="s">
         <v>1136</v>
-      </c>
-      <c r="J80" t="s">
-        <v>457</v>
-      </c>
-      <c r="L80" t="s">
-        <v>457</v>
-      </c>
-      <c r="O80" s="8" t="s">
-        <v>1135</v>
-      </c>
-      <c r="P80" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>1137</v>
-      </c>
-      <c r="R80" t="s">
-        <v>1138</v>
-      </c>
-      <c r="S80" t="s">
-        <v>844</v>
-      </c>
-      <c r="T80" t="s">
-        <v>631</v>
-      </c>
-      <c r="U80" t="s">
-        <v>1139</v>
       </c>
       <c r="V80" t="s">
         <v>7</v>
@@ -9959,7 +9957,7 @@
         <v>501</v>
       </c>
       <c r="I81" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="J81" t="s">
         <v>511</v>
@@ -9968,25 +9966,25 @@
         <v>511</v>
       </c>
       <c r="O81" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="P81" t="s">
+        <v>974</v>
+      </c>
+      <c r="R81" t="s">
         <v>1140</v>
       </c>
-      <c r="P81" t="s">
-        <v>976</v>
-      </c>
-      <c r="R81" t="s">
-        <v>1143</v>
-      </c>
       <c r="S81" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="T81" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U81" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="V81" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
@@ -10012,7 +10010,7 @@
         <v>501</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="J82" t="s">
         <v>457</v>
@@ -10021,28 +10019,28 @@
         <v>457</v>
       </c>
       <c r="O82" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="P82" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1145</v>
+      </c>
+      <c r="R82" t="s">
+        <v>1144</v>
+      </c>
+      <c r="S82" t="s">
+        <v>1141</v>
+      </c>
+      <c r="T82" t="s">
+        <v>630</v>
+      </c>
+      <c r="U82" t="s">
+        <v>1148</v>
+      </c>
+      <c r="V82" t="s">
         <v>1146</v>
-      </c>
-      <c r="P82" t="s">
-        <v>976</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>1148</v>
-      </c>
-      <c r="R82" t="s">
-        <v>1147</v>
-      </c>
-      <c r="S82" t="s">
-        <v>1144</v>
-      </c>
-      <c r="T82" t="s">
-        <v>631</v>
-      </c>
-      <c r="U82" t="s">
-        <v>1151</v>
-      </c>
-      <c r="V82" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -10065,7 +10063,7 @@
         <v>467</v>
       </c>
       <c r="I83" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="J83" t="s">
         <v>463</v>
@@ -10077,22 +10075,22 @@
         <v>456</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="P83" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q83" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="R83" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T83" t="s">
+        <v>664</v>
+      </c>
+      <c r="U83" t="s">
         <v>1153</v>
-      </c>
-      <c r="T83" t="s">
-        <v>665</v>
-      </c>
-      <c r="U83" t="s">
-        <v>1156</v>
       </c>
       <c r="V83" t="s">
         <v>7</v>
@@ -10109,7 +10107,7 @@
         <v>2008</v>
       </c>
       <c r="D84" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -10124,25 +10122,25 @@
         <v>457</v>
       </c>
       <c r="O84" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="P84" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>1155</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1156</v>
+      </c>
+      <c r="S84" t="s">
         <v>1157</v>
       </c>
-      <c r="P84" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q84" t="s">
+      <c r="T84" t="s">
+        <v>630</v>
+      </c>
+      <c r="U84" t="s">
         <v>1158</v>
-      </c>
-      <c r="R84" t="s">
-        <v>1159</v>
-      </c>
-      <c r="S84" t="s">
-        <v>1160</v>
-      </c>
-      <c r="T84" t="s">
-        <v>631</v>
-      </c>
-      <c r="U84" t="s">
-        <v>1161</v>
       </c>
       <c r="V84" t="s">
         <v>7</v>
@@ -10159,7 +10157,7 @@
         <v>2000</v>
       </c>
       <c r="D85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -10168,7 +10166,7 @@
         <v>466</v>
       </c>
       <c r="I85" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="J85" t="s">
         <v>457</v>
@@ -10177,25 +10175,25 @@
         <v>457</v>
       </c>
       <c r="O85" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="P85" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1161</v>
+      </c>
+      <c r="R85" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S85" t="s">
+        <v>906</v>
+      </c>
+      <c r="T85" t="s">
+        <v>630</v>
+      </c>
+      <c r="U85" t="s">
         <v>1163</v>
-      </c>
-      <c r="P85" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>1164</v>
-      </c>
-      <c r="R85" t="s">
-        <v>1162</v>
-      </c>
-      <c r="S85" t="s">
-        <v>908</v>
-      </c>
-      <c r="T85" t="s">
-        <v>631</v>
-      </c>
-      <c r="U85" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -10209,7 +10207,7 @@
         <v>2004</v>
       </c>
       <c r="D86" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -10218,7 +10216,7 @@
         <v>466</v>
       </c>
       <c r="I86" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="J86" t="s">
         <v>511</v>
@@ -10227,25 +10225,25 @@
         <v>511</v>
       </c>
       <c r="O86" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="P86" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>886</v>
+      </c>
+      <c r="R86" t="s">
+        <v>1165</v>
+      </c>
+      <c r="S86" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T86" t="s">
+        <v>630</v>
+      </c>
+      <c r="U86" t="s">
         <v>1167</v>
-      </c>
-      <c r="P86" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>888</v>
-      </c>
-      <c r="R86" t="s">
-        <v>1168</v>
-      </c>
-      <c r="S86" t="s">
-        <v>1169</v>
-      </c>
-      <c r="T86" t="s">
-        <v>631</v>
-      </c>
-      <c r="U86" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -10268,7 +10266,7 @@
         <v>466</v>
       </c>
       <c r="I87" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="J87" t="s">
         <v>457</v>
@@ -10277,25 +10275,25 @@
         <v>457</v>
       </c>
       <c r="O87" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="P87" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1170</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1171</v>
+      </c>
+      <c r="S87" t="s">
         <v>1172</v>
       </c>
-      <c r="P87" t="s">
-        <v>803</v>
-      </c>
-      <c r="Q87" t="s">
+      <c r="T87" t="s">
+        <v>630</v>
+      </c>
+      <c r="U87" t="s">
         <v>1173</v>
-      </c>
-      <c r="R87" t="s">
-        <v>1174</v>
-      </c>
-      <c r="S87" t="s">
-        <v>1175</v>
-      </c>
-      <c r="T87" t="s">
-        <v>631</v>
-      </c>
-      <c r="U87" t="s">
-        <v>1176</v>
       </c>
       <c r="V87" t="s">
         <v>7</v>
@@ -10327,25 +10325,25 @@
         <v>452</v>
       </c>
       <c r="O88" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="P88" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q88" t="s">
         <v>676</v>
       </c>
-      <c r="P88" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>677</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>678</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
+        <v>630</v>
+      </c>
+      <c r="U88" t="s">
         <v>679</v>
-      </c>
-      <c r="T88" t="s">
-        <v>631</v>
-      </c>
-      <c r="U88" t="s">
-        <v>680</v>
       </c>
       <c r="V88" t="s">
         <v>7</v>
@@ -10362,7 +10360,7 @@
         <v>1995</v>
       </c>
       <c r="D89" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -10371,7 +10369,7 @@
         <v>501</v>
       </c>
       <c r="I89" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="J89" t="s">
         <v>457</v>
@@ -10380,28 +10378,28 @@
         <v>457</v>
       </c>
       <c r="O89" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="P89" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1176</v>
+      </c>
+      <c r="R89" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S89" t="s">
         <v>1178</v>
       </c>
-      <c r="P89" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q89" t="s">
+      <c r="T89" t="s">
+        <v>630</v>
+      </c>
+      <c r="U89" t="s">
+        <v>1181</v>
+      </c>
+      <c r="V89" s="6" t="s">
         <v>1179</v>
-      </c>
-      <c r="R89" t="s">
-        <v>1180</v>
-      </c>
-      <c r="S89" t="s">
-        <v>1181</v>
-      </c>
-      <c r="T89" t="s">
-        <v>631</v>
-      </c>
-      <c r="U89" t="s">
-        <v>1184</v>
-      </c>
-      <c r="V89" s="6" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -10415,7 +10413,7 @@
         <v>2008</v>
       </c>
       <c r="D90" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -10430,25 +10428,25 @@
         <v>450</v>
       </c>
       <c r="O90" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="P90" t="s">
         <v>681</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>682</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>683</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>684</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
+        <v>630</v>
+      </c>
+      <c r="U90" t="s">
         <v>685</v>
-      </c>
-      <c r="T90" t="s">
-        <v>631</v>
-      </c>
-      <c r="U90" t="s">
-        <v>686</v>
       </c>
       <c r="V90" t="s">
         <v>7</v>
@@ -10474,7 +10472,7 @@
         <v>501</v>
       </c>
       <c r="I91" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="J91" t="s">
         <v>462</v>
@@ -10483,25 +10481,25 @@
         <v>509</v>
       </c>
       <c r="O91" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1022</v>
+      </c>
+      <c r="R91" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S91" t="s">
         <v>1185</v>
       </c>
-      <c r="P91" t="s">
-        <v>1024</v>
-      </c>
-      <c r="R91" t="s">
+      <c r="T91" t="s">
+        <v>630</v>
+      </c>
+      <c r="U91" t="s">
+        <v>1186</v>
+      </c>
+      <c r="V91" t="s">
         <v>1187</v>
-      </c>
-      <c r="S91" t="s">
-        <v>1188</v>
-      </c>
-      <c r="T91" t="s">
-        <v>631</v>
-      </c>
-      <c r="U91" t="s">
-        <v>1189</v>
-      </c>
-      <c r="V91" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -10515,7 +10513,7 @@
         <v>2011</v>
       </c>
       <c r="D92" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -10524,7 +10522,7 @@
         <v>466</v>
       </c>
       <c r="I92" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="J92" t="s">
         <v>462</v>
@@ -10533,22 +10531,22 @@
         <v>509</v>
       </c>
       <c r="O92" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R92" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S92" t="s">
+        <v>1190</v>
+      </c>
+      <c r="T92" t="s">
+        <v>630</v>
+      </c>
+      <c r="U92" t="s">
         <v>1192</v>
-      </c>
-      <c r="P92" t="s">
-        <v>1553</v>
-      </c>
-      <c r="R92" t="s">
-        <v>1191</v>
-      </c>
-      <c r="S92" t="s">
-        <v>1193</v>
-      </c>
-      <c r="T92" t="s">
-        <v>631</v>
-      </c>
-      <c r="U92" t="s">
-        <v>1195</v>
       </c>
       <c r="V92" t="s">
         <v>7</v>
@@ -10565,7 +10563,7 @@
         <v>2021</v>
       </c>
       <c r="D93" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -10580,25 +10578,25 @@
         <v>455</v>
       </c>
       <c r="O93" s="8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Q93" t="s">
         <v>1196</v>
       </c>
-      <c r="P93" t="s">
+      <c r="R93" t="s">
+        <v>1197</v>
+      </c>
+      <c r="S93" t="s">
+        <v>1194</v>
+      </c>
+      <c r="T93" t="s">
+        <v>732</v>
+      </c>
+      <c r="U93" t="s">
         <v>1198</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>1199</v>
-      </c>
-      <c r="R93" t="s">
-        <v>1200</v>
-      </c>
-      <c r="S93" t="s">
-        <v>1197</v>
-      </c>
-      <c r="T93" t="s">
-        <v>733</v>
-      </c>
-      <c r="U93" t="s">
-        <v>1201</v>
       </c>
       <c r="V93" t="s">
         <v>7</v>
@@ -10636,25 +10634,25 @@
         <v>455</v>
       </c>
       <c r="O94" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="P94" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q94" t="s">
         <v>687</v>
       </c>
-      <c r="P94" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>688</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>689</v>
       </c>
-      <c r="S94" t="s">
+      <c r="T94" t="s">
+        <v>630</v>
+      </c>
+      <c r="U94" t="s">
         <v>690</v>
-      </c>
-      <c r="T94" t="s">
-        <v>631</v>
-      </c>
-      <c r="U94" t="s">
-        <v>691</v>
       </c>
       <c r="V94" t="s">
         <v>7</v>
@@ -10680,7 +10678,7 @@
         <v>507</v>
       </c>
       <c r="I95" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="J95" t="s">
         <v>457</v>
@@ -10689,25 +10687,25 @@
         <v>457</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="P95" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R95" t="s">
+        <v>1200</v>
+      </c>
+      <c r="S95" t="s">
+        <v>842</v>
+      </c>
+      <c r="T95" t="s">
+        <v>630</v>
+      </c>
+      <c r="U95" t="s">
         <v>1203</v>
       </c>
-      <c r="S95" t="s">
-        <v>844</v>
-      </c>
-      <c r="T95" t="s">
-        <v>631</v>
-      </c>
-      <c r="U95" t="s">
-        <v>1206</v>
-      </c>
       <c r="V95" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -10730,7 +10728,7 @@
         <v>480</v>
       </c>
       <c r="I96" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="J96" t="s">
         <v>457</v>
@@ -10742,25 +10740,25 @@
         <v>451</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="P96" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Q96" t="s">
+        <v>1205</v>
+      </c>
+      <c r="S96" t="s">
         <v>1208</v>
       </c>
-      <c r="S96" t="s">
-        <v>1211</v>
-      </c>
       <c r="T96" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U96" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="V96" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -10795,22 +10793,22 @@
         <v>452</v>
       </c>
       <c r="O97" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="P97" t="s">
+        <v>625</v>
+      </c>
+      <c r="R97" t="s">
         <v>692</v>
       </c>
-      <c r="P97" t="s">
-        <v>626</v>
-      </c>
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>693</v>
       </c>
-      <c r="S97" t="s">
+      <c r="T97" t="s">
+        <v>630</v>
+      </c>
+      <c r="U97" t="s">
         <v>694</v>
-      </c>
-      <c r="T97" t="s">
-        <v>631</v>
-      </c>
-      <c r="U97" t="s">
-        <v>695</v>
       </c>
       <c r="V97" t="s">
         <v>7</v>
@@ -10827,7 +10825,7 @@
         <v>2002</v>
       </c>
       <c r="D98" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -10839,7 +10837,7 @@
         <v>466</v>
       </c>
       <c r="I98" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="J98" t="s">
         <v>462</v>
@@ -10854,25 +10852,25 @@
         <v>511</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="P98" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R98" t="s">
+        <v>1210</v>
+      </c>
+      <c r="S98" t="s">
         <v>1213</v>
       </c>
-      <c r="S98" t="s">
-        <v>1216</v>
-      </c>
       <c r="T98" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="U98" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="V98" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -10886,7 +10884,7 @@
         <v>2009</v>
       </c>
       <c r="D99" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -10895,34 +10893,34 @@
         <v>466</v>
       </c>
       <c r="I99" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J99" t="s">
+        <v>457</v>
+      </c>
+      <c r="L99" t="s">
+        <v>457</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="P99" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>1220</v>
+      </c>
+      <c r="R99" t="s">
+        <v>1217</v>
+      </c>
+      <c r="S99" t="s">
+        <v>906</v>
+      </c>
+      <c r="T99" t="s">
+        <v>630</v>
+      </c>
+      <c r="U99" t="s">
         <v>1221</v>
-      </c>
-      <c r="J99" t="s">
-        <v>457</v>
-      </c>
-      <c r="L99" t="s">
-        <v>457</v>
-      </c>
-      <c r="O99" s="8" t="s">
-        <v>1219</v>
-      </c>
-      <c r="P99" t="s">
-        <v>1222</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>1223</v>
-      </c>
-      <c r="R99" t="s">
-        <v>1220</v>
-      </c>
-      <c r="S99" t="s">
-        <v>908</v>
-      </c>
-      <c r="T99" t="s">
-        <v>631</v>
-      </c>
-      <c r="U99" t="s">
-        <v>1224</v>
       </c>
       <c r="V99" t="s">
         <v>7</v>
@@ -10954,25 +10952,25 @@
         <v>509</v>
       </c>
       <c r="O100" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P100" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>1223</v>
+      </c>
+      <c r="R100" t="s">
+        <v>1224</v>
+      </c>
+      <c r="S100" t="s">
         <v>1225</v>
       </c>
-      <c r="P100" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q100" t="s">
+      <c r="T100" t="s">
+        <v>630</v>
+      </c>
+      <c r="U100" t="s">
         <v>1226</v>
-      </c>
-      <c r="R100" t="s">
-        <v>1227</v>
-      </c>
-      <c r="S100" t="s">
-        <v>1228</v>
-      </c>
-      <c r="T100" t="s">
-        <v>631</v>
-      </c>
-      <c r="U100" t="s">
-        <v>1229</v>
       </c>
       <c r="V100" t="s">
         <v>7</v>
@@ -10989,7 +10987,7 @@
         <v>2010</v>
       </c>
       <c r="D101" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -11001,7 +10999,7 @@
         <v>507</v>
       </c>
       <c r="I101" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="J101" t="s">
         <v>461</v>
@@ -11010,25 +11008,25 @@
         <v>455</v>
       </c>
       <c r="O101" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="P101" t="s">
+        <v>1228</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>1229</v>
+      </c>
+      <c r="R101" t="s">
         <v>1230</v>
       </c>
-      <c r="P101" t="s">
+      <c r="S101" t="s">
+        <v>906</v>
+      </c>
+      <c r="T101" t="s">
+        <v>664</v>
+      </c>
+      <c r="U101" t="s">
         <v>1231</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>1232</v>
-      </c>
-      <c r="R101" t="s">
-        <v>1233</v>
-      </c>
-      <c r="S101" t="s">
-        <v>908</v>
-      </c>
-      <c r="T101" t="s">
-        <v>665</v>
-      </c>
-      <c r="U101" t="s">
-        <v>1234</v>
       </c>
       <c r="V101" t="s">
         <v>7</v>
@@ -11057,7 +11055,7 @@
         <v>507</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="J102" t="s">
         <v>457</v>
@@ -11066,28 +11064,28 @@
         <v>457</v>
       </c>
       <c r="O102" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>1234</v>
+      </c>
+      <c r="R102" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S102" t="s">
         <v>1236</v>
       </c>
-      <c r="P102" t="s">
-        <v>1554</v>
-      </c>
-      <c r="Q102" t="s">
+      <c r="T102" t="s">
+        <v>630</v>
+      </c>
+      <c r="U102" t="s">
+        <v>1239</v>
+      </c>
+      <c r="V102" t="s">
         <v>1237</v>
-      </c>
-      <c r="R102" t="s">
-        <v>1238</v>
-      </c>
-      <c r="S102" t="s">
-        <v>1239</v>
-      </c>
-      <c r="T102" t="s">
-        <v>631</v>
-      </c>
-      <c r="U102" t="s">
-        <v>1242</v>
-      </c>
-      <c r="V102" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -11101,13 +11099,13 @@
         <v>2018</v>
       </c>
       <c r="D103" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G103" t="s">
         <v>466</v>
@@ -11128,25 +11126,25 @@
         <v>455</v>
       </c>
       <c r="O103" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="P103" t="s">
         <v>696</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>697</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="R103" t="s">
         <v>698</v>
       </c>
-      <c r="R103" t="s">
-        <v>699</v>
-      </c>
       <c r="S103" t="s">
+        <v>700</v>
+      </c>
+      <c r="T103" t="s">
+        <v>630</v>
+      </c>
+      <c r="U103" t="s">
         <v>701</v>
-      </c>
-      <c r="T103" t="s">
-        <v>631</v>
-      </c>
-      <c r="U103" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -11160,7 +11158,7 @@
         <v>2015</v>
       </c>
       <c r="D104" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -11178,28 +11176,28 @@
         <v>511</v>
       </c>
       <c r="O104" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="P104" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>709</v>
+      </c>
+      <c r="R104" t="s">
         <v>703</v>
       </c>
-      <c r="P104" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>710</v>
-      </c>
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>704</v>
       </c>
-      <c r="S104" t="s">
-        <v>705</v>
-      </c>
       <c r="T104" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U104" t="s">
         <v>41</v>
       </c>
       <c r="V104" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -11213,7 +11211,7 @@
         <v>2003</v>
       </c>
       <c r="D105" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -11225,7 +11223,7 @@
         <v>474</v>
       </c>
       <c r="I105" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="J105" t="s">
         <v>457</v>
@@ -11234,28 +11232,28 @@
         <v>457</v>
       </c>
       <c r="O105" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1551</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>1241</v>
+      </c>
+      <c r="R105" t="s">
+        <v>1242</v>
+      </c>
+      <c r="S105" t="s">
         <v>1243</v>
       </c>
-      <c r="P105" t="s">
-        <v>1555</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>1244</v>
-      </c>
-      <c r="R105" t="s">
+      <c r="T105" t="s">
+        <v>664</v>
+      </c>
+      <c r="U105" t="s">
         <v>1245</v>
       </c>
-      <c r="S105" t="s">
+      <c r="V105" t="s">
         <v>1246</v>
-      </c>
-      <c r="T105" t="s">
-        <v>665</v>
-      </c>
-      <c r="U105" t="s">
-        <v>1248</v>
-      </c>
-      <c r="V105" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -11269,7 +11267,7 @@
         <v>2006</v>
       </c>
       <c r="D106" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -11284,22 +11282,22 @@
         <v>511</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="P106" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R106" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="S106" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="T106" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U106" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="V106" t="s">
         <v>7</v>
@@ -11334,25 +11332,25 @@
         <v>457</v>
       </c>
       <c r="O107" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="P107" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q107" t="s">
         <v>707</v>
       </c>
-      <c r="P107" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>708</v>
-      </c>
       <c r="R107" t="s">
+        <v>710</v>
+      </c>
+      <c r="S107" t="s">
         <v>711</v>
       </c>
-      <c r="S107" t="s">
+      <c r="T107" t="s">
+        <v>630</v>
+      </c>
+      <c r="U107" t="s">
         <v>712</v>
-      </c>
-      <c r="T107" t="s">
-        <v>631</v>
-      </c>
-      <c r="U107" t="s">
-        <v>713</v>
       </c>
       <c r="V107" t="s">
         <v>7</v>
@@ -11369,7 +11367,7 @@
         <v>2008</v>
       </c>
       <c r="D108" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -11381,7 +11379,7 @@
         <v>467</v>
       </c>
       <c r="I108" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="J108" t="s">
         <v>453</v>
@@ -11396,25 +11394,25 @@
         <v>455</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="P108" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="Q108" t="s">
+        <v>1252</v>
+      </c>
+      <c r="S108" t="s">
+        <v>1253</v>
+      </c>
+      <c r="T108" t="s">
+        <v>630</v>
+      </c>
+      <c r="U108" t="s">
         <v>1255</v>
       </c>
-      <c r="S108" t="s">
+      <c r="V108" t="s">
         <v>1256</v>
-      </c>
-      <c r="T108" t="s">
-        <v>631</v>
-      </c>
-      <c r="U108" t="s">
-        <v>1258</v>
-      </c>
-      <c r="V108" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -11428,7 +11426,7 @@
         <v>2018</v>
       </c>
       <c r="D109" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -11437,7 +11435,7 @@
         <v>507</v>
       </c>
       <c r="I109" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="J109" t="s">
         <v>462</v>
@@ -11446,19 +11444,19 @@
         <v>509</v>
       </c>
       <c r="O109" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="P109" t="s">
+        <v>625</v>
+      </c>
+      <c r="S109" t="s">
+        <v>1258</v>
+      </c>
+      <c r="T109" t="s">
+        <v>664</v>
+      </c>
+      <c r="U109" t="s">
         <v>1260</v>
-      </c>
-      <c r="P109" t="s">
-        <v>626</v>
-      </c>
-      <c r="S109" t="s">
-        <v>1261</v>
-      </c>
-      <c r="T109" t="s">
-        <v>665</v>
-      </c>
-      <c r="U109" t="s">
-        <v>1263</v>
       </c>
       <c r="V109" t="s">
         <v>7</v>
@@ -11475,7 +11473,7 @@
         <v>2013</v>
       </c>
       <c r="D110" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -11487,7 +11485,7 @@
         <v>501</v>
       </c>
       <c r="I110" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="J110" t="s">
         <v>511</v>
@@ -11496,25 +11494,25 @@
         <v>511</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="P110" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Q110" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="S110" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="T110" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U110" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="V110" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -11528,7 +11526,7 @@
         <v>2008</v>
       </c>
       <c r="D111" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -11537,7 +11535,7 @@
         <v>465</v>
       </c>
       <c r="I111" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="J111" t="s">
         <v>462</v>
@@ -11546,22 +11544,22 @@
         <v>509</v>
       </c>
       <c r="O111" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="P111" t="s">
+        <v>776</v>
+      </c>
+      <c r="R111" t="s">
+        <v>1267</v>
+      </c>
+      <c r="S111" t="s">
         <v>1268</v>
       </c>
-      <c r="P111" t="s">
-        <v>777</v>
-      </c>
-      <c r="R111" t="s">
-        <v>1270</v>
-      </c>
-      <c r="S111" t="s">
-        <v>1271</v>
-      </c>
       <c r="T111" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U111" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="V111" t="s">
         <v>7</v>
@@ -11593,25 +11591,25 @@
         <v>457</v>
       </c>
       <c r="O112" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="P112" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>1272</v>
+      </c>
+      <c r="R112" t="s">
         <v>1273</v>
       </c>
-      <c r="P112" t="s">
+      <c r="S112" t="s">
         <v>1274</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="T112" t="s">
+        <v>630</v>
+      </c>
+      <c r="U112" t="s">
         <v>1275</v>
-      </c>
-      <c r="R112" t="s">
-        <v>1276</v>
-      </c>
-      <c r="S112" t="s">
-        <v>1277</v>
-      </c>
-      <c r="T112" t="s">
-        <v>631</v>
-      </c>
-      <c r="U112" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -11625,7 +11623,7 @@
         <v>2022</v>
       </c>
       <c r="D113" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -11634,7 +11632,7 @@
         <v>480</v>
       </c>
       <c r="I113" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="J113" t="s">
         <v>511</v>
@@ -11643,22 +11641,22 @@
         <v>511</v>
       </c>
       <c r="O113" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="P113" t="s">
+        <v>708</v>
+      </c>
+      <c r="S113" t="s">
+        <v>704</v>
+      </c>
+      <c r="T113" t="s">
+        <v>664</v>
+      </c>
+      <c r="U113" t="s">
         <v>1279</v>
       </c>
-      <c r="P113" t="s">
-        <v>709</v>
-      </c>
-      <c r="S113" t="s">
-        <v>705</v>
-      </c>
-      <c r="T113" t="s">
-        <v>665</v>
-      </c>
-      <c r="U113" t="s">
-        <v>1282</v>
-      </c>
       <c r="V113" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
@@ -11690,22 +11688,22 @@
         <v>453</v>
       </c>
       <c r="O114" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="P114" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R114" t="s">
+        <v>1282</v>
+      </c>
+      <c r="S114" t="s">
         <v>1283</v>
       </c>
-      <c r="P114" t="s">
+      <c r="T114" t="s">
+        <v>664</v>
+      </c>
+      <c r="U114" t="s">
         <v>1284</v>
-      </c>
-      <c r="R114" t="s">
-        <v>1285</v>
-      </c>
-      <c r="S114" t="s">
-        <v>1286</v>
-      </c>
-      <c r="T114" t="s">
-        <v>665</v>
-      </c>
-      <c r="U114" t="s">
-        <v>1287</v>
       </c>
       <c r="V114" t="s">
         <v>7</v>
@@ -11737,25 +11735,25 @@
         <v>457</v>
       </c>
       <c r="O115" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P115" t="s">
+        <v>930</v>
+      </c>
+      <c r="R115" t="s">
+        <v>1287</v>
+      </c>
+      <c r="S115" t="s">
         <v>1288</v>
       </c>
-      <c r="P115" t="s">
-        <v>932</v>
-      </c>
-      <c r="R115" t="s">
-        <v>1290</v>
-      </c>
-      <c r="S115" t="s">
-        <v>1291</v>
-      </c>
       <c r="T115" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U115" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="V115" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
@@ -11784,19 +11782,19 @@
         <v>511</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="P116" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S116" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="T116" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="U116" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="V116" t="s">
         <v>7</v>
@@ -11813,7 +11811,7 @@
         <v>2022</v>
       </c>
       <c r="D117" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
@@ -11822,7 +11820,7 @@
         <v>467</v>
       </c>
       <c r="I117" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="J117" t="s">
         <v>511</v>
@@ -11831,19 +11829,19 @@
         <v>511</v>
       </c>
       <c r="O117" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="P117" t="s">
+        <v>708</v>
+      </c>
+      <c r="S117" t="s">
+        <v>1294</v>
+      </c>
+      <c r="T117" t="s">
+        <v>644</v>
+      </c>
+      <c r="U117" t="s">
         <v>1296</v>
-      </c>
-      <c r="P117" t="s">
-        <v>709</v>
-      </c>
-      <c r="S117" t="s">
-        <v>1297</v>
-      </c>
-      <c r="T117" t="s">
-        <v>645</v>
-      </c>
-      <c r="U117" t="s">
-        <v>1299</v>
       </c>
       <c r="V117" t="s">
         <v>7</v>
@@ -11884,22 +11882,22 @@
         <v>511</v>
       </c>
       <c r="O118" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="P118" t="s">
+        <v>1552</v>
+      </c>
+      <c r="S118" t="s">
+        <v>1298</v>
+      </c>
+      <c r="T118" t="s">
+        <v>664</v>
+      </c>
+      <c r="U118" t="s">
         <v>1300</v>
       </c>
-      <c r="P118" t="s">
-        <v>1556</v>
-      </c>
-      <c r="S118" t="s">
-        <v>1301</v>
-      </c>
-      <c r="T118" t="s">
-        <v>665</v>
-      </c>
-      <c r="U118" t="s">
-        <v>1303</v>
-      </c>
       <c r="V118" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
@@ -11922,34 +11920,34 @@
         <v>466</v>
       </c>
       <c r="I119" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J119" t="s">
+        <v>457</v>
+      </c>
+      <c r="L119" t="s">
+        <v>457</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P119" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>1303</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1304</v>
+      </c>
+      <c r="S119" t="s">
+        <v>919</v>
+      </c>
+      <c r="T119" t="s">
+        <v>630</v>
+      </c>
+      <c r="U119" t="s">
         <v>1305</v>
-      </c>
-      <c r="J119" t="s">
-        <v>457</v>
-      </c>
-      <c r="L119" t="s">
-        <v>457</v>
-      </c>
-      <c r="O119" s="8" t="s">
-        <v>1304</v>
-      </c>
-      <c r="P119" t="s">
-        <v>781</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>1306</v>
-      </c>
-      <c r="R119" t="s">
-        <v>1307</v>
-      </c>
-      <c r="S119" t="s">
-        <v>921</v>
-      </c>
-      <c r="T119" t="s">
-        <v>631</v>
-      </c>
-      <c r="U119" t="s">
-        <v>1308</v>
       </c>
       <c r="V119" t="s">
         <v>7</v>
@@ -11978,7 +11976,7 @@
         <v>467</v>
       </c>
       <c r="I120" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="J120" t="s">
         <v>457</v>
@@ -11987,25 +11985,25 @@
         <v>457</v>
       </c>
       <c r="O120" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="P120" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>1307</v>
+      </c>
+      <c r="R120" t="s">
+        <v>1308</v>
+      </c>
+      <c r="S120" t="s">
         <v>1309</v>
       </c>
-      <c r="P120" t="s">
-        <v>803</v>
-      </c>
-      <c r="Q120" t="s">
+      <c r="T120" t="s">
+        <v>630</v>
+      </c>
+      <c r="U120" t="s">
         <v>1310</v>
-      </c>
-      <c r="R120" t="s">
-        <v>1311</v>
-      </c>
-      <c r="S120" t="s">
-        <v>1312</v>
-      </c>
-      <c r="T120" t="s">
-        <v>631</v>
-      </c>
-      <c r="U120" t="s">
-        <v>1313</v>
       </c>
       <c r="V120" t="s">
         <v>7</v>
@@ -12031,7 +12029,7 @@
         <v>466</v>
       </c>
       <c r="I121" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="J121" t="s">
         <v>457</v>
@@ -12040,25 +12038,25 @@
         <v>457</v>
       </c>
       <c r="O121" s="8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P121" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>1313</v>
+      </c>
+      <c r="R121" t="s">
+        <v>1314</v>
+      </c>
+      <c r="S121" t="s">
+        <v>783</v>
+      </c>
+      <c r="T121" t="s">
+        <v>630</v>
+      </c>
+      <c r="U121" t="s">
         <v>1315</v>
-      </c>
-      <c r="P121" t="s">
-        <v>781</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>1316</v>
-      </c>
-      <c r="R121" t="s">
-        <v>1317</v>
-      </c>
-      <c r="S121" t="s">
-        <v>784</v>
-      </c>
-      <c r="T121" t="s">
-        <v>631</v>
-      </c>
-      <c r="U121" t="s">
-        <v>1318</v>
       </c>
       <c r="V121" t="s">
         <v>7</v>
@@ -12087,7 +12085,7 @@
         <v>467</v>
       </c>
       <c r="I122" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="J122" t="s">
         <v>511</v>
@@ -12096,19 +12094,19 @@
         <v>511</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="P122" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S122" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="T122" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U122" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="V122" t="s">
         <v>7</v>
@@ -12125,7 +12123,7 @@
         <v>2019</v>
       </c>
       <c r="D123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -12140,22 +12138,22 @@
         <v>453</v>
       </c>
       <c r="O123" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P123" t="s">
+        <v>1322</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>1323</v>
+      </c>
+      <c r="S123" t="s">
+        <v>849</v>
+      </c>
+      <c r="T123" t="s">
+        <v>630</v>
+      </c>
+      <c r="U123" t="s">
         <v>1324</v>
-      </c>
-      <c r="P123" t="s">
-        <v>1325</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>1326</v>
-      </c>
-      <c r="S123" t="s">
-        <v>851</v>
-      </c>
-      <c r="T123" t="s">
-        <v>631</v>
-      </c>
-      <c r="U123" t="s">
-        <v>1327</v>
       </c>
       <c r="V123" t="s">
         <v>7</v>
@@ -12187,19 +12185,19 @@
         <v>454</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="P124" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S124" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="T124" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U124" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="V124" t="s">
         <v>7</v>
@@ -12240,28 +12238,28 @@
         <v>451</v>
       </c>
       <c r="O125" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="P125" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>717</v>
+      </c>
+      <c r="R125" t="s">
         <v>714</v>
-      </c>
-      <c r="P125" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>718</v>
-      </c>
-      <c r="R125" t="s">
-        <v>715</v>
       </c>
       <c r="S125" t="s">
         <v>41</v>
       </c>
       <c r="T125" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U125" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="V125" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
@@ -12275,7 +12273,7 @@
         <v>2020</v>
       </c>
       <c r="D126" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E126" t="s">
         <v>155</v>
@@ -12293,22 +12291,22 @@
         <v>511</v>
       </c>
       <c r="O126" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="P126" t="s">
         <v>720</v>
       </c>
-      <c r="P126" t="s">
+      <c r="Q126" t="s">
         <v>721</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="S126" t="s">
         <v>722</v>
       </c>
-      <c r="S126" t="s">
+      <c r="T126" t="s">
+        <v>614</v>
+      </c>
+      <c r="U126" t="s">
         <v>723</v>
-      </c>
-      <c r="T126" t="s">
-        <v>615</v>
-      </c>
-      <c r="U126" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
@@ -12322,7 +12320,7 @@
         <v>2018</v>
       </c>
       <c r="D127" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -12331,7 +12329,7 @@
         <v>501</v>
       </c>
       <c r="I127" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="J127" t="s">
         <v>462</v>
@@ -12340,25 +12338,25 @@
         <v>509</v>
       </c>
       <c r="O127" s="8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P127" t="s">
+        <v>1022</v>
+      </c>
+      <c r="R127" t="s">
+        <v>1330</v>
+      </c>
+      <c r="S127" t="s">
         <v>1331</v>
       </c>
-      <c r="P127" t="s">
-        <v>1024</v>
-      </c>
-      <c r="R127" t="s">
+      <c r="T127" t="s">
+        <v>630</v>
+      </c>
+      <c r="U127" t="s">
         <v>1333</v>
       </c>
-      <c r="S127" t="s">
-        <v>1334</v>
-      </c>
-      <c r="T127" t="s">
-        <v>631</v>
-      </c>
-      <c r="U127" t="s">
-        <v>1336</v>
-      </c>
       <c r="V127" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -12384,7 +12382,7 @@
         <v>467</v>
       </c>
       <c r="I128" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="J128" t="s">
         <v>458</v>
@@ -12399,25 +12397,25 @@
         <v>457</v>
       </c>
       <c r="O128" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="P128" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R128" t="s">
+        <v>1336</v>
+      </c>
+      <c r="S128" t="s">
         <v>1337</v>
       </c>
-      <c r="P128" t="s">
-        <v>1554</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>1341</v>
-      </c>
-      <c r="R128" t="s">
+      <c r="T128" t="s">
+        <v>630</v>
+      </c>
+      <c r="U128" t="s">
         <v>1339</v>
-      </c>
-      <c r="S128" t="s">
-        <v>1340</v>
-      </c>
-      <c r="T128" t="s">
-        <v>631</v>
-      </c>
-      <c r="U128" t="s">
-        <v>1342</v>
       </c>
       <c r="V128" t="s">
         <v>7</v>
@@ -12434,7 +12432,7 @@
         <v>2001</v>
       </c>
       <c r="D129" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -12443,7 +12441,7 @@
         <v>466</v>
       </c>
       <c r="I129" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="J129" t="s">
         <v>457</v>
@@ -12452,25 +12450,25 @@
         <v>457</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="P129" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Q129" t="s">
+        <v>1341</v>
+      </c>
+      <c r="R129" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S129" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T129" t="s">
+        <v>630</v>
+      </c>
+      <c r="U129" t="s">
         <v>1344</v>
-      </c>
-      <c r="R129" t="s">
-        <v>1345</v>
-      </c>
-      <c r="S129" t="s">
-        <v>1246</v>
-      </c>
-      <c r="T129" t="s">
-        <v>631</v>
-      </c>
-      <c r="U129" t="s">
-        <v>1347</v>
       </c>
       <c r="V129" t="s">
         <v>7</v>
@@ -12487,7 +12485,7 @@
         <v>2011</v>
       </c>
       <c r="D130" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -12502,25 +12500,25 @@
         <v>457</v>
       </c>
       <c r="O130" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="P130" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>1346</v>
+      </c>
+      <c r="R130" t="s">
+        <v>1347</v>
+      </c>
+      <c r="S130" t="s">
         <v>1348</v>
       </c>
-      <c r="P130" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q130" t="s">
+      <c r="T130" t="s">
+        <v>630</v>
+      </c>
+      <c r="U130" t="s">
         <v>1349</v>
-      </c>
-      <c r="R130" t="s">
-        <v>1350</v>
-      </c>
-      <c r="S130" t="s">
-        <v>1351</v>
-      </c>
-      <c r="T130" t="s">
-        <v>631</v>
-      </c>
-      <c r="U130" t="s">
-        <v>1352</v>
       </c>
       <c r="V130" t="s">
         <v>7</v>
@@ -12552,22 +12550,22 @@
         <v>455</v>
       </c>
       <c r="O131" s="8" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P131" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>1351</v>
+      </c>
+      <c r="S131" t="s">
+        <v>1352</v>
+      </c>
+      <c r="T131" t="s">
+        <v>630</v>
+      </c>
+      <c r="U131" t="s">
         <v>1353</v>
-      </c>
-      <c r="P131" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>1354</v>
-      </c>
-      <c r="S131" t="s">
-        <v>1355</v>
-      </c>
-      <c r="T131" t="s">
-        <v>631</v>
-      </c>
-      <c r="U131" t="s">
-        <v>1356</v>
       </c>
       <c r="V131" t="s">
         <v>7</v>
@@ -12602,25 +12600,25 @@
         <v>509</v>
       </c>
       <c r="O132" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="P132" t="s">
+        <v>1557</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>1355</v>
+      </c>
+      <c r="R132" t="s">
+        <v>1356</v>
+      </c>
+      <c r="S132" t="s">
+        <v>1258</v>
+      </c>
+      <c r="T132" t="s">
+        <v>664</v>
+      </c>
+      <c r="U132" t="s">
         <v>1357</v>
-      </c>
-      <c r="P132" t="s">
-        <v>1561</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>1358</v>
-      </c>
-      <c r="R132" t="s">
-        <v>1359</v>
-      </c>
-      <c r="S132" t="s">
-        <v>1261</v>
-      </c>
-      <c r="T132" t="s">
-        <v>665</v>
-      </c>
-      <c r="U132" t="s">
-        <v>1360</v>
       </c>
       <c r="V132" t="s">
         <v>7</v>
@@ -12637,7 +12635,7 @@
         <v>2003</v>
       </c>
       <c r="D133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
@@ -12655,22 +12653,22 @@
         <v>509</v>
       </c>
       <c r="O133" s="8" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="P133" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="Q133" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="S133" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="T133" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U133" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
@@ -12693,31 +12691,37 @@
         <v>474</v>
       </c>
       <c r="I134" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="J134" t="s">
-        <v>509</v>
+        <v>457</v>
+      </c>
+      <c r="K134" t="s">
+        <v>460</v>
       </c>
       <c r="L134" t="s">
-        <v>509</v>
+        <v>457</v>
+      </c>
+      <c r="M134" t="s">
+        <v>452</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="P134" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S134" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="T134" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U134" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="V134" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
@@ -12746,19 +12750,19 @@
         <v>457</v>
       </c>
       <c r="O135" s="8" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="P135" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S135" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="T135" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U135" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="V135" t="s">
         <v>7</v>
@@ -12784,7 +12788,7 @@
         <v>466</v>
       </c>
       <c r="I136" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="J136" t="s">
         <v>463</v>
@@ -12796,25 +12800,25 @@
         <v>456</v>
       </c>
       <c r="O136" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P136" t="s">
+        <v>1370</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>1371</v>
+      </c>
+      <c r="R136" t="s">
         <v>1372</v>
       </c>
-      <c r="P136" t="s">
+      <c r="S136" t="s">
         <v>1373</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="T136" t="s">
+        <v>1544</v>
+      </c>
+      <c r="U136" t="s">
         <v>1374</v>
-      </c>
-      <c r="R136" t="s">
-        <v>1375</v>
-      </c>
-      <c r="S136" t="s">
-        <v>1376</v>
-      </c>
-      <c r="T136" t="s">
-        <v>1548</v>
-      </c>
-      <c r="U136" t="s">
-        <v>1378</v>
       </c>
       <c r="V136" t="s">
         <v>7</v>
@@ -12831,7 +12835,7 @@
         <v>2010</v>
       </c>
       <c r="D137" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -12840,7 +12844,7 @@
         <v>466</v>
       </c>
       <c r="I137" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="J137" t="s">
         <v>511</v>
@@ -12849,19 +12853,19 @@
         <v>511</v>
       </c>
       <c r="O137" s="8" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="P137" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S137" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="T137" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U137" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="V137" t="s">
         <v>7</v>
@@ -12887,7 +12891,7 @@
         <v>466</v>
       </c>
       <c r="I138" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="J138" t="s">
         <v>460</v>
@@ -12902,25 +12906,25 @@
         <v>457</v>
       </c>
       <c r="O138" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="P138" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>1380</v>
+      </c>
+      <c r="R138" t="s">
+        <v>1381</v>
+      </c>
+      <c r="S138" t="s">
+        <v>1382</v>
+      </c>
+      <c r="T138" t="s">
+        <v>664</v>
+      </c>
+      <c r="U138" t="s">
         <v>1383</v>
-      </c>
-      <c r="P138" t="s">
-        <v>1030</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>1384</v>
-      </c>
-      <c r="R138" t="s">
-        <v>1385</v>
-      </c>
-      <c r="S138" t="s">
-        <v>1386</v>
-      </c>
-      <c r="T138" t="s">
-        <v>665</v>
-      </c>
-      <c r="U138" t="s">
-        <v>1387</v>
       </c>
       <c r="V138" t="s">
         <v>7</v>
@@ -12952,19 +12956,19 @@
         <v>454</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="P139" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S139" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="T139" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U139" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="V139" t="s">
         <v>7</v>
@@ -12996,22 +13000,22 @@
         <v>511</v>
       </c>
       <c r="O140" s="8" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="P140" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="R140" t="s">
         <v>41</v>
       </c>
       <c r="S140" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="T140" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="U140" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="V140" t="s">
         <v>7</v>
@@ -13040,7 +13044,7 @@
         <v>480</v>
       </c>
       <c r="I141" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="J141" t="s">
         <v>511</v>
@@ -13049,25 +13053,25 @@
         <v>511</v>
       </c>
       <c r="O141" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="P141" t="s">
+        <v>1553</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>1394</v>
+      </c>
+      <c r="R141" t="s">
+        <v>1395</v>
+      </c>
+      <c r="T141" t="s">
+        <v>664</v>
+      </c>
+      <c r="U141" t="s">
         <v>1393</v>
       </c>
-      <c r="P141" t="s">
-        <v>1557</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>1398</v>
-      </c>
-      <c r="R141" t="s">
-        <v>1399</v>
-      </c>
-      <c r="T141" t="s">
-        <v>665</v>
-      </c>
-      <c r="U141" t="s">
-        <v>1397</v>
-      </c>
       <c r="V141" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
@@ -13090,7 +13094,7 @@
         <v>467</v>
       </c>
       <c r="I142" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="J142" t="s">
         <v>463</v>
@@ -13102,25 +13106,25 @@
         <v>456</v>
       </c>
       <c r="O142" s="8" t="s">
+        <v>1396</v>
+      </c>
+      <c r="P142" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>1398</v>
+      </c>
+      <c r="R142" t="s">
+        <v>1399</v>
+      </c>
+      <c r="S142" t="s">
         <v>1400</v>
       </c>
-      <c r="P142" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>1402</v>
-      </c>
-      <c r="R142" t="s">
-        <v>1403</v>
-      </c>
-      <c r="S142" t="s">
-        <v>1404</v>
-      </c>
       <c r="T142" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U142" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="V142" t="s">
         <v>7</v>
@@ -13146,7 +13150,7 @@
         <v>487</v>
       </c>
       <c r="I143" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="J143" t="s">
         <v>457</v>
@@ -13158,25 +13162,25 @@
         <v>451</v>
       </c>
       <c r="O143" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="P143" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>1405</v>
+      </c>
+      <c r="S143" t="s">
+        <v>1402</v>
+      </c>
+      <c r="T143" t="s">
+        <v>945</v>
+      </c>
+      <c r="U143" t="s">
         <v>1407</v>
       </c>
-      <c r="P143" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>1409</v>
-      </c>
-      <c r="S143" t="s">
-        <v>1406</v>
-      </c>
-      <c r="T143" t="s">
-        <v>947</v>
-      </c>
-      <c r="U143" t="s">
-        <v>1411</v>
-      </c>
       <c r="V143" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
@@ -13211,25 +13215,25 @@
         <v>457</v>
       </c>
       <c r="O144" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="P144" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q144" t="s">
         <v>725</v>
       </c>
-      <c r="P144" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q144" t="s">
+      <c r="R144" t="s">
         <v>726</v>
       </c>
-      <c r="R144" t="s">
+      <c r="S144" t="s">
         <v>727</v>
       </c>
-      <c r="S144" t="s">
+      <c r="T144" t="s">
+        <v>630</v>
+      </c>
+      <c r="U144" t="s">
         <v>728</v>
-      </c>
-      <c r="T144" t="s">
-        <v>631</v>
-      </c>
-      <c r="U144" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
@@ -13255,7 +13259,7 @@
         <v>467</v>
       </c>
       <c r="I145" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="J145" t="s">
         <v>463</v>
@@ -13264,25 +13268,25 @@
         <v>456</v>
       </c>
       <c r="O145" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="P145" t="s">
+        <v>1409</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R145" t="s">
+        <v>1411</v>
+      </c>
+      <c r="S145" t="s">
         <v>1412</v>
       </c>
-      <c r="P145" t="s">
-        <v>1413</v>
-      </c>
-      <c r="Q145" t="s">
+      <c r="T145" t="s">
+        <v>732</v>
+      </c>
+      <c r="U145" t="s">
         <v>1414</v>
-      </c>
-      <c r="R145" t="s">
-        <v>1415</v>
-      </c>
-      <c r="S145" t="s">
-        <v>1416</v>
-      </c>
-      <c r="T145" t="s">
-        <v>733</v>
-      </c>
-      <c r="U145" t="s">
-        <v>1418</v>
       </c>
       <c r="V145" t="s">
         <v>7</v>
@@ -13299,7 +13303,7 @@
         <v>2016</v>
       </c>
       <c r="D146" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -13308,7 +13312,7 @@
         <v>466</v>
       </c>
       <c r="I146" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="J146" t="s">
         <v>461</v>
@@ -13317,25 +13321,25 @@
         <v>455</v>
       </c>
       <c r="O146" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="P146" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>1417</v>
+      </c>
+      <c r="R146" t="s">
+        <v>1416</v>
+      </c>
+      <c r="S146" t="s">
+        <v>906</v>
+      </c>
+      <c r="T146" t="s">
+        <v>664</v>
+      </c>
+      <c r="U146" t="s">
         <v>1419</v>
-      </c>
-      <c r="P146" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>1421</v>
-      </c>
-      <c r="R146" t="s">
-        <v>1420</v>
-      </c>
-      <c r="S146" t="s">
-        <v>908</v>
-      </c>
-      <c r="T146" t="s">
-        <v>665</v>
-      </c>
-      <c r="U146" t="s">
-        <v>1423</v>
       </c>
       <c r="V146" t="s">
         <v>7</v>
@@ -13364,7 +13368,7 @@
         <v>474</v>
       </c>
       <c r="I147" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="J147" t="s">
         <v>453</v>
@@ -13379,25 +13383,25 @@
         <v>455</v>
       </c>
       <c r="O147" s="8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="P147" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>1421</v>
+      </c>
+      <c r="S147" t="s">
+        <v>1423</v>
+      </c>
+      <c r="T147" t="s">
+        <v>945</v>
+      </c>
+      <c r="U147" t="s">
+        <v>1425</v>
+      </c>
+      <c r="V147" t="s">
         <v>1424</v>
-      </c>
-      <c r="P147" t="s">
-        <v>883</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>1425</v>
-      </c>
-      <c r="S147" t="s">
-        <v>1427</v>
-      </c>
-      <c r="T147" t="s">
-        <v>947</v>
-      </c>
-      <c r="U147" t="s">
-        <v>1429</v>
-      </c>
-      <c r="V147" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
@@ -13411,7 +13415,7 @@
         <v>2022</v>
       </c>
       <c r="D148" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -13420,7 +13424,7 @@
         <v>466</v>
       </c>
       <c r="I148" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="J148" t="s">
         <v>509</v>
@@ -13432,22 +13436,22 @@
         <v>509</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="P148" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R148" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="S148" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T148" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="U148" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="V148" t="s">
         <v>7</v>
@@ -13464,7 +13468,7 @@
         <v>1998</v>
       </c>
       <c r="D149" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -13473,7 +13477,7 @@
         <v>465</v>
       </c>
       <c r="I149" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="J149" t="s">
         <v>457</v>
@@ -13482,22 +13486,22 @@
         <v>457</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="P149" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R149" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="S149" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="T149" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U149" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="V149" t="s">
         <v>7</v>
@@ -13526,7 +13530,7 @@
         <v>467</v>
       </c>
       <c r="I150" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="J150" t="s">
         <v>457</v>
@@ -13535,22 +13539,22 @@
         <v>457</v>
       </c>
       <c r="O150" s="8" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="P150" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R150" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="S150" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="T150" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U150" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="V150" t="s">
         <v>7</v>
@@ -13579,7 +13583,7 @@
         <v>467</v>
       </c>
       <c r="I151" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="J151" t="s">
         <v>457</v>
@@ -13588,22 +13592,22 @@
         <v>457</v>
       </c>
       <c r="O151" s="8" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P151" t="s">
+        <v>1440</v>
+      </c>
+      <c r="R151" t="s">
+        <v>1441</v>
+      </c>
+      <c r="S151" t="s">
         <v>1443</v>
       </c>
-      <c r="P151" t="s">
-        <v>1444</v>
-      </c>
-      <c r="R151" t="s">
+      <c r="T151" t="s">
+        <v>630</v>
+      </c>
+      <c r="U151" t="s">
         <v>1445</v>
-      </c>
-      <c r="S151" t="s">
-        <v>1447</v>
-      </c>
-      <c r="T151" t="s">
-        <v>631</v>
-      </c>
-      <c r="U151" t="s">
-        <v>1449</v>
       </c>
       <c r="V151" t="s">
         <v>7</v>
@@ -13620,7 +13624,7 @@
         <v>1996</v>
       </c>
       <c r="D152" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
@@ -13629,7 +13633,7 @@
         <v>467</v>
       </c>
       <c r="I152" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="J152" t="s">
         <v>511</v>
@@ -13638,22 +13642,22 @@
         <v>511</v>
       </c>
       <c r="O152" s="8" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="P152" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="R152" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="S152" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="T152" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U152" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="V152" t="s">
         <v>7</v>
@@ -13670,7 +13674,7 @@
         <v>2020</v>
       </c>
       <c r="D153" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -13679,7 +13683,7 @@
         <v>466</v>
       </c>
       <c r="I153" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="J153" t="s">
         <v>461</v>
@@ -13694,25 +13698,25 @@
         <v>454</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="P153" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q153" t="s">
+        <v>1451</v>
+      </c>
+      <c r="R153" t="s">
+        <v>1453</v>
+      </c>
+      <c r="S153" t="s">
+        <v>1454</v>
+      </c>
+      <c r="T153" t="s">
+        <v>664</v>
+      </c>
+      <c r="U153" t="s">
         <v>1455</v>
-      </c>
-      <c r="R153" t="s">
-        <v>1457</v>
-      </c>
-      <c r="S153" t="s">
-        <v>1458</v>
-      </c>
-      <c r="T153" t="s">
-        <v>665</v>
-      </c>
-      <c r="U153" t="s">
-        <v>1459</v>
       </c>
       <c r="V153" t="s">
         <v>7</v>
@@ -13747,31 +13751,31 @@
         <v>511</v>
       </c>
       <c r="M154" t="s">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="O154" s="8" t="s">
+        <v>1457</v>
+      </c>
+      <c r="P154" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>1458</v>
+      </c>
+      <c r="R154" t="s">
+        <v>1459</v>
+      </c>
+      <c r="S154" t="s">
+        <v>1460</v>
+      </c>
+      <c r="T154" t="s">
         <v>1461</v>
       </c>
-      <c r="P154" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q154" t="s">
+      <c r="U154" t="s">
         <v>1462</v>
       </c>
-      <c r="R154" t="s">
+      <c r="V154" t="s">
         <v>1463</v>
-      </c>
-      <c r="S154" t="s">
-        <v>1464</v>
-      </c>
-      <c r="T154" t="s">
-        <v>1465</v>
-      </c>
-      <c r="U154" t="s">
-        <v>1466</v>
-      </c>
-      <c r="V154" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
@@ -13785,7 +13789,7 @@
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
@@ -13803,22 +13807,22 @@
         <v>454</v>
       </c>
       <c r="O155" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P155" t="s">
+        <v>625</v>
+      </c>
+      <c r="R155" t="s">
         <v>730</v>
       </c>
-      <c r="P155" t="s">
-        <v>626</v>
-      </c>
-      <c r="R155" t="s">
+      <c r="S155" t="s">
         <v>731</v>
       </c>
-      <c r="S155" t="s">
+      <c r="T155" t="s">
         <v>732</v>
       </c>
-      <c r="T155" t="s">
+      <c r="U155" t="s">
         <v>733</v>
-      </c>
-      <c r="U155" t="s">
-        <v>734</v>
       </c>
       <c r="V155" t="s">
         <v>7</v>
@@ -13846,7 +13850,7 @@
       </c>
       <c r="H156"/>
       <c r="I156" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="J156" t="s">
         <v>457</v>
@@ -13862,25 +13866,25 @@
       </c>
       <c r="N156"/>
       <c r="O156" s="8" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="P156" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="Q156" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="R156" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="S156" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="T156" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U156" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="V156" t="s">
         <v>7</v>
@@ -13897,7 +13901,7 @@
         <v>2023</v>
       </c>
       <c r="D157" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E157" t="s">
         <v>155</v>
@@ -13906,7 +13910,7 @@
         <v>466</v>
       </c>
       <c r="I157" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="J157" t="s">
         <v>463</v>
@@ -13915,25 +13919,25 @@
         <v>456</v>
       </c>
       <c r="O157" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="P157" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>1470</v>
+      </c>
+      <c r="R157" t="s">
+        <v>1471</v>
+      </c>
+      <c r="S157" t="s">
         <v>1473</v>
       </c>
-      <c r="P157" t="s">
-        <v>1084</v>
-      </c>
-      <c r="Q157" t="s">
+      <c r="T157" t="s">
+        <v>732</v>
+      </c>
+      <c r="U157" t="s">
         <v>1474</v>
-      </c>
-      <c r="R157" t="s">
-        <v>1475</v>
-      </c>
-      <c r="S157" t="s">
-        <v>1477</v>
-      </c>
-      <c r="T157" t="s">
-        <v>733</v>
-      </c>
-      <c r="U157" t="s">
-        <v>1478</v>
       </c>
       <c r="V157" t="s">
         <v>7</v>
@@ -13962,7 +13966,7 @@
         <v>478</v>
       </c>
       <c r="I158" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="J158" t="s">
         <v>511</v>
@@ -13971,25 +13975,25 @@
         <v>511</v>
       </c>
       <c r="O158" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P158" t="s">
+        <v>780</v>
+      </c>
+      <c r="R158" t="s">
+        <v>1477</v>
+      </c>
+      <c r="S158" t="s">
+        <v>783</v>
+      </c>
+      <c r="T158" t="s">
+        <v>630</v>
+      </c>
+      <c r="U158" t="s">
         <v>1480</v>
       </c>
-      <c r="P158" t="s">
-        <v>781</v>
-      </c>
-      <c r="R158" t="s">
-        <v>1481</v>
-      </c>
-      <c r="S158" t="s">
-        <v>784</v>
-      </c>
-      <c r="T158" t="s">
-        <v>631</v>
-      </c>
-      <c r="U158" t="s">
-        <v>1484</v>
-      </c>
       <c r="V158" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.25">
@@ -14003,7 +14007,7 @@
         <v>2022</v>
       </c>
       <c r="D159" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -14012,7 +14016,7 @@
         <v>466</v>
       </c>
       <c r="I159" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="J159" t="s">
         <v>511</v>
@@ -14021,19 +14025,19 @@
         <v>511</v>
       </c>
       <c r="O159" s="8" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="P159" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S159" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="T159" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U159" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="V159" t="s">
         <v>7</v>
@@ -14050,7 +14054,7 @@
         <v>2018</v>
       </c>
       <c r="D160" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E160" t="s">
         <v>155</v>
@@ -14065,25 +14069,25 @@
         <v>450</v>
       </c>
       <c r="O160" s="8" t="s">
+        <v>1485</v>
+      </c>
+      <c r="P160" t="s">
+        <v>625</v>
+      </c>
+      <c r="R160" t="s">
+        <v>1487</v>
+      </c>
+      <c r="S160" t="s">
+        <v>1488</v>
+      </c>
+      <c r="T160" t="s">
+        <v>664</v>
+      </c>
+      <c r="U160" t="s">
         <v>1489</v>
       </c>
-      <c r="P160" t="s">
-        <v>626</v>
-      </c>
-      <c r="R160" t="s">
-        <v>1491</v>
-      </c>
-      <c r="S160" t="s">
-        <v>1492</v>
-      </c>
-      <c r="T160" t="s">
-        <v>665</v>
-      </c>
-      <c r="U160" t="s">
-        <v>1493</v>
-      </c>
       <c r="V160" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.25">
@@ -14109,7 +14113,7 @@
         <v>480</v>
       </c>
       <c r="I161" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="J161" t="s">
         <v>509</v>
@@ -14121,25 +14125,25 @@
         <v>451</v>
       </c>
       <c r="O161" s="8" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="P161" t="s">
+        <v>1491</v>
+      </c>
+      <c r="R161" t="s">
+        <v>1492</v>
+      </c>
+      <c r="S161" t="s">
+        <v>849</v>
+      </c>
+      <c r="T161" t="s">
+        <v>732</v>
+      </c>
+      <c r="U161" t="s">
+        <v>1493</v>
+      </c>
+      <c r="V161" t="s">
         <v>1495</v>
-      </c>
-      <c r="R161" t="s">
-        <v>1496</v>
-      </c>
-      <c r="S161" t="s">
-        <v>851</v>
-      </c>
-      <c r="T161" t="s">
-        <v>733</v>
-      </c>
-      <c r="U161" t="s">
-        <v>1497</v>
-      </c>
-      <c r="V161" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.25">
@@ -14171,25 +14175,25 @@
         <v>451</v>
       </c>
       <c r="O162" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="P162" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q162" t="s">
         <v>735</v>
       </c>
-      <c r="P162" t="s">
+      <c r="R162" t="s">
+        <v>736</v>
+      </c>
+      <c r="S162" t="s">
         <v>738</v>
       </c>
-      <c r="Q162" t="s">
-        <v>736</v>
-      </c>
-      <c r="R162" t="s">
-        <v>737</v>
-      </c>
-      <c r="S162" t="s">
+      <c r="T162" t="s">
+        <v>664</v>
+      </c>
+      <c r="U162" t="s">
         <v>739</v>
-      </c>
-      <c r="T162" t="s">
-        <v>665</v>
-      </c>
-      <c r="U162" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.25">
@@ -14215,7 +14219,7 @@
         <v>480</v>
       </c>
       <c r="I163" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="J163" t="s">
         <v>457</v>
@@ -14230,28 +14234,28 @@
         <v>455</v>
       </c>
       <c r="O163" s="8" t="s">
+        <v>1496</v>
+      </c>
+      <c r="P163" t="s">
+        <v>1497</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>1498</v>
+      </c>
+      <c r="R163" t="s">
+        <v>1499</v>
+      </c>
+      <c r="S163" t="s">
         <v>1500</v>
       </c>
-      <c r="P163" t="s">
-        <v>1501</v>
-      </c>
-      <c r="Q163" t="s">
+      <c r="T163" t="s">
+        <v>630</v>
+      </c>
+      <c r="U163" t="s">
         <v>1502</v>
       </c>
-      <c r="R163" t="s">
+      <c r="V163" t="s">
         <v>1503</v>
-      </c>
-      <c r="S163" t="s">
-        <v>1504</v>
-      </c>
-      <c r="T163" t="s">
-        <v>631</v>
-      </c>
-      <c r="U163" t="s">
-        <v>1506</v>
-      </c>
-      <c r="V163" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.25">
@@ -14280,25 +14284,25 @@
         <v>457</v>
       </c>
       <c r="O164" s="8" t="s">
+        <v>1504</v>
+      </c>
+      <c r="P164" t="s">
+        <v>1506</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>1507</v>
+      </c>
+      <c r="R164" t="s">
+        <v>1505</v>
+      </c>
+      <c r="S164" t="s">
         <v>1508</v>
       </c>
-      <c r="P164" t="s">
-        <v>1510</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>1511</v>
-      </c>
-      <c r="R164" t="s">
+      <c r="T164" t="s">
+        <v>664</v>
+      </c>
+      <c r="U164" t="s">
         <v>1509</v>
-      </c>
-      <c r="S164" t="s">
-        <v>1512</v>
-      </c>
-      <c r="T164" t="s">
-        <v>665</v>
-      </c>
-      <c r="U164" t="s">
-        <v>1513</v>
       </c>
       <c r="V164" t="s">
         <v>7</v>
@@ -14315,7 +14319,7 @@
         <v>2008</v>
       </c>
       <c r="D165" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E165" t="s">
         <v>8</v>
@@ -14330,25 +14334,25 @@
         <v>457</v>
       </c>
       <c r="O165" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="P165" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>1511</v>
+      </c>
+      <c r="R165" t="s">
+        <v>1512</v>
+      </c>
+      <c r="S165" t="s">
+        <v>1513</v>
+      </c>
+      <c r="T165" t="s">
+        <v>664</v>
+      </c>
+      <c r="U165" t="s">
         <v>1514</v>
-      </c>
-      <c r="P165" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>1515</v>
-      </c>
-      <c r="R165" t="s">
-        <v>1516</v>
-      </c>
-      <c r="S165" t="s">
-        <v>1517</v>
-      </c>
-      <c r="T165" t="s">
-        <v>665</v>
-      </c>
-      <c r="U165" t="s">
-        <v>1518</v>
       </c>
       <c r="V165" t="s">
         <v>7</v>
@@ -14365,7 +14369,7 @@
         <v>2008</v>
       </c>
       <c r="D166" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E166" t="s">
         <v>8</v>
@@ -14380,25 +14384,25 @@
         <v>457</v>
       </c>
       <c r="O166" s="8" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="P166" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q166" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R166" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="S166" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="T166" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U166" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="V166" t="s">
         <v>7</v>
@@ -14427,7 +14431,7 @@
         <v>466</v>
       </c>
       <c r="I167" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="J167" t="s">
         <v>463</v>
@@ -14439,25 +14443,25 @@
         <v>456</v>
       </c>
       <c r="O167" s="8" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="P167" t="s">
+        <v>1520</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>1521</v>
+      </c>
+      <c r="R167" t="s">
+        <v>1522</v>
+      </c>
+      <c r="S167" t="s">
+        <v>738</v>
+      </c>
+      <c r="T167" t="s">
+        <v>630</v>
+      </c>
+      <c r="U167" t="s">
         <v>1524</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>1525</v>
-      </c>
-      <c r="R167" t="s">
-        <v>1526</v>
-      </c>
-      <c r="S167" t="s">
-        <v>739</v>
-      </c>
-      <c r="T167" t="s">
-        <v>631</v>
-      </c>
-      <c r="U167" t="s">
-        <v>1528</v>
       </c>
       <c r="V167" t="s">
         <v>7</v>
@@ -14474,7 +14478,7 @@
         <v>2001</v>
       </c>
       <c r="D168" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -14483,7 +14487,7 @@
         <v>466</v>
       </c>
       <c r="I168" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="J168" t="s">
         <v>462</v>
@@ -14495,22 +14499,22 @@
         <v>452</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="P168" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R168" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="S168" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="T168" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U168" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="V168" t="s">
         <v>7</v>
@@ -14536,7 +14540,7 @@
         <v>466</v>
       </c>
       <c r="I169" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="J169" t="s">
         <v>509</v>
@@ -14545,25 +14549,25 @@
         <v>451</v>
       </c>
       <c r="O169" s="8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="P169" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>1532</v>
+      </c>
+      <c r="R169" t="s">
+        <v>1531</v>
+      </c>
+      <c r="S169" t="s">
+        <v>1533</v>
+      </c>
+      <c r="T169" t="s">
+        <v>1428</v>
+      </c>
+      <c r="U169" t="s">
         <v>1534</v>
-      </c>
-      <c r="P169" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>1536</v>
-      </c>
-      <c r="R169" t="s">
-        <v>1535</v>
-      </c>
-      <c r="S169" t="s">
-        <v>1537</v>
-      </c>
-      <c r="T169" t="s">
-        <v>1432</v>
-      </c>
-      <c r="U169" t="s">
-        <v>1538</v>
       </c>
       <c r="V169" t="s">
         <v>7</v>
@@ -14580,7 +14584,7 @@
         <v>2015</v>
       </c>
       <c r="D170" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E170" t="s">
         <v>155</v>
@@ -14595,28 +14599,28 @@
         <v>456</v>
       </c>
       <c r="O170" s="8" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P170" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>1536</v>
+      </c>
+      <c r="R170" t="s">
+        <v>1537</v>
+      </c>
+      <c r="S170" t="s">
+        <v>1538</v>
+      </c>
+      <c r="T170" t="s">
+        <v>664</v>
+      </c>
+      <c r="U170" t="s">
+        <v>1540</v>
+      </c>
+      <c r="V170" t="s">
         <v>1539</v>
-      </c>
-      <c r="P170" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>1540</v>
-      </c>
-      <c r="R170" t="s">
-        <v>1541</v>
-      </c>
-      <c r="S170" t="s">
-        <v>1542</v>
-      </c>
-      <c r="T170" t="s">
-        <v>665</v>
-      </c>
-      <c r="U170" t="s">
-        <v>1544</v>
-      </c>
-      <c r="V170" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.25">
@@ -14630,7 +14634,7 @@
         <v>2018</v>
       </c>
       <c r="D171" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -14645,25 +14649,25 @@
         <v>457</v>
       </c>
       <c r="O171" s="8" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="P171" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q171" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="R171" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="S171" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="T171" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U171" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="V171" t="s">
         <v>7</v>
@@ -14679,7 +14683,7 @@
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">

--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="1553">
   <si>
     <t>title</t>
   </si>
@@ -1723,9 +1723,6 @@
     <t>letson_perfectensophasepredictions_2009</t>
   </si>
   <si>
-    <t>liao_estimatingelniÃ±osouthern_2010</t>
-  </si>
-  <si>
     <t>lines_usersbenefitadditionalinformation_2018</t>
   </si>
   <si>
@@ -1867,9 +1864,6 @@
     <t>For each image, respondents were asked about the following preference and perception measures: preference for living in, preference for visiting, perceived scenic beauty, perceived well-being, perceived risk, and perceived disturbance degree.  ... preference was measured the same way, using the following sentences: “I like this place for living”, “I like this place for visiting”, “This place is nice”, “This place makes me feel good”, “This place makes me feel at risk”, and “This place is natural”.</t>
   </si>
   <si>
-    <t>fundamental;eudaimonistic</t>
-  </si>
-  <si>
     <t>Results from this study will be particularly useful to promote public participation in landscape management, planning, design, and conservation [19,31], and are relevant for elaborating local and regional policies such as the Latin American Landscape Initiative [32] or the European Landscape Convention [2].</t>
   </si>
   <si>
@@ -1957,9 +1951,6 @@
     <t>This paper develops an analytical framework for assessing the economic benefits of EO information, by combining Bayesian decision theory with an expert elicitation approach. Bayesian decision theory studies decision-making under uncertainty, and how information is used to update beliefs regarding uncertain parameters of the decision environment (Hirshleifer and Riley 1979). By combining Bayesian decision theory with expert elicitation, we empirically assess the influence of EO investments on decision-makers beliefs.</t>
   </si>
   <si>
-    <t>eudaimonistic;instrumental</t>
-  </si>
-  <si>
     <t>avoided financial losses</t>
   </si>
   <si>
@@ -2017,9 +2008,6 @@
     <t>This study is designed to assess the political, economic, social, and environmental implications of a reliable long-range weather forecast. The impact that such a forecast might have can be seen as a function of numerous variables such as the level of economic development, level of analysis, type of political and economic system, and the nature of the forecast among others.</t>
   </si>
   <si>
-    <t>fundamental;instrumental</t>
-  </si>
-  <si>
     <t>hypothetical long-range weather forecast system</t>
   </si>
   <si>
@@ -2221,9 +2209,6 @@
     <t>various satellite</t>
   </si>
   <si>
-    <t>fundamental</t>
-  </si>
-  <si>
     <t>Avoidance of excess deaths due to misclassification</t>
   </si>
   <si>
@@ -2858,9 +2843,6 @@
   </si>
   <si>
     <t>This study is carried out on 22 farms on the islands of San Cristobal (Figure 1a) and Isabela (Figure 1b). Interviews used for this paper were conducted with farmers on San Cristobal and Isabela islands between June 2019 and July 2019. … Interviewees were identified by a variety of methods: directly due to existing contact information and relationships from previous visits; through friends, acquaintances, neighbors, and other third-party introductions; from visits to markets where interviewees sell products; by knocking on doors. We leveraged connections with known farmers to conduct further interviews and meet new interviewees. The majority of interviews took place on farms, though several were conducted in markets or in interviewee homes that were not at the same location as their farms. A total of 22 interviews were conducted during this period, 13 with farmers that had been visited during the previous year, and 9 with farmers that had not been visited previously.</t>
-  </si>
-  <si>
-    <t>fundamental;instrumental;eudaimonistic</t>
   </si>
   <si>
     <t>Through combining interview methods, we are able to form a picture of the agricultural sector on the Galapagos islands that includes an understanding of land management practices, changes the farmers have observed or planned for, and the economic decisions farmers make. By incorporating in-depth interviews, farm tours, and API together with UAV flights, a more spatially oriented and thematically broader perspective of land and land management emerges. In the Galapagos, this provides an opportunity to further examine how farmers contribute to food production on the islands and how they manage invasive species on their land.</t>
@@ -3901,9 +3883,6 @@
     <t>This paper addresses the main challenges of evaluating the socio-economic impact of high-tech infrastructures, using Earth observation (EO) as an example. EO is a critical domain of the space economy, providing valuable insights into planet Earth’s natural and societal aspects. As national agencies invest in high-tech infrastructures like EO, there is a growing need for evaluate their socio-economic returns (not to be confused with their financial returns). However, there is no clear consensus on how to assess such social impact. Building on a new field of studies of social cost–benefit analysis of research infrastructures and the socioeconomic impact of investment in the space economy, we propose a new evaluation framework that considers the various stakeholders along the EO value chain.</t>
   </si>
   <si>
-    <t>eudaimonistic;fundamental;instrumental</t>
-  </si>
-  <si>
     <t>various benefits to firms, startups, scientific community, career development, leisure, cultural facilities, etc</t>
   </si>
   <si>
@@ -4312,9 +4291,6 @@
     <t>Specifically, we find that geographic targeting relying on machine learning–based poverty maps can reduce errors of exclusion and inclusion relative to geographic targeting based on recent nationally representative survey data</t>
   </si>
   <si>
-    <t>instrumental;eudaimonistic</t>
-  </si>
-  <si>
     <t>Cash transfers to poor families - social justice</t>
   </si>
   <si>
@@ -4411,9 +4387,6 @@
     <t>MODIS; Landsat</t>
   </si>
   <si>
-    <t>eudaimonistic</t>
-  </si>
-  <si>
     <t>educational engagement and learning</t>
   </si>
   <si>
@@ -4660,12 +4633,6 @@
     <t>improved crop profitability and avoided losses</t>
   </si>
   <si>
-    <t>instrumental;fundamental</t>
-  </si>
-  <si>
-    <t>instrumental;fundamental;eudaimonistic</t>
-  </si>
-  <si>
     <t>Netherlands;Australia</t>
   </si>
   <si>
@@ -4706,6 +4673,18 @@
   </si>
   <si>
     <t>costello_elninoforecastsmanagement_2020</t>
+  </si>
+  <si>
+    <t>liao_estimatingelninosouthern_2010</t>
+  </si>
+  <si>
+    <t>relational</t>
+  </si>
+  <si>
+    <t>relational;instrumental</t>
+  </si>
+  <si>
+    <t>instrumental;relational</t>
   </si>
 </sst>
 </file>
@@ -5567,10 +5546,10 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M148" sqref="M148"/>
+      <selection pane="bottomRight" activeCell="U63" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5609,7 +5588,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>504</v>
@@ -5618,7 +5597,7 @@
         <v>503</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>446</v>
@@ -5636,28 +5615,28 @@
         <v>447</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>605</v>
-      </c>
       <c r="V1" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -5677,7 +5656,7 @@
         <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G2" t="s">
         <v>474</v>
@@ -5686,34 +5665,34 @@
         <v>484</v>
       </c>
       <c r="I2" t="s">
+        <v>736</v>
+      </c>
+      <c r="J2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L2" t="s">
+        <v>457</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="P2" t="s">
+        <v>645</v>
+      </c>
+      <c r="R2" t="s">
         <v>741</v>
       </c>
-      <c r="J2" t="s">
-        <v>457</v>
-      </c>
-      <c r="L2" t="s">
-        <v>457</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="P2" t="s">
-        <v>648</v>
-      </c>
-      <c r="R2" t="s">
-        <v>746</v>
-      </c>
       <c r="S2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="T2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="V2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -5739,7 +5718,7 @@
         <v>465</v>
       </c>
       <c r="I3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="J3" t="s">
         <v>457</v>
@@ -5748,25 +5727,25 @@
         <v>457</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="P3" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>744</v>
+      </c>
+      <c r="R3" t="s">
+        <v>745</v>
+      </c>
+      <c r="S3" t="s">
+        <v>764</v>
+      </c>
+      <c r="T3" t="s">
+        <v>628</v>
+      </c>
+      <c r="U3" t="s">
         <v>747</v>
-      </c>
-      <c r="P3" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>749</v>
-      </c>
-      <c r="R3" t="s">
-        <v>750</v>
-      </c>
-      <c r="S3" t="s">
-        <v>769</v>
-      </c>
-      <c r="T3" t="s">
-        <v>630</v>
-      </c>
-      <c r="U3" t="s">
-        <v>752</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -5795,7 +5774,7 @@
         <v>465</v>
       </c>
       <c r="I4" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="J4" t="s">
         <v>457</v>
@@ -5804,25 +5783,25 @@
         <v>457</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="P4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="R4" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="S4" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="T4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="V4" t="s">
         <v>7</v>
@@ -5845,13 +5824,13 @@
         <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G5" t="s">
         <v>475</v>
       </c>
       <c r="I5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J5" t="s">
         <v>509</v>
@@ -5863,28 +5842,28 @@
         <v>510</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="P5" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>607</v>
+      </c>
+      <c r="R5" t="s">
+        <v>613</v>
+      </c>
+      <c r="S5" t="s">
         <v>609</v>
       </c>
-      <c r="P5" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>608</v>
-      </c>
-      <c r="R5" t="s">
-        <v>615</v>
-      </c>
-      <c r="S5" t="s">
-        <v>610</v>
-      </c>
       <c r="T5" t="s">
-        <v>614</v>
+        <v>1550</v>
       </c>
       <c r="U5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="V5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -5910,7 +5889,7 @@
         <v>474</v>
       </c>
       <c r="I6" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="J6" t="s">
         <v>457</v>
@@ -5919,25 +5898,25 @@
         <v>457</v>
       </c>
       <c r="O6" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="P6" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>757</v>
+      </c>
+      <c r="S6" t="s">
+        <v>765</v>
+      </c>
+      <c r="T6" t="s">
+        <v>628</v>
+      </c>
+      <c r="U6" t="s">
+        <v>754</v>
+      </c>
+      <c r="V6" t="s">
         <v>758</v>
-      </c>
-      <c r="P6" t="s">
-        <v>760</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>762</v>
-      </c>
-      <c r="S6" t="s">
-        <v>770</v>
-      </c>
-      <c r="T6" t="s">
-        <v>630</v>
-      </c>
-      <c r="U6" t="s">
-        <v>759</v>
-      </c>
-      <c r="V6" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5960,7 +5939,7 @@
         <v>474</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>509</v>
@@ -5969,28 +5948,28 @@
         <v>451</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q7" s="5" t="s">
+      <c r="V7" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6013,7 +5992,7 @@
         <v>466</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>457</v>
@@ -6028,25 +6007,25 @@
         <v>455</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>7</v>
@@ -6069,7 +6048,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>466</v>
@@ -6078,7 +6057,7 @@
         <v>465</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>457</v>
@@ -6087,22 +6066,22 @@
         <v>457</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="S9" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>772</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>777</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>7</v>
@@ -6125,13 +6104,13 @@
         <v>193</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>466</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>457</v>
@@ -6146,25 +6125,25 @@
         <v>452</v>
       </c>
       <c r="O10" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>783</v>
-      </c>
       <c r="T10" s="5" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>7</v>
@@ -6193,7 +6172,7 @@
         <v>467</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>457</v>
@@ -6202,22 +6181,22 @@
         <v>457</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6240,7 +6219,7 @@
         <v>501</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>509</v>
@@ -6249,28 +6228,28 @@
         <v>450</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="Q12" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="S12" s="5" t="s">
+      <c r="V12" s="5" t="s">
         <v>795</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6293,7 +6272,7 @@
         <v>466</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>457</v>
@@ -6302,25 +6281,25 @@
         <v>457</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="U13" s="5" t="s">
         <v>801</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>806</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>7</v>
@@ -6352,7 +6331,7 @@
         <v>507</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>457</v>
@@ -6367,25 +6346,25 @@
         <v>455</v>
       </c>
       <c r="O14" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="S14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>7</v>
@@ -6411,7 +6390,7 @@
         <v>466</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>461</v>
@@ -6426,25 +6405,25 @@
         <v>457</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>7</v>
@@ -6467,13 +6446,13 @@
         <v>8</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>465</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>460</v>
@@ -6482,25 +6461,25 @@
         <v>452</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6523,7 +6502,7 @@
         <v>466</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>457</v>
@@ -6538,22 +6517,22 @@
         <v>455</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6573,7 +6552,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1558</v>
+        <v>1547</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>466</v>
@@ -6585,25 +6564,25 @@
         <v>456</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>7</v>
@@ -6629,7 +6608,7 @@
         <v>465</v>
       </c>
       <c r="I19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J19" t="s">
         <v>511</v>
@@ -6641,25 +6620,25 @@
         <v>512</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="P19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q19" t="s">
+        <v>630</v>
+      </c>
+      <c r="R19" t="s">
+        <v>633</v>
+      </c>
+      <c r="S19" t="s">
         <v>632</v>
       </c>
-      <c r="R19" t="s">
-        <v>635</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
+        <v>628</v>
+      </c>
+      <c r="U19" t="s">
         <v>634</v>
-      </c>
-      <c r="T19" t="s">
-        <v>630</v>
-      </c>
-      <c r="U19" t="s">
-        <v>636</v>
       </c>
       <c r="V19" t="s">
         <v>7</v>
@@ -6685,7 +6664,7 @@
         <v>501</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>453</v>
@@ -6694,28 +6673,28 @@
         <v>453</v>
       </c>
       <c r="O20" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="Q20" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="R20" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="V20" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -6738,7 +6717,7 @@
         <v>474</v>
       </c>
       <c r="I21" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>457</v>
@@ -6747,28 +6726,28 @@
         <v>457</v>
       </c>
       <c r="O21" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>835</v>
+      </c>
+      <c r="R21" t="s">
+        <v>836</v>
+      </c>
+      <c r="S21" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>840</v>
-      </c>
-      <c r="R21" t="s">
-        <v>841</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>842</v>
-      </c>
       <c r="T21" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="V21" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -6791,7 +6770,7 @@
         <v>507</v>
       </c>
       <c r="I22" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>457</v>
@@ -6806,22 +6785,22 @@
         <v>452</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="R22" t="s">
+        <v>841</v>
+      </c>
+      <c r="S22" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="R22" t="s">
-        <v>846</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>849</v>
-      </c>
       <c r="T22" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="V22" s="5" t="s">
         <v>7</v>
@@ -6847,7 +6826,7 @@
         <v>466</v>
       </c>
       <c r="I23" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>458</v>
@@ -6859,25 +6838,25 @@
         <v>451</v>
       </c>
       <c r="O23" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>848</v>
+      </c>
+      <c r="R23" t="s">
+        <v>846</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>850</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>853</v>
-      </c>
-      <c r="R23" t="s">
-        <v>851</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>855</v>
       </c>
       <c r="V23" s="5" t="s">
         <v>7</v>
@@ -6903,7 +6882,7 @@
         <v>467</v>
       </c>
       <c r="I24" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J24" t="s">
         <v>511</v>
@@ -6912,19 +6891,19 @@
         <v>511</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="P24" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="R24" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="S24" t="s">
         <v>41</v>
       </c>
       <c r="T24" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U24" t="s">
         <v>41</v>
@@ -6956,7 +6935,7 @@
         <v>474</v>
       </c>
       <c r="I25" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="J25" t="s">
         <v>463</v>
@@ -6971,28 +6950,28 @@
         <v>457</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="P25" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="Q25" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="R25" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="S25" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="T25" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U25" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="V25" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -7021,7 +7000,7 @@
         <v>474</v>
       </c>
       <c r="I26" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J26" t="s">
         <v>457</v>
@@ -7036,28 +7015,28 @@
         <v>456</v>
       </c>
       <c r="O26" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>638</v>
+      </c>
+      <c r="R26" t="s">
+        <v>639</v>
+      </c>
+      <c r="S26" t="s">
+        <v>602</v>
+      </c>
+      <c r="T26" t="s">
+        <v>628</v>
+      </c>
+      <c r="U26" t="s">
+        <v>642</v>
+      </c>
+      <c r="V26" t="s">
         <v>643</v>
-      </c>
-      <c r="P26" t="s">
-        <v>1546</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>640</v>
-      </c>
-      <c r="R26" t="s">
-        <v>641</v>
-      </c>
-      <c r="S26" t="s">
-        <v>603</v>
-      </c>
-      <c r="T26" t="s">
-        <v>630</v>
-      </c>
-      <c r="U26" t="s">
-        <v>645</v>
-      </c>
-      <c r="V26" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -7083,7 +7062,7 @@
         <v>474</v>
       </c>
       <c r="I27" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="J27" t="s">
         <v>463</v>
@@ -7092,28 +7071,28 @@
         <v>456</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="P27" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q27" t="s">
+        <v>857</v>
+      </c>
+      <c r="R27" t="s">
+        <v>858</v>
+      </c>
+      <c r="S27" t="s">
         <v>862</v>
       </c>
-      <c r="R27" t="s">
-        <v>863</v>
-      </c>
-      <c r="S27" t="s">
-        <v>867</v>
-      </c>
       <c r="T27" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U27" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="V27" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -7133,7 +7112,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="G28" t="s">
         <v>465</v>
@@ -7148,28 +7127,28 @@
         <v>456</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="P28" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q28" t="s">
+        <v>857</v>
+      </c>
+      <c r="R28" t="s">
+        <v>869</v>
+      </c>
+      <c r="S28" t="s">
         <v>862</v>
       </c>
-      <c r="R28" t="s">
-        <v>874</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
+        <v>628</v>
+      </c>
+      <c r="U28" t="s">
+        <v>864</v>
+      </c>
+      <c r="V28" t="s">
         <v>867</v>
-      </c>
-      <c r="T28" t="s">
-        <v>664</v>
-      </c>
-      <c r="U28" t="s">
-        <v>869</v>
-      </c>
-      <c r="V28" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -7198,25 +7177,25 @@
         <v>456</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="P29" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="Q29" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="R29" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="S29" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="T29" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U29" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="V29" t="s">
         <v>7</v>
@@ -7254,22 +7233,22 @@
         <v>451</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="P30" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="R30" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="S30" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="T30" t="s">
-        <v>1545</v>
+        <v>1552</v>
       </c>
       <c r="U30" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="V30" t="s">
         <v>7</v>
@@ -7301,25 +7280,25 @@
         <v>452</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="P31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q31" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="R31" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="S31" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="T31" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U31" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="V31" t="s">
         <v>7</v>
@@ -7345,7 +7324,7 @@
         <v>507</v>
       </c>
       <c r="I32" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="J32" t="s">
         <v>458</v>
@@ -7354,25 +7333,25 @@
         <v>454</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="P32" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="Q32" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="R32" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="S32" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="V32" s="5" t="s">
         <v>7</v>
@@ -7401,7 +7380,7 @@
         <v>480</v>
       </c>
       <c r="I33" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="J33" t="s">
         <v>457</v>
@@ -7410,28 +7389,28 @@
         <v>457</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="P33" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="Q33" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="R33" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="S33" t="s">
+        <v>891</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="U33" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="T33" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>901</v>
-      </c>
       <c r="V33" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -7457,7 +7436,7 @@
         <v>480</v>
       </c>
       <c r="I34" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J34" t="s">
         <v>509</v>
@@ -7466,25 +7445,25 @@
         <v>451</v>
       </c>
       <c r="O34" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="P34" t="s">
+        <v>645</v>
+      </c>
+      <c r="R34" t="s">
+        <v>648</v>
+      </c>
+      <c r="S34" t="s">
+        <v>649</v>
+      </c>
+      <c r="T34" t="s">
+        <v>628</v>
+      </c>
+      <c r="U34" t="s">
+        <v>650</v>
+      </c>
+      <c r="V34" t="s">
         <v>647</v>
-      </c>
-      <c r="P34" t="s">
-        <v>648</v>
-      </c>
-      <c r="R34" t="s">
-        <v>651</v>
-      </c>
-      <c r="S34" t="s">
-        <v>652</v>
-      </c>
-      <c r="T34" t="s">
-        <v>630</v>
-      </c>
-      <c r="U34" t="s">
-        <v>653</v>
-      </c>
-      <c r="V34" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -7507,7 +7486,7 @@
         <v>466</v>
       </c>
       <c r="I35" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="J35" t="s">
         <v>457</v>
@@ -7516,25 +7495,25 @@
         <v>457</v>
       </c>
       <c r="O35" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="P35" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>899</v>
+      </c>
+      <c r="R35" t="s">
+        <v>900</v>
+      </c>
+      <c r="S35" t="s">
+        <v>901</v>
+      </c>
+      <c r="T35" t="s">
+        <v>628</v>
+      </c>
+      <c r="U35" t="s">
         <v>903</v>
-      </c>
-      <c r="P35" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>904</v>
-      </c>
-      <c r="R35" t="s">
-        <v>905</v>
-      </c>
-      <c r="S35" t="s">
-        <v>906</v>
-      </c>
-      <c r="T35" t="s">
-        <v>630</v>
-      </c>
-      <c r="U35" t="s">
-        <v>908</v>
       </c>
       <c r="V35" t="s">
         <v>7</v>
@@ -7566,25 +7545,25 @@
         <v>457</v>
       </c>
       <c r="O36" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="P36" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>906</v>
+      </c>
+      <c r="R36" t="s">
+        <v>907</v>
+      </c>
+      <c r="S36" t="s">
+        <v>908</v>
+      </c>
+      <c r="T36" t="s">
+        <v>628</v>
+      </c>
+      <c r="U36" t="s">
         <v>909</v>
-      </c>
-      <c r="P36" t="s">
-        <v>910</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>911</v>
-      </c>
-      <c r="R36" t="s">
-        <v>912</v>
-      </c>
-      <c r="S36" t="s">
-        <v>913</v>
-      </c>
-      <c r="T36" t="s">
-        <v>630</v>
-      </c>
-      <c r="U36" t="s">
-        <v>914</v>
       </c>
       <c r="V36" t="s">
         <v>7</v>
@@ -7610,7 +7589,7 @@
         <v>480</v>
       </c>
       <c r="I37" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="J37" t="s">
         <v>457</v>
@@ -7619,28 +7598,28 @@
         <v>457</v>
       </c>
       <c r="O37" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="P37" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>913</v>
+      </c>
+      <c r="R37" t="s">
         <v>915</v>
       </c>
-      <c r="P37" t="s">
+      <c r="S37" t="s">
+        <v>914</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1551</v>
+      </c>
+      <c r="U37" t="s">
         <v>916</v>
       </c>
-      <c r="Q37" t="s">
-        <v>918</v>
-      </c>
-      <c r="R37" t="s">
-        <v>920</v>
-      </c>
-      <c r="S37" t="s">
-        <v>919</v>
-      </c>
-      <c r="T37" t="s">
-        <v>664</v>
-      </c>
-      <c r="U37" t="s">
-        <v>921</v>
-      </c>
       <c r="V37" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -7663,7 +7642,7 @@
         <v>466</v>
       </c>
       <c r="I38" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="J38" t="s">
         <v>457</v>
@@ -7678,25 +7657,25 @@
         <v>452</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="P38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q38" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="R38" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="S38" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="T38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U38" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -7722,7 +7701,7 @@
         <v>467</v>
       </c>
       <c r="I39" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="J39" t="s">
         <v>453</v>
@@ -7731,25 +7710,25 @@
         <v>450</v>
       </c>
       <c r="O39" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="P39" t="s">
+        <v>925</v>
+      </c>
+      <c r="R39" t="s">
+        <v>924</v>
+      </c>
+      <c r="S39" t="s">
+        <v>914</v>
+      </c>
+      <c r="T39" t="s">
+        <v>628</v>
+      </c>
+      <c r="U39" t="s">
         <v>928</v>
       </c>
-      <c r="P39" t="s">
-        <v>930</v>
-      </c>
-      <c r="R39" t="s">
-        <v>929</v>
-      </c>
-      <c r="S39" t="s">
-        <v>919</v>
-      </c>
-      <c r="T39" t="s">
-        <v>630</v>
-      </c>
-      <c r="U39" t="s">
-        <v>933</v>
-      </c>
       <c r="V39" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -7772,7 +7751,7 @@
         <v>466</v>
       </c>
       <c r="I40" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="J40" t="s">
         <v>457</v>
@@ -7781,25 +7760,25 @@
         <v>457</v>
       </c>
       <c r="O40" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="P40" t="s">
+        <v>931</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>932</v>
+      </c>
+      <c r="R40" t="s">
+        <v>930</v>
+      </c>
+      <c r="S40" t="s">
         <v>934</v>
       </c>
-      <c r="P40" t="s">
-        <v>936</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>937</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="T40" t="s">
+        <v>628</v>
+      </c>
+      <c r="U40" t="s">
         <v>935</v>
-      </c>
-      <c r="S40" t="s">
-        <v>939</v>
-      </c>
-      <c r="T40" t="s">
-        <v>630</v>
-      </c>
-      <c r="U40" t="s">
-        <v>940</v>
       </c>
       <c r="V40" t="s">
         <v>7</v>
@@ -7828,7 +7807,7 @@
         <v>475</v>
       </c>
       <c r="I41" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J41" t="s">
         <v>457</v>
@@ -7843,28 +7822,28 @@
         <v>456</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="P41" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>938</v>
+      </c>
+      <c r="R41" t="s">
         <v>942</v>
       </c>
-      <c r="Q41" t="s">
-        <v>943</v>
-      </c>
-      <c r="R41" t="s">
-        <v>948</v>
-      </c>
       <c r="S41" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="T41" t="s">
-        <v>945</v>
+        <v>1552</v>
       </c>
       <c r="U41" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="V41" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -7890,7 +7869,7 @@
         <v>468</v>
       </c>
       <c r="I42" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="J42" t="s">
         <v>460</v>
@@ -7899,22 +7878,22 @@
         <v>452</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="P42" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="R42" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="S42" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="T42" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U42" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="V42" t="s">
         <v>7</v>
@@ -7943,7 +7922,7 @@
         <v>466</v>
       </c>
       <c r="I43" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="J43" t="s">
         <v>457</v>
@@ -7952,22 +7931,22 @@
         <v>457</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="P43" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R43" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="S43" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T43" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U43" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="V43" t="s">
         <v>7</v>
@@ -7993,7 +7972,7 @@
         <v>466</v>
       </c>
       <c r="I44" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="J44" t="s">
         <v>460</v>
@@ -8002,22 +7981,22 @@
         <v>452</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="P44" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="R44" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="S44" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="T44" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U44" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="V44" t="s">
         <v>7</v>
@@ -8034,7 +8013,7 @@
         <v>1998</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -8043,7 +8022,7 @@
         <v>466</v>
       </c>
       <c r="I45" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="J45" t="s">
         <v>457</v>
@@ -8058,25 +8037,25 @@
         <v>456</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="P45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q45" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="R45" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="S45" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="T45" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U45" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="V45" t="s">
         <v>7</v>
@@ -8114,25 +8093,25 @@
         <v>456</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="P46" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="Q46" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="R46" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="S46" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="T46" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U46" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="V46" t="s">
         <v>7</v>
@@ -8170,25 +8149,25 @@
         <v>456</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="P47" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="Q47" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="R47" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="S47" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="T47" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U47" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="V47" t="s">
         <v>7</v>
@@ -8226,22 +8205,22 @@
         <v>456</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="P48" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="R48" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="S48" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="T48" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U48" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="V48" t="s">
         <v>7</v>
@@ -8282,22 +8261,22 @@
         <v>452</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="P49" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="R49" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="S49" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="T49" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U49" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="V49" t="s">
         <v>7</v>
@@ -8323,7 +8302,7 @@
         <v>501</v>
       </c>
       <c r="I50" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="J50" t="s">
         <v>457</v>
@@ -8338,25 +8317,25 @@
         <v>455</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="P50" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="R50" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="S50" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="T50" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U50" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="V50" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -8382,7 +8361,7 @@
         <v>480</v>
       </c>
       <c r="I51" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J51" t="s">
         <v>457</v>
@@ -8391,28 +8370,28 @@
         <v>457</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="P51" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="Q51" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="R51" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="S51" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="T51" t="s">
-        <v>614</v>
+        <v>1552</v>
       </c>
       <c r="U51" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="V51" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -8438,7 +8417,7 @@
         <v>480</v>
       </c>
       <c r="I52" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="J52" t="s">
         <v>457</v>
@@ -8447,25 +8426,25 @@
         <v>457</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="P52" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="R52" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="S52" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="T52" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U52" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="V52" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -8488,7 +8467,7 @@
         <v>480</v>
       </c>
       <c r="I53" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="J53" t="s">
         <v>457</v>
@@ -8497,19 +8476,19 @@
         <v>457</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="P53" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="T53" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U53" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="V53" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -8538,25 +8517,25 @@
         <v>455</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="P54" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="Q54" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="R54" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="S54" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="T54" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="U54" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="V54" t="s">
         <v>7</v>
@@ -8594,28 +8573,28 @@
         <v>451</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1009</v>
+      </c>
+      <c r="R55" t="s">
+        <v>1010</v>
+      </c>
+      <c r="S55" t="s">
+        <v>1011</v>
+      </c>
+      <c r="T55" t="s">
+        <v>1552</v>
+      </c>
+      <c r="U55" t="s">
+        <v>1012</v>
+      </c>
+      <c r="V55" t="s">
         <v>1013</v>
-      </c>
-      <c r="P55" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>1015</v>
-      </c>
-      <c r="R55" t="s">
-        <v>1016</v>
-      </c>
-      <c r="S55" t="s">
-        <v>1017</v>
-      </c>
-      <c r="T55" t="s">
-        <v>614</v>
-      </c>
-      <c r="U55" t="s">
-        <v>1018</v>
-      </c>
-      <c r="V55" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -8638,7 +8617,7 @@
         <v>501</v>
       </c>
       <c r="I56" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="J56" t="s">
         <v>458</v>
@@ -8647,25 +8626,25 @@
         <v>454</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="P56" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="R56" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="S56" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="T56" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U56" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="V56" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -8694,25 +8673,25 @@
         <v>455</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="P57" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="Q57" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="R57" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="S57" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="T57" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U57" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="V57" t="s">
         <v>7</v>
@@ -8738,7 +8717,7 @@
         <v>466</v>
       </c>
       <c r="I58" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J58" t="s">
         <v>457</v>
@@ -8747,25 +8726,25 @@
         <v>457</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="P58" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q58" t="s">
+        <v>653</v>
+      </c>
+      <c r="R58" t="s">
+        <v>654</v>
+      </c>
+      <c r="S58" t="s">
         <v>656</v>
       </c>
-      <c r="R58" t="s">
-        <v>657</v>
-      </c>
-      <c r="S58" t="s">
-        <v>659</v>
-      </c>
       <c r="T58" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U58" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="V58" t="s">
         <v>7</v>
@@ -8791,7 +8770,7 @@
         <v>474</v>
       </c>
       <c r="I59" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="J59" t="s">
         <v>462</v>
@@ -8803,28 +8782,28 @@
         <v>451</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="P59" t="s">
-        <v>1555</v>
+        <v>1544</v>
       </c>
       <c r="Q59" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="R59" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="S59" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="T59" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U59" t="s">
         <v>41</v>
       </c>
       <c r="V59" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -8853,25 +8832,25 @@
         <v>456</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="P60" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="Q60" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="R60" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="S60" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="T60" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U60" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="V60" t="s">
         <v>7</v>
@@ -8897,7 +8876,7 @@
         <v>466</v>
       </c>
       <c r="I61" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="J61" t="s">
         <v>461</v>
@@ -8912,25 +8891,25 @@
         <v>457</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="P61" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q61" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="R61" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="S61" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="T61" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U61" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="V61" t="s">
         <v>7</v>
@@ -8956,7 +8935,7 @@
         <v>480</v>
       </c>
       <c r="I62" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="J62" t="s">
         <v>457</v>
@@ -8971,28 +8950,28 @@
         <v>452</v>
       </c>
       <c r="O62" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="P62" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R62" t="s">
+        <v>1046</v>
+      </c>
+      <c r="S62" t="s">
+        <v>1043</v>
+      </c>
+      <c r="T62" t="s">
+        <v>628</v>
+      </c>
+      <c r="U62" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V62" t="s">
         <v>1048</v>
-      </c>
-      <c r="P62" t="s">
-        <v>648</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>1053</v>
-      </c>
-      <c r="R62" t="s">
-        <v>1052</v>
-      </c>
-      <c r="S62" t="s">
-        <v>1049</v>
-      </c>
-      <c r="T62" t="s">
-        <v>732</v>
-      </c>
-      <c r="U62" t="s">
-        <v>1051</v>
-      </c>
-      <c r="V62" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -9015,7 +8994,7 @@
         <v>466</v>
       </c>
       <c r="I63" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="J63" t="s">
         <v>457</v>
@@ -9030,25 +9009,25 @@
         <v>452</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="P63" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q63" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="R63" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="S63" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="T63" t="s">
-        <v>732</v>
+        <v>1552</v>
       </c>
       <c r="U63" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="V63" t="s">
         <v>7</v>
@@ -9077,7 +9056,7 @@
         <v>467</v>
       </c>
       <c r="I64" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="J64" t="s">
         <v>511</v>
@@ -9086,13 +9065,13 @@
         <v>511</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="P64" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="T64" t="s">
-        <v>1544</v>
+        <v>628</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -9115,7 +9094,7 @@
         <v>468</v>
       </c>
       <c r="I65" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="J65" t="s">
         <v>453</v>
@@ -9124,22 +9103,22 @@
         <v>453</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="P65" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="R65" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="S65" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="T65" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U65" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="V65" t="s">
         <v>7</v>
@@ -9171,7 +9150,7 @@
         <v>466</v>
       </c>
       <c r="I66" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="J66" t="s">
         <v>457</v>
@@ -9180,28 +9159,28 @@
         <v>457</v>
       </c>
       <c r="O66" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1545</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>657</v>
+      </c>
+      <c r="R66" t="s">
+        <v>660</v>
+      </c>
+      <c r="S66" t="s">
         <v>661</v>
       </c>
-      <c r="P66" t="s">
-        <v>1556</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>660</v>
-      </c>
-      <c r="R66" t="s">
-        <v>663</v>
-      </c>
-      <c r="S66" t="s">
-        <v>665</v>
-      </c>
       <c r="T66" t="s">
+        <v>628</v>
+      </c>
+      <c r="U66" t="s">
+        <v>662</v>
+      </c>
+      <c r="V66" t="s">
         <v>664</v>
-      </c>
-      <c r="U66" t="s">
-        <v>666</v>
-      </c>
-      <c r="V66" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -9227,7 +9206,7 @@
         <v>480</v>
       </c>
       <c r="I67" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="J67" t="s">
         <v>457</v>
@@ -9239,28 +9218,28 @@
         <v>457</v>
       </c>
       <c r="O67" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>1552</v>
+      </c>
+      <c r="U67" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="P67" s="5" t="s">
-        <v>1547</v>
-      </c>
-      <c r="Q67" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="T67" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="U67" s="5" t="s">
-        <v>1073</v>
-      </c>
       <c r="V67" s="5" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -9283,7 +9262,7 @@
         <v>466</v>
       </c>
       <c r="I68" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="J68" t="s">
         <v>461</v>
@@ -9292,25 +9271,25 @@
         <v>455</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="T68" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>7</v>
@@ -9336,7 +9315,7 @@
         <v>466</v>
       </c>
       <c r="I69" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="J69" t="s">
         <v>457</v>
@@ -9345,25 +9324,25 @@
         <v>457</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="R69" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="T69" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>7</v>
@@ -9389,7 +9368,7 @@
         <v>467</v>
       </c>
       <c r="I70" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J70" t="s">
         <v>511</v>
@@ -9398,25 +9377,25 @@
         <v>511</v>
       </c>
       <c r="N70" t="s">
+        <v>666</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="P70" t="s">
+        <v>623</v>
+      </c>
+      <c r="R70" t="s">
+        <v>667</v>
+      </c>
+      <c r="S70" t="s">
+        <v>669</v>
+      </c>
+      <c r="T70" t="s">
+        <v>628</v>
+      </c>
+      <c r="U70" t="s">
         <v>670</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="P70" t="s">
-        <v>625</v>
-      </c>
-      <c r="R70" t="s">
-        <v>671</v>
-      </c>
-      <c r="S70" t="s">
-        <v>673</v>
-      </c>
-      <c r="T70" t="s">
-        <v>630</v>
-      </c>
-      <c r="U70" t="s">
-        <v>674</v>
       </c>
       <c r="V70" t="s">
         <v>7</v>
@@ -9442,7 +9421,7 @@
         <v>466</v>
       </c>
       <c r="I71" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="J71" t="s">
         <v>457</v>
@@ -9451,25 +9430,25 @@
         <v>457</v>
       </c>
       <c r="O71" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R71" t="s">
+        <v>1084</v>
+      </c>
+      <c r="S71" t="s">
+        <v>1083</v>
+      </c>
+      <c r="T71" t="s">
+        <v>628</v>
+      </c>
+      <c r="U71" t="s">
         <v>1087</v>
-      </c>
-      <c r="P71" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>1092</v>
-      </c>
-      <c r="R71" t="s">
-        <v>1090</v>
-      </c>
-      <c r="S71" t="s">
-        <v>1089</v>
-      </c>
-      <c r="T71" t="s">
-        <v>630</v>
-      </c>
-      <c r="U71" t="s">
-        <v>1093</v>
       </c>
       <c r="V71" t="s">
         <v>7</v>
@@ -9495,7 +9474,7 @@
         <v>469</v>
       </c>
       <c r="I72" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="J72" t="s">
         <v>511</v>
@@ -9504,22 +9483,22 @@
         <v>511</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="P72" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="R72" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="S72" t="s">
         <v>41</v>
       </c>
       <c r="T72" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U72" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="V72" t="s">
         <v>7</v>
@@ -9551,25 +9530,25 @@
         <v>456</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="P73" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q73" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="R73" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="S73" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="T73" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U73" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="V73" t="s">
         <v>7</v>
@@ -9598,7 +9577,7 @@
         <v>469</v>
       </c>
       <c r="I74" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="J74" t="s">
         <v>511</v>
@@ -9607,22 +9586,22 @@
         <v>511</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="P74" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
       <c r="R74" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="S74" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="T74" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U74" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="V74" t="s">
         <v>7</v>
@@ -9648,7 +9627,7 @@
         <v>480</v>
       </c>
       <c r="I75" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="J75" t="s">
         <v>463</v>
@@ -9660,25 +9639,25 @@
         <v>456</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="P75" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Q75" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="S75" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="T75" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="U75" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="V75" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -9701,7 +9680,7 @@
         <v>480</v>
       </c>
       <c r="I76" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="J76" t="s">
         <v>457</v>
@@ -9710,28 +9689,28 @@
         <v>457</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="P76" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Q76" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="R76" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="S76" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="T76" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="U76" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="V76" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -9760,25 +9739,25 @@
         <v>450</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="P77" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q77" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="R77" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="S77" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="T77" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U77" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="V77" t="s">
         <v>7</v>
@@ -9807,7 +9786,7 @@
         <v>467</v>
       </c>
       <c r="I78" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="J78" t="s">
         <v>457</v>
@@ -9816,19 +9795,19 @@
         <v>457</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="P78" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="Q78" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="T78" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U78" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="V78" t="s">
         <v>7</v>
@@ -9860,25 +9839,25 @@
         <v>456</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="P79" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="Q79" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="R79" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="S79" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="T79" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U79" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -9904,7 +9883,7 @@
         <v>468</v>
       </c>
       <c r="I80" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="J80" t="s">
         <v>457</v>
@@ -9913,25 +9892,25 @@
         <v>457</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="P80" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q80" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="R80" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="S80" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="T80" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U80" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="V80" t="s">
         <v>7</v>
@@ -9957,7 +9936,7 @@
         <v>501</v>
       </c>
       <c r="I81" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="J81" t="s">
         <v>511</v>
@@ -9966,25 +9945,25 @@
         <v>511</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="P81" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="R81" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="S81" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="T81" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U81" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="V81" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
@@ -10010,7 +9989,7 @@
         <v>501</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="J82" t="s">
         <v>457</v>
@@ -10019,28 +9998,28 @@
         <v>457</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="P82" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="Q82" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="R82" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="S82" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="T82" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U82" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="V82" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -10063,7 +10042,7 @@
         <v>467</v>
       </c>
       <c r="I83" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="J83" t="s">
         <v>463</v>
@@ -10075,22 +10054,22 @@
         <v>456</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="P83" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="Q83" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="R83" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="T83" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U83" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="V83" t="s">
         <v>7</v>
@@ -10122,25 +10101,25 @@
         <v>457</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="P84" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q84" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="R84" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="S84" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="T84" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U84" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="V84" t="s">
         <v>7</v>
@@ -10166,7 +10145,7 @@
         <v>466</v>
       </c>
       <c r="I85" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="J85" t="s">
         <v>457</v>
@@ -10175,25 +10154,25 @@
         <v>457</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="P85" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q85" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="R85" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="S85" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="T85" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U85" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -10216,7 +10195,7 @@
         <v>466</v>
       </c>
       <c r="I86" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="J86" t="s">
         <v>511</v>
@@ -10225,25 +10204,25 @@
         <v>511</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="P86" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q86" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="R86" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="S86" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="T86" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U86" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -10266,7 +10245,7 @@
         <v>466</v>
       </c>
       <c r="I87" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="J87" t="s">
         <v>457</v>
@@ -10275,25 +10254,25 @@
         <v>457</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="P87" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="Q87" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="R87" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="S87" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="T87" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U87" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="V87" t="s">
         <v>7</v>
@@ -10325,25 +10304,25 @@
         <v>452</v>
       </c>
       <c r="O88" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="P88" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>672</v>
+      </c>
+      <c r="R88" t="s">
+        <v>673</v>
+      </c>
+      <c r="S88" t="s">
+        <v>674</v>
+      </c>
+      <c r="T88" t="s">
+        <v>628</v>
+      </c>
+      <c r="U88" t="s">
         <v>675</v>
-      </c>
-      <c r="P88" t="s">
-        <v>655</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>676</v>
-      </c>
-      <c r="R88" t="s">
-        <v>677</v>
-      </c>
-      <c r="S88" t="s">
-        <v>678</v>
-      </c>
-      <c r="T88" t="s">
-        <v>630</v>
-      </c>
-      <c r="U88" t="s">
-        <v>679</v>
       </c>
       <c r="V88" t="s">
         <v>7</v>
@@ -10369,7 +10348,7 @@
         <v>501</v>
       </c>
       <c r="I89" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="J89" t="s">
         <v>457</v>
@@ -10378,28 +10357,28 @@
         <v>457</v>
       </c>
       <c r="O89" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="P89" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1170</v>
+      </c>
+      <c r="R89" t="s">
+        <v>1171</v>
+      </c>
+      <c r="S89" t="s">
+        <v>1172</v>
+      </c>
+      <c r="T89" t="s">
+        <v>628</v>
+      </c>
+      <c r="U89" t="s">
         <v>1175</v>
       </c>
-      <c r="P89" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>1176</v>
-      </c>
-      <c r="R89" t="s">
-        <v>1177</v>
-      </c>
-      <c r="S89" t="s">
-        <v>1178</v>
-      </c>
-      <c r="T89" t="s">
-        <v>630</v>
-      </c>
-      <c r="U89" t="s">
-        <v>1181</v>
-      </c>
       <c r="V89" s="6" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -10428,25 +10407,25 @@
         <v>450</v>
       </c>
       <c r="O90" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="P90" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>678</v>
+      </c>
+      <c r="R90" t="s">
+        <v>679</v>
+      </c>
+      <c r="S90" t="s">
         <v>680</v>
       </c>
-      <c r="P90" t="s">
+      <c r="T90" t="s">
+        <v>628</v>
+      </c>
+      <c r="U90" t="s">
         <v>681</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>682</v>
-      </c>
-      <c r="R90" t="s">
-        <v>683</v>
-      </c>
-      <c r="S90" t="s">
-        <v>684</v>
-      </c>
-      <c r="T90" t="s">
-        <v>630</v>
-      </c>
-      <c r="U90" t="s">
-        <v>685</v>
       </c>
       <c r="V90" t="s">
         <v>7</v>
@@ -10472,7 +10451,7 @@
         <v>501</v>
       </c>
       <c r="I91" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="J91" t="s">
         <v>462</v>
@@ -10481,25 +10460,25 @@
         <v>509</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="P91" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="R91" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="S91" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="T91" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U91" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="V91" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -10522,7 +10501,7 @@
         <v>466</v>
       </c>
       <c r="I92" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="J92" t="s">
         <v>462</v>
@@ -10531,22 +10510,22 @@
         <v>509</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="P92" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
       <c r="R92" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="S92" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="T92" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U92" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="V92" t="s">
         <v>7</v>
@@ -10578,25 +10557,25 @@
         <v>455</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="P93" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="Q93" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="R93" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="S93" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="T93" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="U93" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="V93" t="s">
         <v>7</v>
@@ -10634,25 +10613,25 @@
         <v>455</v>
       </c>
       <c r="O94" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="P94" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>683</v>
+      </c>
+      <c r="R94" t="s">
+        <v>684</v>
+      </c>
+      <c r="S94" t="s">
+        <v>685</v>
+      </c>
+      <c r="T94" t="s">
+        <v>628</v>
+      </c>
+      <c r="U94" t="s">
         <v>686</v>
-      </c>
-      <c r="P94" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>687</v>
-      </c>
-      <c r="R94" t="s">
-        <v>688</v>
-      </c>
-      <c r="S94" t="s">
-        <v>689</v>
-      </c>
-      <c r="T94" t="s">
-        <v>630</v>
-      </c>
-      <c r="U94" t="s">
-        <v>690</v>
       </c>
       <c r="V94" t="s">
         <v>7</v>
@@ -10678,7 +10657,7 @@
         <v>507</v>
       </c>
       <c r="I95" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="J95" t="s">
         <v>457</v>
@@ -10687,25 +10666,25 @@
         <v>457</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="P95" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R95" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="S95" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="T95" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U95" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="V95" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -10728,7 +10707,7 @@
         <v>480</v>
       </c>
       <c r="I96" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="J96" t="s">
         <v>457</v>
@@ -10740,25 +10719,25 @@
         <v>451</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="P96" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="Q96" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="S96" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="T96" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U96" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="V96" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -10793,22 +10772,22 @@
         <v>452</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="P97" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R97" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="S97" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="T97" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U97" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="V97" t="s">
         <v>7</v>
@@ -10837,7 +10816,7 @@
         <v>466</v>
       </c>
       <c r="I98" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="J98" t="s">
         <v>462</v>
@@ -10852,25 +10831,25 @@
         <v>511</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="P98" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R98" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="S98" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="T98" t="s">
-        <v>945</v>
+        <v>1552</v>
       </c>
       <c r="U98" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="V98" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -10893,7 +10872,7 @@
         <v>466</v>
       </c>
       <c r="I99" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J99" t="s">
         <v>457</v>
@@ -10902,25 +10881,25 @@
         <v>457</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="P99" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="Q99" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="R99" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="S99" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="T99" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U99" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="V99" t="s">
         <v>7</v>
@@ -10952,25 +10931,25 @@
         <v>509</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="P100" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q100" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="R100" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="S100" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="T100" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U100" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="V100" t="s">
         <v>7</v>
@@ -10987,7 +10966,7 @@
         <v>2010</v>
       </c>
       <c r="D101" t="s">
-        <v>566</v>
+        <v>1549</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -10999,7 +10978,7 @@
         <v>507</v>
       </c>
       <c r="I101" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="J101" t="s">
         <v>461</v>
@@ -11008,25 +10987,25 @@
         <v>455</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="P101" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="Q101" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="R101" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="S101" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="T101" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U101" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="V101" t="s">
         <v>7</v>
@@ -11055,7 +11034,7 @@
         <v>507</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="J102" t="s">
         <v>457</v>
@@ -11064,28 +11043,28 @@
         <v>457</v>
       </c>
       <c r="O102" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>1228</v>
+      </c>
+      <c r="R102" t="s">
+        <v>1229</v>
+      </c>
+      <c r="S102" t="s">
+        <v>1230</v>
+      </c>
+      <c r="T102" t="s">
+        <v>628</v>
+      </c>
+      <c r="U102" t="s">
         <v>1233</v>
       </c>
-      <c r="P102" t="s">
-        <v>1550</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>1234</v>
-      </c>
-      <c r="R102" t="s">
-        <v>1235</v>
-      </c>
-      <c r="S102" t="s">
-        <v>1236</v>
-      </c>
-      <c r="T102" t="s">
-        <v>630</v>
-      </c>
-      <c r="U102" t="s">
-        <v>1239</v>
-      </c>
       <c r="V102" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -11099,13 +11078,13 @@
         <v>2018</v>
       </c>
       <c r="D103" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G103" t="s">
         <v>466</v>
@@ -11126,25 +11105,25 @@
         <v>455</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="P103" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>693</v>
+      </c>
+      <c r="R103" t="s">
+        <v>694</v>
+      </c>
+      <c r="S103" t="s">
         <v>696</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="T103" t="s">
+        <v>628</v>
+      </c>
+      <c r="U103" t="s">
         <v>697</v>
-      </c>
-      <c r="R103" t="s">
-        <v>698</v>
-      </c>
-      <c r="S103" t="s">
-        <v>700</v>
-      </c>
-      <c r="T103" t="s">
-        <v>630</v>
-      </c>
-      <c r="U103" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -11158,7 +11137,7 @@
         <v>2015</v>
       </c>
       <c r="D104" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -11176,28 +11155,28 @@
         <v>511</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="P104" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Q104" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="R104" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="S104" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="T104" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U104" t="s">
         <v>41</v>
       </c>
       <c r="V104" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -11211,7 +11190,7 @@
         <v>2003</v>
       </c>
       <c r="D105" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -11223,7 +11202,7 @@
         <v>474</v>
       </c>
       <c r="I105" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="J105" t="s">
         <v>457</v>
@@ -11232,28 +11211,28 @@
         <v>457</v>
       </c>
       <c r="O105" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1540</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>1235</v>
+      </c>
+      <c r="R105" t="s">
+        <v>1236</v>
+      </c>
+      <c r="S105" t="s">
+        <v>1237</v>
+      </c>
+      <c r="T105" t="s">
+        <v>628</v>
+      </c>
+      <c r="U105" t="s">
+        <v>1239</v>
+      </c>
+      <c r="V105" t="s">
         <v>1240</v>
-      </c>
-      <c r="P105" t="s">
-        <v>1551</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>1241</v>
-      </c>
-      <c r="R105" t="s">
-        <v>1242</v>
-      </c>
-      <c r="S105" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T105" t="s">
-        <v>664</v>
-      </c>
-      <c r="U105" t="s">
-        <v>1245</v>
-      </c>
-      <c r="V105" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -11267,7 +11246,7 @@
         <v>2006</v>
       </c>
       <c r="D106" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -11282,22 +11261,22 @@
         <v>511</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="P106" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="R106" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="S106" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="T106" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U106" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="V106" t="s">
         <v>7</v>
@@ -11332,25 +11311,25 @@
         <v>457</v>
       </c>
       <c r="O107" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="P107" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>703</v>
+      </c>
+      <c r="R107" t="s">
         <v>706</v>
       </c>
-      <c r="P107" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q107" t="s">
+      <c r="S107" t="s">
         <v>707</v>
       </c>
-      <c r="R107" t="s">
-        <v>710</v>
-      </c>
-      <c r="S107" t="s">
-        <v>711</v>
-      </c>
       <c r="T107" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U107" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="V107" t="s">
         <v>7</v>
@@ -11367,7 +11346,7 @@
         <v>2008</v>
       </c>
       <c r="D108" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -11379,7 +11358,7 @@
         <v>467</v>
       </c>
       <c r="I108" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="J108" t="s">
         <v>453</v>
@@ -11394,25 +11373,25 @@
         <v>455</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="P108" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="Q108" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="S108" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="T108" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U108" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="V108" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -11426,7 +11405,7 @@
         <v>2018</v>
       </c>
       <c r="D109" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -11435,7 +11414,7 @@
         <v>507</v>
       </c>
       <c r="I109" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="J109" t="s">
         <v>462</v>
@@ -11444,19 +11423,19 @@
         <v>509</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="P109" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="S109" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="T109" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U109" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="V109" t="s">
         <v>7</v>
@@ -11473,7 +11452,7 @@
         <v>2013</v>
       </c>
       <c r="D110" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -11485,7 +11464,7 @@
         <v>501</v>
       </c>
       <c r="I110" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="J110" t="s">
         <v>511</v>
@@ -11494,25 +11473,25 @@
         <v>511</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="P110" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Q110" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="S110" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="T110" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U110" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="V110" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -11526,7 +11505,7 @@
         <v>2008</v>
       </c>
       <c r="D111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -11535,7 +11514,7 @@
         <v>465</v>
       </c>
       <c r="I111" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="J111" t="s">
         <v>462</v>
@@ -11544,22 +11523,22 @@
         <v>509</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="P111" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="R111" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="S111" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="T111" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U111" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="V111" t="s">
         <v>7</v>
@@ -11591,25 +11570,25 @@
         <v>457</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="P112" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="Q112" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="R112" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="S112" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="T112" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U112" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -11623,7 +11602,7 @@
         <v>2022</v>
       </c>
       <c r="D113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -11632,7 +11611,7 @@
         <v>480</v>
       </c>
       <c r="I113" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="J113" t="s">
         <v>511</v>
@@ -11641,22 +11620,22 @@
         <v>511</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="P113" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="S113" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="T113" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U113" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="V113" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
@@ -11688,22 +11667,22 @@
         <v>453</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="P114" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="R114" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="S114" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="T114" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U114" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="V114" t="s">
         <v>7</v>
@@ -11735,25 +11714,25 @@
         <v>457</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="P115" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="R115" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="S115" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="T115" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U115" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="V115" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
@@ -11782,19 +11761,19 @@
         <v>511</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="P116" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="S116" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="T116" t="s">
-        <v>1291</v>
+        <v>1551</v>
       </c>
       <c r="U116" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="V116" t="s">
         <v>7</v>
@@ -11811,7 +11790,7 @@
         <v>2022</v>
       </c>
       <c r="D117" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
@@ -11820,7 +11799,7 @@
         <v>467</v>
       </c>
       <c r="I117" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="J117" t="s">
         <v>511</v>
@@ -11829,19 +11808,19 @@
         <v>511</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="P117" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="S117" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="T117" t="s">
-        <v>644</v>
+        <v>1551</v>
       </c>
       <c r="U117" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="V117" t="s">
         <v>7</v>
@@ -11882,22 +11861,22 @@
         <v>511</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="P118" t="s">
-        <v>1552</v>
+        <v>1541</v>
       </c>
       <c r="S118" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="T118" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U118" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="V118" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
@@ -11920,7 +11899,7 @@
         <v>466</v>
       </c>
       <c r="I119" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="J119" t="s">
         <v>457</v>
@@ -11929,25 +11908,25 @@
         <v>457</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="P119" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="Q119" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="R119" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="S119" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="T119" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U119" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="V119" t="s">
         <v>7</v>
@@ -11976,7 +11955,7 @@
         <v>467</v>
       </c>
       <c r="I120" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="J120" t="s">
         <v>457</v>
@@ -11985,25 +11964,25 @@
         <v>457</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="P120" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="Q120" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="R120" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="S120" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="T120" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U120" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="V120" t="s">
         <v>7</v>
@@ -12029,7 +12008,7 @@
         <v>466</v>
       </c>
       <c r="I121" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="J121" t="s">
         <v>457</v>
@@ -12038,25 +12017,25 @@
         <v>457</v>
       </c>
       <c r="O121" s="8" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="P121" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="Q121" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="R121" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="S121" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="T121" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U121" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="V121" t="s">
         <v>7</v>
@@ -12085,7 +12064,7 @@
         <v>467</v>
       </c>
       <c r="I122" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="J122" t="s">
         <v>511</v>
@@ -12094,19 +12073,19 @@
         <v>511</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="P122" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="S122" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="T122" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U122" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="V122" t="s">
         <v>7</v>
@@ -12123,7 +12102,7 @@
         <v>2019</v>
       </c>
       <c r="D123" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -12138,22 +12117,22 @@
         <v>453</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="P123" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="Q123" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="S123" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="T123" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U123" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="V123" t="s">
         <v>7</v>
@@ -12185,19 +12164,19 @@
         <v>454</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="P124" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="S124" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="T124" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U124" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="V124" t="s">
         <v>7</v>
@@ -12238,28 +12217,28 @@
         <v>451</v>
       </c>
       <c r="O125" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="P125" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q125" t="s">
         <v>713</v>
       </c>
-      <c r="P125" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>717</v>
-      </c>
       <c r="R125" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="S125" t="s">
         <v>41</v>
       </c>
       <c r="T125" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U125" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="V125" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
@@ -12273,7 +12252,7 @@
         <v>2020</v>
       </c>
       <c r="D126" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E126" t="s">
         <v>155</v>
@@ -12291,22 +12270,22 @@
         <v>511</v>
       </c>
       <c r="O126" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="P126" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>717</v>
+      </c>
+      <c r="S126" t="s">
+        <v>718</v>
+      </c>
+      <c r="T126" t="s">
+        <v>1552</v>
+      </c>
+      <c r="U126" t="s">
         <v>719</v>
-      </c>
-      <c r="P126" t="s">
-        <v>720</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>721</v>
-      </c>
-      <c r="S126" t="s">
-        <v>722</v>
-      </c>
-      <c r="T126" t="s">
-        <v>614</v>
-      </c>
-      <c r="U126" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
@@ -12320,7 +12299,7 @@
         <v>2018</v>
       </c>
       <c r="D127" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -12329,7 +12308,7 @@
         <v>501</v>
       </c>
       <c r="I127" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="J127" t="s">
         <v>462</v>
@@ -12338,25 +12317,25 @@
         <v>509</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="P127" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="R127" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="S127" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="T127" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U127" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="V127" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -12382,7 +12361,7 @@
         <v>467</v>
       </c>
       <c r="I128" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="J128" t="s">
         <v>458</v>
@@ -12397,25 +12376,25 @@
         <v>457</v>
       </c>
       <c r="O128" s="8" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="P128" t="s">
-        <v>1550</v>
+        <v>1539</v>
       </c>
       <c r="Q128" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="R128" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="S128" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="T128" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U128" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="V128" t="s">
         <v>7</v>
@@ -12432,7 +12411,7 @@
         <v>2001</v>
       </c>
       <c r="D129" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -12441,7 +12420,7 @@
         <v>466</v>
       </c>
       <c r="I129" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="J129" t="s">
         <v>457</v>
@@ -12450,25 +12429,25 @@
         <v>457</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="P129" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q129" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="R129" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="S129" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="T129" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U129" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="V129" t="s">
         <v>7</v>
@@ -12485,7 +12464,7 @@
         <v>2011</v>
       </c>
       <c r="D130" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -12500,25 +12479,25 @@
         <v>457</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="P130" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="Q130" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="R130" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="S130" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="T130" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U130" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="V130" t="s">
         <v>7</v>
@@ -12550,22 +12529,22 @@
         <v>455</v>
       </c>
       <c r="O131" s="8" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="P131" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q131" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="S131" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="T131" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U131" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="V131" t="s">
         <v>7</v>
@@ -12600,25 +12579,25 @@
         <v>509</v>
       </c>
       <c r="O132" s="8" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="P132" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
       <c r="Q132" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="R132" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="S132" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="T132" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U132" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="V132" t="s">
         <v>7</v>
@@ -12635,7 +12614,7 @@
         <v>2003</v>
       </c>
       <c r="D133" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
@@ -12653,22 +12632,22 @@
         <v>509</v>
       </c>
       <c r="O133" s="8" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="P133" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="Q133" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="S133" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="T133" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U133" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
@@ -12691,7 +12670,7 @@
         <v>474</v>
       </c>
       <c r="I134" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="J134" t="s">
         <v>457</v>
@@ -12706,22 +12685,22 @@
         <v>452</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="P134" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="S134" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="T134" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U134" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="V134" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
@@ -12750,19 +12729,19 @@
         <v>457</v>
       </c>
       <c r="O135" s="8" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="P135" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="S135" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="T135" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U135" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="V135" t="s">
         <v>7</v>
@@ -12788,7 +12767,7 @@
         <v>466</v>
       </c>
       <c r="I136" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="J136" t="s">
         <v>463</v>
@@ -12800,25 +12779,25 @@
         <v>456</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="P136" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="Q136" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="R136" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="S136" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="T136" t="s">
-        <v>1544</v>
+        <v>628</v>
       </c>
       <c r="U136" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="V136" t="s">
         <v>7</v>
@@ -12835,7 +12814,7 @@
         <v>2010</v>
       </c>
       <c r="D137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -12844,7 +12823,7 @@
         <v>466</v>
       </c>
       <c r="I137" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="J137" t="s">
         <v>511</v>
@@ -12853,19 +12832,19 @@
         <v>511</v>
       </c>
       <c r="O137" s="8" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="P137" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="S137" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="T137" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U137" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="V137" t="s">
         <v>7</v>
@@ -12891,7 +12870,7 @@
         <v>466</v>
       </c>
       <c r="I138" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="J138" t="s">
         <v>460</v>
@@ -12906,25 +12885,25 @@
         <v>457</v>
       </c>
       <c r="O138" s="8" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="P138" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="Q138" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="R138" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="S138" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="T138" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U138" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="V138" t="s">
         <v>7</v>
@@ -12956,19 +12935,19 @@
         <v>454</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="P139" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="S139" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="T139" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U139" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="V139" t="s">
         <v>7</v>
@@ -13000,22 +12979,22 @@
         <v>511</v>
       </c>
       <c r="O140" s="8" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="P140" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="R140" t="s">
         <v>41</v>
       </c>
       <c r="S140" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="T140" t="s">
-        <v>945</v>
+        <v>1552</v>
       </c>
       <c r="U140" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="V140" t="s">
         <v>7</v>
@@ -13044,7 +13023,7 @@
         <v>480</v>
       </c>
       <c r="I141" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="J141" t="s">
         <v>511</v>
@@ -13053,25 +13032,25 @@
         <v>511</v>
       </c>
       <c r="O141" s="8" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="P141" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="Q141" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="R141" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="T141" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U141" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="V141" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
@@ -13094,7 +13073,7 @@
         <v>467</v>
       </c>
       <c r="I142" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="J142" t="s">
         <v>463</v>
@@ -13106,25 +13085,25 @@
         <v>456</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="P142" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q142" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="R142" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="S142" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="T142" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="U142" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="V142" t="s">
         <v>7</v>
@@ -13150,7 +13129,7 @@
         <v>487</v>
       </c>
       <c r="I143" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="J143" t="s">
         <v>457</v>
@@ -13162,25 +13141,25 @@
         <v>451</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="P143" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q143" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="S143" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="T143" t="s">
-        <v>945</v>
+        <v>1552</v>
       </c>
       <c r="U143" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="V143" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
@@ -13215,25 +13194,25 @@
         <v>457</v>
       </c>
       <c r="O144" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="P144" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>721</v>
+      </c>
+      <c r="R144" t="s">
+        <v>722</v>
+      </c>
+      <c r="S144" t="s">
+        <v>723</v>
+      </c>
+      <c r="T144" t="s">
+        <v>628</v>
+      </c>
+      <c r="U144" t="s">
         <v>724</v>
-      </c>
-      <c r="P144" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>725</v>
-      </c>
-      <c r="R144" t="s">
-        <v>726</v>
-      </c>
-      <c r="S144" t="s">
-        <v>727</v>
-      </c>
-      <c r="T144" t="s">
-        <v>630</v>
-      </c>
-      <c r="U144" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
@@ -13259,7 +13238,7 @@
         <v>467</v>
       </c>
       <c r="I145" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="J145" t="s">
         <v>463</v>
@@ -13268,25 +13247,25 @@
         <v>456</v>
       </c>
       <c r="O145" s="8" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="P145" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="Q145" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="R145" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="S145" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="T145" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="U145" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="V145" t="s">
         <v>7</v>
@@ -13303,7 +13282,7 @@
         <v>2016</v>
       </c>
       <c r="D146" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -13312,7 +13291,7 @@
         <v>466</v>
       </c>
       <c r="I146" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J146" t="s">
         <v>461</v>
@@ -13321,25 +13300,25 @@
         <v>455</v>
       </c>
       <c r="O146" s="8" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="P146" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q146" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="R146" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="S146" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="T146" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U146" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="V146" t="s">
         <v>7</v>
@@ -13368,7 +13347,7 @@
         <v>474</v>
       </c>
       <c r="I147" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="J147" t="s">
         <v>453</v>
@@ -13383,25 +13362,25 @@
         <v>455</v>
       </c>
       <c r="O147" s="8" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="P147" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="Q147" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="S147" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="T147" t="s">
-        <v>945</v>
+        <v>1552</v>
       </c>
       <c r="U147" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="V147" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
@@ -13415,7 +13394,7 @@
         <v>2022</v>
       </c>
       <c r="D148" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -13424,7 +13403,7 @@
         <v>466</v>
       </c>
       <c r="I148" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="J148" t="s">
         <v>509</v>
@@ -13436,22 +13415,22 @@
         <v>509</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="P148" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R148" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="S148" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="T148" t="s">
-        <v>1428</v>
+        <v>1552</v>
       </c>
       <c r="U148" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="V148" t="s">
         <v>7</v>
@@ -13468,7 +13447,7 @@
         <v>1998</v>
       </c>
       <c r="D149" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -13477,7 +13456,7 @@
         <v>465</v>
       </c>
       <c r="I149" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="J149" t="s">
         <v>457</v>
@@ -13486,22 +13465,22 @@
         <v>457</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="P149" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R149" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="S149" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="T149" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U149" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="V149" t="s">
         <v>7</v>
@@ -13530,7 +13509,7 @@
         <v>467</v>
       </c>
       <c r="I150" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="J150" t="s">
         <v>457</v>
@@ -13539,22 +13518,22 @@
         <v>457</v>
       </c>
       <c r="O150" s="8" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="P150" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="R150" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="S150" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="T150" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U150" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="V150" t="s">
         <v>7</v>
@@ -13583,7 +13562,7 @@
         <v>467</v>
       </c>
       <c r="I151" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="J151" t="s">
         <v>457</v>
@@ -13592,22 +13571,22 @@
         <v>457</v>
       </c>
       <c r="O151" s="8" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="P151" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="R151" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="S151" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="T151" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U151" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="V151" t="s">
         <v>7</v>
@@ -13624,7 +13603,7 @@
         <v>1996</v>
       </c>
       <c r="D152" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
@@ -13633,7 +13612,7 @@
         <v>467</v>
       </c>
       <c r="I152" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="J152" t="s">
         <v>511</v>
@@ -13642,22 +13621,22 @@
         <v>511</v>
       </c>
       <c r="O152" s="8" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="P152" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="R152" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="S152" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="T152" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U152" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
       <c r="V152" t="s">
         <v>7</v>
@@ -13674,7 +13653,7 @@
         <v>2020</v>
       </c>
       <c r="D153" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -13683,7 +13662,7 @@
         <v>466</v>
       </c>
       <c r="I153" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="J153" t="s">
         <v>461</v>
@@ -13698,25 +13677,25 @@
         <v>454</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="P153" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q153" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="R153" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="S153" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="T153" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U153" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="V153" t="s">
         <v>7</v>
@@ -13754,28 +13733,28 @@
         <v>451</v>
       </c>
       <c r="O154" s="8" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="P154" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q154" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="R154" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="S154" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="T154" t="s">
-        <v>1461</v>
+        <v>1550</v>
       </c>
       <c r="U154" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="V154" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
@@ -13789,7 +13768,7 @@
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
@@ -13807,22 +13786,22 @@
         <v>454</v>
       </c>
       <c r="O155" s="8" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="P155" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R155" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="S155" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="T155" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="U155" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="V155" t="s">
         <v>7</v>
@@ -13850,7 +13829,7 @@
       </c>
       <c r="H156"/>
       <c r="I156" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="J156" t="s">
         <v>457</v>
@@ -13866,25 +13845,25 @@
       </c>
       <c r="N156"/>
       <c r="O156" s="8" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="P156" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="Q156" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="R156" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="S156" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="T156" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U156" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="V156" t="s">
         <v>7</v>
@@ -13901,7 +13880,7 @@
         <v>2023</v>
       </c>
       <c r="D157" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E157" t="s">
         <v>155</v>
@@ -13910,7 +13889,7 @@
         <v>466</v>
       </c>
       <c r="I157" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="J157" t="s">
         <v>463</v>
@@ -13919,25 +13898,25 @@
         <v>456</v>
       </c>
       <c r="O157" s="8" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="P157" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="Q157" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="R157" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="S157" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="T157" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="U157" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="V157" t="s">
         <v>7</v>
@@ -13966,7 +13945,7 @@
         <v>478</v>
       </c>
       <c r="I158" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="J158" t="s">
         <v>511</v>
@@ -13975,25 +13954,25 @@
         <v>511</v>
       </c>
       <c r="O158" s="8" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="P158" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="R158" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="S158" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="T158" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U158" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="V158" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.25">
@@ -14007,7 +13986,7 @@
         <v>2022</v>
       </c>
       <c r="D159" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -14016,7 +13995,7 @@
         <v>466</v>
       </c>
       <c r="I159" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="J159" t="s">
         <v>511</v>
@@ -14025,19 +14004,19 @@
         <v>511</v>
       </c>
       <c r="O159" s="8" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="P159" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="S159" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="T159" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U159" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="V159" t="s">
         <v>7</v>
@@ -14054,7 +14033,7 @@
         <v>2018</v>
       </c>
       <c r="D160" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E160" t="s">
         <v>155</v>
@@ -14069,25 +14048,25 @@
         <v>450</v>
       </c>
       <c r="O160" s="8" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="P160" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R160" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="S160" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="T160" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U160" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="V160" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.25">
@@ -14113,7 +14092,7 @@
         <v>480</v>
       </c>
       <c r="I161" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="J161" t="s">
         <v>509</v>
@@ -14125,25 +14104,25 @@
         <v>451</v>
       </c>
       <c r="O161" s="8" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="P161" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="R161" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="S161" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="T161" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="U161" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="V161" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.25">
@@ -14175,25 +14154,25 @@
         <v>451</v>
       </c>
       <c r="O162" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="P162" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>730</v>
+      </c>
+      <c r="R162" t="s">
+        <v>731</v>
+      </c>
+      <c r="S162" t="s">
+        <v>733</v>
+      </c>
+      <c r="T162" t="s">
+        <v>1552</v>
+      </c>
+      <c r="U162" t="s">
         <v>734</v>
-      </c>
-      <c r="P162" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>735</v>
-      </c>
-      <c r="R162" t="s">
-        <v>736</v>
-      </c>
-      <c r="S162" t="s">
-        <v>738</v>
-      </c>
-      <c r="T162" t="s">
-        <v>664</v>
-      </c>
-      <c r="U162" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.25">
@@ -14219,7 +14198,7 @@
         <v>480</v>
       </c>
       <c r="I163" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="J163" t="s">
         <v>457</v>
@@ -14234,28 +14213,28 @@
         <v>455</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="P163" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="Q163" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="R163" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="S163" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="T163" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U163" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="V163" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.25">
@@ -14284,25 +14263,25 @@
         <v>457</v>
       </c>
       <c r="O164" s="8" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="P164" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="Q164" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="R164" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="S164" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="T164" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U164" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="V164" t="s">
         <v>7</v>
@@ -14319,7 +14298,7 @@
         <v>2008</v>
       </c>
       <c r="D165" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E165" t="s">
         <v>8</v>
@@ -14334,25 +14313,25 @@
         <v>457</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="P165" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q165" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="R165" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="S165" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="T165" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U165" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="V165" t="s">
         <v>7</v>
@@ -14369,7 +14348,7 @@
         <v>2008</v>
       </c>
       <c r="D166" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E166" t="s">
         <v>8</v>
@@ -14384,25 +14363,25 @@
         <v>457</v>
       </c>
       <c r="O166" s="8" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="P166" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q166" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="R166" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="S166" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="T166" t="s">
-        <v>644</v>
+        <v>1551</v>
       </c>
       <c r="U166" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="V166" t="s">
         <v>7</v>
@@ -14431,7 +14410,7 @@
         <v>466</v>
       </c>
       <c r="I167" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="J167" t="s">
         <v>463</v>
@@ -14443,25 +14422,25 @@
         <v>456</v>
       </c>
       <c r="O167" s="8" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="P167" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="Q167" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="R167" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="S167" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="T167" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U167" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="V167" t="s">
         <v>7</v>
@@ -14478,7 +14457,7 @@
         <v>2001</v>
       </c>
       <c r="D168" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -14487,7 +14466,7 @@
         <v>466</v>
       </c>
       <c r="I168" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="J168" t="s">
         <v>462</v>
@@ -14499,22 +14478,22 @@
         <v>452</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="P168" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="R168" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="S168" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="T168" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U168" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="V168" t="s">
         <v>7</v>
@@ -14540,7 +14519,7 @@
         <v>466</v>
       </c>
       <c r="I169" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="J169" t="s">
         <v>509</v>
@@ -14549,25 +14528,25 @@
         <v>451</v>
       </c>
       <c r="O169" s="8" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="P169" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="Q169" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="R169" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="S169" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
       <c r="T169" t="s">
-        <v>1428</v>
+        <v>1552</v>
       </c>
       <c r="U169" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="V169" t="s">
         <v>7</v>
@@ -14584,7 +14563,7 @@
         <v>2015</v>
       </c>
       <c r="D170" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E170" t="s">
         <v>155</v>
@@ -14599,28 +14578,28 @@
         <v>456</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="P170" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q170" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="R170" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="S170" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="T170" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="U170" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="V170" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.25">
@@ -14634,7 +14613,7 @@
         <v>2018</v>
       </c>
       <c r="D171" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -14649,25 +14628,25 @@
         <v>457</v>
       </c>
       <c r="O171" s="8" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="P171" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q171" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="R171" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="S171" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="T171" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U171" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="V171" t="s">
         <v>7</v>

--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -16,14 +16,14 @@
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ft_consolidated_revisit!$A$1:$V$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ft_consolidated_revisit!$A$1:$W$171</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="1564">
   <si>
     <t>title</t>
   </si>
@@ -1832,9 +1832,6 @@
   </si>
   <si>
     <t>EO data</t>
-  </si>
-  <si>
-    <t>societal benefit type</t>
   </si>
   <si>
     <t>societal benefit description</t>
@@ -4685,6 +4682,42 @@
   </si>
   <si>
     <t>instrumental;relational</t>
+  </si>
+  <si>
+    <t>value type himes</t>
+  </si>
+  <si>
+    <t>fundamental;eudaimonistic</t>
+  </si>
+  <si>
+    <t>eudaimonistic;instrumental</t>
+  </si>
+  <si>
+    <t>fundamental;instrumental</t>
+  </si>
+  <si>
+    <t>instrumental;fundamental;eudaimonistic</t>
+  </si>
+  <si>
+    <t>fundamental</t>
+  </si>
+  <si>
+    <t>fundamental;instrumental;eudaimonistic</t>
+  </si>
+  <si>
+    <t>instrumental;fundamental</t>
+  </si>
+  <si>
+    <t>eudaimonistic;fundamental;instrumental</t>
+  </si>
+  <si>
+    <t>instrumental;eudaimonistic</t>
+  </si>
+  <si>
+    <t>eudaimonistic</t>
+  </si>
+  <si>
+    <t>value type arias arevalo</t>
   </si>
 </sst>
 </file>
@@ -5201,7 +5234,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5222,6 +5255,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5543,13 +5581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V171"/>
+  <dimension ref="A1:W171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U63" sqref="U1:U1048576"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5565,13 +5603,13 @@
     <col min="10" max="13" width="6.42578125" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" style="8" customWidth="1"/>
-    <col min="16" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" customWidth="1"/>
+    <col min="16" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5597,7 +5635,7 @@
         <v>503</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>446</v>
@@ -5629,17 +5667,20 @@
       <c r="S1" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="12" t="s">
+        <v>1563</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>1552</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -5656,7 +5697,7 @@
         <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G2" t="s">
         <v>474</v>
@@ -5665,37 +5706,40 @@
         <v>484</v>
       </c>
       <c r="I2" t="s">
+        <v>735</v>
+      </c>
+      <c r="J2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L2" t="s">
+        <v>457</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="P2" t="s">
+        <v>644</v>
+      </c>
+      <c r="R2" t="s">
+        <v>740</v>
+      </c>
+      <c r="S2" t="s">
         <v>736</v>
       </c>
-      <c r="J2" t="s">
-        <v>457</v>
-      </c>
-      <c r="L2" t="s">
-        <v>457</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="P2" t="s">
-        <v>645</v>
-      </c>
-      <c r="R2" t="s">
-        <v>741</v>
-      </c>
-      <c r="S2" t="s">
-        <v>737</v>
-      </c>
-      <c r="T2" t="s">
-        <v>628</v>
+      <c r="T2" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U2" t="s">
-        <v>739</v>
+        <v>627</v>
       </c>
       <c r="V2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -5718,40 +5762,43 @@
         <v>465</v>
       </c>
       <c r="I3" t="s">
+        <v>745</v>
+      </c>
+      <c r="J3" t="s">
+        <v>457</v>
+      </c>
+      <c r="L3" t="s">
+        <v>457</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="P3" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>743</v>
+      </c>
+      <c r="R3" t="s">
+        <v>744</v>
+      </c>
+      <c r="S3" t="s">
+        <v>763</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U3" t="s">
+        <v>627</v>
+      </c>
+      <c r="V3" t="s">
         <v>746</v>
       </c>
-      <c r="J3" t="s">
-        <v>457</v>
-      </c>
-      <c r="L3" t="s">
-        <v>457</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="P3" t="s">
-        <v>743</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>744</v>
-      </c>
-      <c r="R3" t="s">
-        <v>745</v>
-      </c>
-      <c r="S3" t="s">
-        <v>764</v>
-      </c>
-      <c r="T3" t="s">
-        <v>628</v>
-      </c>
-      <c r="U3" t="s">
-        <v>747</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -5774,7 +5821,7 @@
         <v>465</v>
       </c>
       <c r="I4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J4" t="s">
         <v>457</v>
@@ -5783,31 +5830,34 @@
         <v>457</v>
       </c>
       <c r="O4" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="P4" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>749</v>
+      </c>
+      <c r="R4" t="s">
+        <v>750</v>
+      </c>
+      <c r="S4" t="s">
+        <v>763</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U4" t="s">
+        <v>627</v>
+      </c>
+      <c r="V4" t="s">
         <v>748</v>
       </c>
-      <c r="P4" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>750</v>
-      </c>
-      <c r="R4" t="s">
-        <v>751</v>
-      </c>
-      <c r="S4" t="s">
-        <v>764</v>
-      </c>
-      <c r="T4" t="s">
-        <v>628</v>
-      </c>
-      <c r="U4" t="s">
-        <v>749</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -5824,13 +5874,13 @@
         <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G5" t="s">
         <v>475</v>
       </c>
       <c r="I5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J5" t="s">
         <v>509</v>
@@ -5842,31 +5892,34 @@
         <v>510</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="P5" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>606</v>
+      </c>
+      <c r="R5" t="s">
+        <v>612</v>
+      </c>
+      <c r="S5" t="s">
         <v>608</v>
       </c>
-      <c r="P5" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>607</v>
-      </c>
-      <c r="R5" t="s">
-        <v>613</v>
-      </c>
-      <c r="S5" t="s">
-        <v>609</v>
-      </c>
-      <c r="T5" t="s">
-        <v>1550</v>
+      <c r="T5" s="10" t="s">
+        <v>1553</v>
       </c>
       <c r="U5" t="s">
-        <v>612</v>
+        <v>1549</v>
       </c>
       <c r="V5" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -5889,37 +5942,40 @@
         <v>474</v>
       </c>
       <c r="I6" t="s">
+        <v>755</v>
+      </c>
+      <c r="J6" t="s">
+        <v>457</v>
+      </c>
+      <c r="L6" t="s">
+        <v>457</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="P6" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q6" t="s">
         <v>756</v>
       </c>
-      <c r="J6" t="s">
-        <v>457</v>
-      </c>
-      <c r="L6" t="s">
-        <v>457</v>
-      </c>
-      <c r="O6" s="8" t="s">
+      <c r="S6" t="s">
+        <v>764</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U6" t="s">
+        <v>627</v>
+      </c>
+      <c r="V6" t="s">
         <v>753</v>
       </c>
-      <c r="P6" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="W6" t="s">
         <v>757</v>
       </c>
-      <c r="S6" t="s">
-        <v>765</v>
-      </c>
-      <c r="T6" t="s">
-        <v>628</v>
-      </c>
-      <c r="U6" t="s">
-        <v>754</v>
-      </c>
-      <c r="V6" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>190</v>
       </c>
@@ -5939,7 +5995,7 @@
         <v>474</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>509</v>
@@ -5948,31 +6004,34 @@
         <v>451</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>615</v>
-      </c>
       <c r="R7" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>1551</v>
+        <v>765</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>1554</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>618</v>
+        <v>1550</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>352</v>
       </c>
@@ -5992,7 +6051,7 @@
         <v>466</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>457</v>
@@ -6007,31 +6066,34 @@
         <v>455</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="V8" s="5" t="s">
+      <c r="W8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>91</v>
       </c>
@@ -6048,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>466</v>
@@ -6057,37 +6119,40 @@
         <v>465</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="P9" s="5" t="s">
+      <c r="S9" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V9" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="V9" s="5" t="s">
+      <c r="W9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>194</v>
       </c>
@@ -6104,13 +6169,13 @@
         <v>193</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>466</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>457</v>
@@ -6125,31 +6190,34 @@
         <v>452</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P10" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="V10" s="5" t="s">
+      <c r="W10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>355</v>
       </c>
@@ -6172,34 +6240,37 @@
         <v>467</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V11" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -6219,7 +6290,7 @@
         <v>501</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>509</v>
@@ -6228,31 +6299,34 @@
         <v>450</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="P12" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>628</v>
+      <c r="T12" s="11" t="s">
+        <v>627</v>
       </c>
       <c r="U12" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="V12" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>358</v>
       </c>
@@ -6272,7 +6346,7 @@
         <v>466</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>457</v>
@@ -6281,31 +6355,34 @@
         <v>457</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="Q13" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="R13" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V13" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="T13" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="V13" s="5" t="s">
+      <c r="W13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>200</v>
       </c>
@@ -6331,7 +6408,7 @@
         <v>507</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>457</v>
@@ -6346,31 +6423,34 @@
         <v>455</v>
       </c>
       <c r="O14" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="S14" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V14" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="U14" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="V14" s="5" t="s">
+      <c r="W14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>197</v>
       </c>
@@ -6390,7 +6470,7 @@
         <v>466</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>461</v>
@@ -6405,31 +6485,34 @@
         <v>457</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q15" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V15" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="R15" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="V15" s="5" t="s">
+      <c r="W15" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6446,13 +6529,13 @@
         <v>8</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>465</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>460</v>
@@ -6461,28 +6544,31 @@
         <v>452</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>628</v>
+        <v>810</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>627</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -6502,7 +6588,7 @@
         <v>466</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>457</v>
@@ -6517,25 +6603,28 @@
         <v>455</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q17" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V17" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="S17" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -6552,7 +6641,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>466</v>
@@ -6564,31 +6653,34 @@
         <v>456</v>
       </c>
       <c r="O18" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q18" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="T18" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="T18" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="V18" s="5" t="s">
+      <c r="W18" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -6608,7 +6700,7 @@
         <v>465</v>
       </c>
       <c r="I19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J19" t="s">
         <v>511</v>
@@ -6620,31 +6712,34 @@
         <v>512</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R19" t="s">
+        <v>632</v>
+      </c>
+      <c r="S19" t="s">
+        <v>631</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U19" t="s">
+        <v>627</v>
+      </c>
+      <c r="V19" t="s">
         <v>633</v>
       </c>
-      <c r="S19" t="s">
-        <v>632</v>
-      </c>
-      <c r="T19" t="s">
-        <v>628</v>
-      </c>
-      <c r="U19" t="s">
-        <v>634</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>151</v>
       </c>
@@ -6664,7 +6759,7 @@
         <v>501</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>453</v>
@@ -6673,31 +6768,34 @@
         <v>453</v>
       </c>
       <c r="O20" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="R20" s="5" t="s">
+      <c r="S20" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="T20" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V20" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="T20" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U20" s="5" t="s">
+      <c r="W20" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="V20" s="5" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -6717,40 +6815,43 @@
         <v>474</v>
       </c>
       <c r="I21" t="s">
+        <v>833</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q21" t="s">
         <v>834</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="O21" s="8" t="s">
+      <c r="R21" t="s">
+        <v>835</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="W21" t="s">
         <v>832</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>835</v>
-      </c>
-      <c r="R21" t="s">
-        <v>836</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="V21" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -6770,7 +6871,7 @@
         <v>507</v>
       </c>
       <c r="I22" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>457</v>
@@ -6785,28 +6886,31 @@
         <v>452</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="R22" t="s">
         <v>840</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V22" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="S22" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="V22" s="5" t="s">
+      <c r="W22" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>275</v>
       </c>
@@ -6826,7 +6930,7 @@
         <v>466</v>
       </c>
       <c r="I23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>458</v>
@@ -6838,31 +6942,34 @@
         <v>451</v>
       </c>
       <c r="O23" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>847</v>
+      </c>
+      <c r="R23" t="s">
         <v>845</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>848</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="S23" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="S23" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>628</v>
+      <c r="T23" s="11" t="s">
+        <v>1555</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>850</v>
+        <v>627</v>
       </c>
       <c r="V23" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="W23" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -6882,7 +6989,7 @@
         <v>467</v>
       </c>
       <c r="I24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J24" t="s">
         <v>511</v>
@@ -6891,28 +6998,31 @@
         <v>511</v>
       </c>
       <c r="O24" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="P24" t="s">
+        <v>703</v>
+      </c>
+      <c r="R24" t="s">
         <v>636</v>
-      </c>
-      <c r="P24" t="s">
-        <v>704</v>
-      </c>
-      <c r="R24" t="s">
-        <v>637</v>
       </c>
       <c r="S24" t="s">
         <v>41</v>
       </c>
-      <c r="T24" t="s">
-        <v>628</v>
+      <c r="T24" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U24" t="s">
+        <v>627</v>
+      </c>
+      <c r="V24" t="s">
         <v>41</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -6935,7 +7045,7 @@
         <v>474</v>
       </c>
       <c r="I25" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J25" t="s">
         <v>463</v>
@@ -6950,31 +7060,34 @@
         <v>457</v>
       </c>
       <c r="O25" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="P25" t="s">
         <v>851</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>852</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>853</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
+        <v>862</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U25" t="s">
+        <v>627</v>
+      </c>
+      <c r="V25" t="s">
+        <v>860</v>
+      </c>
+      <c r="W25" t="s">
         <v>854</v>
       </c>
-      <c r="S25" t="s">
-        <v>863</v>
-      </c>
-      <c r="T25" t="s">
-        <v>628</v>
-      </c>
-      <c r="U25" t="s">
-        <v>861</v>
-      </c>
-      <c r="V25" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -7000,7 +7113,7 @@
         <v>474</v>
       </c>
       <c r="I26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J26" t="s">
         <v>457</v>
@@ -7015,31 +7128,34 @@
         <v>456</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P26" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="Q26" t="s">
+        <v>637</v>
+      </c>
+      <c r="R26" t="s">
         <v>638</v>
-      </c>
-      <c r="R26" t="s">
-        <v>639</v>
       </c>
       <c r="S26" t="s">
         <v>602</v>
       </c>
-      <c r="T26" t="s">
-        <v>628</v>
+      <c r="T26" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U26" t="s">
+        <v>627</v>
+      </c>
+      <c r="V26" t="s">
+        <v>641</v>
+      </c>
+      <c r="W26" t="s">
         <v>642</v>
       </c>
-      <c r="V26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -7062,7 +7178,7 @@
         <v>474</v>
       </c>
       <c r="I27" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J27" t="s">
         <v>463</v>
@@ -7071,31 +7187,34 @@
         <v>456</v>
       </c>
       <c r="O27" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="P27" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q27" t="s">
         <v>856</v>
       </c>
-      <c r="P27" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>857</v>
       </c>
-      <c r="R27" t="s">
-        <v>858</v>
-      </c>
       <c r="S27" t="s">
-        <v>862</v>
-      </c>
-      <c r="T27" t="s">
-        <v>628</v>
+        <v>861</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U27" t="s">
+        <v>627</v>
+      </c>
+      <c r="V27" t="s">
+        <v>863</v>
+      </c>
+      <c r="W27" t="s">
         <v>864</v>
       </c>
-      <c r="V27" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -7112,7 +7231,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G28" t="s">
         <v>465</v>
@@ -7127,31 +7246,34 @@
         <v>456</v>
       </c>
       <c r="O28" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="P28" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>856</v>
+      </c>
+      <c r="R28" t="s">
         <v>868</v>
       </c>
-      <c r="P28" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>857</v>
-      </c>
-      <c r="R28" t="s">
-        <v>869</v>
-      </c>
       <c r="S28" t="s">
-        <v>862</v>
-      </c>
-      <c r="T28" t="s">
-        <v>628</v>
+        <v>861</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U28" t="s">
-        <v>864</v>
+        <v>627</v>
       </c>
       <c r="V28" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+      <c r="W28" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>282</v>
       </c>
@@ -7177,31 +7299,34 @@
         <v>456</v>
       </c>
       <c r="O29" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="P29" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>872</v>
+      </c>
+      <c r="R29" t="s">
         <v>870</v>
       </c>
-      <c r="P29" t="s">
-        <v>872</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="S29" t="s">
+        <v>699</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U29" t="s">
+        <v>627</v>
+      </c>
+      <c r="V29" t="s">
         <v>873</v>
       </c>
-      <c r="R29" t="s">
-        <v>871</v>
-      </c>
-      <c r="S29" t="s">
-        <v>700</v>
-      </c>
-      <c r="T29" t="s">
-        <v>628</v>
-      </c>
-      <c r="U29" t="s">
-        <v>874</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>364</v>
       </c>
@@ -7233,28 +7358,31 @@
         <v>451</v>
       </c>
       <c r="O30" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="P30" t="s">
         <v>875</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
+        <v>878</v>
+      </c>
+      <c r="S30" t="s">
         <v>876</v>
       </c>
-      <c r="R30" t="s">
-        <v>879</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="T30" s="10" t="s">
+        <v>1556</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V30" t="s">
         <v>877</v>
       </c>
-      <c r="T30" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U30" t="s">
-        <v>878</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -7280,31 +7408,34 @@
         <v>452</v>
       </c>
       <c r="O31" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="P31" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q31" t="s">
         <v>880</v>
       </c>
-      <c r="P31" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>881</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>882</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U31" t="s">
+        <v>627</v>
+      </c>
+      <c r="V31" t="s">
         <v>883</v>
       </c>
-      <c r="T31" t="s">
-        <v>628</v>
-      </c>
-      <c r="U31" t="s">
-        <v>884</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -7324,7 +7455,7 @@
         <v>507</v>
       </c>
       <c r="I32" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J32" t="s">
         <v>458</v>
@@ -7333,31 +7464,34 @@
         <v>454</v>
       </c>
       <c r="O32" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="P32" t="s">
         <v>885</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>886</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>887</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
+        <v>717</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V32" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="S32" t="s">
-        <v>718</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="V32" s="5" t="s">
+      <c r="W32" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -7380,7 +7514,7 @@
         <v>480</v>
       </c>
       <c r="I33" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J33" t="s">
         <v>457</v>
@@ -7389,31 +7523,34 @@
         <v>457</v>
       </c>
       <c r="O33" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="P33" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q33" t="s">
         <v>892</v>
       </c>
-      <c r="P33" t="s">
-        <v>876</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
+        <v>894</v>
+      </c>
+      <c r="S33" t="s">
+        <v>890</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="W33" t="s">
         <v>893</v>
       </c>
-      <c r="R33" t="s">
-        <v>895</v>
-      </c>
-      <c r="S33" t="s">
-        <v>891</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="V33" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>288</v>
       </c>
@@ -7436,7 +7573,7 @@
         <v>480</v>
       </c>
       <c r="I34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J34" t="s">
         <v>509</v>
@@ -7445,28 +7582,31 @@
         <v>451</v>
       </c>
       <c r="O34" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P34" t="s">
         <v>644</v>
       </c>
-      <c r="P34" t="s">
-        <v>645</v>
-      </c>
       <c r="R34" t="s">
+        <v>647</v>
+      </c>
+      <c r="S34" t="s">
         <v>648</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U34" t="s">
+        <v>627</v>
+      </c>
+      <c r="V34" t="s">
         <v>649</v>
       </c>
-      <c r="T34" t="s">
-        <v>628</v>
-      </c>
-      <c r="U34" t="s">
-        <v>650</v>
-      </c>
-      <c r="V34" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -7486,40 +7626,43 @@
         <v>466</v>
       </c>
       <c r="I35" t="s">
+        <v>901</v>
+      </c>
+      <c r="J35" t="s">
+        <v>457</v>
+      </c>
+      <c r="L35" t="s">
+        <v>457</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="P35" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>898</v>
+      </c>
+      <c r="R35" t="s">
+        <v>899</v>
+      </c>
+      <c r="S35" t="s">
+        <v>900</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U35" t="s">
+        <v>627</v>
+      </c>
+      <c r="V35" t="s">
         <v>902</v>
       </c>
-      <c r="J35" t="s">
-        <v>457</v>
-      </c>
-      <c r="L35" t="s">
-        <v>457</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="P35" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>899</v>
-      </c>
-      <c r="R35" t="s">
-        <v>900</v>
-      </c>
-      <c r="S35" t="s">
-        <v>901</v>
-      </c>
-      <c r="T35" t="s">
-        <v>628</v>
-      </c>
-      <c r="U35" t="s">
-        <v>903</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -7545,31 +7688,34 @@
         <v>457</v>
       </c>
       <c r="O36" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="P36" t="s">
         <v>904</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>905</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>906</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>907</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U36" t="s">
+        <v>627</v>
+      </c>
+      <c r="V36" t="s">
         <v>908</v>
       </c>
-      <c r="T36" t="s">
-        <v>628</v>
-      </c>
-      <c r="U36" t="s">
-        <v>909</v>
-      </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>291</v>
       </c>
@@ -7589,7 +7735,7 @@
         <v>480</v>
       </c>
       <c r="I37" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J37" t="s">
         <v>457</v>
@@ -7598,31 +7744,34 @@
         <v>457</v>
       </c>
       <c r="O37" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="P37" t="s">
         <v>910</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
+        <v>912</v>
+      </c>
+      <c r="R37" t="s">
+        <v>914</v>
+      </c>
+      <c r="S37" t="s">
+        <v>913</v>
+      </c>
+      <c r="T37" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V37" t="s">
+        <v>915</v>
+      </c>
+      <c r="W37" t="s">
         <v>911</v>
       </c>
-      <c r="Q37" t="s">
-        <v>913</v>
-      </c>
-      <c r="R37" t="s">
-        <v>915</v>
-      </c>
-      <c r="S37" t="s">
-        <v>914</v>
-      </c>
-      <c r="T37" t="s">
-        <v>1551</v>
-      </c>
-      <c r="U37" t="s">
-        <v>916</v>
-      </c>
-      <c r="V37" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -7642,7 +7791,7 @@
         <v>466</v>
       </c>
       <c r="I38" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J38" t="s">
         <v>457</v>
@@ -7657,28 +7806,31 @@
         <v>452</v>
       </c>
       <c r="O38" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="P38" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>919</v>
+      </c>
+      <c r="R38" t="s">
         <v>918</v>
       </c>
-      <c r="P38" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>920</v>
-      </c>
-      <c r="R38" t="s">
-        <v>919</v>
-      </c>
       <c r="S38" t="s">
-        <v>901</v>
-      </c>
-      <c r="T38" t="s">
-        <v>628</v>
+        <v>900</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U38" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+      <c r="V38" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -7701,7 +7853,7 @@
         <v>467</v>
       </c>
       <c r="I39" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J39" t="s">
         <v>453</v>
@@ -7710,28 +7862,31 @@
         <v>450</v>
       </c>
       <c r="O39" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="P39" t="s">
+        <v>924</v>
+      </c>
+      <c r="R39" t="s">
         <v>923</v>
       </c>
-      <c r="P39" t="s">
+      <c r="S39" t="s">
+        <v>913</v>
+      </c>
+      <c r="T39" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U39" t="s">
+        <v>627</v>
+      </c>
+      <c r="V39" t="s">
+        <v>927</v>
+      </c>
+      <c r="W39" t="s">
         <v>925</v>
       </c>
-      <c r="R39" t="s">
-        <v>924</v>
-      </c>
-      <c r="S39" t="s">
-        <v>914</v>
-      </c>
-      <c r="T39" t="s">
-        <v>628</v>
-      </c>
-      <c r="U39" t="s">
-        <v>928</v>
-      </c>
-      <c r="V39" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>367</v>
       </c>
@@ -7751,40 +7906,43 @@
         <v>466</v>
       </c>
       <c r="I40" t="s">
+        <v>932</v>
+      </c>
+      <c r="J40" t="s">
+        <v>457</v>
+      </c>
+      <c r="L40" t="s">
+        <v>457</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="P40" t="s">
+        <v>930</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>931</v>
+      </c>
+      <c r="R40" t="s">
+        <v>929</v>
+      </c>
+      <c r="S40" t="s">
         <v>933</v>
       </c>
-      <c r="J40" t="s">
-        <v>457</v>
-      </c>
-      <c r="L40" t="s">
-        <v>457</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="P40" t="s">
-        <v>931</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>932</v>
-      </c>
-      <c r="R40" t="s">
-        <v>930</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="T40" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U40" t="s">
+        <v>627</v>
+      </c>
+      <c r="V40" t="s">
         <v>934</v>
       </c>
-      <c r="T40" t="s">
-        <v>628</v>
-      </c>
-      <c r="U40" t="s">
-        <v>935</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>370</v>
       </c>
@@ -7807,7 +7965,7 @@
         <v>475</v>
       </c>
       <c r="I41" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J41" t="s">
         <v>457</v>
@@ -7822,31 +7980,34 @@
         <v>456</v>
       </c>
       <c r="O41" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="P41" t="s">
         <v>936</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>937</v>
       </c>
-      <c r="Q41" t="s">
-        <v>938</v>
-      </c>
       <c r="R41" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="S41" t="s">
-        <v>914</v>
-      </c>
-      <c r="T41" t="s">
-        <v>1552</v>
+        <v>913</v>
+      </c>
+      <c r="T41" s="10" t="s">
+        <v>1558</v>
       </c>
       <c r="U41" t="s">
-        <v>940</v>
+        <v>1551</v>
       </c>
       <c r="V41" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>294</v>
       </c>
@@ -7869,7 +8030,7 @@
         <v>468</v>
       </c>
       <c r="I42" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J42" t="s">
         <v>460</v>
@@ -7878,28 +8039,31 @@
         <v>452</v>
       </c>
       <c r="O42" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="P42" t="s">
+        <v>703</v>
+      </c>
+      <c r="R42" t="s">
+        <v>945</v>
+      </c>
+      <c r="S42" t="s">
         <v>943</v>
       </c>
-      <c r="P42" t="s">
-        <v>704</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="T42" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U42" t="s">
+        <v>627</v>
+      </c>
+      <c r="V42" t="s">
         <v>946</v>
       </c>
-      <c r="S42" t="s">
-        <v>944</v>
-      </c>
-      <c r="T42" t="s">
-        <v>628</v>
-      </c>
-      <c r="U42" t="s">
-        <v>947</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -7922,37 +8086,40 @@
         <v>466</v>
       </c>
       <c r="I43" t="s">
+        <v>950</v>
+      </c>
+      <c r="J43" t="s">
+        <v>457</v>
+      </c>
+      <c r="L43" t="s">
+        <v>457</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="P43" t="s">
+        <v>622</v>
+      </c>
+      <c r="R43" t="s">
+        <v>949</v>
+      </c>
+      <c r="S43" t="s">
+        <v>948</v>
+      </c>
+      <c r="T43" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U43" t="s">
+        <v>627</v>
+      </c>
+      <c r="V43" t="s">
         <v>951</v>
       </c>
-      <c r="J43" t="s">
-        <v>457</v>
-      </c>
-      <c r="L43" t="s">
-        <v>457</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="P43" t="s">
-        <v>623</v>
-      </c>
-      <c r="R43" t="s">
-        <v>950</v>
-      </c>
-      <c r="S43" t="s">
-        <v>949</v>
-      </c>
-      <c r="T43" t="s">
-        <v>628</v>
-      </c>
-      <c r="U43" t="s">
-        <v>952</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -7972,7 +8139,7 @@
         <v>466</v>
       </c>
       <c r="I44" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J44" t="s">
         <v>460</v>
@@ -7981,28 +8148,31 @@
         <v>452</v>
       </c>
       <c r="O44" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="P44" t="s">
+        <v>703</v>
+      </c>
+      <c r="R44" t="s">
         <v>953</v>
       </c>
-      <c r="P44" t="s">
-        <v>704</v>
-      </c>
-      <c r="R44" t="s">
-        <v>954</v>
-      </c>
       <c r="S44" t="s">
-        <v>944</v>
-      </c>
-      <c r="T44" t="s">
-        <v>628</v>
+        <v>943</v>
+      </c>
+      <c r="T44" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U44" t="s">
-        <v>947</v>
+        <v>627</v>
       </c>
       <c r="V44" t="s">
+        <v>946</v>
+      </c>
+      <c r="W44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -8013,7 +8183,7 @@
         <v>1998</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -8022,7 +8192,7 @@
         <v>466</v>
       </c>
       <c r="I45" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J45" t="s">
         <v>457</v>
@@ -8037,31 +8207,34 @@
         <v>456</v>
       </c>
       <c r="O45" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="P45" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q45" t="s">
         <v>957</v>
       </c>
-      <c r="P45" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
+        <v>955</v>
+      </c>
+      <c r="S45" t="s">
+        <v>900</v>
+      </c>
+      <c r="T45" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U45" t="s">
+        <v>627</v>
+      </c>
+      <c r="V45" t="s">
         <v>958</v>
       </c>
-      <c r="R45" t="s">
-        <v>956</v>
-      </c>
-      <c r="S45" t="s">
-        <v>901</v>
-      </c>
-      <c r="T45" t="s">
-        <v>628</v>
-      </c>
-      <c r="U45" t="s">
-        <v>959</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -8093,31 +8266,34 @@
         <v>456</v>
       </c>
       <c r="O46" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="P46" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q46" t="s">
         <v>961</v>
       </c>
-      <c r="P46" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>962</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>963</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U46" t="s">
+        <v>627</v>
+      </c>
+      <c r="V46" t="s">
         <v>964</v>
       </c>
-      <c r="T46" t="s">
-        <v>628</v>
-      </c>
-      <c r="U46" t="s">
-        <v>965</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -8149,31 +8325,34 @@
         <v>456</v>
       </c>
       <c r="O47" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="P47" t="s">
         <v>967</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>968</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
+        <v>970</v>
+      </c>
+      <c r="S47" t="s">
         <v>969</v>
       </c>
-      <c r="R47" t="s">
+      <c r="T47" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U47" t="s">
+        <v>627</v>
+      </c>
+      <c r="V47" t="s">
         <v>971</v>
       </c>
-      <c r="S47" t="s">
-        <v>970</v>
-      </c>
-      <c r="T47" t="s">
-        <v>628</v>
-      </c>
-      <c r="U47" t="s">
-        <v>972</v>
-      </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -8205,28 +8384,31 @@
         <v>456</v>
       </c>
       <c r="O48" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="P48" t="s">
+        <v>770</v>
+      </c>
+      <c r="R48" t="s">
         <v>973</v>
       </c>
-      <c r="P48" t="s">
-        <v>771</v>
-      </c>
-      <c r="R48" t="s">
-        <v>974</v>
-      </c>
       <c r="S48" t="s">
-        <v>970</v>
-      </c>
-      <c r="T48" t="s">
-        <v>628</v>
+        <v>969</v>
+      </c>
+      <c r="T48" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U48" t="s">
-        <v>972</v>
+        <v>627</v>
       </c>
       <c r="V48" t="s">
+        <v>971</v>
+      </c>
+      <c r="W48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>373</v>
       </c>
@@ -8261,28 +8443,31 @@
         <v>452</v>
       </c>
       <c r="O49" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="P49" t="s">
         <v>975</v>
       </c>
-      <c r="P49" t="s">
+      <c r="R49" t="s">
+        <v>978</v>
+      </c>
+      <c r="S49" t="s">
         <v>976</v>
       </c>
-      <c r="R49" t="s">
-        <v>979</v>
-      </c>
-      <c r="S49" t="s">
+      <c r="T49" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U49" t="s">
+        <v>627</v>
+      </c>
+      <c r="V49" t="s">
         <v>977</v>
       </c>
-      <c r="T49" t="s">
-        <v>628</v>
-      </c>
-      <c r="U49" t="s">
-        <v>978</v>
-      </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -8302,7 +8487,7 @@
         <v>501</v>
       </c>
       <c r="I50" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J50" t="s">
         <v>457</v>
@@ -8317,28 +8502,31 @@
         <v>455</v>
       </c>
       <c r="O50" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="P50" t="s">
+        <v>711</v>
+      </c>
+      <c r="R50" t="s">
+        <v>983</v>
+      </c>
+      <c r="S50" t="s">
+        <v>979</v>
+      </c>
+      <c r="T50" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U50" t="s">
+        <v>627</v>
+      </c>
+      <c r="V50" t="s">
+        <v>984</v>
+      </c>
+      <c r="W50" t="s">
         <v>982</v>
       </c>
-      <c r="P50" t="s">
-        <v>712</v>
-      </c>
-      <c r="R50" t="s">
-        <v>984</v>
-      </c>
-      <c r="S50" t="s">
-        <v>980</v>
-      </c>
-      <c r="T50" t="s">
-        <v>628</v>
-      </c>
-      <c r="U50" t="s">
-        <v>985</v>
-      </c>
-      <c r="V50" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>297</v>
       </c>
@@ -8361,40 +8549,43 @@
         <v>480</v>
       </c>
       <c r="I51" t="s">
+        <v>986</v>
+      </c>
+      <c r="J51" t="s">
+        <v>457</v>
+      </c>
+      <c r="L51" t="s">
+        <v>457</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="P51" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>988</v>
+      </c>
+      <c r="R51" t="s">
+        <v>989</v>
+      </c>
+      <c r="S51" t="s">
+        <v>965</v>
+      </c>
+      <c r="T51" s="10" t="s">
+        <v>1553</v>
+      </c>
+      <c r="U51" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V51" t="s">
+        <v>990</v>
+      </c>
+      <c r="W51" t="s">
         <v>987</v>
       </c>
-      <c r="J51" t="s">
-        <v>457</v>
-      </c>
-      <c r="L51" t="s">
-        <v>457</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>986</v>
-      </c>
-      <c r="P51" t="s">
-        <v>905</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>989</v>
-      </c>
-      <c r="R51" t="s">
-        <v>990</v>
-      </c>
-      <c r="S51" t="s">
-        <v>966</v>
-      </c>
-      <c r="T51" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U51" t="s">
-        <v>991</v>
-      </c>
-      <c r="V51" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -8417,7 +8608,7 @@
         <v>480</v>
       </c>
       <c r="I52" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J52" t="s">
         <v>457</v>
@@ -8426,28 +8617,31 @@
         <v>457</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P52" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R52" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="S52" t="s">
-        <v>837</v>
-      </c>
-      <c r="T52" t="s">
-        <v>628</v>
+        <v>836</v>
+      </c>
+      <c r="T52" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U52" t="s">
-        <v>995</v>
+        <v>627</v>
       </c>
       <c r="V52" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W52" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>206</v>
       </c>
@@ -8467,31 +8661,34 @@
         <v>480</v>
       </c>
       <c r="I53" t="s">
+        <v>998</v>
+      </c>
+      <c r="J53" t="s">
+        <v>457</v>
+      </c>
+      <c r="L53" t="s">
+        <v>457</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="P53" t="s">
+        <v>703</v>
+      </c>
+      <c r="T53" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U53" t="s">
+        <v>627</v>
+      </c>
+      <c r="V53" t="s">
         <v>999</v>
       </c>
-      <c r="J53" t="s">
-        <v>457</v>
-      </c>
-      <c r="L53" t="s">
-        <v>457</v>
-      </c>
-      <c r="O53" s="8" t="s">
+      <c r="W53" t="s">
         <v>997</v>
       </c>
-      <c r="P53" t="s">
-        <v>704</v>
-      </c>
-      <c r="T53" t="s">
-        <v>628</v>
-      </c>
-      <c r="U53" t="s">
-        <v>1000</v>
-      </c>
-      <c r="V53" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -8517,31 +8714,34 @@
         <v>455</v>
       </c>
       <c r="O54" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P54" t="s">
         <v>1001</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>1002</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>1003</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>1004</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="U54" t="s">
+        <v>627</v>
+      </c>
+      <c r="V54" t="s">
         <v>1005</v>
       </c>
-      <c r="T54" t="s">
-        <v>628</v>
-      </c>
-      <c r="U54" t="s">
-        <v>1006</v>
-      </c>
-      <c r="V54" t="s">
+      <c r="W54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>175</v>
       </c>
@@ -8573,31 +8773,34 @@
         <v>451</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P55" t="s">
         <v>1007</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>1008</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>1009</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>1010</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" s="10" t="s">
+        <v>1553</v>
+      </c>
+      <c r="U55" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V55" t="s">
         <v>1011</v>
       </c>
-      <c r="T55" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U55" t="s">
+      <c r="W55" t="s">
         <v>1012</v>
       </c>
-      <c r="V55" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -8617,7 +8820,7 @@
         <v>501</v>
       </c>
       <c r="I56" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J56" t="s">
         <v>458</v>
@@ -8626,28 +8829,31 @@
         <v>454</v>
       </c>
       <c r="O56" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1015</v>
+      </c>
+      <c r="R56" t="s">
         <v>1014</v>
       </c>
-      <c r="P56" t="s">
+      <c r="S56" t="s">
         <v>1016</v>
       </c>
-      <c r="R56" t="s">
-        <v>1015</v>
-      </c>
-      <c r="S56" t="s">
+      <c r="T56" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U56" t="s">
+        <v>627</v>
+      </c>
+      <c r="V56" t="s">
         <v>1017</v>
       </c>
-      <c r="T56" t="s">
-        <v>628</v>
-      </c>
-      <c r="U56" t="s">
+      <c r="W56" t="s">
         <v>1018</v>
       </c>
-      <c r="V56" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>212</v>
       </c>
@@ -8673,31 +8879,34 @@
         <v>455</v>
       </c>
       <c r="O57" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P57" t="s">
         <v>1021</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>1022</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>1023</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>1024</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U57" t="s">
+        <v>627</v>
+      </c>
+      <c r="V57" t="s">
         <v>1025</v>
       </c>
-      <c r="T57" t="s">
-        <v>628</v>
-      </c>
-      <c r="U57" t="s">
-        <v>1026</v>
-      </c>
-      <c r="V57" t="s">
+      <c r="W57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>376</v>
       </c>
@@ -8717,7 +8926,7 @@
         <v>466</v>
       </c>
       <c r="I58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J58" t="s">
         <v>457</v>
@@ -8726,31 +8935,34 @@
         <v>457</v>
       </c>
       <c r="O58" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="P58" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>652</v>
+      </c>
+      <c r="R58" t="s">
+        <v>653</v>
+      </c>
+      <c r="S58" t="s">
         <v>655</v>
       </c>
-      <c r="P58" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>653</v>
-      </c>
-      <c r="R58" t="s">
-        <v>654</v>
-      </c>
-      <c r="S58" t="s">
-        <v>656</v>
-      </c>
-      <c r="T58" t="s">
-        <v>628</v>
+      <c r="T58" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U58" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="V58" t="s">
+        <v>650</v>
+      </c>
+      <c r="W58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>379</v>
       </c>
@@ -8770,7 +8982,7 @@
         <v>474</v>
       </c>
       <c r="I59" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J59" t="s">
         <v>462</v>
@@ -8782,31 +8994,34 @@
         <v>451</v>
       </c>
       <c r="O59" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1543</v>
+      </c>
+      <c r="Q59" t="s">
         <v>1027</v>
       </c>
-      <c r="P59" t="s">
-        <v>1544</v>
-      </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>1028</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>1029</v>
       </c>
-      <c r="S59" t="s">
-        <v>1030</v>
-      </c>
-      <c r="T59" t="s">
-        <v>628</v>
+      <c r="T59" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U59" t="s">
+        <v>627</v>
+      </c>
+      <c r="V59" t="s">
         <v>41</v>
       </c>
-      <c r="V59" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W59" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>300</v>
       </c>
@@ -8832,31 +9047,34 @@
         <v>456</v>
       </c>
       <c r="O60" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P60" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>1034</v>
+      </c>
+      <c r="R60" t="s">
         <v>1033</v>
       </c>
-      <c r="P60" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q60" t="s">
+      <c r="S60" t="s">
+        <v>717</v>
+      </c>
+      <c r="T60" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U60" t="s">
+        <v>627</v>
+      </c>
+      <c r="V60" t="s">
         <v>1035</v>
       </c>
-      <c r="R60" t="s">
-        <v>1034</v>
-      </c>
-      <c r="S60" t="s">
-        <v>718</v>
-      </c>
-      <c r="T60" t="s">
-        <v>628</v>
-      </c>
-      <c r="U60" t="s">
-        <v>1036</v>
-      </c>
-      <c r="V60" t="s">
+      <c r="W60" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -8876,7 +9094,7 @@
         <v>466</v>
       </c>
       <c r="I61" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J61" t="s">
         <v>461</v>
@@ -8891,31 +9109,34 @@
         <v>457</v>
       </c>
       <c r="O61" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P61" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q61" t="s">
         <v>1037</v>
       </c>
-      <c r="P61" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>1038</v>
       </c>
-      <c r="R61" t="s">
-        <v>1039</v>
-      </c>
       <c r="S61" t="s">
-        <v>803</v>
-      </c>
-      <c r="T61" t="s">
-        <v>628</v>
+        <v>802</v>
+      </c>
+      <c r="T61" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U61" t="s">
-        <v>1041</v>
+        <v>627</v>
       </c>
       <c r="V61" t="s">
+        <v>1040</v>
+      </c>
+      <c r="W61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>303</v>
       </c>
@@ -8935,7 +9156,7 @@
         <v>480</v>
       </c>
       <c r="I62" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J62" t="s">
         <v>457</v>
@@ -8950,31 +9171,34 @@
         <v>452</v>
       </c>
       <c r="O62" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="P62" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R62" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S62" t="s">
         <v>1042</v>
       </c>
-      <c r="P62" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q62" t="s">
+      <c r="T62" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="U62" t="s">
+        <v>627</v>
+      </c>
+      <c r="V62" t="s">
+        <v>1044</v>
+      </c>
+      <c r="W62" t="s">
         <v>1047</v>
       </c>
-      <c r="R62" t="s">
-        <v>1046</v>
-      </c>
-      <c r="S62" t="s">
-        <v>1043</v>
-      </c>
-      <c r="T62" t="s">
-        <v>628</v>
-      </c>
-      <c r="U62" t="s">
-        <v>1045</v>
-      </c>
-      <c r="V62" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -8994,7 +9218,7 @@
         <v>466</v>
       </c>
       <c r="I63" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J63" t="s">
         <v>457</v>
@@ -9009,31 +9233,34 @@
         <v>452</v>
       </c>
       <c r="O63" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P63" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q63" t="s">
         <v>1049</v>
       </c>
-      <c r="P63" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>1050</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>1051</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="U63" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V63" t="s">
         <v>1052</v>
       </c>
-      <c r="T63" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U63" t="s">
-        <v>1053</v>
-      </c>
-      <c r="V63" t="s">
+      <c r="W63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -9056,7 +9283,7 @@
         <v>467</v>
       </c>
       <c r="I64" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J64" t="s">
         <v>511</v>
@@ -9065,16 +9292,19 @@
         <v>511</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="P64" t="s">
-        <v>771</v>
-      </c>
-      <c r="T64" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="T64" s="10" t="s">
+        <v>1559</v>
+      </c>
+      <c r="U64" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -9094,7 +9324,7 @@
         <v>468</v>
       </c>
       <c r="I65" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="J65" t="s">
         <v>453</v>
@@ -9103,28 +9333,31 @@
         <v>453</v>
       </c>
       <c r="O65" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P65" t="s">
+        <v>770</v>
+      </c>
+      <c r="R65" t="s">
         <v>1057</v>
       </c>
-      <c r="P65" t="s">
-        <v>771</v>
-      </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
+        <v>717</v>
+      </c>
+      <c r="T65" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U65" t="s">
+        <v>627</v>
+      </c>
+      <c r="V65" t="s">
         <v>1058</v>
       </c>
-      <c r="S65" t="s">
-        <v>718</v>
-      </c>
-      <c r="T65" t="s">
-        <v>628</v>
-      </c>
-      <c r="U65" t="s">
-        <v>1059</v>
-      </c>
-      <c r="V65" t="s">
+      <c r="W65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -9150,40 +9383,43 @@
         <v>466</v>
       </c>
       <c r="I66" t="s">
+        <v>662</v>
+      </c>
+      <c r="J66" t="s">
+        <v>457</v>
+      </c>
+      <c r="L66" t="s">
+        <v>457</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1544</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>656</v>
+      </c>
+      <c r="R66" t="s">
+        <v>659</v>
+      </c>
+      <c r="S66" t="s">
+        <v>660</v>
+      </c>
+      <c r="T66" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U66" t="s">
+        <v>627</v>
+      </c>
+      <c r="V66" t="s">
+        <v>661</v>
+      </c>
+      <c r="W66" t="s">
         <v>663</v>
       </c>
-      <c r="J66" t="s">
-        <v>457</v>
-      </c>
-      <c r="L66" t="s">
-        <v>457</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="P66" t="s">
-        <v>1545</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>657</v>
-      </c>
-      <c r="R66" t="s">
-        <v>660</v>
-      </c>
-      <c r="S66" t="s">
-        <v>661</v>
-      </c>
-      <c r="T66" t="s">
-        <v>628</v>
-      </c>
-      <c r="U66" t="s">
-        <v>662</v>
-      </c>
-      <c r="V66" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>382</v>
       </c>
@@ -9206,7 +9442,7 @@
         <v>480</v>
       </c>
       <c r="I67" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="J67" t="s">
         <v>457</v>
@@ -9218,31 +9454,34 @@
         <v>457</v>
       </c>
       <c r="O67" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Q67" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="P67" s="5" t="s">
-        <v>1536</v>
-      </c>
-      <c r="Q67" s="5" t="s">
+      <c r="R67" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="R67" s="5" t="s">
-        <v>1063</v>
-      </c>
       <c r="S67" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T67" s="11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V67" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="T67" s="5" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U67" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="V67" s="5" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W67" s="5" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -9262,7 +9501,7 @@
         <v>466</v>
       </c>
       <c r="I68" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J68" t="s">
         <v>461</v>
@@ -9271,31 +9510,34 @@
         <v>455</v>
       </c>
       <c r="O68" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="P68" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="Q68" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="R68" s="5" t="s">
         <v>1070</v>
       </c>
-      <c r="R68" s="5" t="s">
+      <c r="S68" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="T68" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V68" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="S68" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="T68" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U68" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="V68" s="5" t="s">
+      <c r="W68" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>385</v>
       </c>
@@ -9315,40 +9557,43 @@
         <v>466</v>
       </c>
       <c r="I69" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J69" t="s">
+        <v>457</v>
+      </c>
+      <c r="L69" t="s">
+        <v>457</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="R69" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S69" s="5" t="s">
         <v>1078</v>
       </c>
-      <c r="J69" t="s">
-        <v>457</v>
-      </c>
-      <c r="L69" t="s">
-        <v>457</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P69" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="R69" t="s">
-        <v>1078</v>
-      </c>
-      <c r="S69" s="5" t="s">
+      <c r="T69" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="U69" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="V69" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="T69" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="U69" s="5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="V69" s="5" t="s">
+      <c r="W69" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -9368,7 +9613,7 @@
         <v>467</v>
       </c>
       <c r="I70" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J70" t="s">
         <v>511</v>
@@ -9377,31 +9622,34 @@
         <v>511</v>
       </c>
       <c r="N70" t="s">
+        <v>665</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="P70" t="s">
+        <v>622</v>
+      </c>
+      <c r="R70" t="s">
         <v>666</v>
       </c>
-      <c r="O70" s="8" t="s">
+      <c r="S70" t="s">
         <v>668</v>
       </c>
-      <c r="P70" t="s">
-        <v>623</v>
-      </c>
-      <c r="R70" t="s">
-        <v>667</v>
-      </c>
-      <c r="S70" t="s">
+      <c r="T70" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U70" t="s">
+        <v>627</v>
+      </c>
+      <c r="V70" t="s">
         <v>669</v>
       </c>
-      <c r="T70" t="s">
-        <v>628</v>
-      </c>
-      <c r="U70" t="s">
-        <v>670</v>
-      </c>
-      <c r="V70" t="s">
+      <c r="W70" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -9421,40 +9669,43 @@
         <v>466</v>
       </c>
       <c r="I71" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J71" t="s">
+        <v>457</v>
+      </c>
+      <c r="L71" t="s">
+        <v>457</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Q71" t="s">
         <v>1085</v>
       </c>
-      <c r="J71" t="s">
-        <v>457</v>
-      </c>
-      <c r="L71" t="s">
-        <v>457</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="P71" t="s">
+      <c r="R71" t="s">
+        <v>1083</v>
+      </c>
+      <c r="S71" t="s">
         <v>1082</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="T71" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U71" t="s">
+        <v>627</v>
+      </c>
+      <c r="V71" t="s">
         <v>1086</v>
       </c>
-      <c r="R71" t="s">
-        <v>1084</v>
-      </c>
-      <c r="S71" t="s">
-        <v>1083</v>
-      </c>
-      <c r="T71" t="s">
-        <v>628</v>
-      </c>
-      <c r="U71" t="s">
-        <v>1087</v>
-      </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -9474,7 +9725,7 @@
         <v>469</v>
       </c>
       <c r="I72" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J72" t="s">
         <v>511</v>
@@ -9483,28 +9734,31 @@
         <v>511</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="P72" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R72" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="S72" t="s">
         <v>41</v>
       </c>
-      <c r="T72" t="s">
-        <v>628</v>
+      <c r="T72" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U72" t="s">
-        <v>1091</v>
+        <v>627</v>
       </c>
       <c r="V72" t="s">
+        <v>1090</v>
+      </c>
+      <c r="W72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>388</v>
       </c>
@@ -9530,31 +9784,34 @@
         <v>456</v>
       </c>
       <c r="O73" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P73" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q73" t="s">
         <v>1092</v>
       </c>
-      <c r="P73" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>1093</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
+        <v>913</v>
+      </c>
+      <c r="T73" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U73" t="s">
+        <v>627</v>
+      </c>
+      <c r="V73" t="s">
         <v>1094</v>
       </c>
-      <c r="S73" t="s">
-        <v>914</v>
-      </c>
-      <c r="T73" t="s">
-        <v>628</v>
-      </c>
-      <c r="U73" t="s">
-        <v>1095</v>
-      </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -9577,7 +9834,7 @@
         <v>469</v>
       </c>
       <c r="I74" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="J74" t="s">
         <v>511</v>
@@ -9586,28 +9843,31 @@
         <v>511</v>
       </c>
       <c r="O74" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1536</v>
+      </c>
+      <c r="R74" t="s">
         <v>1096</v>
       </c>
-      <c r="P74" t="s">
-        <v>1537</v>
-      </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>1097</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U74" t="s">
+        <v>627</v>
+      </c>
+      <c r="V74" t="s">
         <v>1098</v>
       </c>
-      <c r="T74" t="s">
-        <v>628</v>
-      </c>
-      <c r="U74" t="s">
-        <v>1099</v>
-      </c>
-      <c r="V74" t="s">
+      <c r="W74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>218</v>
       </c>
@@ -9627,7 +9887,7 @@
         <v>480</v>
       </c>
       <c r="I75" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J75" t="s">
         <v>463</v>
@@ -9639,28 +9899,31 @@
         <v>456</v>
       </c>
       <c r="O75" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P75" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q75" t="s">
         <v>1101</v>
       </c>
-      <c r="P75" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q75" t="s">
+      <c r="S75" t="s">
         <v>1102</v>
       </c>
-      <c r="S75" t="s">
-        <v>1103</v>
-      </c>
-      <c r="T75" t="s">
-        <v>628</v>
+      <c r="T75" s="10" t="s">
+        <v>1557</v>
       </c>
       <c r="U75" t="s">
-        <v>1105</v>
+        <v>627</v>
       </c>
       <c r="V75" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W75" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>391</v>
       </c>
@@ -9680,40 +9943,43 @@
         <v>480</v>
       </c>
       <c r="I76" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J76" t="s">
+        <v>457</v>
+      </c>
+      <c r="L76" t="s">
+        <v>457</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P76" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R76" t="s">
+        <v>1110</v>
+      </c>
+      <c r="S76" t="s">
+        <v>1112</v>
+      </c>
+      <c r="T76" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="U76" t="s">
+        <v>627</v>
+      </c>
+      <c r="V76" t="s">
         <v>1108</v>
       </c>
-      <c r="J76" t="s">
-        <v>457</v>
-      </c>
-      <c r="L76" t="s">
-        <v>457</v>
-      </c>
-      <c r="O76" s="8" t="s">
+      <c r="W76" t="s">
         <v>1106</v>
       </c>
-      <c r="P76" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>1110</v>
-      </c>
-      <c r="R76" t="s">
-        <v>1111</v>
-      </c>
-      <c r="S76" t="s">
-        <v>1113</v>
-      </c>
-      <c r="T76" t="s">
-        <v>628</v>
-      </c>
-      <c r="U76" t="s">
-        <v>1109</v>
-      </c>
-      <c r="V76" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -9739,31 +10005,34 @@
         <v>450</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="P77" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q77" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R77" t="s">
         <v>1114</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
+        <v>843</v>
+      </c>
+      <c r="T77" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U77" t="s">
+        <v>627</v>
+      </c>
+      <c r="V77" t="s">
         <v>1115</v>
       </c>
-      <c r="S77" t="s">
-        <v>844</v>
-      </c>
-      <c r="T77" t="s">
-        <v>628</v>
-      </c>
-      <c r="U77" t="s">
-        <v>1116</v>
-      </c>
-      <c r="V77" t="s">
+      <c r="W77" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>394</v>
       </c>
@@ -9786,34 +10055,37 @@
         <v>467</v>
       </c>
       <c r="I78" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J78" t="s">
+        <v>457</v>
+      </c>
+      <c r="L78" t="s">
+        <v>457</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T78" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U78" t="s">
+        <v>627</v>
+      </c>
+      <c r="V78" t="s">
         <v>1119</v>
       </c>
-      <c r="J78" t="s">
-        <v>457</v>
-      </c>
-      <c r="L78" t="s">
-        <v>457</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>1117</v>
-      </c>
-      <c r="P78" t="s">
-        <v>1076</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>1118</v>
-      </c>
-      <c r="T78" t="s">
-        <v>628</v>
-      </c>
-      <c r="U78" t="s">
-        <v>1120</v>
-      </c>
-      <c r="V78" t="s">
+      <c r="W78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -9839,28 +10111,31 @@
         <v>456</v>
       </c>
       <c r="O79" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P79" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1122</v>
+      </c>
+      <c r="R79" t="s">
+        <v>1120</v>
+      </c>
+      <c r="S79" t="s">
+        <v>1121</v>
+      </c>
+      <c r="T79" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U79" t="s">
+        <v>627</v>
+      </c>
+      <c r="V79" t="s">
         <v>1124</v>
       </c>
-      <c r="P79" t="s">
-        <v>743</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>1123</v>
-      </c>
-      <c r="R79" t="s">
-        <v>1121</v>
-      </c>
-      <c r="S79" t="s">
-        <v>1122</v>
-      </c>
-      <c r="T79" t="s">
-        <v>628</v>
-      </c>
-      <c r="U79" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -9883,40 +10158,43 @@
         <v>468</v>
       </c>
       <c r="I80" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J80" t="s">
+        <v>457</v>
+      </c>
+      <c r="L80" t="s">
+        <v>457</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="P80" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q80" t="s">
         <v>1127</v>
       </c>
-      <c r="J80" t="s">
-        <v>457</v>
-      </c>
-      <c r="L80" t="s">
-        <v>457</v>
-      </c>
-      <c r="O80" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="P80" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>1128</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
+        <v>836</v>
+      </c>
+      <c r="T80" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U80" t="s">
+        <v>627</v>
+      </c>
+      <c r="V80" t="s">
         <v>1129</v>
       </c>
-      <c r="S80" t="s">
-        <v>837</v>
-      </c>
-      <c r="T80" t="s">
-        <v>628</v>
-      </c>
-      <c r="U80" t="s">
-        <v>1130</v>
-      </c>
-      <c r="V80" t="s">
+      <c r="W80" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -9936,7 +10214,7 @@
         <v>501</v>
       </c>
       <c r="I81" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J81" t="s">
         <v>511</v>
@@ -9945,28 +10223,31 @@
         <v>511</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P81" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="R81" t="s">
+        <v>1133</v>
+      </c>
+      <c r="S81" t="s">
         <v>1134</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U81" t="s">
+        <v>627</v>
+      </c>
+      <c r="V81" t="s">
         <v>1135</v>
       </c>
-      <c r="T81" t="s">
-        <v>628</v>
-      </c>
-      <c r="U81" t="s">
-        <v>1136</v>
-      </c>
-      <c r="V81" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="W81" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>309</v>
       </c>
@@ -9989,40 +10270,43 @@
         <v>501</v>
       </c>
       <c r="I82" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J82" t="s">
+        <v>457</v>
+      </c>
+      <c r="L82" t="s">
+        <v>457</v>
+      </c>
+      <c r="O82" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P82" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1138</v>
+      </c>
+      <c r="R82" t="s">
+        <v>1137</v>
+      </c>
+      <c r="S82" t="s">
+        <v>1134</v>
+      </c>
+      <c r="T82" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U82" t="s">
+        <v>627</v>
+      </c>
+      <c r="V82" t="s">
         <v>1141</v>
       </c>
-      <c r="J82" t="s">
-        <v>457</v>
-      </c>
-      <c r="L82" t="s">
-        <v>457</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="P82" t="s">
-        <v>968</v>
-      </c>
-      <c r="Q82" t="s">
+      <c r="W82" t="s">
         <v>1139</v>
       </c>
-      <c r="R82" t="s">
-        <v>1138</v>
-      </c>
-      <c r="S82" t="s">
-        <v>1135</v>
-      </c>
-      <c r="T82" t="s">
-        <v>628</v>
-      </c>
-      <c r="U82" t="s">
-        <v>1142</v>
-      </c>
-      <c r="V82" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -10042,7 +10326,7 @@
         <v>467</v>
       </c>
       <c r="I83" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J83" t="s">
         <v>463</v>
@@ -10054,28 +10338,31 @@
         <v>456</v>
       </c>
       <c r="O83" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="P83" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1144</v>
+      </c>
+      <c r="R83" t="s">
         <v>1143</v>
       </c>
-      <c r="P83" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>1145</v>
-      </c>
-      <c r="R83" t="s">
-        <v>1144</v>
-      </c>
-      <c r="T83" t="s">
-        <v>628</v>
+      <c r="T83" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U83" t="s">
-        <v>1147</v>
+        <v>627</v>
       </c>
       <c r="V83" t="s">
+        <v>1146</v>
+      </c>
+      <c r="W83" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -10101,31 +10388,34 @@
         <v>457</v>
       </c>
       <c r="O84" s="8" t="s">
+        <v>1147</v>
+      </c>
+      <c r="P84" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q84" t="s">
         <v>1148</v>
       </c>
-      <c r="P84" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>1149</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>1150</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U84" t="s">
+        <v>627</v>
+      </c>
+      <c r="V84" t="s">
         <v>1151</v>
       </c>
-      <c r="T84" t="s">
-        <v>628</v>
-      </c>
-      <c r="U84" t="s">
-        <v>1152</v>
-      </c>
-      <c r="V84" t="s">
+      <c r="W84" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>147</v>
       </c>
@@ -10145,37 +10435,40 @@
         <v>466</v>
       </c>
       <c r="I85" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J85" t="s">
+        <v>457</v>
+      </c>
+      <c r="L85" t="s">
+        <v>457</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="P85" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1154</v>
+      </c>
+      <c r="R85" t="s">
+        <v>1152</v>
+      </c>
+      <c r="S85" t="s">
+        <v>900</v>
+      </c>
+      <c r="T85" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U85" t="s">
+        <v>627</v>
+      </c>
+      <c r="V85" t="s">
         <v>1156</v>
       </c>
-      <c r="J85" t="s">
-        <v>457</v>
-      </c>
-      <c r="L85" t="s">
-        <v>457</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="P85" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>1155</v>
-      </c>
-      <c r="R85" t="s">
-        <v>1153</v>
-      </c>
-      <c r="S85" t="s">
-        <v>901</v>
-      </c>
-      <c r="T85" t="s">
-        <v>628</v>
-      </c>
-      <c r="U85" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -10195,7 +10488,7 @@
         <v>466</v>
       </c>
       <c r="I86" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J86" t="s">
         <v>511</v>
@@ -10204,28 +10497,31 @@
         <v>511</v>
       </c>
       <c r="O86" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P86" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>880</v>
+      </c>
+      <c r="R86" t="s">
         <v>1158</v>
       </c>
-      <c r="P86" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>881</v>
-      </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>1159</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U86" t="s">
+        <v>627</v>
+      </c>
+      <c r="V86" t="s">
         <v>1160</v>
       </c>
-      <c r="T86" t="s">
-        <v>628</v>
-      </c>
-      <c r="U86" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>227</v>
       </c>
@@ -10245,7 +10541,7 @@
         <v>466</v>
       </c>
       <c r="I87" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J87" t="s">
         <v>457</v>
@@ -10254,31 +10550,34 @@
         <v>457</v>
       </c>
       <c r="O87" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="P87" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q87" t="s">
         <v>1163</v>
       </c>
-      <c r="P87" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>1164</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>1165</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U87" t="s">
+        <v>627</v>
+      </c>
+      <c r="V87" t="s">
         <v>1166</v>
       </c>
-      <c r="T87" t="s">
-        <v>628</v>
-      </c>
-      <c r="U87" t="s">
-        <v>1167</v>
-      </c>
-      <c r="V87" t="s">
+      <c r="W87" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>397</v>
       </c>
@@ -10304,31 +10603,34 @@
         <v>452</v>
       </c>
       <c r="O88" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="P88" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q88" t="s">
         <v>671</v>
       </c>
-      <c r="P88" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>672</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>673</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U88" t="s">
+        <v>627</v>
+      </c>
+      <c r="V88" t="s">
         <v>674</v>
       </c>
-      <c r="T88" t="s">
-        <v>628</v>
-      </c>
-      <c r="U88" t="s">
-        <v>675</v>
-      </c>
-      <c r="V88" t="s">
+      <c r="W88" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -10348,40 +10650,43 @@
         <v>501</v>
       </c>
       <c r="I89" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J89" t="s">
+        <v>457</v>
+      </c>
+      <c r="L89" t="s">
+        <v>457</v>
+      </c>
+      <c r="O89" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="P89" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1169</v>
+      </c>
+      <c r="R89" t="s">
+        <v>1170</v>
+      </c>
+      <c r="S89" t="s">
+        <v>1171</v>
+      </c>
+      <c r="T89" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U89" t="s">
+        <v>627</v>
+      </c>
+      <c r="V89" t="s">
         <v>1174</v>
       </c>
-      <c r="J89" t="s">
-        <v>457</v>
-      </c>
-      <c r="L89" t="s">
-        <v>457</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>1169</v>
-      </c>
-      <c r="P89" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>1170</v>
-      </c>
-      <c r="R89" t="s">
-        <v>1171</v>
-      </c>
-      <c r="S89" t="s">
+      <c r="W89" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="T89" t="s">
-        <v>628</v>
-      </c>
-      <c r="U89" t="s">
-        <v>1175</v>
-      </c>
-      <c r="V89" s="6" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -10407,31 +10712,34 @@
         <v>450</v>
       </c>
       <c r="O90" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="P90" t="s">
         <v>676</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>677</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>678</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>679</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U90" t="s">
+        <v>627</v>
+      </c>
+      <c r="V90" t="s">
         <v>680</v>
       </c>
-      <c r="T90" t="s">
-        <v>628</v>
-      </c>
-      <c r="U90" t="s">
-        <v>681</v>
-      </c>
-      <c r="V90" t="s">
+      <c r="W90" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>230</v>
       </c>
@@ -10451,7 +10759,7 @@
         <v>501</v>
       </c>
       <c r="I91" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J91" t="s">
         <v>462</v>
@@ -10460,28 +10768,31 @@
         <v>509</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="P91" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R91" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S91" t="s">
         <v>1178</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U91" t="s">
+        <v>627</v>
+      </c>
+      <c r="V91" t="s">
         <v>1179</v>
       </c>
-      <c r="T91" t="s">
-        <v>628</v>
-      </c>
-      <c r="U91" t="s">
+      <c r="W91" t="s">
         <v>1180</v>
       </c>
-      <c r="V91" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -10501,7 +10812,7 @@
         <v>466</v>
       </c>
       <c r="I92" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J92" t="s">
         <v>462</v>
@@ -10510,28 +10821,31 @@
         <v>509</v>
       </c>
       <c r="O92" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1537</v>
+      </c>
+      <c r="R92" t="s">
+        <v>1181</v>
+      </c>
+      <c r="S92" t="s">
         <v>1183</v>
       </c>
-      <c r="P92" t="s">
-        <v>1538</v>
-      </c>
-      <c r="R92" t="s">
-        <v>1182</v>
-      </c>
-      <c r="S92" t="s">
-        <v>1184</v>
-      </c>
-      <c r="T92" t="s">
-        <v>628</v>
+      <c r="T92" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U92" t="s">
-        <v>1186</v>
+        <v>627</v>
       </c>
       <c r="V92" t="s">
+        <v>1185</v>
+      </c>
+      <c r="W92" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -10557,31 +10871,34 @@
         <v>455</v>
       </c>
       <c r="O93" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>1189</v>
+      </c>
+      <c r="R93" t="s">
+        <v>1190</v>
+      </c>
+      <c r="S93" t="s">
         <v>1187</v>
       </c>
-      <c r="P93" t="s">
-        <v>1189</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>1190</v>
-      </c>
-      <c r="R93" t="s">
+      <c r="T93" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="U93" t="s">
+        <v>627</v>
+      </c>
+      <c r="V93" t="s">
         <v>1191</v>
       </c>
-      <c r="S93" t="s">
-        <v>1188</v>
-      </c>
-      <c r="T93" t="s">
-        <v>628</v>
-      </c>
-      <c r="U93" t="s">
-        <v>1192</v>
-      </c>
-      <c r="V93" t="s">
+      <c r="W93" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>312</v>
       </c>
@@ -10613,31 +10930,34 @@
         <v>455</v>
       </c>
       <c r="O94" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="P94" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q94" t="s">
         <v>682</v>
       </c>
-      <c r="P94" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>683</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>684</v>
       </c>
-      <c r="S94" t="s">
+      <c r="T94" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U94" t="s">
+        <v>627</v>
+      </c>
+      <c r="V94" t="s">
         <v>685</v>
       </c>
-      <c r="T94" t="s">
-        <v>628</v>
-      </c>
-      <c r="U94" t="s">
-        <v>686</v>
-      </c>
-      <c r="V94" t="s">
+      <c r="W94" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>233</v>
       </c>
@@ -10657,37 +10977,40 @@
         <v>507</v>
       </c>
       <c r="I95" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J95" t="s">
+        <v>457</v>
+      </c>
+      <c r="L95" t="s">
+        <v>457</v>
+      </c>
+      <c r="O95" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="P95" t="s">
+        <v>622</v>
+      </c>
+      <c r="R95" t="s">
+        <v>1193</v>
+      </c>
+      <c r="S95" t="s">
+        <v>836</v>
+      </c>
+      <c r="T95" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U95" t="s">
+        <v>627</v>
+      </c>
+      <c r="V95" t="s">
         <v>1196</v>
       </c>
-      <c r="J95" t="s">
-        <v>457</v>
-      </c>
-      <c r="L95" t="s">
-        <v>457</v>
-      </c>
-      <c r="O95" s="8" t="s">
-        <v>1193</v>
-      </c>
-      <c r="P95" t="s">
-        <v>623</v>
-      </c>
-      <c r="R95" t="s">
+      <c r="W95" t="s">
         <v>1194</v>
       </c>
-      <c r="S95" t="s">
-        <v>837</v>
-      </c>
-      <c r="T95" t="s">
-        <v>628</v>
-      </c>
-      <c r="U95" t="s">
-        <v>1197</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>400</v>
       </c>
@@ -10707,7 +11030,7 @@
         <v>480</v>
       </c>
       <c r="I96" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J96" t="s">
         <v>457</v>
@@ -10719,28 +11042,31 @@
         <v>451</v>
       </c>
       <c r="O96" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="P96" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q96" t="s">
         <v>1198</v>
       </c>
-      <c r="P96" t="s">
-        <v>775</v>
-      </c>
-      <c r="Q96" t="s">
+      <c r="S96" t="s">
+        <v>1201</v>
+      </c>
+      <c r="T96" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U96" t="s">
+        <v>627</v>
+      </c>
+      <c r="V96" t="s">
+        <v>1202</v>
+      </c>
+      <c r="W96" t="s">
         <v>1199</v>
       </c>
-      <c r="S96" t="s">
-        <v>1202</v>
-      </c>
-      <c r="T96" t="s">
-        <v>628</v>
-      </c>
-      <c r="U96" t="s">
-        <v>1203</v>
-      </c>
-      <c r="V96" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>315</v>
       </c>
@@ -10772,28 +11098,31 @@
         <v>452</v>
       </c>
       <c r="O97" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="P97" t="s">
+        <v>622</v>
+      </c>
+      <c r="R97" t="s">
         <v>687</v>
       </c>
-      <c r="P97" t="s">
-        <v>623</v>
-      </c>
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>688</v>
       </c>
-      <c r="S97" t="s">
+      <c r="T97" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U97" t="s">
+        <v>627</v>
+      </c>
+      <c r="V97" t="s">
         <v>689</v>
       </c>
-      <c r="T97" t="s">
-        <v>628</v>
-      </c>
-      <c r="U97" t="s">
-        <v>690</v>
-      </c>
-      <c r="V97" t="s">
+      <c r="W97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>145</v>
       </c>
@@ -10816,7 +11145,7 @@
         <v>466</v>
       </c>
       <c r="I98" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="J98" t="s">
         <v>462</v>
@@ -10831,28 +11160,31 @@
         <v>511</v>
       </c>
       <c r="O98" s="8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="P98" t="s">
+        <v>622</v>
+      </c>
+      <c r="R98" t="s">
+        <v>1203</v>
+      </c>
+      <c r="S98" t="s">
+        <v>1206</v>
+      </c>
+      <c r="T98" s="10" t="s">
+        <v>1558</v>
+      </c>
+      <c r="U98" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V98" t="s">
+        <v>1208</v>
+      </c>
+      <c r="W98" t="s">
         <v>1205</v>
       </c>
-      <c r="P98" t="s">
-        <v>623</v>
-      </c>
-      <c r="R98" t="s">
-        <v>1204</v>
-      </c>
-      <c r="S98" t="s">
-        <v>1207</v>
-      </c>
-      <c r="T98" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U98" t="s">
-        <v>1209</v>
-      </c>
-      <c r="V98" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -10872,40 +11204,43 @@
         <v>466</v>
       </c>
       <c r="I99" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J99" t="s">
+        <v>457</v>
+      </c>
+      <c r="L99" t="s">
+        <v>457</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P99" t="s">
         <v>1212</v>
       </c>
-      <c r="J99" t="s">
-        <v>457</v>
-      </c>
-      <c r="L99" t="s">
-        <v>457</v>
-      </c>
-      <c r="O99" s="8" t="s">
+      <c r="Q99" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R99" t="s">
         <v>1210</v>
       </c>
-      <c r="P99" t="s">
-        <v>1213</v>
-      </c>
-      <c r="Q99" t="s">
+      <c r="S99" t="s">
+        <v>900</v>
+      </c>
+      <c r="T99" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U99" t="s">
+        <v>627</v>
+      </c>
+      <c r="V99" t="s">
         <v>1214</v>
       </c>
-      <c r="R99" t="s">
-        <v>1211</v>
-      </c>
-      <c r="S99" t="s">
-        <v>901</v>
-      </c>
-      <c r="T99" t="s">
-        <v>628</v>
-      </c>
-      <c r="U99" t="s">
-        <v>1215</v>
-      </c>
-      <c r="V99" t="s">
+      <c r="W99" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -10931,31 +11266,34 @@
         <v>509</v>
       </c>
       <c r="O100" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P100" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q100" t="s">
         <v>1216</v>
       </c>
-      <c r="P100" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q100" t="s">
+      <c r="R100" t="s">
         <v>1217</v>
       </c>
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>1218</v>
       </c>
-      <c r="S100" t="s">
+      <c r="T100" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U100" t="s">
+        <v>627</v>
+      </c>
+      <c r="V100" t="s">
         <v>1219</v>
       </c>
-      <c r="T100" t="s">
-        <v>628</v>
-      </c>
-      <c r="U100" t="s">
-        <v>1220</v>
-      </c>
-      <c r="V100" t="s">
+      <c r="W100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -10966,7 +11304,7 @@
         <v>2010</v>
       </c>
       <c r="D101" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -10978,7 +11316,7 @@
         <v>507</v>
       </c>
       <c r="I101" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J101" t="s">
         <v>461</v>
@@ -10987,31 +11325,34 @@
         <v>455</v>
       </c>
       <c r="O101" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="P101" t="s">
         <v>1221</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>1222</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="R101" t="s">
         <v>1223</v>
       </c>
-      <c r="R101" t="s">
+      <c r="S101" t="s">
+        <v>900</v>
+      </c>
+      <c r="T101" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U101" t="s">
+        <v>627</v>
+      </c>
+      <c r="V101" t="s">
         <v>1224</v>
       </c>
-      <c r="S101" t="s">
-        <v>901</v>
-      </c>
-      <c r="T101" t="s">
-        <v>628</v>
-      </c>
-      <c r="U101" t="s">
-        <v>1225</v>
-      </c>
-      <c r="V101" t="s">
+      <c r="W101" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>318</v>
       </c>
@@ -11034,40 +11375,43 @@
         <v>507</v>
       </c>
       <c r="I102" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J102" t="s">
+        <v>457</v>
+      </c>
+      <c r="L102" t="s">
+        <v>457</v>
+      </c>
+      <c r="O102" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R102" t="s">
+        <v>1228</v>
+      </c>
+      <c r="S102" t="s">
+        <v>1229</v>
+      </c>
+      <c r="T102" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U102" t="s">
+        <v>627</v>
+      </c>
+      <c r="V102" t="s">
         <v>1232</v>
       </c>
-      <c r="J102" t="s">
-        <v>457</v>
-      </c>
-      <c r="L102" t="s">
-        <v>457</v>
-      </c>
-      <c r="O102" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="P102" t="s">
-        <v>1539</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>1228</v>
-      </c>
-      <c r="R102" t="s">
-        <v>1229</v>
-      </c>
-      <c r="S102" t="s">
+      <c r="W102" t="s">
         <v>1230</v>
       </c>
-      <c r="T102" t="s">
-        <v>628</v>
-      </c>
-      <c r="U102" t="s">
-        <v>1233</v>
-      </c>
-      <c r="V102" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -11084,7 +11428,7 @@
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G103" t="s">
         <v>466</v>
@@ -11105,28 +11449,31 @@
         <v>455</v>
       </c>
       <c r="O103" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="P103" t="s">
         <v>691</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>692</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="R103" t="s">
         <v>693</v>
       </c>
-      <c r="R103" t="s">
-        <v>694</v>
-      </c>
       <c r="S103" t="s">
+        <v>695</v>
+      </c>
+      <c r="T103" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U103" t="s">
+        <v>627</v>
+      </c>
+      <c r="V103" t="s">
         <v>696</v>
       </c>
-      <c r="T103" t="s">
-        <v>628</v>
-      </c>
-      <c r="U103" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -11155,31 +11502,34 @@
         <v>511</v>
       </c>
       <c r="O104" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="P104" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>704</v>
+      </c>
+      <c r="R104" t="s">
         <v>698</v>
       </c>
-      <c r="P104" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>705</v>
-      </c>
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>699</v>
       </c>
-      <c r="S104" t="s">
+      <c r="T104" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U104" t="s">
+        <v>627</v>
+      </c>
+      <c r="V104" t="s">
+        <v>41</v>
+      </c>
+      <c r="W104" t="s">
         <v>700</v>
       </c>
-      <c r="T104" t="s">
-        <v>628</v>
-      </c>
-      <c r="U104" t="s">
-        <v>41</v>
-      </c>
-      <c r="V104" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -11202,40 +11552,43 @@
         <v>474</v>
       </c>
       <c r="I105" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J105" t="s">
+        <v>457</v>
+      </c>
+      <c r="L105" t="s">
+        <v>457</v>
+      </c>
+      <c r="O105" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>1234</v>
+      </c>
+      <c r="R105" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S105" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T105" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U105" t="s">
+        <v>627</v>
+      </c>
+      <c r="V105" t="s">
         <v>1238</v>
       </c>
-      <c r="J105" t="s">
-        <v>457</v>
-      </c>
-      <c r="L105" t="s">
-        <v>457</v>
-      </c>
-      <c r="O105" s="8" t="s">
-        <v>1234</v>
-      </c>
-      <c r="P105" t="s">
-        <v>1540</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>1235</v>
-      </c>
-      <c r="R105" t="s">
-        <v>1236</v>
-      </c>
-      <c r="S105" t="s">
-        <v>1237</v>
-      </c>
-      <c r="T105" t="s">
-        <v>628</v>
-      </c>
-      <c r="U105" t="s">
+      <c r="W105" t="s">
         <v>1239</v>
       </c>
-      <c r="V105" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -11261,28 +11614,31 @@
         <v>511</v>
       </c>
       <c r="O106" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="P106" t="s">
+        <v>770</v>
+      </c>
+      <c r="R106" t="s">
         <v>1241</v>
       </c>
-      <c r="P106" t="s">
-        <v>771</v>
-      </c>
-      <c r="R106" t="s">
+      <c r="S106" t="s">
         <v>1242</v>
       </c>
-      <c r="S106" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T106" t="s">
-        <v>628</v>
+      <c r="T106" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U106" t="s">
-        <v>1243</v>
+        <v>627</v>
       </c>
       <c r="V106" t="s">
+        <v>1242</v>
+      </c>
+      <c r="W106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>321</v>
       </c>
@@ -11311,31 +11667,34 @@
         <v>457</v>
       </c>
       <c r="O107" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="P107" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q107" t="s">
         <v>702</v>
       </c>
-      <c r="P107" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>703</v>
-      </c>
       <c r="R107" t="s">
+        <v>705</v>
+      </c>
+      <c r="S107" t="s">
         <v>706</v>
       </c>
-      <c r="S107" t="s">
+      <c r="T107" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U107" t="s">
+        <v>627</v>
+      </c>
+      <c r="V107" t="s">
         <v>707</v>
       </c>
-      <c r="T107" t="s">
-        <v>628</v>
-      </c>
-      <c r="U107" t="s">
-        <v>708</v>
-      </c>
-      <c r="V107" t="s">
+      <c r="W107" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -11358,7 +11717,7 @@
         <v>467</v>
       </c>
       <c r="I108" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="J108" t="s">
         <v>453</v>
@@ -11373,28 +11732,31 @@
         <v>455</v>
       </c>
       <c r="O108" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P108" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q108" t="s">
         <v>1245</v>
       </c>
-      <c r="P108" t="s">
-        <v>905</v>
-      </c>
-      <c r="Q108" t="s">
+      <c r="S108" t="s">
         <v>1246</v>
       </c>
-      <c r="S108" t="s">
-        <v>1247</v>
-      </c>
-      <c r="T108" t="s">
-        <v>628</v>
+      <c r="T108" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U108" t="s">
+        <v>627</v>
+      </c>
+      <c r="V108" t="s">
+        <v>1248</v>
+      </c>
+      <c r="W108" t="s">
         <v>1249</v>
       </c>
-      <c r="V108" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -11414,7 +11776,7 @@
         <v>507</v>
       </c>
       <c r="I109" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J109" t="s">
         <v>462</v>
@@ -11423,25 +11785,28 @@
         <v>509</v>
       </c>
       <c r="O109" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P109" t="s">
+        <v>622</v>
+      </c>
+      <c r="S109" t="s">
         <v>1251</v>
       </c>
-      <c r="P109" t="s">
-        <v>623</v>
-      </c>
-      <c r="S109" t="s">
-        <v>1252</v>
-      </c>
-      <c r="T109" t="s">
-        <v>628</v>
+      <c r="T109" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U109" t="s">
-        <v>1254</v>
+        <v>627</v>
       </c>
       <c r="V109" t="s">
+        <v>1253</v>
+      </c>
+      <c r="W109" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>76</v>
       </c>
@@ -11464,7 +11829,7 @@
         <v>501</v>
       </c>
       <c r="I110" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="J110" t="s">
         <v>511</v>
@@ -11473,28 +11838,31 @@
         <v>511</v>
       </c>
       <c r="O110" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="P110" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q110" t="s">
         <v>1256</v>
       </c>
-      <c r="P110" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>1257</v>
-      </c>
       <c r="S110" t="s">
-        <v>700</v>
-      </c>
-      <c r="T110" t="s">
-        <v>628</v>
+        <v>699</v>
+      </c>
+      <c r="T110" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U110" t="s">
-        <v>1136</v>
+        <v>627</v>
       </c>
       <c r="V110" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+      <c r="W110" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -11514,7 +11882,7 @@
         <v>465</v>
       </c>
       <c r="I111" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="J111" t="s">
         <v>462</v>
@@ -11523,28 +11891,31 @@
         <v>509</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="P111" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R111" t="s">
+        <v>1260</v>
+      </c>
+      <c r="S111" t="s">
         <v>1261</v>
       </c>
-      <c r="S111" t="s">
+      <c r="T111" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U111" t="s">
+        <v>627</v>
+      </c>
+      <c r="V111" t="s">
         <v>1262</v>
       </c>
-      <c r="T111" t="s">
-        <v>628</v>
-      </c>
-      <c r="U111" t="s">
-        <v>1263</v>
-      </c>
-      <c r="V111" t="s">
+      <c r="W111" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>403</v>
       </c>
@@ -11570,28 +11941,31 @@
         <v>457</v>
       </c>
       <c r="O112" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="P112" t="s">
         <v>1264</v>
       </c>
-      <c r="P112" t="s">
+      <c r="Q112" t="s">
         <v>1265</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="R112" t="s">
         <v>1266</v>
       </c>
-      <c r="R112" t="s">
+      <c r="S112" t="s">
         <v>1267</v>
       </c>
-      <c r="S112" t="s">
+      <c r="T112" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U112" t="s">
+        <v>627</v>
+      </c>
+      <c r="V112" t="s">
         <v>1268</v>
       </c>
-      <c r="T112" t="s">
-        <v>628</v>
-      </c>
-      <c r="U112" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>78</v>
       </c>
@@ -11611,7 +11985,7 @@
         <v>480</v>
       </c>
       <c r="I113" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J113" t="s">
         <v>511</v>
@@ -11620,25 +11994,28 @@
         <v>511</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="P113" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S113" t="s">
-        <v>700</v>
-      </c>
-      <c r="T113" t="s">
-        <v>628</v>
+        <v>699</v>
+      </c>
+      <c r="T113" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U113" t="s">
-        <v>1273</v>
+        <v>627</v>
       </c>
       <c r="V113" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W113" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>324</v>
       </c>
@@ -11667,28 +12044,31 @@
         <v>453</v>
       </c>
       <c r="O114" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="P114" t="s">
         <v>1274</v>
       </c>
-      <c r="P114" t="s">
+      <c r="R114" t="s">
         <v>1275</v>
       </c>
-      <c r="R114" t="s">
+      <c r="S114" t="s">
         <v>1276</v>
       </c>
-      <c r="S114" t="s">
+      <c r="T114" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U114" t="s">
+        <v>627</v>
+      </c>
+      <c r="V114" t="s">
         <v>1277</v>
       </c>
-      <c r="T114" t="s">
-        <v>628</v>
-      </c>
-      <c r="U114" t="s">
-        <v>1278</v>
-      </c>
-      <c r="V114" t="s">
+      <c r="W114" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -11714,28 +12094,31 @@
         <v>457</v>
       </c>
       <c r="O115" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P115" t="s">
+        <v>924</v>
+      </c>
+      <c r="R115" t="s">
+        <v>1280</v>
+      </c>
+      <c r="S115" t="s">
+        <v>1281</v>
+      </c>
+      <c r="T115" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U115" t="s">
+        <v>627</v>
+      </c>
+      <c r="V115" t="s">
+        <v>1282</v>
+      </c>
+      <c r="W115" t="s">
         <v>1279</v>
       </c>
-      <c r="P115" t="s">
-        <v>925</v>
-      </c>
-      <c r="R115" t="s">
-        <v>1281</v>
-      </c>
-      <c r="S115" t="s">
-        <v>1282</v>
-      </c>
-      <c r="T115" t="s">
-        <v>628</v>
-      </c>
-      <c r="U115" t="s">
-        <v>1283</v>
-      </c>
-      <c r="V115" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -11761,25 +12144,28 @@
         <v>511</v>
       </c>
       <c r="O116" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="P116" t="s">
+        <v>770</v>
+      </c>
+      <c r="S116" t="s">
+        <v>1242</v>
+      </c>
+      <c r="T116" s="10" t="s">
+        <v>1560</v>
+      </c>
+      <c r="U116" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V116" t="s">
         <v>1284</v>
       </c>
-      <c r="P116" t="s">
-        <v>771</v>
-      </c>
-      <c r="S116" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T116" t="s">
-        <v>1551</v>
-      </c>
-      <c r="U116" t="s">
-        <v>1285</v>
-      </c>
-      <c r="V116" t="s">
+      <c r="W116" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>80</v>
       </c>
@@ -11799,7 +12185,7 @@
         <v>467</v>
       </c>
       <c r="I117" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="J117" t="s">
         <v>511</v>
@@ -11808,25 +12194,28 @@
         <v>511</v>
       </c>
       <c r="O117" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P117" t="s">
+        <v>703</v>
+      </c>
+      <c r="S117" t="s">
         <v>1286</v>
       </c>
-      <c r="P117" t="s">
-        <v>704</v>
-      </c>
-      <c r="S117" t="s">
-        <v>1287</v>
-      </c>
-      <c r="T117" t="s">
-        <v>1551</v>
+      <c r="T117" s="10" t="s">
+        <v>1554</v>
       </c>
       <c r="U117" t="s">
-        <v>1289</v>
+        <v>1550</v>
       </c>
       <c r="V117" t="s">
+        <v>1288</v>
+      </c>
+      <c r="W117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>327</v>
       </c>
@@ -11861,25 +12250,28 @@
         <v>511</v>
       </c>
       <c r="O118" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="P118" t="s">
+        <v>1540</v>
+      </c>
+      <c r="S118" t="s">
         <v>1290</v>
       </c>
-      <c r="P118" t="s">
-        <v>1541</v>
-      </c>
-      <c r="S118" t="s">
-        <v>1291</v>
-      </c>
-      <c r="T118" t="s">
-        <v>628</v>
+      <c r="T118" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U118" t="s">
-        <v>1293</v>
+        <v>627</v>
       </c>
       <c r="V118" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W118" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>409</v>
       </c>
@@ -11899,40 +12291,43 @@
         <v>466</v>
       </c>
       <c r="I119" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J119" t="s">
+        <v>457</v>
+      </c>
+      <c r="L119" t="s">
+        <v>457</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="P119" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q119" t="s">
         <v>1295</v>
       </c>
-      <c r="J119" t="s">
-        <v>457</v>
-      </c>
-      <c r="L119" t="s">
-        <v>457</v>
-      </c>
-      <c r="O119" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P119" t="s">
-        <v>775</v>
-      </c>
-      <c r="Q119" t="s">
+      <c r="R119" t="s">
         <v>1296</v>
       </c>
-      <c r="R119" t="s">
+      <c r="S119" t="s">
+        <v>913</v>
+      </c>
+      <c r="T119" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U119" t="s">
+        <v>627</v>
+      </c>
+      <c r="V119" t="s">
         <v>1297</v>
       </c>
-      <c r="S119" t="s">
-        <v>914</v>
-      </c>
-      <c r="T119" t="s">
-        <v>628</v>
-      </c>
-      <c r="U119" t="s">
-        <v>1298</v>
-      </c>
-      <c r="V119" t="s">
+      <c r="W119" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>412</v>
       </c>
@@ -11955,7 +12350,7 @@
         <v>467</v>
       </c>
       <c r="I120" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J120" t="s">
         <v>457</v>
@@ -11964,31 +12359,34 @@
         <v>457</v>
       </c>
       <c r="O120" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="P120" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q120" t="s">
         <v>1299</v>
       </c>
-      <c r="P120" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q120" t="s">
+      <c r="R120" t="s">
         <v>1300</v>
       </c>
-      <c r="R120" t="s">
+      <c r="S120" t="s">
         <v>1301</v>
       </c>
-      <c r="S120" t="s">
+      <c r="T120" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U120" t="s">
+        <v>627</v>
+      </c>
+      <c r="V120" t="s">
         <v>1302</v>
       </c>
-      <c r="T120" t="s">
-        <v>628</v>
-      </c>
-      <c r="U120" t="s">
-        <v>1303</v>
-      </c>
-      <c r="V120" t="s">
+      <c r="W120" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>415</v>
       </c>
@@ -12008,7 +12406,7 @@
         <v>466</v>
       </c>
       <c r="I121" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J121" t="s">
         <v>457</v>
@@ -12017,31 +12415,34 @@
         <v>457</v>
       </c>
       <c r="O121" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="P121" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q121" t="s">
         <v>1305</v>
       </c>
-      <c r="P121" t="s">
-        <v>775</v>
-      </c>
-      <c r="Q121" t="s">
+      <c r="R121" t="s">
         <v>1306</v>
       </c>
-      <c r="R121" t="s">
+      <c r="S121" t="s">
+        <v>777</v>
+      </c>
+      <c r="T121" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U121" t="s">
+        <v>627</v>
+      </c>
+      <c r="V121" t="s">
         <v>1307</v>
       </c>
-      <c r="S121" t="s">
-        <v>778</v>
-      </c>
-      <c r="T121" t="s">
-        <v>628</v>
-      </c>
-      <c r="U121" t="s">
-        <v>1308</v>
-      </c>
-      <c r="V121" t="s">
+      <c r="W121" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -12064,7 +12465,7 @@
         <v>467</v>
       </c>
       <c r="I122" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J122" t="s">
         <v>511</v>
@@ -12073,25 +12474,28 @@
         <v>511</v>
       </c>
       <c r="O122" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P122" t="s">
+        <v>703</v>
+      </c>
+      <c r="S122" t="s">
         <v>1311</v>
       </c>
-      <c r="P122" t="s">
-        <v>704</v>
-      </c>
-      <c r="S122" t="s">
+      <c r="T122" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U122" t="s">
+        <v>627</v>
+      </c>
+      <c r="V122" t="s">
         <v>1312</v>
       </c>
-      <c r="T122" t="s">
-        <v>628</v>
-      </c>
-      <c r="U122" t="s">
-        <v>1313</v>
-      </c>
-      <c r="V122" t="s">
+      <c r="W122" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>54</v>
       </c>
@@ -12117,28 +12521,31 @@
         <v>453</v>
       </c>
       <c r="O123" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="P123" t="s">
         <v>1314</v>
       </c>
-      <c r="P123" t="s">
+      <c r="Q123" t="s">
         <v>1315</v>
       </c>
-      <c r="Q123" t="s">
+      <c r="S123" t="s">
+        <v>843</v>
+      </c>
+      <c r="T123" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U123" t="s">
+        <v>627</v>
+      </c>
+      <c r="V123" t="s">
         <v>1316</v>
       </c>
-      <c r="S123" t="s">
-        <v>844</v>
-      </c>
-      <c r="T123" t="s">
-        <v>628</v>
-      </c>
-      <c r="U123" t="s">
-        <v>1317</v>
-      </c>
-      <c r="V123" t="s">
+      <c r="W123" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -12164,25 +12571,28 @@
         <v>454</v>
       </c>
       <c r="O124" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="P124" t="s">
+        <v>622</v>
+      </c>
+      <c r="S124" t="s">
+        <v>1319</v>
+      </c>
+      <c r="T124" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U124" t="s">
+        <v>627</v>
+      </c>
+      <c r="V124" t="s">
         <v>1318</v>
       </c>
-      <c r="P124" t="s">
-        <v>623</v>
-      </c>
-      <c r="S124" t="s">
-        <v>1320</v>
-      </c>
-      <c r="T124" t="s">
-        <v>628</v>
-      </c>
-      <c r="U124" t="s">
-        <v>1319</v>
-      </c>
-      <c r="V124" t="s">
+      <c r="W124" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>330</v>
       </c>
@@ -12217,31 +12627,34 @@
         <v>451</v>
       </c>
       <c r="O125" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="P125" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>712</v>
+      </c>
+      <c r="R125" t="s">
         <v>709</v>
-      </c>
-      <c r="P125" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>713</v>
-      </c>
-      <c r="R125" t="s">
-        <v>710</v>
       </c>
       <c r="S125" t="s">
         <v>41</v>
       </c>
-      <c r="T125" t="s">
-        <v>628</v>
+      <c r="T125" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U125" t="s">
-        <v>714</v>
+        <v>627</v>
       </c>
       <c r="V125" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+      <c r="W125" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -12270,25 +12683,28 @@
         <v>511</v>
       </c>
       <c r="O126" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="P126" t="s">
         <v>715</v>
       </c>
-      <c r="P126" t="s">
+      <c r="Q126" t="s">
         <v>716</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="S126" t="s">
         <v>717</v>
       </c>
-      <c r="S126" t="s">
+      <c r="T126" s="10" t="s">
+        <v>1553</v>
+      </c>
+      <c r="U126" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V126" t="s">
         <v>718</v>
       </c>
-      <c r="T126" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U126" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -12308,7 +12724,7 @@
         <v>501</v>
       </c>
       <c r="I127" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="J127" t="s">
         <v>462</v>
@@ -12317,28 +12733,31 @@
         <v>509</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="P127" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R127" t="s">
+        <v>1322</v>
+      </c>
+      <c r="S127" t="s">
         <v>1323</v>
       </c>
-      <c r="S127" t="s">
-        <v>1324</v>
-      </c>
-      <c r="T127" t="s">
-        <v>628</v>
+      <c r="T127" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U127" t="s">
-        <v>1326</v>
+        <v>627</v>
       </c>
       <c r="V127" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W127" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>333</v>
       </c>
@@ -12361,7 +12780,7 @@
         <v>467</v>
       </c>
       <c r="I128" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="J128" t="s">
         <v>458</v>
@@ -12376,31 +12795,34 @@
         <v>457</v>
       </c>
       <c r="O128" s="8" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="P128" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="Q128" t="s">
+        <v>1330</v>
+      </c>
+      <c r="R128" t="s">
+        <v>1328</v>
+      </c>
+      <c r="S128" t="s">
+        <v>1329</v>
+      </c>
+      <c r="T128" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U128" t="s">
+        <v>627</v>
+      </c>
+      <c r="V128" t="s">
         <v>1331</v>
       </c>
-      <c r="R128" t="s">
-        <v>1329</v>
-      </c>
-      <c r="S128" t="s">
-        <v>1330</v>
-      </c>
-      <c r="T128" t="s">
-        <v>628</v>
-      </c>
-      <c r="U128" t="s">
-        <v>1332</v>
-      </c>
-      <c r="V128" t="s">
+      <c r="W128" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -12420,40 +12842,43 @@
         <v>466</v>
       </c>
       <c r="I129" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J129" t="s">
+        <v>457</v>
+      </c>
+      <c r="L129" t="s">
+        <v>457</v>
+      </c>
+      <c r="O129" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="P129" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>1333</v>
+      </c>
+      <c r="R129" t="s">
+        <v>1334</v>
+      </c>
+      <c r="S129" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T129" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U129" t="s">
+        <v>627</v>
+      </c>
+      <c r="V129" t="s">
         <v>1336</v>
       </c>
-      <c r="J129" t="s">
-        <v>457</v>
-      </c>
-      <c r="L129" t="s">
-        <v>457</v>
-      </c>
-      <c r="O129" s="8" t="s">
-        <v>1333</v>
-      </c>
-      <c r="P129" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>1334</v>
-      </c>
-      <c r="R129" t="s">
-        <v>1335</v>
-      </c>
-      <c r="S129" t="s">
-        <v>1237</v>
-      </c>
-      <c r="T129" t="s">
-        <v>628</v>
-      </c>
-      <c r="U129" t="s">
-        <v>1337</v>
-      </c>
-      <c r="V129" t="s">
+      <c r="W129" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -12479,31 +12904,34 @@
         <v>457</v>
       </c>
       <c r="O130" s="8" t="s">
+        <v>1337</v>
+      </c>
+      <c r="P130" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q130" t="s">
         <v>1338</v>
       </c>
-      <c r="P130" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q130" t="s">
+      <c r="R130" t="s">
         <v>1339</v>
       </c>
-      <c r="R130" t="s">
+      <c r="S130" t="s">
         <v>1340</v>
       </c>
-      <c r="S130" t="s">
+      <c r="T130" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U130" t="s">
+        <v>627</v>
+      </c>
+      <c r="V130" t="s">
         <v>1341</v>
       </c>
-      <c r="T130" t="s">
-        <v>628</v>
-      </c>
-      <c r="U130" t="s">
-        <v>1342</v>
-      </c>
-      <c r="V130" t="s">
+      <c r="W130" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>418</v>
       </c>
@@ -12529,28 +12957,31 @@
         <v>455</v>
       </c>
       <c r="O131" s="8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="P131" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q131" t="s">
         <v>1343</v>
       </c>
-      <c r="P131" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q131" t="s">
+      <c r="S131" t="s">
         <v>1344</v>
       </c>
-      <c r="S131" t="s">
+      <c r="T131" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U131" t="s">
+        <v>627</v>
+      </c>
+      <c r="V131" t="s">
         <v>1345</v>
       </c>
-      <c r="T131" t="s">
-        <v>628</v>
-      </c>
-      <c r="U131" t="s">
-        <v>1346</v>
-      </c>
-      <c r="V131" t="s">
+      <c r="W131" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>421</v>
       </c>
@@ -12579,31 +13010,34 @@
         <v>509</v>
       </c>
       <c r="O132" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="P132" t="s">
+        <v>1545</v>
+      </c>
+      <c r="Q132" t="s">
         <v>1347</v>
       </c>
-      <c r="P132" t="s">
-        <v>1546</v>
-      </c>
-      <c r="Q132" t="s">
+      <c r="R132" t="s">
         <v>1348</v>
       </c>
-      <c r="R132" t="s">
+      <c r="S132" t="s">
+        <v>1251</v>
+      </c>
+      <c r="T132" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U132" t="s">
+        <v>627</v>
+      </c>
+      <c r="V132" t="s">
         <v>1349</v>
       </c>
-      <c r="S132" t="s">
-        <v>1252</v>
-      </c>
-      <c r="T132" t="s">
-        <v>628</v>
-      </c>
-      <c r="U132" t="s">
-        <v>1350</v>
-      </c>
-      <c r="V132" t="s">
+      <c r="W132" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -12632,25 +13066,28 @@
         <v>509</v>
       </c>
       <c r="O133" s="8" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P133" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Q133" t="s">
         <v>1351</v>
       </c>
-      <c r="P133" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q133" t="s">
+      <c r="S133" t="s">
+        <v>1323</v>
+      </c>
+      <c r="T133" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U133" t="s">
+        <v>627</v>
+      </c>
+      <c r="V133" t="s">
         <v>1352</v>
       </c>
-      <c r="S133" t="s">
-        <v>1324</v>
-      </c>
-      <c r="T133" t="s">
-        <v>628</v>
-      </c>
-      <c r="U133" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>248</v>
       </c>
@@ -12670,7 +13107,7 @@
         <v>474</v>
       </c>
       <c r="I134" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J134" t="s">
         <v>457</v>
@@ -12685,25 +13122,28 @@
         <v>452</v>
       </c>
       <c r="O134" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="P134" t="s">
+        <v>703</v>
+      </c>
+      <c r="S134" t="s">
+        <v>1355</v>
+      </c>
+      <c r="T134" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U134" t="s">
+        <v>627</v>
+      </c>
+      <c r="V134" t="s">
+        <v>1357</v>
+      </c>
+      <c r="W134" t="s">
         <v>1354</v>
       </c>
-      <c r="P134" t="s">
-        <v>704</v>
-      </c>
-      <c r="S134" t="s">
-        <v>1356</v>
-      </c>
-      <c r="T134" t="s">
-        <v>628</v>
-      </c>
-      <c r="U134" t="s">
-        <v>1358</v>
-      </c>
-      <c r="V134" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>424</v>
       </c>
@@ -12729,25 +13169,28 @@
         <v>457</v>
       </c>
       <c r="O135" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P135" t="s">
+        <v>770</v>
+      </c>
+      <c r="S135" t="s">
         <v>1359</v>
       </c>
-      <c r="P135" t="s">
-        <v>771</v>
-      </c>
-      <c r="S135" t="s">
+      <c r="T135" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U135" t="s">
+        <v>627</v>
+      </c>
+      <c r="V135" t="s">
         <v>1360</v>
       </c>
-      <c r="T135" t="s">
-        <v>628</v>
-      </c>
-      <c r="U135" t="s">
-        <v>1361</v>
-      </c>
-      <c r="V135" t="s">
+      <c r="W135" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>251</v>
       </c>
@@ -12767,7 +13210,7 @@
         <v>466</v>
       </c>
       <c r="I136" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="J136" t="s">
         <v>463</v>
@@ -12779,31 +13222,34 @@
         <v>456</v>
       </c>
       <c r="O136" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="P136" t="s">
         <v>1362</v>
       </c>
-      <c r="P136" t="s">
+      <c r="Q136" t="s">
         <v>1363</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="R136" t="s">
         <v>1364</v>
       </c>
-      <c r="R136" t="s">
+      <c r="S136" t="s">
         <v>1365</v>
       </c>
-      <c r="S136" t="s">
+      <c r="T136" s="10" t="s">
+        <v>1559</v>
+      </c>
+      <c r="U136" t="s">
+        <v>627</v>
+      </c>
+      <c r="V136" t="s">
         <v>1366</v>
       </c>
-      <c r="T136" t="s">
-        <v>628</v>
-      </c>
-      <c r="U136" t="s">
-        <v>1367</v>
-      </c>
-      <c r="V136" t="s">
+      <c r="W136" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>56</v>
       </c>
@@ -12823,7 +13269,7 @@
         <v>466</v>
       </c>
       <c r="I137" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="J137" t="s">
         <v>511</v>
@@ -12832,25 +13278,28 @@
         <v>511</v>
       </c>
       <c r="O137" s="8" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="P137" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S137" t="s">
-        <v>1312</v>
-      </c>
-      <c r="T137" t="s">
-        <v>628</v>
+        <v>1311</v>
+      </c>
+      <c r="T137" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U137" t="s">
-        <v>1371</v>
+        <v>627</v>
       </c>
       <c r="V137" t="s">
+        <v>1370</v>
+      </c>
+      <c r="W137" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -12870,7 +13319,7 @@
         <v>466</v>
       </c>
       <c r="I138" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="J138" t="s">
         <v>460</v>
@@ -12885,31 +13334,34 @@
         <v>457</v>
       </c>
       <c r="O138" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="P138" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q138" t="s">
         <v>1372</v>
       </c>
-      <c r="P138" t="s">
-        <v>1022</v>
-      </c>
-      <c r="Q138" t="s">
+      <c r="R138" t="s">
         <v>1373</v>
       </c>
-      <c r="R138" t="s">
+      <c r="S138" t="s">
         <v>1374</v>
       </c>
-      <c r="S138" t="s">
+      <c r="T138" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U138" t="s">
+        <v>627</v>
+      </c>
+      <c r="V138" t="s">
         <v>1375</v>
       </c>
-      <c r="T138" t="s">
-        <v>628</v>
-      </c>
-      <c r="U138" t="s">
-        <v>1376</v>
-      </c>
-      <c r="V138" t="s">
+      <c r="W138" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>427</v>
       </c>
@@ -12935,25 +13387,28 @@
         <v>454</v>
       </c>
       <c r="O139" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P139" t="s">
+        <v>770</v>
+      </c>
+      <c r="S139" t="s">
+        <v>1379</v>
+      </c>
+      <c r="T139" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U139" t="s">
+        <v>627</v>
+      </c>
+      <c r="V139" t="s">
         <v>1378</v>
       </c>
-      <c r="P139" t="s">
-        <v>771</v>
-      </c>
-      <c r="S139" t="s">
-        <v>1380</v>
-      </c>
-      <c r="T139" t="s">
-        <v>628</v>
-      </c>
-      <c r="U139" t="s">
-        <v>1379</v>
-      </c>
-      <c r="V139" t="s">
+      <c r="W139" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>254</v>
       </c>
@@ -12979,28 +13434,31 @@
         <v>511</v>
       </c>
       <c r="O140" s="8" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="P140" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R140" t="s">
         <v>41</v>
       </c>
       <c r="S140" t="s">
-        <v>778</v>
-      </c>
-      <c r="T140" t="s">
-        <v>1552</v>
+        <v>777</v>
+      </c>
+      <c r="T140" s="10" t="s">
+        <v>1558</v>
       </c>
       <c r="U140" t="s">
-        <v>1385</v>
+        <v>1551</v>
       </c>
       <c r="V140" t="s">
+        <v>1384</v>
+      </c>
+      <c r="W140" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>336</v>
       </c>
@@ -13023,7 +13481,7 @@
         <v>480</v>
       </c>
       <c r="I141" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="J141" t="s">
         <v>511</v>
@@ -13032,28 +13490,31 @@
         <v>511</v>
       </c>
       <c r="O141" s="8" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="P141" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="Q141" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R141" t="s">
         <v>1387</v>
       </c>
-      <c r="R141" t="s">
-        <v>1388</v>
-      </c>
-      <c r="T141" t="s">
-        <v>628</v>
+      <c r="T141" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U141" t="s">
-        <v>1386</v>
+        <v>627</v>
       </c>
       <c r="V141" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+      <c r="W141" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>257</v>
       </c>
@@ -13073,7 +13534,7 @@
         <v>467</v>
       </c>
       <c r="I142" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="J142" t="s">
         <v>463</v>
@@ -13085,31 +13546,34 @@
         <v>456</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="P142" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q142" t="s">
+        <v>1390</v>
+      </c>
+      <c r="R142" t="s">
         <v>1391</v>
       </c>
-      <c r="R142" t="s">
+      <c r="S142" t="s">
         <v>1392</v>
       </c>
-      <c r="S142" t="s">
+      <c r="T142" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="U142" t="s">
+        <v>627</v>
+      </c>
+      <c r="V142" t="s">
         <v>1393</v>
       </c>
-      <c r="T142" t="s">
-        <v>628</v>
-      </c>
-      <c r="U142" t="s">
-        <v>1394</v>
-      </c>
-      <c r="V142" t="s">
+      <c r="W142" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>339</v>
       </c>
@@ -13129,7 +13593,7 @@
         <v>487</v>
       </c>
       <c r="I143" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J143" t="s">
         <v>457</v>
@@ -13141,28 +13605,31 @@
         <v>451</v>
       </c>
       <c r="O143" s="8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="P143" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>1397</v>
+      </c>
+      <c r="S143" t="s">
+        <v>1394</v>
+      </c>
+      <c r="T143" s="10" t="s">
+        <v>1558</v>
+      </c>
+      <c r="U143" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V143" t="s">
+        <v>1399</v>
+      </c>
+      <c r="W143" t="s">
         <v>1396</v>
       </c>
-      <c r="P143" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>1398</v>
-      </c>
-      <c r="S143" t="s">
-        <v>1395</v>
-      </c>
-      <c r="T143" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U143" t="s">
-        <v>1400</v>
-      </c>
-      <c r="V143" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>260</v>
       </c>
@@ -13194,28 +13661,31 @@
         <v>457</v>
       </c>
       <c r="O144" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="P144" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q144" t="s">
         <v>720</v>
       </c>
-      <c r="P144" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q144" t="s">
+      <c r="R144" t="s">
         <v>721</v>
       </c>
-      <c r="R144" t="s">
+      <c r="S144" t="s">
         <v>722</v>
       </c>
-      <c r="S144" t="s">
+      <c r="T144" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U144" t="s">
+        <v>627</v>
+      </c>
+      <c r="V144" t="s">
         <v>723</v>
       </c>
-      <c r="T144" t="s">
-        <v>628</v>
-      </c>
-      <c r="U144" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -13238,7 +13708,7 @@
         <v>467</v>
       </c>
       <c r="I145" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J145" t="s">
         <v>463</v>
@@ -13247,31 +13717,34 @@
         <v>456</v>
       </c>
       <c r="O145" s="8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="P145" t="s">
         <v>1401</v>
       </c>
-      <c r="P145" t="s">
+      <c r="Q145" t="s">
         <v>1402</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="R145" t="s">
         <v>1403</v>
       </c>
-      <c r="R145" t="s">
+      <c r="S145" t="s">
         <v>1404</v>
       </c>
-      <c r="S145" t="s">
-        <v>1405</v>
-      </c>
-      <c r="T145" t="s">
-        <v>628</v>
+      <c r="T145" s="10" t="s">
+        <v>1557</v>
       </c>
       <c r="U145" t="s">
-        <v>1407</v>
+        <v>627</v>
       </c>
       <c r="V145" t="s">
+        <v>1406</v>
+      </c>
+      <c r="W145" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -13291,7 +13764,7 @@
         <v>466</v>
       </c>
       <c r="I146" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J146" t="s">
         <v>461</v>
@@ -13300,31 +13773,34 @@
         <v>455</v>
       </c>
       <c r="O146" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="P146" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>1409</v>
+      </c>
+      <c r="R146" t="s">
         <v>1408</v>
       </c>
-      <c r="P146" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>1410</v>
-      </c>
-      <c r="R146" t="s">
-        <v>1409</v>
-      </c>
       <c r="S146" t="s">
-        <v>901</v>
-      </c>
-      <c r="T146" t="s">
-        <v>628</v>
+        <v>900</v>
+      </c>
+      <c r="T146" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U146" t="s">
-        <v>1412</v>
+        <v>627</v>
       </c>
       <c r="V146" t="s">
+        <v>1411</v>
+      </c>
+      <c r="W146" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>342</v>
       </c>
@@ -13347,7 +13823,7 @@
         <v>474</v>
       </c>
       <c r="I147" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J147" t="s">
         <v>453</v>
@@ -13362,28 +13838,31 @@
         <v>455</v>
       </c>
       <c r="O147" s="8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="P147" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q147" t="s">
         <v>1413</v>
       </c>
-      <c r="P147" t="s">
-        <v>876</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>1414</v>
-      </c>
       <c r="S147" t="s">
-        <v>1416</v>
-      </c>
-      <c r="T147" t="s">
-        <v>1552</v>
+        <v>1415</v>
+      </c>
+      <c r="T147" s="10" t="s">
+        <v>1558</v>
       </c>
       <c r="U147" t="s">
-        <v>1418</v>
+        <v>1551</v>
       </c>
       <c r="V147" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W147" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>58</v>
       </c>
@@ -13403,7 +13882,7 @@
         <v>466</v>
       </c>
       <c r="I148" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="J148" t="s">
         <v>509</v>
@@ -13415,28 +13894,31 @@
         <v>509</v>
       </c>
       <c r="O148" s="8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="P148" t="s">
+        <v>613</v>
+      </c>
+      <c r="R148" t="s">
         <v>1419</v>
       </c>
-      <c r="P148" t="s">
-        <v>614</v>
-      </c>
-      <c r="R148" t="s">
+      <c r="S148" t="s">
+        <v>732</v>
+      </c>
+      <c r="T148" s="10" t="s">
+        <v>1561</v>
+      </c>
+      <c r="U148" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V148" t="s">
         <v>1420</v>
       </c>
-      <c r="S148" t="s">
-        <v>733</v>
-      </c>
-      <c r="T148" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U148" t="s">
-        <v>1421</v>
-      </c>
-      <c r="V148" t="s">
+      <c r="W148" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>135</v>
       </c>
@@ -13456,7 +13938,7 @@
         <v>465</v>
       </c>
       <c r="I149" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="J149" t="s">
         <v>457</v>
@@ -13465,28 +13947,31 @@
         <v>457</v>
       </c>
       <c r="O149" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="P149" t="s">
+        <v>622</v>
+      </c>
+      <c r="R149" t="s">
         <v>1423</v>
       </c>
-      <c r="P149" t="s">
-        <v>623</v>
-      </c>
-      <c r="R149" t="s">
+      <c r="S149" t="s">
+        <v>900</v>
+      </c>
+      <c r="T149" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U149" t="s">
+        <v>627</v>
+      </c>
+      <c r="V149" t="s">
         <v>1424</v>
       </c>
-      <c r="S149" t="s">
-        <v>901</v>
-      </c>
-      <c r="T149" t="s">
-        <v>628</v>
-      </c>
-      <c r="U149" t="s">
-        <v>1425</v>
-      </c>
-      <c r="V149" t="s">
+      <c r="W149" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>345</v>
       </c>
@@ -13509,37 +13994,40 @@
         <v>467</v>
       </c>
       <c r="I150" t="s">
+        <v>1428</v>
+      </c>
+      <c r="J150" t="s">
+        <v>457</v>
+      </c>
+      <c r="L150" t="s">
+        <v>457</v>
+      </c>
+      <c r="O150" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="P150" t="s">
+        <v>774</v>
+      </c>
+      <c r="R150" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S150" t="s">
+        <v>1427</v>
+      </c>
+      <c r="T150" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U150" t="s">
+        <v>627</v>
+      </c>
+      <c r="V150" t="s">
         <v>1429</v>
       </c>
-      <c r="J150" t="s">
-        <v>457</v>
-      </c>
-      <c r="L150" t="s">
-        <v>457</v>
-      </c>
-      <c r="O150" s="8" t="s">
-        <v>1427</v>
-      </c>
-      <c r="P150" t="s">
-        <v>775</v>
-      </c>
-      <c r="R150" t="s">
-        <v>1434</v>
-      </c>
-      <c r="S150" t="s">
-        <v>1428</v>
-      </c>
-      <c r="T150" t="s">
-        <v>628</v>
-      </c>
-      <c r="U150" t="s">
-        <v>1430</v>
-      </c>
-      <c r="V150" t="s">
+      <c r="W150" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>430</v>
       </c>
@@ -13562,37 +14050,40 @@
         <v>467</v>
       </c>
       <c r="I151" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J151" t="s">
+        <v>457</v>
+      </c>
+      <c r="L151" t="s">
+        <v>457</v>
+      </c>
+      <c r="O151" s="8" t="s">
+        <v>1430</v>
+      </c>
+      <c r="P151" t="s">
+        <v>1431</v>
+      </c>
+      <c r="R151" t="s">
+        <v>1432</v>
+      </c>
+      <c r="S151" t="s">
+        <v>1434</v>
+      </c>
+      <c r="T151" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U151" t="s">
+        <v>627</v>
+      </c>
+      <c r="V151" t="s">
         <v>1436</v>
       </c>
-      <c r="J151" t="s">
-        <v>457</v>
-      </c>
-      <c r="L151" t="s">
-        <v>457</v>
-      </c>
-      <c r="O151" s="8" t="s">
-        <v>1431</v>
-      </c>
-      <c r="P151" t="s">
-        <v>1432</v>
-      </c>
-      <c r="R151" t="s">
-        <v>1433</v>
-      </c>
-      <c r="S151" t="s">
-        <v>1435</v>
-      </c>
-      <c r="T151" t="s">
-        <v>628</v>
-      </c>
-      <c r="U151" t="s">
-        <v>1437</v>
-      </c>
-      <c r="V151" t="s">
+      <c r="W151" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -13612,7 +14103,7 @@
         <v>467</v>
       </c>
       <c r="I152" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="J152" t="s">
         <v>511</v>
@@ -13621,28 +14112,31 @@
         <v>511</v>
       </c>
       <c r="O152" s="8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="P152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="R152" t="s">
         <v>1438</v>
       </c>
-      <c r="P152" t="s">
-        <v>1543</v>
-      </c>
-      <c r="R152" t="s">
+      <c r="S152" t="s">
         <v>1439</v>
       </c>
-      <c r="S152" t="s">
+      <c r="T152" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U152" t="s">
+        <v>627</v>
+      </c>
+      <c r="V152" t="s">
         <v>1440</v>
       </c>
-      <c r="T152" t="s">
-        <v>628</v>
-      </c>
-      <c r="U152" t="s">
-        <v>1441</v>
-      </c>
-      <c r="V152" t="s">
+      <c r="W152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>82</v>
       </c>
@@ -13662,7 +14156,7 @@
         <v>466</v>
       </c>
       <c r="I153" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="J153" t="s">
         <v>461</v>
@@ -13677,31 +14171,34 @@
         <v>454</v>
       </c>
       <c r="O153" s="8" t="s">
+        <v>1443</v>
+      </c>
+      <c r="P153" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>1442</v>
+      </c>
+      <c r="R153" t="s">
         <v>1444</v>
       </c>
-      <c r="P153" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>1443</v>
-      </c>
-      <c r="R153" t="s">
+      <c r="S153" t="s">
         <v>1445</v>
       </c>
-      <c r="S153" t="s">
+      <c r="T153" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U153" t="s">
+        <v>627</v>
+      </c>
+      <c r="V153" t="s">
         <v>1446</v>
       </c>
-      <c r="T153" t="s">
-        <v>628</v>
-      </c>
-      <c r="U153" t="s">
-        <v>1447</v>
-      </c>
-      <c r="V153" t="s">
+      <c r="W153" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>433</v>
       </c>
@@ -13733,31 +14230,34 @@
         <v>451</v>
       </c>
       <c r="O154" s="8" t="s">
+        <v>1448</v>
+      </c>
+      <c r="P154" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q154" t="s">
         <v>1449</v>
       </c>
-      <c r="P154" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q154" t="s">
+      <c r="R154" t="s">
         <v>1450</v>
       </c>
-      <c r="R154" t="s">
+      <c r="S154" t="s">
         <v>1451</v>
       </c>
-      <c r="S154" t="s">
+      <c r="T154" s="10" t="s">
+        <v>1562</v>
+      </c>
+      <c r="U154" t="s">
+        <v>1549</v>
+      </c>
+      <c r="V154" t="s">
         <v>1452</v>
       </c>
-      <c r="T154" t="s">
-        <v>1550</v>
-      </c>
-      <c r="U154" t="s">
+      <c r="W154" t="s">
         <v>1453</v>
       </c>
-      <c r="V154" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>62</v>
       </c>
@@ -13786,28 +14286,31 @@
         <v>454</v>
       </c>
       <c r="O155" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="P155" t="s">
+        <v>622</v>
+      </c>
+      <c r="R155" t="s">
         <v>725</v>
       </c>
-      <c r="P155" t="s">
-        <v>623</v>
-      </c>
-      <c r="R155" t="s">
+      <c r="S155" t="s">
         <v>726</v>
       </c>
-      <c r="S155" t="s">
+      <c r="T155" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="U155" t="s">
+        <v>627</v>
+      </c>
+      <c r="V155" t="s">
         <v>727</v>
       </c>
-      <c r="T155" t="s">
-        <v>628</v>
-      </c>
-      <c r="U155" t="s">
-        <v>728</v>
-      </c>
-      <c r="V155" t="s">
+      <c r="W155" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>348</v>
       </c>
@@ -13829,7 +14332,7 @@
       </c>
       <c r="H156"/>
       <c r="I156" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J156" t="s">
         <v>457</v>
@@ -13845,31 +14348,34 @@
       </c>
       <c r="N156"/>
       <c r="O156" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P156" t="s">
         <v>1455</v>
       </c>
-      <c r="P156" t="s">
+      <c r="Q156" t="s">
         <v>1456</v>
       </c>
-      <c r="Q156" t="s">
+      <c r="R156" t="s">
+        <v>1462</v>
+      </c>
+      <c r="S156" t="s">
+        <v>843</v>
+      </c>
+      <c r="T156" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U156" t="s">
+        <v>627</v>
+      </c>
+      <c r="V156" t="s">
         <v>1457</v>
       </c>
-      <c r="R156" t="s">
-        <v>1463</v>
-      </c>
-      <c r="S156" t="s">
-        <v>844</v>
-      </c>
-      <c r="T156" t="s">
-        <v>628</v>
-      </c>
-      <c r="U156" t="s">
-        <v>1458</v>
-      </c>
-      <c r="V156" t="s">
+      <c r="W156" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -13889,7 +14395,7 @@
         <v>466</v>
       </c>
       <c r="I157" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="J157" t="s">
         <v>463</v>
@@ -13898,31 +14404,34 @@
         <v>456</v>
       </c>
       <c r="O157" s="8" t="s">
+        <v>1459</v>
+      </c>
+      <c r="P157" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Q157" t="s">
         <v>1460</v>
       </c>
-      <c r="P157" t="s">
-        <v>1076</v>
-      </c>
-      <c r="Q157" t="s">
+      <c r="R157" t="s">
         <v>1461</v>
       </c>
-      <c r="R157" t="s">
-        <v>1462</v>
-      </c>
       <c r="S157" t="s">
+        <v>1463</v>
+      </c>
+      <c r="T157" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="U157" t="s">
+        <v>627</v>
+      </c>
+      <c r="V157" t="s">
         <v>1464</v>
       </c>
-      <c r="T157" t="s">
-        <v>628</v>
-      </c>
-      <c r="U157" t="s">
-        <v>1465</v>
-      </c>
-      <c r="V157" t="s">
+      <c r="W157" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>436</v>
       </c>
@@ -13945,7 +14454,7 @@
         <v>478</v>
       </c>
       <c r="I158" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="J158" t="s">
         <v>511</v>
@@ -13954,28 +14463,31 @@
         <v>511</v>
       </c>
       <c r="O158" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P158" t="s">
+        <v>774</v>
+      </c>
+      <c r="R158" t="s">
         <v>1467</v>
       </c>
-      <c r="P158" t="s">
-        <v>775</v>
-      </c>
-      <c r="R158" t="s">
+      <c r="S158" t="s">
+        <v>777</v>
+      </c>
+      <c r="T158" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U158" t="s">
+        <v>627</v>
+      </c>
+      <c r="V158" t="s">
+        <v>1470</v>
+      </c>
+      <c r="W158" t="s">
         <v>1468</v>
       </c>
-      <c r="S158" t="s">
-        <v>778</v>
-      </c>
-      <c r="T158" t="s">
-        <v>628</v>
-      </c>
-      <c r="U158" t="s">
-        <v>1471</v>
-      </c>
-      <c r="V158" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>64</v>
       </c>
@@ -13995,7 +14507,7 @@
         <v>466</v>
       </c>
       <c r="I159" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="J159" t="s">
         <v>511</v>
@@ -14004,25 +14516,28 @@
         <v>511</v>
       </c>
       <c r="O159" s="8" t="s">
+        <v>1471</v>
+      </c>
+      <c r="P159" t="s">
+        <v>711</v>
+      </c>
+      <c r="S159" t="s">
         <v>1472</v>
       </c>
-      <c r="P159" t="s">
-        <v>712</v>
-      </c>
-      <c r="S159" t="s">
+      <c r="T159" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U159" t="s">
+        <v>627</v>
+      </c>
+      <c r="V159" t="s">
         <v>1473</v>
       </c>
-      <c r="T159" t="s">
-        <v>628</v>
-      </c>
-      <c r="U159" t="s">
-        <v>1474</v>
-      </c>
-      <c r="V159" t="s">
+      <c r="W159" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -14048,28 +14563,31 @@
         <v>450</v>
       </c>
       <c r="O160" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="P160" t="s">
+        <v>622</v>
+      </c>
+      <c r="R160" t="s">
+        <v>1477</v>
+      </c>
+      <c r="S160" t="s">
+        <v>1478</v>
+      </c>
+      <c r="T160" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U160" t="s">
+        <v>627</v>
+      </c>
+      <c r="V160" t="s">
+        <v>1479</v>
+      </c>
+      <c r="W160" t="s">
         <v>1476</v>
       </c>
-      <c r="P160" t="s">
-        <v>623</v>
-      </c>
-      <c r="R160" t="s">
-        <v>1478</v>
-      </c>
-      <c r="S160" t="s">
-        <v>1479</v>
-      </c>
-      <c r="T160" t="s">
-        <v>628</v>
-      </c>
-      <c r="U160" t="s">
-        <v>1480</v>
-      </c>
-      <c r="V160" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>439</v>
       </c>
@@ -14092,7 +14610,7 @@
         <v>480</v>
       </c>
       <c r="I161" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="J161" t="s">
         <v>509</v>
@@ -14104,28 +14622,31 @@
         <v>451</v>
       </c>
       <c r="O161" s="8" t="s">
+        <v>1480</v>
+      </c>
+      <c r="P161" t="s">
         <v>1481</v>
       </c>
-      <c r="P161" t="s">
+      <c r="R161" t="s">
         <v>1482</v>
       </c>
-      <c r="R161" t="s">
+      <c r="S161" t="s">
+        <v>843</v>
+      </c>
+      <c r="T161" s="10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="U161" t="s">
+        <v>627</v>
+      </c>
+      <c r="V161" t="s">
         <v>1483</v>
       </c>
-      <c r="S161" t="s">
-        <v>844</v>
-      </c>
-      <c r="T161" t="s">
-        <v>628</v>
-      </c>
-      <c r="U161" t="s">
-        <v>1484</v>
-      </c>
-      <c r="V161" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W161" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>263</v>
       </c>
@@ -14154,28 +14675,31 @@
         <v>451</v>
       </c>
       <c r="O162" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="P162" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q162" t="s">
         <v>729</v>
       </c>
-      <c r="P162" t="s">
+      <c r="R162" t="s">
+        <v>730</v>
+      </c>
+      <c r="S162" t="s">
         <v>732</v>
       </c>
-      <c r="Q162" t="s">
-        <v>730</v>
-      </c>
-      <c r="R162" t="s">
-        <v>731</v>
-      </c>
-      <c r="S162" t="s">
+      <c r="T162" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U162" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V162" t="s">
         <v>733</v>
       </c>
-      <c r="T162" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U162" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -14198,7 +14722,7 @@
         <v>480</v>
       </c>
       <c r="I163" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="J163" t="s">
         <v>457</v>
@@ -14213,31 +14737,34 @@
         <v>455</v>
       </c>
       <c r="O163" s="8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="P163" t="s">
         <v>1487</v>
       </c>
-      <c r="P163" t="s">
+      <c r="Q163" t="s">
         <v>1488</v>
       </c>
-      <c r="Q163" t="s">
+      <c r="R163" t="s">
         <v>1489</v>
       </c>
-      <c r="R163" t="s">
+      <c r="S163" t="s">
         <v>1490</v>
       </c>
-      <c r="S163" t="s">
-        <v>1491</v>
-      </c>
-      <c r="T163" t="s">
-        <v>628</v>
+      <c r="T163" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U163" t="s">
+        <v>627</v>
+      </c>
+      <c r="V163" t="s">
+        <v>1492</v>
+      </c>
+      <c r="W163" t="s">
         <v>1493</v>
       </c>
-      <c r="V163" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>442</v>
       </c>
@@ -14263,31 +14790,34 @@
         <v>457</v>
       </c>
       <c r="O164" s="8" t="s">
+        <v>1494</v>
+      </c>
+      <c r="P164" t="s">
+        <v>1496</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>1497</v>
+      </c>
+      <c r="R164" t="s">
         <v>1495</v>
       </c>
-      <c r="P164" t="s">
-        <v>1497</v>
-      </c>
-      <c r="Q164" t="s">
+      <c r="S164" t="s">
         <v>1498</v>
       </c>
-      <c r="R164" t="s">
-        <v>1496</v>
-      </c>
-      <c r="S164" t="s">
+      <c r="T164" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U164" t="s">
+        <v>627</v>
+      </c>
+      <c r="V164" t="s">
         <v>1499</v>
       </c>
-      <c r="T164" t="s">
-        <v>628</v>
-      </c>
-      <c r="U164" t="s">
-        <v>1500</v>
-      </c>
-      <c r="V164" t="s">
+      <c r="W164" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>66</v>
       </c>
@@ -14313,31 +14843,34 @@
         <v>457</v>
       </c>
       <c r="O165" s="8" t="s">
+        <v>1500</v>
+      </c>
+      <c r="P165" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q165" t="s">
         <v>1501</v>
       </c>
-      <c r="P165" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q165" t="s">
+      <c r="R165" t="s">
         <v>1502</v>
       </c>
-      <c r="R165" t="s">
+      <c r="S165" t="s">
         <v>1503</v>
       </c>
-      <c r="S165" t="s">
+      <c r="T165" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U165" t="s">
+        <v>627</v>
+      </c>
+      <c r="V165" t="s">
         <v>1504</v>
       </c>
-      <c r="T165" t="s">
-        <v>628</v>
-      </c>
-      <c r="U165" t="s">
-        <v>1505</v>
-      </c>
-      <c r="V165" t="s">
+      <c r="W165" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>137</v>
       </c>
@@ -14363,31 +14896,34 @@
         <v>457</v>
       </c>
       <c r="O166" s="8" t="s">
+        <v>1505</v>
+      </c>
+      <c r="P166" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>880</v>
+      </c>
+      <c r="R166" t="s">
         <v>1506</v>
       </c>
-      <c r="P166" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>881</v>
-      </c>
-      <c r="R166" t="s">
+      <c r="S166" t="s">
         <v>1507</v>
       </c>
-      <c r="S166" t="s">
+      <c r="T166" s="10" t="s">
+        <v>1554</v>
+      </c>
+      <c r="U166" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V166" t="s">
         <v>1508</v>
       </c>
-      <c r="T166" t="s">
-        <v>1551</v>
-      </c>
-      <c r="U166" t="s">
-        <v>1509</v>
-      </c>
-      <c r="V166" t="s">
+      <c r="W166" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>269</v>
       </c>
@@ -14410,7 +14946,7 @@
         <v>466</v>
       </c>
       <c r="I167" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="J167" t="s">
         <v>463</v>
@@ -14422,31 +14958,34 @@
         <v>456</v>
       </c>
       <c r="O167" s="8" t="s">
+        <v>1509</v>
+      </c>
+      <c r="P167" t="s">
         <v>1510</v>
       </c>
-      <c r="P167" t="s">
+      <c r="Q167" t="s">
         <v>1511</v>
       </c>
-      <c r="Q167" t="s">
+      <c r="R167" t="s">
         <v>1512</v>
       </c>
-      <c r="R167" t="s">
-        <v>1513</v>
-      </c>
       <c r="S167" t="s">
-        <v>733</v>
-      </c>
-      <c r="T167" t="s">
-        <v>628</v>
+        <v>732</v>
+      </c>
+      <c r="T167" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="U167" t="s">
-        <v>1515</v>
+        <v>627</v>
       </c>
       <c r="V167" t="s">
+        <v>1514</v>
+      </c>
+      <c r="W167" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>139</v>
       </c>
@@ -14466,7 +15005,7 @@
         <v>466</v>
       </c>
       <c r="I168" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="J168" t="s">
         <v>462</v>
@@ -14478,28 +15017,31 @@
         <v>452</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="P168" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R168" t="s">
+        <v>1517</v>
+      </c>
+      <c r="S168" t="s">
+        <v>1261</v>
+      </c>
+      <c r="T168" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U168" t="s">
+        <v>627</v>
+      </c>
+      <c r="V168" t="s">
         <v>1518</v>
       </c>
-      <c r="S168" t="s">
-        <v>1262</v>
-      </c>
-      <c r="T168" t="s">
-        <v>628</v>
-      </c>
-      <c r="U168" t="s">
-        <v>1519</v>
-      </c>
-      <c r="V168" t="s">
+      <c r="W168" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>272</v>
       </c>
@@ -14519,7 +15061,7 @@
         <v>466</v>
       </c>
       <c r="I169" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="J169" t="s">
         <v>509</v>
@@ -14528,31 +15070,34 @@
         <v>451</v>
       </c>
       <c r="O169" s="8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="P169" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>1522</v>
+      </c>
+      <c r="R169" t="s">
         <v>1521</v>
       </c>
-      <c r="P169" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q169" t="s">
+      <c r="S169" t="s">
         <v>1523</v>
       </c>
-      <c r="R169" t="s">
-        <v>1522</v>
-      </c>
-      <c r="S169" t="s">
+      <c r="T169" s="10" t="s">
+        <v>1561</v>
+      </c>
+      <c r="U169" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V169" t="s">
         <v>1524</v>
       </c>
-      <c r="T169" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U169" t="s">
-        <v>1525</v>
-      </c>
-      <c r="V169" t="s">
+      <c r="W169" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>166</v>
       </c>
@@ -14578,31 +15123,34 @@
         <v>456</v>
       </c>
       <c r="O170" s="8" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P170" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q170" t="s">
         <v>1526</v>
       </c>
-      <c r="P170" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q170" t="s">
+      <c r="R170" t="s">
         <v>1527</v>
       </c>
-      <c r="R170" t="s">
+      <c r="S170" t="s">
         <v>1528</v>
       </c>
-      <c r="S170" t="s">
-        <v>1529</v>
-      </c>
-      <c r="T170" t="s">
-        <v>628</v>
+      <c r="T170" s="10" t="s">
+        <v>1555</v>
       </c>
       <c r="U170" t="s">
-        <v>1531</v>
+        <v>627</v>
       </c>
       <c r="V170" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W170" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>141</v>
       </c>
@@ -14628,32 +15176,35 @@
         <v>457</v>
       </c>
       <c r="O171" s="8" t="s">
+        <v>1531</v>
+      </c>
+      <c r="P171" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>1169</v>
+      </c>
+      <c r="R171" t="s">
         <v>1532</v>
       </c>
-      <c r="P171" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>1170</v>
-      </c>
-      <c r="R171" t="s">
+      <c r="S171" t="s">
+        <v>1171</v>
+      </c>
+      <c r="T171" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U171" t="s">
+        <v>627</v>
+      </c>
+      <c r="V171" t="s">
         <v>1533</v>
       </c>
-      <c r="S171" t="s">
-        <v>1172</v>
-      </c>
-      <c r="T171" t="s">
-        <v>628</v>
-      </c>
-      <c r="U171" t="s">
-        <v>1534</v>
-      </c>
-      <c r="V171" t="s">
+      <c r="W171" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V171">
+  <autoFilter ref="A1:W171">
     <sortState ref="A2:V171">
       <sortCondition ref="B1:B171"/>
     </sortState>

--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="1596">
   <si>
     <t>title</t>
   </si>
@@ -4718,13 +4718,109 @@
   </si>
   <si>
     <t>value type arias arevalo</t>
+  </si>
+  <si>
+    <t>fundamental;instrumental; eudaimonistic</t>
+  </si>
+  <si>
+    <t>RG thoughts on relationality of values</t>
+  </si>
+  <si>
+    <t>Rachelle summary</t>
+  </si>
+  <si>
+    <t>Agree that relational is the best category for the items listed - they speak to the relationships people have with that place, or might want to have with it</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>I don't see the values mentioned in Table 3 as relational. Were you thinking of ones such as "better motivated workforce," maybe? I don't see anything that is about the relationship between people and nature.</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>Not sure I agree with the reasoning in "societal benefit description"; I also think "intrinsic" might be add-able. I think instrumental is clearly there, in the general purposes of EO in this study. But for relational, I don't think the slavery example is really about relational values; it's neither peoples' relationships with nature, nor even really the relationship between people. I do see relational, however, in Figure 3 - "Inspire interest in natural world" and maybe "raise awareness of issues". I might even say this could be coded as intrinsic; I think the slavery case study is about upholding the intrinsic value of humans. It's about rights of those possibly enslaved people.</t>
+  </si>
+  <si>
+    <t>Agree with categorization but for different reasons, and add intrinsic</t>
+  </si>
+  <si>
+    <t>From the abstract, it doesn't seem like the values listed at left are values that the EO are contributing to. The value the EO are providing here seems to be to get farmers paid for damages to their crops, via crop insurance. BUT, the way the paper is written, it claims that the EO did contribute to the values listed, and I agree that they're a combo of relational and instrumental. The main one that is relational is trust - trust among farmers and between farmers and the companies.</t>
+  </si>
+  <si>
+    <t>Agree but only think some values are relational</t>
+  </si>
+  <si>
+    <t>I agree with classfication, but I would add to the notes that to me, relationality is perhaps most evident in this finding: "we find that when interacting with orthomosaics created from UAV images of their farms, farmers’ responses reveal a greater focus on management strategies at larger spatial and temporal scales. UAV imagery thus supports studies of agricultural heritage not only by recording agricultural spaces but also by revealing agrarian knowledge and practices." ... and potentially by helping farmers see a type of interconnectedness and larger scale they hadn't seen before? (Maura might tell us if they found that or not; see email on July 13).</t>
+  </si>
+  <si>
+    <t>Agree and have added reasons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure I see relational values here. The "sentiment analysis" is less about sentiment per se, and more looks like they used automated coding of their data, to reveal what I see as instrumental benefits of EO -- more efficiency, makes work easier. People are positive about EO, but it seems like they are mostly positive about instrumental values. </t>
+  </si>
+  <si>
+    <t>I think the relational values are evident in this paragraph of the results (basically, increases relationality of the mapping process - more human-human relational values, but also a bit allowing people to express relationships with the land more fluidly): "Practitioners have observed that the remote sensing image enables participation of people who previously had limitations to participate in planning activities, such as elderly and disabled. With the image there is less need to GPS track land uses in order to map them, which is an activity where physically challenged people cannot participate. The image enables these people to visually examine their village landscape and subsequently express their knowledge using the analogue or digital remote sensing image as a visual aid. Practitioners also mention having seen how the remote sensing image is engaging to participants. According to them it is fun, captures participants’ attention and keeps them actively engaged during the mapping exercise. Interviewed practitioners have observed impact of use of remote sensing image on the quality of decision-making among participants in terms of better understanding of the planning issues and capture of wider participant views. Most practitioners (9) have noticed the increase of participants’ spatial understanding such as on environmental condition, relative size of areas, and magnitude of resources. 84% of the participants who answered the survey (n = 351) stated that they learned something new about their environment during the exercises with images (Fig. 3). The practitioners have observed the remote sensing image to create a room for discussion and help participants to express themselves. 89% of the surveyed participants (n = 351) think images helped them in the discussion (Fig. 3). "</t>
+  </si>
+  <si>
+    <t>I think maybe there is conflation between relational values and justice in a couple of these -- the modern slavery one is maybe another example. There is value above and beyond instrumental here, but I don't think it's really relational value -- it's better distribution of instrumental value, which is a justice thing.  Here is a sentence that I think best summarizes this paper's point (which I found difficult to fully grasp until I read this sentence): "By including height into the tree allocation strategy, fewer trees were allocated to blocks with higher quality pre-existing canopies and were instead redistributed to blocks with relatively lower quality tree canopies. " So, LiDAR and machine learning allow them to do that, which allows a more just response (but not necsesarily one with more relational value)</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Agree! Great example. I'd add something like the following: the use of EO in this case allows expression of relational values the Indigenous communities have, e.g., as expressed for instance in this quote from the authors' data collection: "The forest is our home, our market, our hospital: that's why we protect it. But foreigners, strangers who come, they think that the forest is like an object which can be sold, we don't allow this."</t>
+  </si>
+  <si>
+    <t>A bit less obvious, the relational value here …. But I see why you coded it. I guess the argument is that better weather forecasts allow people to better plan recreational activities and outdoor work, which both contribute to relational values -- so the EO contributes to relational values. There's a little bit of extrapolation involved in that, from the data provided, but I think it's reasonable.</t>
+  </si>
+  <si>
+    <t>Yes! I think the culturla benefits they mention certainly qualify, some of them, as relational (changing the way people see their relationship with the planet). In general, very interesting paper in general for our purposes, and I really like their discussion of cultural and leisure activities and foregrounding these.  Definitely one we should cite as motivation for the more "perceptual" work we're doing. They don't mention that specifically, but I think we could say that they have recognized the "cultural" implications and that we're taking it a step further to the perceptual aspects.</t>
+  </si>
+  <si>
+    <t>This is a very unique publication; it's offering a general way of calculating the social value of scientific publications in general, using EO as a model. It also comes up with a "social value of EO". I think the argument that it's realational comes from its calculation of SOCIAL value, and that includes elements such as links between people, for instance, how others are using a given publication (via citation). That is MAYBE relational, but more in the sense that it describes relationships, rather than it's about the relationships themselves being valued/valuable. So, it's a borderline case, but since there may be some of that more relational valuing, I'll land on overall a weak agree :)</t>
+  </si>
+  <si>
+    <t>Not sure how the description currently there depicts relational values! But I think here, the relational values are in the nature of knowledge-sharing: the value of the EO is that it allows bridging of relationships between experts and volunteer mappers, who have more local knowledge. So it allows more relationships between knowledge types, and it is those relationships (weaving of knowledge) that create value (this makes me think of, e.g., Tengo's work on weaving knowledge systems. Essentially, because EO in the form of Open Street Maps are very intuitive to use, they can be a tool that helps to bridge knowledge systems. That is relational): "Most importantly, it [their approach] helps to bring knowledge from different sources and experts in the volunteered contribution and allows them to corroborate each other. It also enables both researchers and local people to transfer technical knowledge, collect location-specific data, and use them for better decision-making. "</t>
+  </si>
+  <si>
+    <t>Agree but perhaps for different reasons</t>
+  </si>
+  <si>
+    <t>Yes, their "societal benefit" category is very interesting and has a couple of relational elements. The strongest is that one of their "societal benefit" [of EO] categories is "Community and quality of life", which they define as "Increased sense of community and the quality of life through enhanced perception of the country/region/town/etc as a place to live."  They also mention increased ability to, for example, swim in non-polluted lakes, but they talk about that more in an instrumental way (reducing human exposure to pollution, rather than about faciliating relationships with place).</t>
+  </si>
+  <si>
+    <t>maybe…. The relational bit is really just information-sharing; it lets farmers participate and be part of the research process. It's possible that creates relational values with their land, but the paper isn't studying that. It doesn't even really seem to be talking about links between farmers (though I'm not looking at the full paper -- only the abstract, so maybe the full paper expands on the "learning community" idea and talks more about person-to-person interactions). So I would call this relational values "light", if at all.</t>
+  </si>
+  <si>
+    <t>Mostly disagree, maybe a little RV</t>
+  </si>
+  <si>
+    <t>Relational values are related to peoples' understanding of their place; this study didn't collect data on values like sense of place, but it's mentioned in the intro that similar programs can create sense of place, and the data from this study suggest that people better understood "the relationship between [landscape] features and the impact of flooding." Data also suggest that people appreciated being able to engage with the landscape in this interactive way, which has relational elements.</t>
+  </si>
+  <si>
+    <t>This seems pretty clearly to be another example of the isntrumental values contributing to distributional justice -- or justice of some kind. I don't really see the sattelites as contributing to relational values.</t>
+  </si>
+  <si>
+    <t>Borderline case; it's not entirely clear that the values students are learning/receiving are necessarily relational in nature. This sentence from the abstract is the most clear indication that the values coming from this experience might be relational: "In their multiscalar analysis of environmental data, students are forced to acknowledge the different yet overlapping operational scales of various social and ecological processes that drive landscape changes affecting Earth's resources." This is a pretty good indicatation that the EO are being used to talk about human-nature (/social-ecological) relationships, so we can call that relational values I suppose!</t>
+  </si>
+  <si>
+    <t>Another example of where the outcome is justice -- not relational values. I considered whether the rural electrification bit was relational, because it is fundamentally about using EO to better map out networks and the topologies of energy systems -- but though that is technically about relationships between places, it's stretching too far to say that is relational values.</t>
+  </si>
+  <si>
+    <t>I can't access the full article so cannot be sure -- but it seems like they're talking about recreation in a more instrumental way. That is, the abstract doesn't imply that there is anything particularly relational about the information provided, or what that information makes possible. It's possible that the full paper has relational elements (e.g., that the information contributes to fishermen creating more nuanced or deep relationships with their places? Something like that),but I'm not seeing indications of that in the abstract</t>
+  </si>
+  <si>
+    <t>Another instance of the mapping creating an instrumental value (mapping poverty) that has justice implications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4886,8 +4982,15 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5073,6 +5176,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -5234,7 +5373,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5260,6 +5399,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5581,13 +5732,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W171"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Y171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="O140" sqref="O140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5607,9 +5759,11 @@
     <col min="21" max="21" width="13.5703125" customWidth="1"/>
     <col min="22" max="22" width="12.28515625" customWidth="1"/>
     <col min="23" max="23" width="16.140625" customWidth="1"/>
+    <col min="24" max="24" width="28.5703125" customWidth="1"/>
+    <col min="25" max="25" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="6" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5679,8 +5833,14 @@
       <c r="W1" s="6" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="14" t="s">
+        <v>1565</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -5739,7 +5899,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -5798,7 +5958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -5857,69 +6017,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>2020</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="13" t="s">
         <v>509</v>
       </c>
       <c r="N5" t="s">
         <v>510</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="13" t="s">
         <v>1553</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="13" t="s">
         <v>1549</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="13" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -5975,63 +6141,70 @@
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="17">
         <v>2018</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="17" t="s">
         <v>1554</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="17" t="s">
         <v>1550</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="17" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="18" t="s">
+        <v>1569</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>352</v>
       </c>
@@ -6093,7 +6266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>91</v>
       </c>
@@ -6152,7 +6325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>194</v>
       </c>
@@ -6217,7 +6390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>355</v>
       </c>
@@ -6270,7 +6443,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -6326,7 +6499,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>358</v>
       </c>
@@ -6382,7 +6555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>200</v>
       </c>
@@ -6450,7 +6623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>197</v>
       </c>
@@ -6512,7 +6685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6568,7 +6741,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -6624,7 +6797,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -6680,7 +6853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -6739,7 +6912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>151</v>
       </c>
@@ -6795,7 +6968,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -6851,7 +7024,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -6910,7 +7083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>275</v>
       </c>
@@ -6969,7 +7142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -7022,7 +7195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -7087,7 +7260,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -7155,7 +7328,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -7214,7 +7387,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -7273,7 +7446,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>282</v>
       </c>
@@ -7326,63 +7499,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="19">
         <v>2022</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="N30"/>
+      <c r="O30" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="19" t="s">
         <v>876</v>
       </c>
-      <c r="T30" s="10" t="s">
+      <c r="T30" s="19" t="s">
         <v>1556</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" s="19" t="s">
         <v>1551</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="20" t="s">
+        <v>1571</v>
+      </c>
+      <c r="Y30" s="20" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -7435,7 +7615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -7491,7 +7671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -7550,7 +7730,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>288</v>
       </c>
@@ -7606,7 +7786,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -7662,7 +7842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -7715,63 +7895,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="13">
         <v>2020</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="O37" s="8" t="s">
+      <c r="O37" s="13" t="s">
         <v>909</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="13" t="s">
         <v>912</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="13" t="s">
         <v>914</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="T37" s="10" t="s">
-        <v>1555</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="T37" s="13" t="s">
+        <v>1564</v>
+      </c>
+      <c r="U37" s="13" t="s">
         <v>1550</v>
       </c>
-      <c r="V37" t="s">
+      <c r="V37" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W37" s="13" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37" s="15" t="s">
+        <v>1573</v>
+      </c>
+      <c r="Y37" s="15" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -7830,7 +8016,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -7886,7 +8072,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>367</v>
       </c>
@@ -7942,72 +8128,79 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="13">
         <v>2020</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="O41" s="8" t="s">
+      <c r="N41"/>
+      <c r="O41" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S41" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="T41" s="10" t="s">
+      <c r="T41" s="13" t="s">
         <v>1558</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U41" s="13" t="s">
         <v>1551</v>
       </c>
-      <c r="V41" t="s">
+      <c r="V41" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" s="13" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="15" t="s">
+        <v>1575</v>
+      </c>
+      <c r="Y41" s="15" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>294</v>
       </c>
@@ -8063,7 +8256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -8119,7 +8312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -8172,7 +8365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -8234,7 +8427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -8293,7 +8486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -8352,7 +8545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -8408,7 +8601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>373</v>
       </c>
@@ -8467,7 +8660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -8526,66 +8719,73 @@
         <v>982</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="17">
         <v>2023</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="O51" s="8" t="s">
+      <c r="N51"/>
+      <c r="O51" s="17" t="s">
         <v>985</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="17" t="s">
         <v>904</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q51" s="17" t="s">
         <v>988</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="S51" t="s">
+      <c r="S51" s="17" t="s">
         <v>965</v>
       </c>
-      <c r="T51" s="10" t="s">
+      <c r="T51" s="17" t="s">
         <v>1553</v>
       </c>
-      <c r="U51" t="s">
+      <c r="U51" s="17" t="s">
         <v>1551</v>
       </c>
-      <c r="V51" t="s">
+      <c r="V51" s="17" t="s">
         <v>990</v>
       </c>
-      <c r="W51" t="s">
+      <c r="W51" s="17" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51" s="18" t="s">
+        <v>1577</v>
+      </c>
+      <c r="Y51" s="18" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -8641,7 +8841,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>206</v>
       </c>
@@ -8688,7 +8888,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -8741,66 +8941,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="13">
         <v>2021</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="O55" s="8" t="s">
+      <c r="N55"/>
+      <c r="O55" s="13" t="s">
         <v>1006</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="13" t="s">
         <v>1007</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q55" s="13" t="s">
         <v>1008</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R55" s="13" t="s">
         <v>1009</v>
       </c>
-      <c r="S55" t="s">
+      <c r="S55" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="T55" s="10" t="s">
+      <c r="T55" s="13" t="s">
         <v>1553</v>
       </c>
-      <c r="U55" t="s">
+      <c r="U55" s="13" t="s">
         <v>1551</v>
       </c>
-      <c r="V55" t="s">
+      <c r="V55" s="13" t="s">
         <v>1011</v>
       </c>
-      <c r="W55" t="s">
+      <c r="W55" s="13" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X55" s="16" t="s">
+        <v>1578</v>
+      </c>
+      <c r="Y55" s="16" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -8853,7 +9060,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>212</v>
       </c>
@@ -8906,7 +9113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>376</v>
       </c>
@@ -8962,7 +9169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>379</v>
       </c>
@@ -9021,7 +9228,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>300</v>
       </c>
@@ -9074,7 +9281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -9136,7 +9343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>303</v>
       </c>
@@ -9198,69 +9405,76 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="19">
         <v>2023</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="19" t="s">
         <v>1053</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="O63" s="8" t="s">
+      <c r="N63"/>
+      <c r="O63" s="19" t="s">
         <v>1048</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q63" s="19" t="s">
         <v>1049</v>
       </c>
-      <c r="R63" t="s">
+      <c r="R63" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="S63" t="s">
+      <c r="S63" s="19" t="s">
         <v>1051</v>
       </c>
-      <c r="T63" s="10" t="s">
+      <c r="T63" s="19" t="s">
         <v>1557</v>
       </c>
-      <c r="U63" t="s">
+      <c r="U63" s="19" t="s">
         <v>1551</v>
       </c>
-      <c r="V63" t="s">
+      <c r="V63" s="19" t="s">
         <v>1052</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W63" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63" s="20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="Y63" s="20" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -9304,7 +9518,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -9357,7 +9571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -9419,69 +9633,76 @@
         <v>663</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="13">
         <v>2023</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="O67" s="8" t="s">
+      <c r="N67"/>
+      <c r="O67" s="13" t="s">
         <v>1060</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P67" s="13" t="s">
         <v>1535</v>
       </c>
-      <c r="Q67" s="5" t="s">
+      <c r="Q67" s="13" t="s">
         <v>1061</v>
       </c>
-      <c r="R67" s="5" t="s">
+      <c r="R67" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="S67" s="5" t="s">
+      <c r="S67" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="T67" s="11" t="s">
+      <c r="T67" s="13" t="s">
         <v>1553</v>
       </c>
-      <c r="U67" s="5" t="s">
+      <c r="U67" s="13" t="s">
         <v>1551</v>
       </c>
-      <c r="V67" s="5" t="s">
+      <c r="V67" s="13" t="s">
         <v>1066</v>
       </c>
-      <c r="W67" s="5" t="s">
+      <c r="W67" s="13" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67" s="16" t="s">
+        <v>1581</v>
+      </c>
+      <c r="Y67" s="16" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -9537,7 +9758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>385</v>
       </c>
@@ -9593,7 +9814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -9649,7 +9870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -9705,7 +9926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -9758,7 +9979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>388</v>
       </c>
@@ -9811,7 +10032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -9867,7 +10088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>218</v>
       </c>
@@ -9923,7 +10144,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>391</v>
       </c>
@@ -9979,7 +10200,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -10032,7 +10253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>394</v>
       </c>
@@ -10085,7 +10306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -10135,7 +10356,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -10194,7 +10415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -10247,7 +10468,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>309</v>
       </c>
@@ -10306,7 +10527,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -10362,7 +10583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -10415,7 +10636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>147</v>
       </c>
@@ -10468,7 +10689,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -10521,7 +10742,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>227</v>
       </c>
@@ -10577,7 +10798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>397</v>
       </c>
@@ -10630,7 +10851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -10686,7 +10907,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -10739,7 +10960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>230</v>
       </c>
@@ -10792,7 +11013,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -10845,7 +11066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -10898,7 +11119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>312</v>
       </c>
@@ -10957,7 +11178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>233</v>
       </c>
@@ -11010,7 +11231,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>400</v>
       </c>
@@ -11066,7 +11287,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>315</v>
       </c>
@@ -11122,69 +11343,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="13">
         <v>2002</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="O98" s="8" t="s">
+      <c r="N98"/>
+      <c r="O98" s="13" t="s">
         <v>1204</v>
       </c>
-      <c r="P98" t="s">
+      <c r="P98" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="R98" t="s">
+      <c r="R98" s="13" t="s">
         <v>1203</v>
       </c>
-      <c r="S98" t="s">
+      <c r="S98" s="13" t="s">
         <v>1206</v>
       </c>
-      <c r="T98" s="10" t="s">
+      <c r="T98" s="13" t="s">
         <v>1558</v>
       </c>
-      <c r="U98" t="s">
+      <c r="U98" s="13" t="s">
         <v>1551</v>
       </c>
-      <c r="V98" t="s">
+      <c r="V98" s="13" t="s">
         <v>1208</v>
       </c>
-      <c r="W98" t="s">
+      <c r="W98" s="13" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X98" s="16" t="s">
+        <v>1582</v>
+      </c>
+      <c r="Y98" s="16" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -11240,7 +11468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -11293,7 +11521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -11352,7 +11580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>318</v>
       </c>
@@ -11411,7 +11639,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -11473,7 +11701,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -11529,7 +11757,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -11588,7 +11816,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -11638,7 +11866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>321</v>
       </c>
@@ -11694,7 +11922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -11756,7 +11984,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -11806,7 +12034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>76</v>
       </c>
@@ -11862,7 +12090,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -11915,7 +12143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>403</v>
       </c>
@@ -11965,7 +12193,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>78</v>
       </c>
@@ -12015,7 +12243,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>324</v>
       </c>
@@ -12068,7 +12296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -12118,104 +12346,118 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="13">
         <v>2023</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="O116" s="8" t="s">
+      <c r="N116"/>
+      <c r="O116" s="13" t="s">
         <v>1283</v>
       </c>
-      <c r="P116" t="s">
+      <c r="P116" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="S116" t="s">
+      <c r="S116" s="13" t="s">
         <v>1242</v>
       </c>
-      <c r="T116" s="10" t="s">
+      <c r="T116" s="13" t="s">
         <v>1560</v>
       </c>
-      <c r="U116" t="s">
+      <c r="U116" s="13" t="s">
         <v>1550</v>
       </c>
-      <c r="V116" t="s">
+      <c r="V116" s="13" t="s">
         <v>1284</v>
       </c>
-      <c r="W116" t="s">
+      <c r="W116" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="X116" s="15" t="s">
+        <v>1583</v>
+      </c>
+      <c r="Y116" s="15" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="17">
         <v>2022</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="17" t="s">
         <v>1287</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L117" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="O117" s="8" t="s">
+      <c r="N117"/>
+      <c r="O117" s="17" t="s">
         <v>1285</v>
       </c>
-      <c r="P117" t="s">
+      <c r="P117" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="S117" t="s">
+      <c r="S117" s="17" t="s">
         <v>1286</v>
       </c>
-      <c r="T117" s="10" t="s">
+      <c r="T117" s="17" t="s">
         <v>1554</v>
       </c>
-      <c r="U117" t="s">
+      <c r="U117" s="17" t="s">
         <v>1550</v>
       </c>
-      <c r="V117" t="s">
+      <c r="V117" s="17" t="s">
         <v>1288</v>
       </c>
-      <c r="W117" t="s">
+      <c r="W117" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X117" s="22" t="s">
+        <v>1584</v>
+      </c>
+      <c r="Y117" s="22" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>327</v>
       </c>
@@ -12271,7 +12513,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>409</v>
       </c>
@@ -12327,7 +12569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>412</v>
       </c>
@@ -12386,7 +12628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>415</v>
       </c>
@@ -12442,7 +12684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -12495,7 +12737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>54</v>
       </c>
@@ -12545,7 +12787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -12592,7 +12834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>330</v>
       </c>
@@ -12654,57 +12896,64 @@
         <v>710</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="19">
         <v>2020</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J126" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L126" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="O126" s="8" t="s">
+      <c r="N126"/>
+      <c r="O126" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="P126" t="s">
+      <c r="P126" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="Q126" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="S126" t="s">
+      <c r="S126" s="19" t="s">
         <v>717</v>
       </c>
-      <c r="T126" s="10" t="s">
+      <c r="T126" s="19" t="s">
         <v>1553</v>
       </c>
-      <c r="U126" t="s">
+      <c r="U126" s="19" t="s">
         <v>1551</v>
       </c>
-      <c r="V126" t="s">
+      <c r="V126" s="19" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X126" s="21" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Y126" s="21" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -12757,7 +13006,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>333</v>
       </c>
@@ -12822,7 +13071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -12878,7 +13127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -12931,7 +13180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>418</v>
       </c>
@@ -12981,7 +13230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>421</v>
       </c>
@@ -13037,7 +13286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -13087,7 +13336,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>248</v>
       </c>
@@ -13143,7 +13392,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>424</v>
       </c>
@@ -13190,7 +13439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>251</v>
       </c>
@@ -13249,7 +13498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>56</v>
       </c>
@@ -13299,7 +13548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -13361,7 +13610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>427</v>
       </c>
@@ -13408,57 +13657,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="13">
         <v>2022</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="L140" t="s">
+      <c r="L140" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="O140" s="8" t="s">
+      <c r="N140"/>
+      <c r="O140" s="13" t="s">
         <v>1380</v>
       </c>
-      <c r="P140" t="s">
+      <c r="P140" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="R140" t="s">
+      <c r="R140" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="S140" t="s">
+      <c r="S140" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="T140" s="10" t="s">
+      <c r="T140" s="13" t="s">
         <v>1558</v>
       </c>
-      <c r="U140" t="s">
+      <c r="U140" s="13" t="s">
         <v>1551</v>
       </c>
-      <c r="V140" t="s">
+      <c r="V140" s="13" t="s">
         <v>1384</v>
       </c>
-      <c r="W140" t="s">
+      <c r="W140" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X140" s="16" t="s">
+        <v>1587</v>
+      </c>
+      <c r="Y140" s="16" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>336</v>
       </c>
@@ -13514,7 +13770,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>257</v>
       </c>
@@ -13573,63 +13829,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="17">
         <v>2003</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="17" t="s">
         <v>1398</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L143" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="O143" s="8" t="s">
+      <c r="N143"/>
+      <c r="O143" s="17" t="s">
         <v>1395</v>
       </c>
-      <c r="P143" t="s">
+      <c r="P143" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="Q143" t="s">
+      <c r="Q143" s="17" t="s">
         <v>1397</v>
       </c>
-      <c r="S143" t="s">
+      <c r="S143" s="17" t="s">
         <v>1394</v>
       </c>
-      <c r="T143" s="10" t="s">
+      <c r="T143" s="17" t="s">
         <v>1558</v>
       </c>
-      <c r="U143" t="s">
+      <c r="U143" s="17" t="s">
         <v>1551</v>
       </c>
-      <c r="V143" t="s">
+      <c r="V143" s="17" t="s">
         <v>1399</v>
       </c>
-      <c r="W143" t="s">
+      <c r="W143" s="17" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X143" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="Y143" s="18" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>260</v>
       </c>
@@ -13685,7 +13948,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -13744,7 +14007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -13800,125 +14063,139 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="13">
         <v>2020</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="13" t="s">
         <v>1414</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="K147" t="s">
+      <c r="K147" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L147" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="O147" s="8" t="s">
+      <c r="N147"/>
+      <c r="O147" s="13" t="s">
         <v>1412</v>
       </c>
-      <c r="P147" t="s">
+      <c r="P147" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="Q147" t="s">
+      <c r="Q147" s="13" t="s">
         <v>1413</v>
       </c>
-      <c r="S147" t="s">
+      <c r="S147" s="13" t="s">
         <v>1415</v>
       </c>
-      <c r="T147" s="10" t="s">
+      <c r="T147" s="13" t="s">
         <v>1558</v>
       </c>
-      <c r="U147" t="s">
+      <c r="U147" s="13" t="s">
         <v>1551</v>
       </c>
-      <c r="V147" t="s">
+      <c r="V147" s="13" t="s">
         <v>1417</v>
       </c>
-      <c r="W147" t="s">
+      <c r="W147" s="13" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="X147" s="16" t="s">
+        <v>1590</v>
+      </c>
+      <c r="Y147" s="16" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="19">
         <v>2022</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="19" t="s">
         <v>1421</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="L148" t="s">
+      <c r="L148" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="O148" s="8" t="s">
+      <c r="N148"/>
+      <c r="O148" s="19" t="s">
         <v>1418</v>
       </c>
-      <c r="P148" t="s">
+      <c r="P148" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="R148" t="s">
+      <c r="R148" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="S148" t="s">
+      <c r="S148" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="T148" s="10" t="s">
+      <c r="T148" s="19" t="s">
         <v>1561</v>
       </c>
-      <c r="U148" t="s">
+      <c r="U148" s="19" t="s">
         <v>1551</v>
       </c>
-      <c r="V148" t="s">
+      <c r="V148" s="19" t="s">
         <v>1420</v>
       </c>
-      <c r="W148" t="s">
+      <c r="W148" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X148" s="20" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Y148" s="20" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>135</v>
       </c>
@@ -13971,7 +14248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>345</v>
       </c>
@@ -14027,7 +14304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>430</v>
       </c>
@@ -14083,7 +14360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -14136,7 +14413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>82</v>
       </c>
@@ -14198,66 +14475,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="13">
         <v>2018</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K154" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="L154" t="s">
+      <c r="L154" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="O154" s="8" t="s">
+      <c r="N154"/>
+      <c r="O154" s="13" t="s">
         <v>1448</v>
       </c>
-      <c r="P154" t="s">
+      <c r="P154" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="Q154" t="s">
+      <c r="Q154" s="13" t="s">
         <v>1449</v>
       </c>
-      <c r="R154" t="s">
+      <c r="R154" s="13" t="s">
         <v>1450</v>
       </c>
-      <c r="S154" t="s">
+      <c r="S154" s="13" t="s">
         <v>1451</v>
       </c>
-      <c r="T154" s="10" t="s">
+      <c r="T154" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="U154" t="s">
+      <c r="U154" s="13" t="s">
         <v>1549</v>
       </c>
-      <c r="V154" t="s">
+      <c r="V154" s="13" t="s">
         <v>1452</v>
       </c>
-      <c r="W154" t="s">
+      <c r="W154" s="13" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X154" s="16" t="s">
+        <v>1592</v>
+      </c>
+      <c r="Y154" s="16" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>62</v>
       </c>
@@ -14310,7 +14594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>348</v>
       </c>
@@ -14375,7 +14659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -14431,7 +14715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>436</v>
       </c>
@@ -14487,7 +14771,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>64</v>
       </c>
@@ -14537,7 +14821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -14587,7 +14871,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>439</v>
       </c>
@@ -14646,60 +14930,67 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="19">
         <v>2015</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="J162" t="s">
+      <c r="J162" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L162" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="O162" s="8" t="s">
+      <c r="N162"/>
+      <c r="O162" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="P162" t="s">
+      <c r="P162" s="19" t="s">
         <v>731</v>
       </c>
-      <c r="Q162" t="s">
+      <c r="Q162" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="R162" t="s">
+      <c r="R162" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="S162" t="s">
+      <c r="S162" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="T162" s="10" t="s">
+      <c r="T162" s="19" t="s">
         <v>1555</v>
       </c>
-      <c r="U162" t="s">
+      <c r="U162" s="19" t="s">
         <v>1551</v>
       </c>
-      <c r="V162" t="s">
+      <c r="V162" s="19" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X162" s="20" t="s">
+        <v>1593</v>
+      </c>
+      <c r="Y162" s="20" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -14764,7 +15055,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>442</v>
       </c>
@@ -14817,7 +15108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>66</v>
       </c>
@@ -14870,60 +15161,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="166" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="17">
         <v>2008</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="J166" t="s">
+      <c r="J166" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="L166" t="s">
+      <c r="L166" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="O166" s="8" t="s">
+      <c r="N166"/>
+      <c r="O166" s="17" t="s">
         <v>1505</v>
       </c>
-      <c r="P166" t="s">
+      <c r="P166" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="Q166" t="s">
+      <c r="Q166" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="R166" t="s">
+      <c r="R166" s="17" t="s">
         <v>1506</v>
       </c>
-      <c r="S166" t="s">
+      <c r="S166" s="17" t="s">
         <v>1507</v>
       </c>
-      <c r="T166" s="10" t="s">
+      <c r="T166" s="17" t="s">
         <v>1554</v>
       </c>
-      <c r="U166" t="s">
+      <c r="U166" s="17" t="s">
         <v>1550</v>
       </c>
-      <c r="V166" t="s">
+      <c r="V166" s="17" t="s">
         <v>1508</v>
       </c>
-      <c r="W166" t="s">
+      <c r="W166" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X166" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="Y166" s="18" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>269</v>
       </c>
@@ -14985,7 +15283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>139</v>
       </c>
@@ -15041,63 +15339,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="169" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="19">
         <v>2020</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" s="19" t="s">
         <v>1519</v>
       </c>
-      <c r="J169" t="s">
+      <c r="J169" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="L169" t="s">
+      <c r="L169" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="O169" s="8" t="s">
+      <c r="N169"/>
+      <c r="O169" s="19" t="s">
         <v>1520</v>
       </c>
-      <c r="P169" t="s">
+      <c r="P169" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="Q169" t="s">
+      <c r="Q169" s="19" t="s">
         <v>1522</v>
       </c>
-      <c r="R169" t="s">
+      <c r="R169" s="19" t="s">
         <v>1521</v>
       </c>
-      <c r="S169" t="s">
+      <c r="S169" s="19" t="s">
         <v>1523</v>
       </c>
-      <c r="T169" s="10" t="s">
+      <c r="T169" s="19" t="s">
         <v>1561</v>
       </c>
-      <c r="U169" t="s">
+      <c r="U169" s="19" t="s">
         <v>1551</v>
       </c>
-      <c r="V169" t="s">
+      <c r="V169" s="19" t="s">
         <v>1524</v>
       </c>
-      <c r="W169" t="s">
+      <c r="W169" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X169" s="20" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Y169" s="20" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>166</v>
       </c>
@@ -15150,7 +15455,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>141</v>
       </c>
@@ -15205,6 +15510,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W171">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="instrumental;relational"/>
+        <filter val="relational"/>
+        <filter val="relational;instrumental"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:V171">
       <sortCondition ref="B1:B171"/>
     </sortState>

--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casey\Documents\github\sp1_systematic_map\_data\screened_fulltext\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohara/github/sp1_systematic_map/_data/screened_fulltext/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAFC8FC-15A0-4A4B-AEAB-DD82F39D0795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="9825"/>
+    <workbookView xWindow="-36840" yWindow="-900" windowWidth="31360" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ft_consolidated_revisit" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="1596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1600">
   <si>
     <t>title</t>
   </si>
@@ -4814,13 +4815,25 @@
   </si>
   <si>
     <t>Another instance of the mapping creating an instrumental value (mapping poverty) that has justice implications</t>
+  </si>
+  <si>
+    <t>Casey response</t>
+  </si>
+  <si>
+    <t>ok, recoded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are expanding beyond values related to the natural world.  I would argue that slavery is a (negative) relationship between an enslaved person and their oppressive society.  </t>
+  </si>
+  <si>
+    <t>agree in retrospect - the sentiments may be attached to relational values but these sentiments are not necessarily expressed directly, merely associated with words from interview transcripts…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5373,19 +5386,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5394,11 +5406,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5731,116 +5738,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y171"/>
+  <dimension ref="A1:Z171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O140" sqref="O140"/>
+      <selection pane="bottomRight" activeCell="Z126" sqref="Z126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="13" width="6.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="8" customWidth="1"/>
-    <col min="16" max="20" width="12.28515625" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
-    <col min="23" max="23" width="16.140625" customWidth="1"/>
-    <col min="24" max="24" width="28.5703125" customWidth="1"/>
-    <col min="25" max="25" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="7" customWidth="1"/>
+    <col min="16" max="20" width="12.33203125" customWidth="1"/>
+    <col min="21" max="21" width="13.5" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" customWidth="1"/>
+    <col min="24" max="24" width="28.5" customWidth="1"/>
+    <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="6" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:26" s="5" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="5" t="s">
         <v>1563</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>1552</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="10" t="s">
         <v>1565</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="10" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z1" s="5" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" hidden="1">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -5874,7 +5884,7 @@
       <c r="L2" t="s">
         <v>457</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>739</v>
       </c>
       <c r="P2" t="s">
@@ -5886,7 +5896,7 @@
       <c r="S2" t="s">
         <v>736</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" t="s">
         <v>627</v>
       </c>
       <c r="U2" t="s">
@@ -5899,7 +5909,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" hidden="1">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -5930,7 +5940,7 @@
       <c r="L3" t="s">
         <v>457</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>741</v>
       </c>
       <c r="P3" t="s">
@@ -5945,7 +5955,7 @@
       <c r="S3" t="s">
         <v>763</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" t="s">
         <v>627</v>
       </c>
       <c r="U3" t="s">
@@ -5958,7 +5968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -5989,7 +5999,7 @@
       <c r="L4" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>747</v>
       </c>
       <c r="P4" t="s">
@@ -6004,7 +6014,7 @@
       <c r="S4" t="s">
         <v>763</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" t="s">
         <v>627</v>
       </c>
       <c r="U4" t="s">
@@ -6017,75 +6027,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:26" s="9" customFormat="1">
+      <c r="A5" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>2020</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="9" t="s">
         <v>509</v>
       </c>
       <c r="N5" t="s">
         <v>510</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="11" t="s">
         <v>1567</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -6116,7 +6126,7 @@
       <c r="L6" t="s">
         <v>457</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>752</v>
       </c>
       <c r="P6" t="s">
@@ -6128,7 +6138,7 @@
       <c r="S6" t="s">
         <v>764</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" t="s">
         <v>627</v>
       </c>
       <c r="U6" t="s">
@@ -6141,719 +6151,722 @@
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:26" s="13" customFormat="1">
+      <c r="A7" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="13">
         <v>2018</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="17" t="s">
+      <c r="N7"/>
+      <c r="O7" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="T7" s="17" t="s">
-        <v>1554</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>1550</v>
-      </c>
-      <c r="V7" s="17" t="s">
+      <c r="T7" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="V7" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="X7" s="18" t="s">
+      <c r="X7" s="14" t="s">
         <v>1569</v>
       </c>
-      <c r="Y7" s="18" t="s">
+      <c r="Y7" s="14" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="Z7" s="13" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" hidden="1">
+      <c r="A8" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>2019</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>354</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>351</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s">
         <v>466</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>762</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" t="s">
         <v>457</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" t="s">
         <v>461</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" t="s">
         <v>457</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" t="s">
         <v>455</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" t="s">
         <v>691</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" t="s">
         <v>759</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" t="s">
         <v>760</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" t="s">
         <v>699</v>
       </c>
-      <c r="T8" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V8" s="5" t="s">
+      <c r="T8" t="s">
+        <v>627</v>
+      </c>
+      <c r="U8" t="s">
+        <v>627</v>
+      </c>
+      <c r="V8" t="s">
         <v>761</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:26" hidden="1">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>1990</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>523</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s">
         <v>780</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s">
         <v>466</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>465</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>767</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" t="s">
         <v>457</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" t="s">
         <v>457</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" t="s">
         <v>770</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" t="s">
         <v>768</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" t="s">
         <v>766</v>
       </c>
-      <c r="T9" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V9" s="5" t="s">
+      <c r="T9" t="s">
+        <v>627</v>
+      </c>
+      <c r="U9" t="s">
+        <v>627</v>
+      </c>
+      <c r="V9" t="s">
         <v>771</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="W9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:26" hidden="1">
+      <c r="A10" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>2020</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s">
         <v>779</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s">
         <v>466</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>773</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" t="s">
         <v>457</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" t="s">
         <v>460</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" t="s">
         <v>457</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" t="s">
         <v>452</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" t="s">
         <v>774</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" t="s">
         <v>775</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" t="s">
         <v>776</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" t="s">
         <v>777</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" t="s">
         <v>1555</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V10" s="5" t="s">
+      <c r="U10" t="s">
+        <v>627</v>
+      </c>
+      <c r="V10" t="s">
         <v>778</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="W10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:26" hidden="1">
+      <c r="A11" t="s">
         <v>355</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>1983</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>357</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>351</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" t="s">
         <v>466</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>467</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" t="s">
         <v>785</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" t="s">
         <v>457</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" t="s">
         <v>457</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" t="s">
         <v>622</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" t="s">
         <v>784</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" t="s">
         <v>783</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" t="s">
         <v>1555</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V11" s="5" t="s">
+      <c r="U11" t="s">
+        <v>627</v>
+      </c>
+      <c r="V11" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:26" hidden="1">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>2021</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>524</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" t="s">
         <v>501</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>792</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" t="s">
         <v>509</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" t="s">
         <v>450</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" t="s">
         <v>787</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" t="s">
         <v>788</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" t="s">
         <v>790</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" t="s">
         <v>789</v>
       </c>
-      <c r="T12" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V12" s="5" t="s">
+      <c r="T12" t="s">
+        <v>627</v>
+      </c>
+      <c r="U12" t="s">
+        <v>627</v>
+      </c>
+      <c r="V12" t="s">
         <v>793</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="W12" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:26" hidden="1">
+      <c r="A13" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>359</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>2015</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>360</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>351</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" t="s">
         <v>466</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>801</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" t="s">
         <v>457</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" t="s">
         <v>457</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" t="s">
         <v>796</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" t="s">
         <v>797</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" t="s">
         <v>798</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" t="s">
         <v>799</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V13" s="5" t="s">
+      <c r="T13" t="s">
+        <v>627</v>
+      </c>
+      <c r="U13" t="s">
+        <v>627</v>
+      </c>
+      <c r="V13" t="s">
         <v>800</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="W13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:26" hidden="1">
+      <c r="A14" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>2017</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>202</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" t="s">
         <v>508</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" t="s">
         <v>466</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>507</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" t="s">
         <v>621</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" t="s">
         <v>457</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" t="s">
         <v>461</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" t="s">
         <v>457</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" t="s">
         <v>455</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" t="s">
         <v>622</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" t="s">
         <v>623</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" t="s">
         <v>624</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" t="s">
         <v>626</v>
       </c>
-      <c r="T14" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V14" s="5" t="s">
+      <c r="T14" t="s">
+        <v>627</v>
+      </c>
+      <c r="U14" t="s">
+        <v>627</v>
+      </c>
+      <c r="V14" t="s">
         <v>628</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:26" hidden="1">
+      <c r="A15" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>2012</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>193</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s">
         <v>466</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>804</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" t="s">
         <v>461</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" t="s">
         <v>457</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" t="s">
         <v>455</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" t="s">
         <v>457</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" t="s">
         <v>622</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" t="s">
         <v>805</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" t="s">
         <v>803</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" t="s">
         <v>802</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V15" s="5" t="s">
+      <c r="T15" t="s">
+        <v>627</v>
+      </c>
+      <c r="U15" t="s">
+        <v>627</v>
+      </c>
+      <c r="V15" t="s">
         <v>806</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:26" hidden="1">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>2018</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>525</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s">
         <v>812</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s">
         <v>465</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="s">
         <v>808</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" t="s">
         <v>460</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" t="s">
         <v>452</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" t="s">
         <v>622</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" t="s">
         <v>813</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" t="s">
         <v>811</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" t="s">
         <v>810</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V16" s="5" t="s">
+      <c r="T16" t="s">
+        <v>627</v>
+      </c>
+      <c r="U16" t="s">
+        <v>627</v>
+      </c>
+      <c r="V16" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:26" hidden="1">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>2015</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>526</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" t="s">
         <v>466</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>816</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" t="s">
         <v>457</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" t="s">
         <v>461</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" t="s">
         <v>457</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" t="s">
         <v>455</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" t="s">
         <v>622</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" t="s">
         <v>805</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" t="s">
         <v>802</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V17" s="5" t="s">
+      <c r="T17" t="s">
+        <v>627</v>
+      </c>
+      <c r="U17" t="s">
+        <v>627</v>
+      </c>
+      <c r="V17" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:26" hidden="1">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>2021</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>527</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" t="s">
         <v>1546</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" t="s">
         <v>466</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" t="s">
         <v>464</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" t="s">
         <v>456</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" t="s">
         <v>622</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" t="s">
         <v>818</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" t="s">
         <v>819</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" t="s">
         <v>820</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" t="s">
         <v>1555</v>
       </c>
-      <c r="U18" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V18" s="5" t="s">
+      <c r="U18" t="s">
+        <v>627</v>
+      </c>
+      <c r="V18" t="s">
         <v>821</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="W18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -6884,7 +6897,7 @@
       <c r="N19" t="s">
         <v>512</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="7" t="s">
         <v>830</v>
       </c>
       <c r="P19" t="s">
@@ -6899,7 +6912,7 @@
       <c r="S19" t="s">
         <v>631</v>
       </c>
-      <c r="T19" s="10" t="s">
+      <c r="T19" t="s">
         <v>627</v>
       </c>
       <c r="U19" t="s">
@@ -6912,63 +6925,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:26" hidden="1">
+      <c r="A20" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>2003</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>529</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" t="s">
         <v>501</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" t="s">
         <v>822</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" t="s">
         <v>453</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" t="s">
         <v>453</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" t="s">
         <v>823</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" t="s">
         <v>829</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" t="s">
         <v>825</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" t="s">
         <v>826</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V20" s="5" t="s">
+      <c r="T20" t="s">
+        <v>627</v>
+      </c>
+      <c r="U20" t="s">
+        <v>627</v>
+      </c>
+      <c r="V20" t="s">
         <v>827</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="W20" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" hidden="1">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -6990,16 +7003,16 @@
       <c r="I21" t="s">
         <v>833</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" t="s">
         <v>457</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" t="s">
         <v>457</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" t="s">
         <v>622</v>
       </c>
       <c r="Q21" t="s">
@@ -7008,23 +7021,23 @@
       <c r="R21" t="s">
         <v>835</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" t="s">
         <v>836</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V21" s="5" t="s">
+      <c r="T21" t="s">
+        <v>627</v>
+      </c>
+      <c r="U21" t="s">
+        <v>627</v>
+      </c>
+      <c r="V21" t="s">
         <v>837</v>
       </c>
       <c r="W21" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -7046,44 +7059,44 @@
       <c r="I22" t="s">
         <v>842</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" t="s">
         <v>457</v>
       </c>
       <c r="K22" t="s">
         <v>460</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" t="s">
         <v>457</v>
       </c>
       <c r="M22" t="s">
         <v>452</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" t="s">
         <v>839</v>
       </c>
       <c r="R22" t="s">
         <v>840</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" t="s">
         <v>843</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V22" s="5" t="s">
+      <c r="T22" t="s">
+        <v>627</v>
+      </c>
+      <c r="U22" t="s">
+        <v>627</v>
+      </c>
+      <c r="V22" t="s">
         <v>841</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" hidden="1">
       <c r="A23" t="s">
         <v>275</v>
       </c>
@@ -7105,19 +7118,19 @@
       <c r="I23" t="s">
         <v>848</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" t="s">
         <v>458</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" t="s">
         <v>454</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" t="s">
         <v>451</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" t="s">
         <v>613</v>
       </c>
       <c r="Q23" t="s">
@@ -7126,23 +7139,23 @@
       <c r="R23" t="s">
         <v>845</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" t="s">
         <v>846</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" t="s">
         <v>1555</v>
       </c>
-      <c r="U23" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V23" s="5" t="s">
+      <c r="U23" t="s">
+        <v>627</v>
+      </c>
+      <c r="V23" t="s">
         <v>849</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="W23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" hidden="1">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -7170,7 +7183,7 @@
       <c r="L24" t="s">
         <v>511</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="7" t="s">
         <v>635</v>
       </c>
       <c r="P24" t="s">
@@ -7182,7 +7195,7 @@
       <c r="S24" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="10" t="s">
+      <c r="T24" t="s">
         <v>627</v>
       </c>
       <c r="U24" t="s">
@@ -7195,7 +7208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" hidden="1">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -7232,7 +7245,7 @@
       <c r="M25" t="s">
         <v>457</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="7" t="s">
         <v>850</v>
       </c>
       <c r="P25" t="s">
@@ -7247,7 +7260,7 @@
       <c r="S25" t="s">
         <v>862</v>
       </c>
-      <c r="T25" s="10" t="s">
+      <c r="T25" t="s">
         <v>1555</v>
       </c>
       <c r="U25" t="s">
@@ -7260,7 +7273,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -7300,7 +7313,7 @@
       <c r="M26" t="s">
         <v>456</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="7" t="s">
         <v>640</v>
       </c>
       <c r="P26" t="s">
@@ -7315,7 +7328,7 @@
       <c r="S26" t="s">
         <v>602</v>
       </c>
-      <c r="T26" s="10" t="s">
+      <c r="T26" t="s">
         <v>627</v>
       </c>
       <c r="U26" t="s">
@@ -7328,7 +7341,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" hidden="1">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -7359,7 +7372,7 @@
       <c r="L27" t="s">
         <v>456</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="7" t="s">
         <v>855</v>
       </c>
       <c r="P27" t="s">
@@ -7374,7 +7387,7 @@
       <c r="S27" t="s">
         <v>861</v>
       </c>
-      <c r="T27" s="10" t="s">
+      <c r="T27" t="s">
         <v>1555</v>
       </c>
       <c r="U27" t="s">
@@ -7387,7 +7400,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -7418,7 +7431,7 @@
       <c r="L28" t="s">
         <v>456</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="O28" s="7" t="s">
         <v>867</v>
       </c>
       <c r="P28" t="s">
@@ -7433,7 +7446,7 @@
       <c r="S28" t="s">
         <v>861</v>
       </c>
-      <c r="T28" s="10" t="s">
+      <c r="T28" t="s">
         <v>1555</v>
       </c>
       <c r="U28" t="s">
@@ -7446,7 +7459,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" hidden="1">
       <c r="A29" t="s">
         <v>282</v>
       </c>
@@ -7471,7 +7484,7 @@
       <c r="L29" t="s">
         <v>456</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="7" t="s">
         <v>869</v>
       </c>
       <c r="P29" t="s">
@@ -7486,7 +7499,7 @@
       <c r="S29" t="s">
         <v>699</v>
       </c>
-      <c r="T29" s="10" t="s">
+      <c r="T29" t="s">
         <v>627</v>
       </c>
       <c r="U29" t="s">
@@ -7499,70 +7512,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:26" s="15" customFormat="1">
+      <c r="A30" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="15">
         <v>2022</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="15" t="s">
         <v>451</v>
       </c>
       <c r="N30"/>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="P30" s="19" t="s">
+      <c r="P30" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="R30" s="19" t="s">
+      <c r="R30" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="S30" s="19" t="s">
+      <c r="S30" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="T30" s="19" t="s">
+      <c r="T30" s="15" t="s">
         <v>1556</v>
       </c>
-      <c r="U30" s="19" t="s">
+      <c r="U30" s="15" t="s">
         <v>1551</v>
       </c>
-      <c r="V30" s="19" t="s">
+      <c r="V30" s="15" t="s">
         <v>877</v>
       </c>
-      <c r="W30" s="19" t="s">
+      <c r="W30" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="X30" s="20" t="s">
+      <c r="X30" s="16" t="s">
         <v>1571</v>
       </c>
-      <c r="Y30" s="20" t="s">
+      <c r="Y30" s="16" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z30" s="15" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" hidden="1">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -7587,7 +7603,7 @@
       <c r="L31" t="s">
         <v>452</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="7" t="s">
         <v>879</v>
       </c>
       <c r="P31" t="s">
@@ -7602,7 +7618,7 @@
       <c r="S31" t="s">
         <v>882</v>
       </c>
-      <c r="T31" s="10" t="s">
+      <c r="T31" t="s">
         <v>627</v>
       </c>
       <c r="U31" t="s">
@@ -7615,7 +7631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" hidden="1">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -7643,7 +7659,7 @@
       <c r="L32" t="s">
         <v>454</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="O32" s="7" t="s">
         <v>884</v>
       </c>
       <c r="P32" t="s">
@@ -7658,20 +7674,20 @@
       <c r="S32" t="s">
         <v>717</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" t="s">
         <v>1557</v>
       </c>
-      <c r="U32" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V32" s="5" t="s">
+      <c r="U32" t="s">
+        <v>627</v>
+      </c>
+      <c r="V32" t="s">
         <v>888</v>
       </c>
-      <c r="W32" s="5" t="s">
+      <c r="W32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -7702,7 +7718,7 @@
       <c r="L33" t="s">
         <v>457</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="7" t="s">
         <v>891</v>
       </c>
       <c r="P33" t="s">
@@ -7717,20 +7733,20 @@
       <c r="S33" t="s">
         <v>890</v>
       </c>
-      <c r="T33" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V33" s="5" t="s">
+      <c r="T33" t="s">
+        <v>627</v>
+      </c>
+      <c r="U33" t="s">
+        <v>627</v>
+      </c>
+      <c r="V33" t="s">
         <v>895</v>
       </c>
       <c r="W33" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" hidden="1">
       <c r="A34" t="s">
         <v>288</v>
       </c>
@@ -7761,7 +7777,7 @@
       <c r="L34" t="s">
         <v>451</v>
       </c>
-      <c r="O34" s="8" t="s">
+      <c r="O34" s="7" t="s">
         <v>643</v>
       </c>
       <c r="P34" t="s">
@@ -7773,7 +7789,7 @@
       <c r="S34" t="s">
         <v>648</v>
       </c>
-      <c r="T34" s="10" t="s">
+      <c r="T34" t="s">
         <v>627</v>
       </c>
       <c r="U34" t="s">
@@ -7786,7 +7802,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" hidden="1">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -7814,7 +7830,7 @@
       <c r="L35" t="s">
         <v>457</v>
       </c>
-      <c r="O35" s="8" t="s">
+      <c r="O35" s="7" t="s">
         <v>897</v>
       </c>
       <c r="P35" t="s">
@@ -7829,7 +7845,7 @@
       <c r="S35" t="s">
         <v>900</v>
       </c>
-      <c r="T35" s="10" t="s">
+      <c r="T35" t="s">
         <v>627</v>
       </c>
       <c r="U35" t="s">
@@ -7842,7 +7858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" hidden="1">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -7867,7 +7883,7 @@
       <c r="L36" t="s">
         <v>457</v>
       </c>
-      <c r="O36" s="8" t="s">
+      <c r="O36" s="7" t="s">
         <v>903</v>
       </c>
       <c r="P36" t="s">
@@ -7882,7 +7898,7 @@
       <c r="S36" t="s">
         <v>907</v>
       </c>
-      <c r="T36" s="10" t="s">
+      <c r="T36" t="s">
         <v>627</v>
       </c>
       <c r="U36" t="s">
@@ -7895,69 +7911,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:25" s="9" customFormat="1">
+      <c r="A37" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="9">
         <v>2020</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="O37" s="13" t="s">
+      <c r="O37" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="P37" s="13" t="s">
+      <c r="P37" s="9" t="s">
         <v>910</v>
       </c>
-      <c r="Q37" s="13" t="s">
+      <c r="Q37" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="R37" s="13" t="s">
+      <c r="R37" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="S37" s="13" t="s">
+      <c r="S37" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="T37" s="9" t="s">
         <v>1564</v>
       </c>
-      <c r="U37" s="13" t="s">
+      <c r="U37" s="9" t="s">
         <v>1550</v>
       </c>
-      <c r="V37" s="13" t="s">
+      <c r="V37" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="W37" s="13" t="s">
+      <c r="W37" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="X37" s="15" t="s">
+      <c r="X37" s="11" t="s">
         <v>1573</v>
       </c>
-      <c r="Y37" s="15" t="s">
+      <c r="Y37" s="11" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -7991,7 +8007,7 @@
       <c r="M38" t="s">
         <v>452</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="O38" s="7" t="s">
         <v>917</v>
       </c>
       <c r="P38" t="s">
@@ -8006,7 +8022,7 @@
       <c r="S38" t="s">
         <v>900</v>
       </c>
-      <c r="T38" s="10" t="s">
+      <c r="T38" t="s">
         <v>627</v>
       </c>
       <c r="U38" t="s">
@@ -8016,7 +8032,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -8047,7 +8063,7 @@
       <c r="L39" t="s">
         <v>450</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="O39" s="7" t="s">
         <v>922</v>
       </c>
       <c r="P39" t="s">
@@ -8059,7 +8075,7 @@
       <c r="S39" t="s">
         <v>913</v>
       </c>
-      <c r="T39" s="10" t="s">
+      <c r="T39" t="s">
         <v>627</v>
       </c>
       <c r="U39" t="s">
@@ -8072,7 +8088,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" t="s">
         <v>367</v>
       </c>
@@ -8100,7 +8116,7 @@
       <c r="L40" t="s">
         <v>457</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="O40" s="7" t="s">
         <v>928</v>
       </c>
       <c r="P40" t="s">
@@ -8115,7 +8131,7 @@
       <c r="S40" t="s">
         <v>933</v>
       </c>
-      <c r="T40" s="10" t="s">
+      <c r="T40" t="s">
         <v>627</v>
       </c>
       <c r="U40" t="s">
@@ -8128,79 +8144,79 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:25" s="9" customFormat="1">
+      <c r="A41" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="9">
         <v>2020</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="K41" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="M41" s="13" t="s">
+      <c r="M41" s="9" t="s">
         <v>456</v>
       </c>
       <c r="N41"/>
-      <c r="O41" s="13" t="s">
+      <c r="O41" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="P41" s="13" t="s">
+      <c r="P41" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="Q41" s="13" t="s">
+      <c r="Q41" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="9" t="s">
         <v>941</v>
       </c>
-      <c r="S41" s="13" t="s">
+      <c r="S41" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="T41" s="13" t="s">
+      <c r="T41" s="9" t="s">
         <v>1558</v>
       </c>
-      <c r="U41" s="13" t="s">
+      <c r="U41" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="V41" s="13" t="s">
+      <c r="V41" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="W41" s="13" t="s">
+      <c r="W41" s="9" t="s">
         <v>938</v>
       </c>
-      <c r="X41" s="15" t="s">
+      <c r="X41" s="11" t="s">
         <v>1575</v>
       </c>
-      <c r="Y41" s="15" t="s">
+      <c r="Y41" s="11" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" hidden="1">
       <c r="A42" t="s">
         <v>294</v>
       </c>
@@ -8231,7 +8247,7 @@
       <c r="L42" t="s">
         <v>452</v>
       </c>
-      <c r="O42" s="8" t="s">
+      <c r="O42" s="7" t="s">
         <v>942</v>
       </c>
       <c r="P42" t="s">
@@ -8243,7 +8259,7 @@
       <c r="S42" t="s">
         <v>943</v>
       </c>
-      <c r="T42" s="10" t="s">
+      <c r="T42" t="s">
         <v>627</v>
       </c>
       <c r="U42" t="s">
@@ -8256,7 +8272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" hidden="1">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -8287,7 +8303,7 @@
       <c r="L43" t="s">
         <v>457</v>
       </c>
-      <c r="O43" s="8" t="s">
+      <c r="O43" s="7" t="s">
         <v>947</v>
       </c>
       <c r="P43" t="s">
@@ -8299,7 +8315,7 @@
       <c r="S43" t="s">
         <v>948</v>
       </c>
-      <c r="T43" s="10" t="s">
+      <c r="T43" t="s">
         <v>627</v>
       </c>
       <c r="U43" t="s">
@@ -8312,7 +8328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" hidden="1">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -8340,7 +8356,7 @@
       <c r="L44" t="s">
         <v>452</v>
       </c>
-      <c r="O44" s="8" t="s">
+      <c r="O44" s="7" t="s">
         <v>952</v>
       </c>
       <c r="P44" t="s">
@@ -8352,7 +8368,7 @@
       <c r="S44" t="s">
         <v>943</v>
       </c>
-      <c r="T44" s="10" t="s">
+      <c r="T44" t="s">
         <v>627</v>
       </c>
       <c r="U44" t="s">
@@ -8365,7 +8381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" hidden="1">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -8375,7 +8391,7 @@
       <c r="C45">
         <v>1998</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>1547</v>
       </c>
       <c r="E45" t="s">
@@ -8399,7 +8415,7 @@
       <c r="M45" t="s">
         <v>456</v>
       </c>
-      <c r="O45" s="8" t="s">
+      <c r="O45" s="7" t="s">
         <v>956</v>
       </c>
       <c r="P45" t="s">
@@ -8414,7 +8430,7 @@
       <c r="S45" t="s">
         <v>900</v>
       </c>
-      <c r="T45" s="10" t="s">
+      <c r="T45" t="s">
         <v>627</v>
       </c>
       <c r="U45" t="s">
@@ -8427,7 +8443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" hidden="1">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -8458,7 +8474,7 @@
       <c r="M46" t="s">
         <v>456</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="O46" s="7" t="s">
         <v>960</v>
       </c>
       <c r="P46" t="s">
@@ -8473,7 +8489,7 @@
       <c r="S46" t="s">
         <v>963</v>
       </c>
-      <c r="T46" s="10" t="s">
+      <c r="T46" t="s">
         <v>627</v>
       </c>
       <c r="U46" t="s">
@@ -8486,7 +8502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" hidden="1">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -8517,7 +8533,7 @@
       <c r="M47" t="s">
         <v>456</v>
       </c>
-      <c r="O47" s="8" t="s">
+      <c r="O47" s="7" t="s">
         <v>966</v>
       </c>
       <c r="P47" t="s">
@@ -8532,7 +8548,7 @@
       <c r="S47" t="s">
         <v>969</v>
       </c>
-      <c r="T47" s="10" t="s">
+      <c r="T47" t="s">
         <v>627</v>
       </c>
       <c r="U47" t="s">
@@ -8545,7 +8561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" hidden="1">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -8576,7 +8592,7 @@
       <c r="M48" t="s">
         <v>456</v>
       </c>
-      <c r="O48" s="8" t="s">
+      <c r="O48" s="7" t="s">
         <v>972</v>
       </c>
       <c r="P48" t="s">
@@ -8588,7 +8604,7 @@
       <c r="S48" t="s">
         <v>969</v>
       </c>
-      <c r="T48" s="10" t="s">
+      <c r="T48" t="s">
         <v>627</v>
       </c>
       <c r="U48" t="s">
@@ -8601,7 +8617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1">
       <c r="A49" t="s">
         <v>373</v>
       </c>
@@ -8635,7 +8651,7 @@
       <c r="M49" t="s">
         <v>452</v>
       </c>
-      <c r="O49" s="8" t="s">
+      <c r="O49" s="7" t="s">
         <v>974</v>
       </c>
       <c r="P49" t="s">
@@ -8647,7 +8663,7 @@
       <c r="S49" t="s">
         <v>976</v>
       </c>
-      <c r="T49" s="10" t="s">
+      <c r="T49" t="s">
         <v>1555</v>
       </c>
       <c r="U49" t="s">
@@ -8660,7 +8676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" hidden="1">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -8694,7 +8710,7 @@
       <c r="M50" t="s">
         <v>455</v>
       </c>
-      <c r="O50" s="8" t="s">
+      <c r="O50" s="7" t="s">
         <v>981</v>
       </c>
       <c r="P50" t="s">
@@ -8706,7 +8722,7 @@
       <c r="S50" t="s">
         <v>979</v>
       </c>
-      <c r="T50" s="10" t="s">
+      <c r="T50" t="s">
         <v>627</v>
       </c>
       <c r="U50" t="s">
@@ -8719,73 +8735,76 @@
         <v>982</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:26" s="13" customFormat="1">
+      <c r="A51" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="13">
         <v>2023</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="H51" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="I51" s="13" t="s">
         <v>986</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="J51" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="L51" s="17" t="s">
+      <c r="L51" s="13" t="s">
         <v>457</v>
       </c>
       <c r="N51"/>
-      <c r="O51" s="17" t="s">
+      <c r="O51" s="13" t="s">
         <v>985</v>
       </c>
-      <c r="P51" s="17" t="s">
+      <c r="P51" s="13" t="s">
         <v>904</v>
       </c>
-      <c r="Q51" s="17" t="s">
+      <c r="Q51" s="13" t="s">
         <v>988</v>
       </c>
-      <c r="R51" s="17" t="s">
+      <c r="R51" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="S51" s="17" t="s">
+      <c r="S51" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="T51" s="17" t="s">
-        <v>1553</v>
-      </c>
-      <c r="U51" s="17" t="s">
-        <v>1551</v>
-      </c>
-      <c r="V51" s="17" t="s">
+      <c r="T51" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="U51" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="V51" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="W51" s="17" t="s">
+      <c r="W51" s="13" t="s">
         <v>987</v>
       </c>
-      <c r="X51" s="18" t="s">
+      <c r="X51" s="14" t="s">
         <v>1577</v>
       </c>
-      <c r="Y51" s="18" t="s">
+      <c r="Y51" s="14" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z51" s="13" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" hidden="1">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -8816,7 +8835,7 @@
       <c r="L52" t="s">
         <v>457</v>
       </c>
-      <c r="O52" s="8" t="s">
+      <c r="O52" s="7" t="s">
         <v>991</v>
       </c>
       <c r="P52" t="s">
@@ -8828,7 +8847,7 @@
       <c r="S52" t="s">
         <v>836</v>
       </c>
-      <c r="T52" s="10" t="s">
+      <c r="T52" t="s">
         <v>1555</v>
       </c>
       <c r="U52" t="s">
@@ -8841,7 +8860,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1">
       <c r="A53" t="s">
         <v>206</v>
       </c>
@@ -8869,13 +8888,13 @@
       <c r="L53" t="s">
         <v>457</v>
       </c>
-      <c r="O53" s="8" t="s">
+      <c r="O53" s="7" t="s">
         <v>996</v>
       </c>
       <c r="P53" t="s">
         <v>703</v>
       </c>
-      <c r="T53" s="10" t="s">
+      <c r="T53" t="s">
         <v>1555</v>
       </c>
       <c r="U53" t="s">
@@ -8888,7 +8907,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" hidden="1">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -8913,7 +8932,7 @@
       <c r="L54" t="s">
         <v>455</v>
       </c>
-      <c r="O54" s="8" t="s">
+      <c r="O54" s="7" t="s">
         <v>1000</v>
       </c>
       <c r="P54" t="s">
@@ -8928,7 +8947,7 @@
       <c r="S54" t="s">
         <v>1004</v>
       </c>
-      <c r="T54" s="10" t="s">
+      <c r="T54" t="s">
         <v>1557</v>
       </c>
       <c r="U54" t="s">
@@ -8941,73 +8960,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+    <row r="55" spans="1:26" s="9" customFormat="1">
+      <c r="A55" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="9">
         <v>2021</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="J55" s="13" t="s">
+      <c r="J55" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="L55" s="13" t="s">
+      <c r="L55" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="M55" s="13" t="s">
+      <c r="M55" s="9" t="s">
         <v>451</v>
       </c>
       <c r="N55"/>
-      <c r="O55" s="13" t="s">
+      <c r="O55" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="P55" s="13" t="s">
+      <c r="P55" s="9" t="s">
         <v>1007</v>
       </c>
-      <c r="Q55" s="13" t="s">
+      <c r="Q55" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="R55" s="13" t="s">
+      <c r="R55" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="S55" s="13" t="s">
+      <c r="S55" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="T55" s="13" t="s">
+      <c r="T55" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="U55" s="13" t="s">
+      <c r="U55" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="V55" s="13" t="s">
+      <c r="V55" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="W55" s="13" t="s">
+      <c r="W55" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="X55" s="16" t="s">
+      <c r="X55" s="12" t="s">
         <v>1578</v>
       </c>
-      <c r="Y55" s="16" t="s">
+      <c r="Y55" s="12" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" hidden="1">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -9035,7 +9054,7 @@
       <c r="L56" t="s">
         <v>454</v>
       </c>
-      <c r="O56" s="8" t="s">
+      <c r="O56" s="7" t="s">
         <v>1013</v>
       </c>
       <c r="P56" t="s">
@@ -9047,7 +9066,7 @@
       <c r="S56" t="s">
         <v>1016</v>
       </c>
-      <c r="T56" s="10" t="s">
+      <c r="T56" t="s">
         <v>1555</v>
       </c>
       <c r="U56" t="s">
@@ -9060,7 +9079,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" hidden="1">
       <c r="A57" t="s">
         <v>212</v>
       </c>
@@ -9085,7 +9104,7 @@
       <c r="L57" t="s">
         <v>455</v>
       </c>
-      <c r="O57" s="8" t="s">
+      <c r="O57" s="7" t="s">
         <v>1020</v>
       </c>
       <c r="P57" t="s">
@@ -9100,7 +9119,7 @@
       <c r="S57" t="s">
         <v>1024</v>
       </c>
-      <c r="T57" s="10" t="s">
+      <c r="T57" t="s">
         <v>627</v>
       </c>
       <c r="U57" t="s">
@@ -9113,7 +9132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" hidden="1">
       <c r="A58" t="s">
         <v>376</v>
       </c>
@@ -9141,7 +9160,7 @@
       <c r="L58" t="s">
         <v>457</v>
       </c>
-      <c r="O58" s="8" t="s">
+      <c r="O58" s="7" t="s">
         <v>654</v>
       </c>
       <c r="P58" t="s">
@@ -9156,7 +9175,7 @@
       <c r="S58" t="s">
         <v>655</v>
       </c>
-      <c r="T58" s="10" t="s">
+      <c r="T58" t="s">
         <v>627</v>
       </c>
       <c r="U58" t="s">
@@ -9169,7 +9188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" hidden="1">
       <c r="A59" t="s">
         <v>379</v>
       </c>
@@ -9200,7 +9219,7 @@
       <c r="M59" t="s">
         <v>451</v>
       </c>
-      <c r="O59" s="8" t="s">
+      <c r="O59" s="7" t="s">
         <v>1026</v>
       </c>
       <c r="P59" t="s">
@@ -9215,7 +9234,7 @@
       <c r="S59" t="s">
         <v>1029</v>
       </c>
-      <c r="T59" s="10" t="s">
+      <c r="T59" t="s">
         <v>1555</v>
       </c>
       <c r="U59" t="s">
@@ -9228,7 +9247,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1">
       <c r="A60" t="s">
         <v>300</v>
       </c>
@@ -9253,7 +9272,7 @@
       <c r="L60" t="s">
         <v>456</v>
       </c>
-      <c r="O60" s="8" t="s">
+      <c r="O60" s="7" t="s">
         <v>1032</v>
       </c>
       <c r="P60" t="s">
@@ -9268,7 +9287,7 @@
       <c r="S60" t="s">
         <v>717</v>
       </c>
-      <c r="T60" s="10" t="s">
+      <c r="T60" t="s">
         <v>1555</v>
       </c>
       <c r="U60" t="s">
@@ -9281,7 +9300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -9315,7 +9334,7 @@
       <c r="M61" t="s">
         <v>457</v>
       </c>
-      <c r="O61" s="8" t="s">
+      <c r="O61" s="7" t="s">
         <v>1036</v>
       </c>
       <c r="P61" t="s">
@@ -9330,7 +9349,7 @@
       <c r="S61" t="s">
         <v>802</v>
       </c>
-      <c r="T61" s="10" t="s">
+      <c r="T61" t="s">
         <v>627</v>
       </c>
       <c r="U61" t="s">
@@ -9343,7 +9362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" hidden="1">
       <c r="A62" t="s">
         <v>303</v>
       </c>
@@ -9377,7 +9396,7 @@
       <c r="M62" t="s">
         <v>452</v>
       </c>
-      <c r="O62" s="8" t="s">
+      <c r="O62" s="7" t="s">
         <v>1041</v>
       </c>
       <c r="P62" t="s">
@@ -9392,7 +9411,7 @@
       <c r="S62" t="s">
         <v>1042</v>
       </c>
-      <c r="T62" s="10" t="s">
+      <c r="T62" t="s">
         <v>1557</v>
       </c>
       <c r="U62" t="s">
@@ -9405,76 +9424,76 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+    <row r="63" spans="1:26" s="15" customFormat="1">
+      <c r="A63" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="15">
         <v>2023</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="I63" s="15" t="s">
         <v>1053</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="K63" s="19" t="s">
+      <c r="K63" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="L63" s="19" t="s">
+      <c r="L63" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="M63" s="19" t="s">
+      <c r="M63" s="15" t="s">
         <v>452</v>
       </c>
       <c r="N63"/>
-      <c r="O63" s="19" t="s">
+      <c r="O63" s="15" t="s">
         <v>1048</v>
       </c>
-      <c r="P63" s="19" t="s">
+      <c r="P63" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="Q63" s="19" t="s">
+      <c r="Q63" s="15" t="s">
         <v>1049</v>
       </c>
-      <c r="R63" s="19" t="s">
+      <c r="R63" s="15" t="s">
         <v>1050</v>
       </c>
-      <c r="S63" s="19" t="s">
+      <c r="S63" s="15" t="s">
         <v>1051</v>
       </c>
-      <c r="T63" s="19" t="s">
+      <c r="T63" s="15" t="s">
         <v>1557</v>
       </c>
-      <c r="U63" s="19" t="s">
+      <c r="U63" s="15" t="s">
         <v>1551</v>
       </c>
-      <c r="V63" s="19" t="s">
+      <c r="V63" s="15" t="s">
         <v>1052</v>
       </c>
-      <c r="W63" s="19" t="s">
+      <c r="W63" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="X63" s="20" t="s">
+      <c r="X63" s="16" t="s">
         <v>1579</v>
       </c>
-      <c r="Y63" s="20" t="s">
+      <c r="Y63" s="16" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" hidden="1">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -9505,20 +9524,20 @@
       <c r="L64" t="s">
         <v>511</v>
       </c>
-      <c r="O64" s="8" t="s">
+      <c r="O64" s="7" t="s">
         <v>1054</v>
       </c>
       <c r="P64" t="s">
         <v>770</v>
       </c>
-      <c r="T64" s="10" t="s">
+      <c r="T64" t="s">
         <v>1559</v>
       </c>
       <c r="U64" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -9546,7 +9565,7 @@
       <c r="L65" t="s">
         <v>453</v>
       </c>
-      <c r="O65" s="8" t="s">
+      <c r="O65" s="7" t="s">
         <v>1056</v>
       </c>
       <c r="P65" t="s">
@@ -9558,7 +9577,7 @@
       <c r="S65" t="s">
         <v>717</v>
       </c>
-      <c r="T65" s="10" t="s">
+      <c r="T65" t="s">
         <v>627</v>
       </c>
       <c r="U65" t="s">
@@ -9571,7 +9590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -9605,7 +9624,7 @@
       <c r="L66" t="s">
         <v>457</v>
       </c>
-      <c r="O66" s="8" t="s">
+      <c r="O66" s="7" t="s">
         <v>657</v>
       </c>
       <c r="P66" t="s">
@@ -9620,7 +9639,7 @@
       <c r="S66" t="s">
         <v>660</v>
       </c>
-      <c r="T66" s="10" t="s">
+      <c r="T66" t="s">
         <v>1555</v>
       </c>
       <c r="U66" t="s">
@@ -9633,76 +9652,76 @@
         <v>663</v>
       </c>
     </row>
-    <row r="67" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+    <row r="67" spans="1:25" s="9" customFormat="1">
+      <c r="A67" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="9">
         <v>2023</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="I67" s="9" t="s">
         <v>1063</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="J67" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="L67" s="13" t="s">
+      <c r="L67" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="M67" s="13" t="s">
+      <c r="M67" s="9" t="s">
         <v>457</v>
       </c>
       <c r="N67"/>
-      <c r="O67" s="13" t="s">
+      <c r="O67" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="P67" s="13" t="s">
+      <c r="P67" s="9" t="s">
         <v>1535</v>
       </c>
-      <c r="Q67" s="13" t="s">
+      <c r="Q67" s="9" t="s">
         <v>1061</v>
       </c>
-      <c r="R67" s="13" t="s">
+      <c r="R67" s="9" t="s">
         <v>1062</v>
       </c>
-      <c r="S67" s="13" t="s">
+      <c r="S67" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="T67" s="13" t="s">
+      <c r="T67" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="U67" s="13" t="s">
+      <c r="U67" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="V67" s="13" t="s">
+      <c r="V67" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="W67" s="13" t="s">
+      <c r="W67" s="9" t="s">
         <v>1064</v>
       </c>
-      <c r="X67" s="16" t="s">
+      <c r="X67" s="12" t="s">
         <v>1581</v>
       </c>
-      <c r="Y67" s="16" t="s">
+      <c r="Y67" s="12" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" hidden="1">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -9730,35 +9749,35 @@
       <c r="L68" t="s">
         <v>455</v>
       </c>
-      <c r="O68" s="8" t="s">
+      <c r="O68" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="P68" t="s">
         <v>1068</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="Q68" t="s">
         <v>1069</v>
       </c>
-      <c r="R68" s="5" t="s">
+      <c r="R68" t="s">
         <v>1070</v>
       </c>
-      <c r="S68" s="5" t="s">
+      <c r="S68" t="s">
         <v>1072</v>
       </c>
-      <c r="T68" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U68" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V68" s="5" t="s">
+      <c r="T68" t="s">
+        <v>627</v>
+      </c>
+      <c r="U68" t="s">
+        <v>627</v>
+      </c>
+      <c r="V68" t="s">
         <v>1071</v>
       </c>
-      <c r="W68" s="5" t="s">
+      <c r="W68" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" hidden="1">
       <c r="A69" t="s">
         <v>385</v>
       </c>
@@ -9786,35 +9805,35 @@
       <c r="L69" t="s">
         <v>457</v>
       </c>
-      <c r="O69" s="8" t="s">
+      <c r="O69" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="P69" s="5" t="s">
+      <c r="P69" t="s">
         <v>1075</v>
       </c>
-      <c r="Q69" s="5" t="s">
+      <c r="Q69" t="s">
         <v>1076</v>
       </c>
       <c r="R69" t="s">
         <v>1077</v>
       </c>
-      <c r="S69" s="5" t="s">
+      <c r="S69" t="s">
         <v>1078</v>
       </c>
-      <c r="T69" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="U69" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="V69" s="5" t="s">
+      <c r="T69" t="s">
+        <v>627</v>
+      </c>
+      <c r="U69" t="s">
+        <v>627</v>
+      </c>
+      <c r="V69" t="s">
         <v>1079</v>
       </c>
-      <c r="W69" s="5" t="s">
+      <c r="W69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -9845,7 +9864,7 @@
       <c r="N70" t="s">
         <v>665</v>
       </c>
-      <c r="O70" s="8" t="s">
+      <c r="O70" s="7" t="s">
         <v>667</v>
       </c>
       <c r="P70" t="s">
@@ -9857,7 +9876,7 @@
       <c r="S70" t="s">
         <v>668</v>
       </c>
-      <c r="T70" s="10" t="s">
+      <c r="T70" t="s">
         <v>627</v>
       </c>
       <c r="U70" t="s">
@@ -9870,7 +9889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -9898,7 +9917,7 @@
       <c r="L71" t="s">
         <v>457</v>
       </c>
-      <c r="O71" s="8" t="s">
+      <c r="O71" s="7" t="s">
         <v>1080</v>
       </c>
       <c r="P71" t="s">
@@ -9913,7 +9932,7 @@
       <c r="S71" t="s">
         <v>1082</v>
       </c>
-      <c r="T71" s="10" t="s">
+      <c r="T71" t="s">
         <v>627</v>
       </c>
       <c r="U71" t="s">
@@ -9926,7 +9945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -9954,7 +9973,7 @@
       <c r="L72" t="s">
         <v>511</v>
       </c>
-      <c r="O72" s="8" t="s">
+      <c r="O72" s="7" t="s">
         <v>1087</v>
       </c>
       <c r="P72" t="s">
@@ -9966,7 +9985,7 @@
       <c r="S72" t="s">
         <v>41</v>
       </c>
-      <c r="T72" s="10" t="s">
+      <c r="T72" t="s">
         <v>627</v>
       </c>
       <c r="U72" t="s">
@@ -9979,7 +9998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" hidden="1">
       <c r="A73" t="s">
         <v>388</v>
       </c>
@@ -10004,7 +10023,7 @@
       <c r="L73" t="s">
         <v>456</v>
       </c>
-      <c r="O73" s="8" t="s">
+      <c r="O73" s="7" t="s">
         <v>1091</v>
       </c>
       <c r="P73" t="s">
@@ -10019,7 +10038,7 @@
       <c r="S73" t="s">
         <v>913</v>
       </c>
-      <c r="T73" s="10" t="s">
+      <c r="T73" t="s">
         <v>1555</v>
       </c>
       <c r="U73" t="s">
@@ -10032,7 +10051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -10063,7 +10082,7 @@
       <c r="L74" t="s">
         <v>511</v>
       </c>
-      <c r="O74" s="8" t="s">
+      <c r="O74" s="7" t="s">
         <v>1095</v>
       </c>
       <c r="P74" t="s">
@@ -10075,7 +10094,7 @@
       <c r="S74" t="s">
         <v>1097</v>
       </c>
-      <c r="T74" s="10" t="s">
+      <c r="T74" t="s">
         <v>627</v>
       </c>
       <c r="U74" t="s">
@@ -10088,7 +10107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" hidden="1">
       <c r="A75" t="s">
         <v>218</v>
       </c>
@@ -10119,7 +10138,7 @@
       <c r="L75" t="s">
         <v>456</v>
       </c>
-      <c r="O75" s="8" t="s">
+      <c r="O75" s="7" t="s">
         <v>1100</v>
       </c>
       <c r="P75" t="s">
@@ -10131,7 +10150,7 @@
       <c r="S75" t="s">
         <v>1102</v>
       </c>
-      <c r="T75" s="10" t="s">
+      <c r="T75" t="s">
         <v>1557</v>
       </c>
       <c r="U75" t="s">
@@ -10144,7 +10163,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" hidden="1">
       <c r="A76" t="s">
         <v>391</v>
       </c>
@@ -10172,7 +10191,7 @@
       <c r="L76" t="s">
         <v>457</v>
       </c>
-      <c r="O76" s="8" t="s">
+      <c r="O76" s="7" t="s">
         <v>1105</v>
       </c>
       <c r="P76" t="s">
@@ -10187,7 +10206,7 @@
       <c r="S76" t="s">
         <v>1112</v>
       </c>
-      <c r="T76" s="10" t="s">
+      <c r="T76" t="s">
         <v>1557</v>
       </c>
       <c r="U76" t="s">
@@ -10200,7 +10219,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" hidden="1">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -10225,7 +10244,7 @@
       <c r="L77" t="s">
         <v>450</v>
       </c>
-      <c r="O77" s="8" t="s">
+      <c r="O77" s="7" t="s">
         <v>1111</v>
       </c>
       <c r="P77" t="s">
@@ -10240,7 +10259,7 @@
       <c r="S77" t="s">
         <v>843</v>
       </c>
-      <c r="T77" s="10" t="s">
+      <c r="T77" t="s">
         <v>627</v>
       </c>
       <c r="U77" t="s">
@@ -10253,7 +10272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1">
       <c r="A78" t="s">
         <v>394</v>
       </c>
@@ -10284,7 +10303,7 @@
       <c r="L78" t="s">
         <v>457</v>
       </c>
-      <c r="O78" s="8" t="s">
+      <c r="O78" s="7" t="s">
         <v>1116</v>
       </c>
       <c r="P78" t="s">
@@ -10293,7 +10312,7 @@
       <c r="Q78" t="s">
         <v>1117</v>
       </c>
-      <c r="T78" s="10" t="s">
+      <c r="T78" t="s">
         <v>627</v>
       </c>
       <c r="U78" t="s">
@@ -10306,7 +10325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -10331,7 +10350,7 @@
       <c r="L79" t="s">
         <v>456</v>
       </c>
-      <c r="O79" s="8" t="s">
+      <c r="O79" s="7" t="s">
         <v>1123</v>
       </c>
       <c r="P79" t="s">
@@ -10346,7 +10365,7 @@
       <c r="S79" t="s">
         <v>1121</v>
       </c>
-      <c r="T79" s="10" t="s">
+      <c r="T79" t="s">
         <v>1555</v>
       </c>
       <c r="U79" t="s">
@@ -10356,7 +10375,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -10387,7 +10406,7 @@
       <c r="L80" t="s">
         <v>457</v>
       </c>
-      <c r="O80" s="8" t="s">
+      <c r="O80" s="7" t="s">
         <v>1125</v>
       </c>
       <c r="P80" t="s">
@@ -10402,7 +10421,7 @@
       <c r="S80" t="s">
         <v>836</v>
       </c>
-      <c r="T80" s="10" t="s">
+      <c r="T80" t="s">
         <v>627</v>
       </c>
       <c r="U80" t="s">
@@ -10415,7 +10434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" hidden="1">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -10443,7 +10462,7 @@
       <c r="L81" t="s">
         <v>511</v>
       </c>
-      <c r="O81" s="8" t="s">
+      <c r="O81" s="7" t="s">
         <v>1130</v>
       </c>
       <c r="P81" t="s">
@@ -10455,7 +10474,7 @@
       <c r="S81" t="s">
         <v>1134</v>
       </c>
-      <c r="T81" s="10" t="s">
+      <c r="T81" t="s">
         <v>627</v>
       </c>
       <c r="U81" t="s">
@@ -10468,7 +10487,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="409.6" hidden="1">
       <c r="A82" t="s">
         <v>309</v>
       </c>
@@ -10490,7 +10509,7 @@
       <c r="H82" t="s">
         <v>501</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="I82" s="5" t="s">
         <v>1140</v>
       </c>
       <c r="J82" t="s">
@@ -10499,7 +10518,7 @@
       <c r="L82" t="s">
         <v>457</v>
       </c>
-      <c r="O82" s="8" t="s">
+      <c r="O82" s="7" t="s">
         <v>1136</v>
       </c>
       <c r="P82" t="s">
@@ -10514,7 +10533,7 @@
       <c r="S82" t="s">
         <v>1134</v>
       </c>
-      <c r="T82" s="10" t="s">
+      <c r="T82" t="s">
         <v>627</v>
       </c>
       <c r="U82" t="s">
@@ -10527,7 +10546,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" hidden="1">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -10558,7 +10577,7 @@
       <c r="L83" t="s">
         <v>456</v>
       </c>
-      <c r="O83" s="8" t="s">
+      <c r="O83" s="7" t="s">
         <v>1142</v>
       </c>
       <c r="P83" t="s">
@@ -10570,7 +10589,7 @@
       <c r="R83" t="s">
         <v>1143</v>
       </c>
-      <c r="T83" s="10" t="s">
+      <c r="T83" t="s">
         <v>1555</v>
       </c>
       <c r="U83" t="s">
@@ -10583,7 +10602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" hidden="1">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -10608,7 +10627,7 @@
       <c r="L84" t="s">
         <v>457</v>
       </c>
-      <c r="O84" s="8" t="s">
+      <c r="O84" s="7" t="s">
         <v>1147</v>
       </c>
       <c r="P84" t="s">
@@ -10623,7 +10642,7 @@
       <c r="S84" t="s">
         <v>1150</v>
       </c>
-      <c r="T84" s="10" t="s">
+      <c r="T84" t="s">
         <v>627</v>
       </c>
       <c r="U84" t="s">
@@ -10636,7 +10655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" hidden="1">
       <c r="A85" t="s">
         <v>147</v>
       </c>
@@ -10664,7 +10683,7 @@
       <c r="L85" t="s">
         <v>457</v>
       </c>
-      <c r="O85" s="8" t="s">
+      <c r="O85" s="7" t="s">
         <v>1153</v>
       </c>
       <c r="P85" t="s">
@@ -10679,7 +10698,7 @@
       <c r="S85" t="s">
         <v>900</v>
       </c>
-      <c r="T85" s="10" t="s">
+      <c r="T85" t="s">
         <v>627</v>
       </c>
       <c r="U85" t="s">
@@ -10689,7 +10708,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" hidden="1">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -10717,7 +10736,7 @@
       <c r="L86" t="s">
         <v>511</v>
       </c>
-      <c r="O86" s="8" t="s">
+      <c r="O86" s="7" t="s">
         <v>1157</v>
       </c>
       <c r="P86" t="s">
@@ -10732,7 +10751,7 @@
       <c r="S86" t="s">
         <v>1159</v>
       </c>
-      <c r="T86" s="10" t="s">
+      <c r="T86" t="s">
         <v>627</v>
       </c>
       <c r="U86" t="s">
@@ -10742,7 +10761,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" hidden="1">
       <c r="A87" t="s">
         <v>227</v>
       </c>
@@ -10770,7 +10789,7 @@
       <c r="L87" t="s">
         <v>457</v>
       </c>
-      <c r="O87" s="8" t="s">
+      <c r="O87" s="7" t="s">
         <v>1162</v>
       </c>
       <c r="P87" t="s">
@@ -10785,7 +10804,7 @@
       <c r="S87" t="s">
         <v>1165</v>
       </c>
-      <c r="T87" s="10" t="s">
+      <c r="T87" t="s">
         <v>627</v>
       </c>
       <c r="U87" t="s">
@@ -10798,7 +10817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" hidden="1">
       <c r="A88" t="s">
         <v>397</v>
       </c>
@@ -10823,7 +10842,7 @@
       <c r="L88" t="s">
         <v>452</v>
       </c>
-      <c r="O88" s="8" t="s">
+      <c r="O88" s="7" t="s">
         <v>670</v>
       </c>
       <c r="P88" t="s">
@@ -10838,7 +10857,7 @@
       <c r="S88" t="s">
         <v>673</v>
       </c>
-      <c r="T88" s="10" t="s">
+      <c r="T88" t="s">
         <v>627</v>
       </c>
       <c r="U88" t="s">
@@ -10851,7 +10870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="409.6" hidden="1">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -10879,7 +10898,7 @@
       <c r="L89" t="s">
         <v>457</v>
       </c>
-      <c r="O89" s="8" t="s">
+      <c r="O89" s="7" t="s">
         <v>1168</v>
       </c>
       <c r="P89" t="s">
@@ -10894,7 +10913,7 @@
       <c r="S89" t="s">
         <v>1171</v>
       </c>
-      <c r="T89" s="10" t="s">
+      <c r="T89" t="s">
         <v>627</v>
       </c>
       <c r="U89" t="s">
@@ -10903,11 +10922,11 @@
       <c r="V89" t="s">
         <v>1174</v>
       </c>
-      <c r="W89" s="6" t="s">
+      <c r="W89" s="5" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" hidden="1">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -10932,7 +10951,7 @@
       <c r="L90" t="s">
         <v>450</v>
       </c>
-      <c r="O90" s="8" t="s">
+      <c r="O90" s="7" t="s">
         <v>675</v>
       </c>
       <c r="P90" t="s">
@@ -10947,7 +10966,7 @@
       <c r="S90" t="s">
         <v>679</v>
       </c>
-      <c r="T90" s="10" t="s">
+      <c r="T90" t="s">
         <v>627</v>
       </c>
       <c r="U90" t="s">
@@ -10960,7 +10979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" hidden="1">
       <c r="A91" t="s">
         <v>230</v>
       </c>
@@ -10988,7 +11007,7 @@
       <c r="L91" t="s">
         <v>509</v>
       </c>
-      <c r="O91" s="8" t="s">
+      <c r="O91" s="7" t="s">
         <v>1175</v>
       </c>
       <c r="P91" t="s">
@@ -11000,7 +11019,7 @@
       <c r="S91" t="s">
         <v>1178</v>
       </c>
-      <c r="T91" s="10" t="s">
+      <c r="T91" t="s">
         <v>627</v>
       </c>
       <c r="U91" t="s">
@@ -11013,7 +11032,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" hidden="1">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -11041,7 +11060,7 @@
       <c r="L92" t="s">
         <v>509</v>
       </c>
-      <c r="O92" s="8" t="s">
+      <c r="O92" s="7" t="s">
         <v>1182</v>
       </c>
       <c r="P92" t="s">
@@ -11053,7 +11072,7 @@
       <c r="S92" t="s">
         <v>1183</v>
       </c>
-      <c r="T92" s="10" t="s">
+      <c r="T92" t="s">
         <v>627</v>
       </c>
       <c r="U92" t="s">
@@ -11066,7 +11085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" hidden="1">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -11091,7 +11110,7 @@
       <c r="L93" t="s">
         <v>455</v>
       </c>
-      <c r="O93" s="8" t="s">
+      <c r="O93" s="7" t="s">
         <v>1186</v>
       </c>
       <c r="P93" t="s">
@@ -11106,7 +11125,7 @@
       <c r="S93" t="s">
         <v>1187</v>
       </c>
-      <c r="T93" s="10" t="s">
+      <c r="T93" t="s">
         <v>1557</v>
       </c>
       <c r="U93" t="s">
@@ -11119,7 +11138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A94" t="s">
         <v>312</v>
       </c>
@@ -11150,7 +11169,7 @@
       <c r="M94" t="s">
         <v>455</v>
       </c>
-      <c r="O94" s="8" t="s">
+      <c r="O94" s="7" t="s">
         <v>681</v>
       </c>
       <c r="P94" t="s">
@@ -11165,7 +11184,7 @@
       <c r="S94" t="s">
         <v>684</v>
       </c>
-      <c r="T94" s="10" t="s">
+      <c r="T94" t="s">
         <v>627</v>
       </c>
       <c r="U94" t="s">
@@ -11178,7 +11197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" hidden="1">
       <c r="A95" t="s">
         <v>233</v>
       </c>
@@ -11206,7 +11225,7 @@
       <c r="L95" t="s">
         <v>457</v>
       </c>
-      <c r="O95" s="8" t="s">
+      <c r="O95" s="7" t="s">
         <v>1192</v>
       </c>
       <c r="P95" t="s">
@@ -11218,7 +11237,7 @@
       <c r="S95" t="s">
         <v>836</v>
       </c>
-      <c r="T95" s="10" t="s">
+      <c r="T95" t="s">
         <v>627</v>
       </c>
       <c r="U95" t="s">
@@ -11231,7 +11250,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" hidden="1">
       <c r="A96" t="s">
         <v>400</v>
       </c>
@@ -11262,7 +11281,7 @@
       <c r="M96" t="s">
         <v>451</v>
       </c>
-      <c r="O96" s="8" t="s">
+      <c r="O96" s="7" t="s">
         <v>1197</v>
       </c>
       <c r="P96" t="s">
@@ -11274,7 +11293,7 @@
       <c r="S96" t="s">
         <v>1201</v>
       </c>
-      <c r="T96" s="10" t="s">
+      <c r="T96" t="s">
         <v>627</v>
       </c>
       <c r="U96" t="s">
@@ -11287,7 +11306,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" hidden="1">
       <c r="A97" t="s">
         <v>315</v>
       </c>
@@ -11318,7 +11337,7 @@
       <c r="L97" t="s">
         <v>452</v>
       </c>
-      <c r="O97" s="8" t="s">
+      <c r="O97" s="7" t="s">
         <v>686</v>
       </c>
       <c r="P97" t="s">
@@ -11330,7 +11349,7 @@
       <c r="S97" t="s">
         <v>688</v>
       </c>
-      <c r="T97" s="10" t="s">
+      <c r="T97" t="s">
         <v>627</v>
       </c>
       <c r="U97" t="s">
@@ -11343,76 +11362,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
+    <row r="98" spans="1:25" s="9" customFormat="1">
+      <c r="A98" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="9">
         <v>2002</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E98" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="13" t="s">
+      <c r="G98" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="H98" s="13" t="s">
+      <c r="H98" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I98" s="9" t="s">
         <v>1207</v>
       </c>
-      <c r="J98" s="13" t="s">
+      <c r="J98" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="K98" s="13" t="s">
+      <c r="K98" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="L98" s="13" t="s">
+      <c r="L98" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="M98" s="13" t="s">
+      <c r="M98" s="9" t="s">
         <v>511</v>
       </c>
       <c r="N98"/>
-      <c r="O98" s="13" t="s">
+      <c r="O98" s="9" t="s">
         <v>1204</v>
       </c>
-      <c r="P98" s="13" t="s">
+      <c r="P98" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="R98" s="13" t="s">
+      <c r="R98" s="9" t="s">
         <v>1203</v>
       </c>
-      <c r="S98" s="13" t="s">
+      <c r="S98" s="9" t="s">
         <v>1206</v>
       </c>
-      <c r="T98" s="13" t="s">
+      <c r="T98" s="9" t="s">
         <v>1558</v>
       </c>
-      <c r="U98" s="13" t="s">
+      <c r="U98" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="V98" s="13" t="s">
+      <c r="V98" s="9" t="s">
         <v>1208</v>
       </c>
-      <c r="W98" s="13" t="s">
+      <c r="W98" s="9" t="s">
         <v>1205</v>
       </c>
-      <c r="X98" s="16" t="s">
+      <c r="X98" s="12" t="s">
         <v>1582</v>
       </c>
-      <c r="Y98" s="16" t="s">
+      <c r="Y98" s="12" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" hidden="1">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -11440,7 +11459,7 @@
       <c r="L99" t="s">
         <v>457</v>
       </c>
-      <c r="O99" s="8" t="s">
+      <c r="O99" s="7" t="s">
         <v>1209</v>
       </c>
       <c r="P99" t="s">
@@ -11455,7 +11474,7 @@
       <c r="S99" t="s">
         <v>900</v>
       </c>
-      <c r="T99" s="10" t="s">
+      <c r="T99" t="s">
         <v>627</v>
       </c>
       <c r="U99" t="s">
@@ -11468,7 +11487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -11493,7 +11512,7 @@
       <c r="L100" t="s">
         <v>509</v>
       </c>
-      <c r="O100" s="8" t="s">
+      <c r="O100" s="7" t="s">
         <v>1215</v>
       </c>
       <c r="P100" t="s">
@@ -11508,7 +11527,7 @@
       <c r="S100" t="s">
         <v>1218</v>
       </c>
-      <c r="T100" s="10" t="s">
+      <c r="T100" t="s">
         <v>627</v>
       </c>
       <c r="U100" t="s">
@@ -11521,7 +11540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" hidden="1">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -11552,7 +11571,7 @@
       <c r="L101" t="s">
         <v>455</v>
       </c>
-      <c r="O101" s="8" t="s">
+      <c r="O101" s="7" t="s">
         <v>1220</v>
       </c>
       <c r="P101" t="s">
@@ -11567,7 +11586,7 @@
       <c r="S101" t="s">
         <v>900</v>
       </c>
-      <c r="T101" s="10" t="s">
+      <c r="T101" t="s">
         <v>1555</v>
       </c>
       <c r="U101" t="s">
@@ -11580,7 +11599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="409.6" hidden="1">
       <c r="A102" t="s">
         <v>318</v>
       </c>
@@ -11602,7 +11621,7 @@
       <c r="H102" t="s">
         <v>507</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="I102" s="5" t="s">
         <v>1231</v>
       </c>
       <c r="J102" t="s">
@@ -11611,7 +11630,7 @@
       <c r="L102" t="s">
         <v>457</v>
       </c>
-      <c r="O102" s="8" t="s">
+      <c r="O102" s="7" t="s">
         <v>1226</v>
       </c>
       <c r="P102" t="s">
@@ -11626,7 +11645,7 @@
       <c r="S102" t="s">
         <v>1229</v>
       </c>
-      <c r="T102" s="10" t="s">
+      <c r="T102" t="s">
         <v>627</v>
       </c>
       <c r="U102" t="s">
@@ -11639,7 +11658,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" hidden="1">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -11676,7 +11695,7 @@
       <c r="M103" t="s">
         <v>455</v>
       </c>
-      <c r="O103" s="8" t="s">
+      <c r="O103" s="7" t="s">
         <v>690</v>
       </c>
       <c r="P103" t="s">
@@ -11691,7 +11710,7 @@
       <c r="S103" t="s">
         <v>695</v>
       </c>
-      <c r="T103" s="10" t="s">
+      <c r="T103" t="s">
         <v>627</v>
       </c>
       <c r="U103" t="s">
@@ -11701,7 +11720,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" hidden="1">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -11729,7 +11748,7 @@
       <c r="L104" t="s">
         <v>511</v>
       </c>
-      <c r="O104" s="8" t="s">
+      <c r="O104" s="7" t="s">
         <v>697</v>
       </c>
       <c r="P104" t="s">
@@ -11744,7 +11763,7 @@
       <c r="S104" t="s">
         <v>699</v>
       </c>
-      <c r="T104" s="10" t="s">
+      <c r="T104" t="s">
         <v>627</v>
       </c>
       <c r="U104" t="s">
@@ -11757,7 +11776,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" hidden="1">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -11788,7 +11807,7 @@
       <c r="L105" t="s">
         <v>457</v>
       </c>
-      <c r="O105" s="8" t="s">
+      <c r="O105" s="7" t="s">
         <v>1233</v>
       </c>
       <c r="P105" t="s">
@@ -11803,7 +11822,7 @@
       <c r="S105" t="s">
         <v>1236</v>
       </c>
-      <c r="T105" s="10" t="s">
+      <c r="T105" t="s">
         <v>1555</v>
       </c>
       <c r="U105" t="s">
@@ -11816,7 +11835,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" hidden="1">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -11841,7 +11860,7 @@
       <c r="L106" t="s">
         <v>511</v>
       </c>
-      <c r="O106" s="8" t="s">
+      <c r="O106" s="7" t="s">
         <v>1240</v>
       </c>
       <c r="P106" t="s">
@@ -11853,7 +11872,7 @@
       <c r="S106" t="s">
         <v>1242</v>
       </c>
-      <c r="T106" s="10" t="s">
+      <c r="T106" t="s">
         <v>627</v>
       </c>
       <c r="U106" t="s">
@@ -11866,7 +11885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" hidden="1">
       <c r="A107" t="s">
         <v>321</v>
       </c>
@@ -11894,7 +11913,7 @@
       <c r="L107" t="s">
         <v>457</v>
       </c>
-      <c r="O107" s="8" t="s">
+      <c r="O107" s="7" t="s">
         <v>701</v>
       </c>
       <c r="P107" t="s">
@@ -11909,7 +11928,7 @@
       <c r="S107" t="s">
         <v>706</v>
       </c>
-      <c r="T107" s="10" t="s">
+      <c r="T107" t="s">
         <v>627</v>
       </c>
       <c r="U107" t="s">
@@ -11922,7 +11941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" hidden="1">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -11959,7 +11978,7 @@
       <c r="M108" t="s">
         <v>455</v>
       </c>
-      <c r="O108" s="8" t="s">
+      <c r="O108" s="7" t="s">
         <v>1244</v>
       </c>
       <c r="P108" t="s">
@@ -11971,7 +11990,7 @@
       <c r="S108" t="s">
         <v>1246</v>
       </c>
-      <c r="T108" s="10" t="s">
+      <c r="T108" t="s">
         <v>627</v>
       </c>
       <c r="U108" t="s">
@@ -11984,7 +12003,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" hidden="1">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -12012,7 +12031,7 @@
       <c r="L109" t="s">
         <v>509</v>
       </c>
-      <c r="O109" s="8" t="s">
+      <c r="O109" s="7" t="s">
         <v>1250</v>
       </c>
       <c r="P109" t="s">
@@ -12021,7 +12040,7 @@
       <c r="S109" t="s">
         <v>1251</v>
       </c>
-      <c r="T109" s="10" t="s">
+      <c r="T109" t="s">
         <v>1555</v>
       </c>
       <c r="U109" t="s">
@@ -12034,7 +12053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A110" t="s">
         <v>76</v>
       </c>
@@ -12065,7 +12084,7 @@
       <c r="L110" t="s">
         <v>511</v>
       </c>
-      <c r="O110" s="8" t="s">
+      <c r="O110" s="7" t="s">
         <v>1255</v>
       </c>
       <c r="P110" t="s">
@@ -12077,7 +12096,7 @@
       <c r="S110" t="s">
         <v>699</v>
       </c>
-      <c r="T110" s="10" t="s">
+      <c r="T110" t="s">
         <v>627</v>
       </c>
       <c r="U110" t="s">
@@ -12090,7 +12109,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" hidden="1">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -12118,7 +12137,7 @@
       <c r="L111" t="s">
         <v>509</v>
       </c>
-      <c r="O111" s="8" t="s">
+      <c r="O111" s="7" t="s">
         <v>1258</v>
       </c>
       <c r="P111" t="s">
@@ -12130,7 +12149,7 @@
       <c r="S111" t="s">
         <v>1261</v>
       </c>
-      <c r="T111" s="10" t="s">
+      <c r="T111" t="s">
         <v>627</v>
       </c>
       <c r="U111" t="s">
@@ -12143,7 +12162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" hidden="1">
       <c r="A112" t="s">
         <v>403</v>
       </c>
@@ -12168,7 +12187,7 @@
       <c r="L112" t="s">
         <v>457</v>
       </c>
-      <c r="O112" s="8" t="s">
+      <c r="O112" s="7" t="s">
         <v>1263</v>
       </c>
       <c r="P112" t="s">
@@ -12183,7 +12202,7 @@
       <c r="S112" t="s">
         <v>1267</v>
       </c>
-      <c r="T112" s="10" t="s">
+      <c r="T112" t="s">
         <v>627</v>
       </c>
       <c r="U112" t="s">
@@ -12193,7 +12212,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" hidden="1">
       <c r="A113" t="s">
         <v>78</v>
       </c>
@@ -12221,7 +12240,7 @@
       <c r="L113" t="s">
         <v>511</v>
       </c>
-      <c r="O113" s="8" t="s">
+      <c r="O113" s="7" t="s">
         <v>1269</v>
       </c>
       <c r="P113" t="s">
@@ -12230,7 +12249,7 @@
       <c r="S113" t="s">
         <v>699</v>
       </c>
-      <c r="T113" s="10" t="s">
+      <c r="T113" t="s">
         <v>1555</v>
       </c>
       <c r="U113" t="s">
@@ -12243,7 +12262,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" hidden="1">
       <c r="A114" t="s">
         <v>324</v>
       </c>
@@ -12271,7 +12290,7 @@
       <c r="L114" t="s">
         <v>453</v>
       </c>
-      <c r="O114" s="8" t="s">
+      <c r="O114" s="7" t="s">
         <v>1273</v>
       </c>
       <c r="P114" t="s">
@@ -12283,7 +12302,7 @@
       <c r="S114" t="s">
         <v>1276</v>
       </c>
-      <c r="T114" s="10" t="s">
+      <c r="T114" t="s">
         <v>1555</v>
       </c>
       <c r="U114" t="s">
@@ -12296,7 +12315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" hidden="1">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -12321,7 +12340,7 @@
       <c r="L115" t="s">
         <v>457</v>
       </c>
-      <c r="O115" s="8" t="s">
+      <c r="O115" s="7" t="s">
         <v>1278</v>
       </c>
       <c r="P115" t="s">
@@ -12333,7 +12352,7 @@
       <c r="S115" t="s">
         <v>1281</v>
       </c>
-      <c r="T115" s="10" t="s">
+      <c r="T115" t="s">
         <v>627</v>
       </c>
       <c r="U115" t="s">
@@ -12346,118 +12365,118 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="116" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
+    <row r="116" spans="1:25" s="9" customFormat="1">
+      <c r="A116" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="9">
         <v>2023</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="E116" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="G116" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="J116" s="13" t="s">
+      <c r="J116" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="L116" s="13" t="s">
+      <c r="L116" s="9" t="s">
         <v>511</v>
       </c>
       <c r="N116"/>
-      <c r="O116" s="13" t="s">
+      <c r="O116" s="9" t="s">
         <v>1283</v>
       </c>
-      <c r="P116" s="13" t="s">
+      <c r="P116" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="S116" s="13" t="s">
+      <c r="S116" s="9" t="s">
         <v>1242</v>
       </c>
-      <c r="T116" s="13" t="s">
+      <c r="T116" s="9" t="s">
         <v>1560</v>
       </c>
-      <c r="U116" s="13" t="s">
+      <c r="U116" s="9" t="s">
         <v>1550</v>
       </c>
-      <c r="V116" s="13" t="s">
+      <c r="V116" s="9" t="s">
         <v>1284</v>
       </c>
-      <c r="W116" s="13" t="s">
+      <c r="W116" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="X116" s="15" t="s">
+      <c r="X116" s="11" t="s">
         <v>1583</v>
       </c>
-      <c r="Y116" s="15" t="s">
+      <c r="Y116" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="117" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
+    <row r="117" spans="1:25" s="13" customFormat="1">
+      <c r="A117" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="13">
         <v>2022</v>
       </c>
-      <c r="D117" s="17" t="s">
+      <c r="D117" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="17" t="s">
+      <c r="G117" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="I117" s="17" t="s">
+      <c r="I117" s="13" t="s">
         <v>1287</v>
       </c>
-      <c r="J117" s="17" t="s">
+      <c r="J117" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="L117" s="17" t="s">
+      <c r="L117" s="13" t="s">
         <v>511</v>
       </c>
       <c r="N117"/>
-      <c r="O117" s="17" t="s">
+      <c r="O117" s="13" t="s">
         <v>1285</v>
       </c>
-      <c r="P117" s="17" t="s">
+      <c r="P117" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="S117" s="17" t="s">
+      <c r="S117" s="13" t="s">
         <v>1286</v>
       </c>
-      <c r="T117" s="17" t="s">
+      <c r="T117" s="13" t="s">
         <v>1554</v>
       </c>
-      <c r="U117" s="17" t="s">
+      <c r="U117" s="13" t="s">
         <v>1550</v>
       </c>
-      <c r="V117" s="17" t="s">
+      <c r="V117" s="13" t="s">
         <v>1288</v>
       </c>
-      <c r="W117" s="17" t="s">
+      <c r="W117" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="X117" s="22" t="s">
+      <c r="X117" s="18" t="s">
         <v>1584</v>
       </c>
-      <c r="Y117" s="22" t="s">
+      <c r="Y117" s="18" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" hidden="1">
       <c r="A118" t="s">
         <v>327</v>
       </c>
@@ -12491,7 +12510,7 @@
       <c r="M118" t="s">
         <v>511</v>
       </c>
-      <c r="O118" s="8" t="s">
+      <c r="O118" s="7" t="s">
         <v>1289</v>
       </c>
       <c r="P118" t="s">
@@ -12500,7 +12519,7 @@
       <c r="S118" t="s">
         <v>1290</v>
       </c>
-      <c r="T118" s="10" t="s">
+      <c r="T118" t="s">
         <v>1555</v>
       </c>
       <c r="U118" t="s">
@@ -12513,7 +12532,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" hidden="1">
       <c r="A119" t="s">
         <v>409</v>
       </c>
@@ -12541,7 +12560,7 @@
       <c r="L119" t="s">
         <v>457</v>
       </c>
-      <c r="O119" s="8" t="s">
+      <c r="O119" s="7" t="s">
         <v>1293</v>
       </c>
       <c r="P119" t="s">
@@ -12556,7 +12575,7 @@
       <c r="S119" t="s">
         <v>913</v>
       </c>
-      <c r="T119" s="10" t="s">
+      <c r="T119" t="s">
         <v>627</v>
       </c>
       <c r="U119" t="s">
@@ -12569,7 +12588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" hidden="1">
       <c r="A120" t="s">
         <v>412</v>
       </c>
@@ -12600,7 +12619,7 @@
       <c r="L120" t="s">
         <v>457</v>
       </c>
-      <c r="O120" s="8" t="s">
+      <c r="O120" s="7" t="s">
         <v>1298</v>
       </c>
       <c r="P120" t="s">
@@ -12615,7 +12634,7 @@
       <c r="S120" t="s">
         <v>1301</v>
       </c>
-      <c r="T120" s="10" t="s">
+      <c r="T120" t="s">
         <v>627</v>
       </c>
       <c r="U120" t="s">
@@ -12628,7 +12647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" hidden="1">
       <c r="A121" t="s">
         <v>415</v>
       </c>
@@ -12656,7 +12675,7 @@
       <c r="L121" t="s">
         <v>457</v>
       </c>
-      <c r="O121" s="8" t="s">
+      <c r="O121" s="7" t="s">
         <v>1304</v>
       </c>
       <c r="P121" t="s">
@@ -12671,7 +12690,7 @@
       <c r="S121" t="s">
         <v>777</v>
       </c>
-      <c r="T121" s="10" t="s">
+      <c r="T121" t="s">
         <v>627</v>
       </c>
       <c r="U121" t="s">
@@ -12684,7 +12703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" hidden="1">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -12715,7 +12734,7 @@
       <c r="L122" t="s">
         <v>511</v>
       </c>
-      <c r="O122" s="8" t="s">
+      <c r="O122" s="7" t="s">
         <v>1310</v>
       </c>
       <c r="P122" t="s">
@@ -12724,7 +12743,7 @@
       <c r="S122" t="s">
         <v>1311</v>
       </c>
-      <c r="T122" s="10" t="s">
+      <c r="T122" t="s">
         <v>627</v>
       </c>
       <c r="U122" t="s">
@@ -12737,7 +12756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" hidden="1">
       <c r="A123" t="s">
         <v>54</v>
       </c>
@@ -12762,7 +12781,7 @@
       <c r="L123" t="s">
         <v>453</v>
       </c>
-      <c r="O123" s="8" t="s">
+      <c r="O123" s="7" t="s">
         <v>1313</v>
       </c>
       <c r="P123" t="s">
@@ -12774,7 +12793,7 @@
       <c r="S123" t="s">
         <v>843</v>
       </c>
-      <c r="T123" s="10" t="s">
+      <c r="T123" t="s">
         <v>627</v>
       </c>
       <c r="U123" t="s">
@@ -12787,7 +12806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" hidden="1">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -12812,7 +12831,7 @@
       <c r="L124" t="s">
         <v>454</v>
       </c>
-      <c r="O124" s="8" t="s">
+      <c r="O124" s="7" t="s">
         <v>1317</v>
       </c>
       <c r="P124" t="s">
@@ -12821,7 +12840,7 @@
       <c r="S124" t="s">
         <v>1319</v>
       </c>
-      <c r="T124" s="10" t="s">
+      <c r="T124" t="s">
         <v>1555</v>
       </c>
       <c r="U124" t="s">
@@ -12834,7 +12853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" hidden="1">
       <c r="A125" t="s">
         <v>330</v>
       </c>
@@ -12868,7 +12887,7 @@
       <c r="M125" t="s">
         <v>451</v>
       </c>
-      <c r="O125" s="8" t="s">
+      <c r="O125" s="7" t="s">
         <v>708</v>
       </c>
       <c r="P125" t="s">
@@ -12883,7 +12902,7 @@
       <c r="S125" t="s">
         <v>41</v>
       </c>
-      <c r="T125" s="10" t="s">
+      <c r="T125" t="s">
         <v>627</v>
       </c>
       <c r="U125" t="s">
@@ -12896,64 +12915,64 @@
         <v>710</v>
       </c>
     </row>
-    <row r="126" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
+    <row r="126" spans="1:25" s="15" customFormat="1">
+      <c r="A126" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="15">
         <v>2020</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="D126" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="E126" s="19" t="s">
+      <c r="E126" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G126" s="19" t="s">
+      <c r="G126" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="J126" s="19" t="s">
+      <c r="J126" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="L126" s="19" t="s">
+      <c r="L126" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="M126" s="19" t="s">
+      <c r="M126" s="15" t="s">
         <v>511</v>
       </c>
       <c r="N126"/>
-      <c r="O126" s="19" t="s">
+      <c r="O126" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="P126" s="19" t="s">
+      <c r="P126" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="Q126" s="19" t="s">
+      <c r="Q126" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="S126" s="19" t="s">
+      <c r="S126" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="T126" s="19" t="s">
+      <c r="T126" s="15" t="s">
         <v>1553</v>
       </c>
-      <c r="U126" s="19" t="s">
+      <c r="U126" s="15" t="s">
         <v>1551</v>
       </c>
-      <c r="V126" s="19" t="s">
+      <c r="V126" s="15" t="s">
         <v>718</v>
       </c>
-      <c r="X126" s="21" t="s">
+      <c r="X126" s="17" t="s">
         <v>1585</v>
       </c>
-      <c r="Y126" s="21" t="s">
+      <c r="Y126" s="17" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" hidden="1">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -12981,7 +13000,7 @@
       <c r="L127" t="s">
         <v>509</v>
       </c>
-      <c r="O127" s="8" t="s">
+      <c r="O127" s="7" t="s">
         <v>1320</v>
       </c>
       <c r="P127" t="s">
@@ -12993,7 +13012,7 @@
       <c r="S127" t="s">
         <v>1323</v>
       </c>
-      <c r="T127" s="10" t="s">
+      <c r="T127" t="s">
         <v>627</v>
       </c>
       <c r="U127" t="s">
@@ -13006,7 +13025,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" hidden="1">
       <c r="A128" t="s">
         <v>333</v>
       </c>
@@ -13043,7 +13062,7 @@
       <c r="M128" t="s">
         <v>457</v>
       </c>
-      <c r="O128" s="8" t="s">
+      <c r="O128" s="7" t="s">
         <v>1326</v>
       </c>
       <c r="P128" t="s">
@@ -13058,7 +13077,7 @@
       <c r="S128" t="s">
         <v>1329</v>
       </c>
-      <c r="T128" s="10" t="s">
+      <c r="T128" t="s">
         <v>627</v>
       </c>
       <c r="U128" t="s">
@@ -13071,7 +13090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" hidden="1">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -13099,7 +13118,7 @@
       <c r="L129" t="s">
         <v>457</v>
       </c>
-      <c r="O129" s="8" t="s">
+      <c r="O129" s="7" t="s">
         <v>1332</v>
       </c>
       <c r="P129" t="s">
@@ -13114,7 +13133,7 @@
       <c r="S129" t="s">
         <v>1236</v>
       </c>
-      <c r="T129" s="10" t="s">
+      <c r="T129" t="s">
         <v>627</v>
       </c>
       <c r="U129" t="s">
@@ -13127,7 +13146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" hidden="1">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -13152,7 +13171,7 @@
       <c r="L130" t="s">
         <v>457</v>
       </c>
-      <c r="O130" s="8" t="s">
+      <c r="O130" s="7" t="s">
         <v>1337</v>
       </c>
       <c r="P130" t="s">
@@ -13167,7 +13186,7 @@
       <c r="S130" t="s">
         <v>1340</v>
       </c>
-      <c r="T130" s="10" t="s">
+      <c r="T130" t="s">
         <v>627</v>
       </c>
       <c r="U130" t="s">
@@ -13180,7 +13199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" hidden="1">
       <c r="A131" t="s">
         <v>418</v>
       </c>
@@ -13205,7 +13224,7 @@
       <c r="L131" t="s">
         <v>455</v>
       </c>
-      <c r="O131" s="8" t="s">
+      <c r="O131" s="7" t="s">
         <v>1342</v>
       </c>
       <c r="P131" t="s">
@@ -13217,7 +13236,7 @@
       <c r="S131" t="s">
         <v>1344</v>
       </c>
-      <c r="T131" s="10" t="s">
+      <c r="T131" t="s">
         <v>627</v>
       </c>
       <c r="U131" t="s">
@@ -13230,7 +13249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" hidden="1">
       <c r="A132" t="s">
         <v>421</v>
       </c>
@@ -13258,7 +13277,7 @@
       <c r="L132" t="s">
         <v>509</v>
       </c>
-      <c r="O132" s="8" t="s">
+      <c r="O132" s="7" t="s">
         <v>1346</v>
       </c>
       <c r="P132" t="s">
@@ -13273,7 +13292,7 @@
       <c r="S132" t="s">
         <v>1251</v>
       </c>
-      <c r="T132" s="10" t="s">
+      <c r="T132" t="s">
         <v>1555</v>
       </c>
       <c r="U132" t="s">
@@ -13286,7 +13305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" hidden="1">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -13314,7 +13333,7 @@
       <c r="L133" t="s">
         <v>509</v>
       </c>
-      <c r="O133" s="8" t="s">
+      <c r="O133" s="7" t="s">
         <v>1350</v>
       </c>
       <c r="P133" t="s">
@@ -13326,7 +13345,7 @@
       <c r="S133" t="s">
         <v>1323</v>
       </c>
-      <c r="T133" s="10" t="s">
+      <c r="T133" t="s">
         <v>627</v>
       </c>
       <c r="U133" t="s">
@@ -13336,7 +13355,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" hidden="1">
       <c r="A134" t="s">
         <v>248</v>
       </c>
@@ -13370,7 +13389,7 @@
       <c r="M134" t="s">
         <v>452</v>
       </c>
-      <c r="O134" s="8" t="s">
+      <c r="O134" s="7" t="s">
         <v>1353</v>
       </c>
       <c r="P134" t="s">
@@ -13379,7 +13398,7 @@
       <c r="S134" t="s">
         <v>1355</v>
       </c>
-      <c r="T134" s="10" t="s">
+      <c r="T134" t="s">
         <v>627</v>
       </c>
       <c r="U134" t="s">
@@ -13392,7 +13411,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" hidden="1">
       <c r="A135" t="s">
         <v>424</v>
       </c>
@@ -13417,7 +13436,7 @@
       <c r="L135" t="s">
         <v>457</v>
       </c>
-      <c r="O135" s="8" t="s">
+      <c r="O135" s="7" t="s">
         <v>1358</v>
       </c>
       <c r="P135" t="s">
@@ -13426,7 +13445,7 @@
       <c r="S135" t="s">
         <v>1359</v>
       </c>
-      <c r="T135" s="10" t="s">
+      <c r="T135" t="s">
         <v>627</v>
       </c>
       <c r="U135" t="s">
@@ -13439,7 +13458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" hidden="1">
       <c r="A136" t="s">
         <v>251</v>
       </c>
@@ -13470,7 +13489,7 @@
       <c r="L136" t="s">
         <v>456</v>
       </c>
-      <c r="O136" s="8" t="s">
+      <c r="O136" s="7" t="s">
         <v>1361</v>
       </c>
       <c r="P136" t="s">
@@ -13485,7 +13504,7 @@
       <c r="S136" t="s">
         <v>1365</v>
       </c>
-      <c r="T136" s="10" t="s">
+      <c r="T136" t="s">
         <v>1559</v>
       </c>
       <c r="U136" t="s">
@@ -13498,7 +13517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" hidden="1">
       <c r="A137" t="s">
         <v>56</v>
       </c>
@@ -13526,7 +13545,7 @@
       <c r="L137" t="s">
         <v>511</v>
       </c>
-      <c r="O137" s="8" t="s">
+      <c r="O137" s="7" t="s">
         <v>1368</v>
       </c>
       <c r="P137" t="s">
@@ -13535,7 +13554,7 @@
       <c r="S137" t="s">
         <v>1311</v>
       </c>
-      <c r="T137" s="10" t="s">
+      <c r="T137" t="s">
         <v>1555</v>
       </c>
       <c r="U137" t="s">
@@ -13548,7 +13567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" hidden="1">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -13582,7 +13601,7 @@
       <c r="M138" t="s">
         <v>457</v>
       </c>
-      <c r="O138" s="8" t="s">
+      <c r="O138" s="7" t="s">
         <v>1371</v>
       </c>
       <c r="P138" t="s">
@@ -13597,7 +13616,7 @@
       <c r="S138" t="s">
         <v>1374</v>
       </c>
-      <c r="T138" s="10" t="s">
+      <c r="T138" t="s">
         <v>1555</v>
       </c>
       <c r="U138" t="s">
@@ -13610,7 +13629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" hidden="1">
       <c r="A139" t="s">
         <v>427</v>
       </c>
@@ -13635,7 +13654,7 @@
       <c r="L139" t="s">
         <v>454</v>
       </c>
-      <c r="O139" s="8" t="s">
+      <c r="O139" s="7" t="s">
         <v>1377</v>
       </c>
       <c r="P139" t="s">
@@ -13644,7 +13663,7 @@
       <c r="S139" t="s">
         <v>1379</v>
       </c>
-      <c r="T139" s="10" t="s">
+      <c r="T139" t="s">
         <v>627</v>
       </c>
       <c r="U139" t="s">
@@ -13657,64 +13676,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
+    <row r="140" spans="1:25" s="9" customFormat="1">
+      <c r="A140" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="9">
         <v>2022</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="D140" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E140" s="13" t="s">
+      <c r="E140" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G140" s="13" t="s">
+      <c r="G140" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="J140" s="13" t="s">
+      <c r="J140" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="L140" s="13" t="s">
+      <c r="L140" s="9" t="s">
         <v>511</v>
       </c>
       <c r="N140"/>
-      <c r="O140" s="13" t="s">
+      <c r="O140" s="9" t="s">
         <v>1380</v>
       </c>
-      <c r="P140" s="13" t="s">
+      <c r="P140" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="R140" s="13" t="s">
+      <c r="R140" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S140" s="13" t="s">
+      <c r="S140" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="T140" s="13" t="s">
+      <c r="T140" s="9" t="s">
         <v>1558</v>
       </c>
-      <c r="U140" s="13" t="s">
+      <c r="U140" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="V140" s="13" t="s">
+      <c r="V140" s="9" t="s">
         <v>1384</v>
       </c>
-      <c r="W140" s="13" t="s">
+      <c r="W140" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="X140" s="16" t="s">
+      <c r="X140" s="12" t="s">
         <v>1587</v>
       </c>
-      <c r="Y140" s="16" t="s">
+      <c r="Y140" s="12" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" hidden="1">
       <c r="A141" t="s">
         <v>336</v>
       </c>
@@ -13745,7 +13764,7 @@
       <c r="L141" t="s">
         <v>511</v>
       </c>
-      <c r="O141" s="8" t="s">
+      <c r="O141" s="7" t="s">
         <v>1381</v>
       </c>
       <c r="P141" t="s">
@@ -13757,7 +13776,7 @@
       <c r="R141" t="s">
         <v>1387</v>
       </c>
-      <c r="T141" s="10" t="s">
+      <c r="T141" t="s">
         <v>1555</v>
       </c>
       <c r="U141" t="s">
@@ -13770,7 +13789,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" hidden="1">
       <c r="A142" t="s">
         <v>257</v>
       </c>
@@ -13801,7 +13820,7 @@
       <c r="L142" t="s">
         <v>456</v>
       </c>
-      <c r="O142" s="8" t="s">
+      <c r="O142" s="7" t="s">
         <v>1388</v>
       </c>
       <c r="P142" t="s">
@@ -13816,7 +13835,7 @@
       <c r="S142" t="s">
         <v>1392</v>
       </c>
-      <c r="T142" s="10" t="s">
+      <c r="T142" t="s">
         <v>1557</v>
       </c>
       <c r="U142" t="s">
@@ -13829,70 +13848,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
+    <row r="143" spans="1:25" s="13" customFormat="1">
+      <c r="A143" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C143" s="17">
+      <c r="C143" s="13">
         <v>2003</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E143" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="G143" s="17" t="s">
+      <c r="G143" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="I143" s="17" t="s">
+      <c r="I143" s="13" t="s">
         <v>1398</v>
       </c>
-      <c r="J143" s="17" t="s">
+      <c r="J143" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="L143" s="17" t="s">
+      <c r="L143" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="M143" s="17" t="s">
+      <c r="M143" s="13" t="s">
         <v>451</v>
       </c>
       <c r="N143"/>
-      <c r="O143" s="17" t="s">
+      <c r="O143" s="13" t="s">
         <v>1395</v>
       </c>
-      <c r="P143" s="17" t="s">
+      <c r="P143" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="Q143" s="17" t="s">
+      <c r="Q143" s="13" t="s">
         <v>1397</v>
       </c>
-      <c r="S143" s="17" t="s">
+      <c r="S143" s="13" t="s">
         <v>1394</v>
       </c>
-      <c r="T143" s="17" t="s">
+      <c r="T143" s="13" t="s">
         <v>1558</v>
       </c>
-      <c r="U143" s="17" t="s">
+      <c r="U143" s="13" t="s">
         <v>1551</v>
       </c>
-      <c r="V143" s="17" t="s">
+      <c r="V143" s="13" t="s">
         <v>1399</v>
       </c>
-      <c r="W143" s="17" t="s">
+      <c r="W143" s="13" t="s">
         <v>1396</v>
       </c>
-      <c r="X143" s="18" t="s">
+      <c r="X143" s="14" t="s">
         <v>1588</v>
       </c>
-      <c r="Y143" s="18" t="s">
+      <c r="Y143" s="14" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" hidden="1">
       <c r="A144" t="s">
         <v>260</v>
       </c>
@@ -13908,7 +13927,7 @@
       <c r="E144" t="s">
         <v>193</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" t="s">
         <v>518</v>
       </c>
       <c r="G144" t="s">
@@ -13923,7 +13942,7 @@
       <c r="L144" t="s">
         <v>457</v>
       </c>
-      <c r="O144" s="8" t="s">
+      <c r="O144" s="7" t="s">
         <v>719</v>
       </c>
       <c r="P144" t="s">
@@ -13938,7 +13957,7 @@
       <c r="S144" t="s">
         <v>722</v>
       </c>
-      <c r="T144" s="10" t="s">
+      <c r="T144" t="s">
         <v>627</v>
       </c>
       <c r="U144" t="s">
@@ -13948,7 +13967,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" hidden="1">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -13979,7 +13998,7 @@
       <c r="L145" t="s">
         <v>456</v>
       </c>
-      <c r="O145" s="8" t="s">
+      <c r="O145" s="7" t="s">
         <v>1400</v>
       </c>
       <c r="P145" t="s">
@@ -13994,7 +14013,7 @@
       <c r="S145" t="s">
         <v>1404</v>
       </c>
-      <c r="T145" s="10" t="s">
+      <c r="T145" t="s">
         <v>1557</v>
       </c>
       <c r="U145" t="s">
@@ -14007,7 +14026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" hidden="1">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -14035,7 +14054,7 @@
       <c r="L146" t="s">
         <v>455</v>
       </c>
-      <c r="O146" s="8" t="s">
+      <c r="O146" s="7" t="s">
         <v>1407</v>
       </c>
       <c r="P146" t="s">
@@ -14050,7 +14069,7 @@
       <c r="S146" t="s">
         <v>900</v>
       </c>
-      <c r="T146" s="10" t="s">
+      <c r="T146" t="s">
         <v>1555</v>
       </c>
       <c r="U146" t="s">
@@ -14063,139 +14082,139 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
+    <row r="147" spans="1:25" s="9" customFormat="1">
+      <c r="A147" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C147" s="13">
+      <c r="C147" s="9">
         <v>2020</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="D147" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="E147" s="13" t="s">
+      <c r="E147" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="G147" s="13" t="s">
+      <c r="G147" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="H147" s="13" t="s">
+      <c r="H147" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="I147" s="13" t="s">
+      <c r="I147" s="9" t="s">
         <v>1414</v>
       </c>
-      <c r="J147" s="13" t="s">
+      <c r="J147" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="K147" s="13" t="s">
+      <c r="K147" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="L147" s="13" t="s">
+      <c r="L147" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="M147" s="13" t="s">
+      <c r="M147" s="9" t="s">
         <v>455</v>
       </c>
       <c r="N147"/>
-      <c r="O147" s="13" t="s">
+      <c r="O147" s="9" t="s">
         <v>1412</v>
       </c>
-      <c r="P147" s="13" t="s">
+      <c r="P147" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="Q147" s="13" t="s">
+      <c r="Q147" s="9" t="s">
         <v>1413</v>
       </c>
-      <c r="S147" s="13" t="s">
+      <c r="S147" s="9" t="s">
         <v>1415</v>
       </c>
-      <c r="T147" s="13" t="s">
+      <c r="T147" s="9" t="s">
         <v>1558</v>
       </c>
-      <c r="U147" s="13" t="s">
+      <c r="U147" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="V147" s="13" t="s">
+      <c r="V147" s="9" t="s">
         <v>1417</v>
       </c>
-      <c r="W147" s="13" t="s">
+      <c r="W147" s="9" t="s">
         <v>1416</v>
       </c>
-      <c r="X147" s="16" t="s">
+      <c r="X147" s="12" t="s">
         <v>1590</v>
       </c>
-      <c r="Y147" s="16" t="s">
+      <c r="Y147" s="12" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="148" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="19" t="s">
+    <row r="148" spans="1:25" s="15" customFormat="1">
+      <c r="A148" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B148" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C148" s="19">
+      <c r="C148" s="15">
         <v>2022</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D148" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="E148" s="19" t="s">
+      <c r="E148" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G148" s="19" t="s">
+      <c r="G148" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="I148" s="19" t="s">
+      <c r="I148" s="15" t="s">
         <v>1421</v>
       </c>
-      <c r="J148" s="19" t="s">
+      <c r="J148" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="L148" s="19" t="s">
+      <c r="L148" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="M148" s="19" t="s">
+      <c r="M148" s="15" t="s">
         <v>509</v>
       </c>
       <c r="N148"/>
-      <c r="O148" s="19" t="s">
+      <c r="O148" s="15" t="s">
         <v>1418</v>
       </c>
-      <c r="P148" s="19" t="s">
+      <c r="P148" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="R148" s="19" t="s">
+      <c r="R148" s="15" t="s">
         <v>1419</v>
       </c>
-      <c r="S148" s="19" t="s">
+      <c r="S148" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="T148" s="19" t="s">
+      <c r="T148" s="15" t="s">
         <v>1561</v>
       </c>
-      <c r="U148" s="19" t="s">
+      <c r="U148" s="15" t="s">
         <v>1551</v>
       </c>
-      <c r="V148" s="19" t="s">
+      <c r="V148" s="15" t="s">
         <v>1420</v>
       </c>
-      <c r="W148" s="19" t="s">
+      <c r="W148" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="X148" s="20" t="s">
+      <c r="X148" s="16" t="s">
         <v>1591</v>
       </c>
-      <c r="Y148" s="20" t="s">
+      <c r="Y148" s="16" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" hidden="1">
       <c r="A149" t="s">
         <v>135</v>
       </c>
@@ -14223,7 +14242,7 @@
       <c r="L149" t="s">
         <v>457</v>
       </c>
-      <c r="O149" s="8" t="s">
+      <c r="O149" s="7" t="s">
         <v>1422</v>
       </c>
       <c r="P149" t="s">
@@ -14235,7 +14254,7 @@
       <c r="S149" t="s">
         <v>900</v>
       </c>
-      <c r="T149" s="10" t="s">
+      <c r="T149" t="s">
         <v>627</v>
       </c>
       <c r="U149" t="s">
@@ -14248,7 +14267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" hidden="1">
       <c r="A150" t="s">
         <v>345</v>
       </c>
@@ -14279,7 +14298,7 @@
       <c r="L150" t="s">
         <v>457</v>
       </c>
-      <c r="O150" s="8" t="s">
+      <c r="O150" s="7" t="s">
         <v>1426</v>
       </c>
       <c r="P150" t="s">
@@ -14291,7 +14310,7 @@
       <c r="S150" t="s">
         <v>1427</v>
       </c>
-      <c r="T150" s="10" t="s">
+      <c r="T150" t="s">
         <v>627</v>
       </c>
       <c r="U150" t="s">
@@ -14304,7 +14323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" hidden="1">
       <c r="A151" t="s">
         <v>430</v>
       </c>
@@ -14335,7 +14354,7 @@
       <c r="L151" t="s">
         <v>457</v>
       </c>
-      <c r="O151" s="8" t="s">
+      <c r="O151" s="7" t="s">
         <v>1430</v>
       </c>
       <c r="P151" t="s">
@@ -14347,7 +14366,7 @@
       <c r="S151" t="s">
         <v>1434</v>
       </c>
-      <c r="T151" s="10" t="s">
+      <c r="T151" t="s">
         <v>627</v>
       </c>
       <c r="U151" t="s">
@@ -14360,7 +14379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" hidden="1">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -14388,7 +14407,7 @@
       <c r="L152" t="s">
         <v>511</v>
       </c>
-      <c r="O152" s="8" t="s">
+      <c r="O152" s="7" t="s">
         <v>1437</v>
       </c>
       <c r="P152" t="s">
@@ -14400,7 +14419,7 @@
       <c r="S152" t="s">
         <v>1439</v>
       </c>
-      <c r="T152" s="10" t="s">
+      <c r="T152" t="s">
         <v>627</v>
       </c>
       <c r="U152" t="s">
@@ -14413,7 +14432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" hidden="1">
       <c r="A153" t="s">
         <v>82</v>
       </c>
@@ -14447,7 +14466,7 @@
       <c r="M153" t="s">
         <v>454</v>
       </c>
-      <c r="O153" s="8" t="s">
+      <c r="O153" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="P153" t="s">
@@ -14462,7 +14481,7 @@
       <c r="S153" t="s">
         <v>1445</v>
       </c>
-      <c r="T153" s="10" t="s">
+      <c r="T153" t="s">
         <v>1555</v>
       </c>
       <c r="U153" t="s">
@@ -14475,73 +14494,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
+    <row r="154" spans="1:25" s="9" customFormat="1">
+      <c r="A154" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C154" s="13">
+      <c r="C154" s="9">
         <v>2018</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D154" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="E154" s="13" t="s">
+      <c r="E154" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="G154" s="13" t="s">
+      <c r="G154" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="J154" s="13" t="s">
+      <c r="J154" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="K154" s="13" t="s">
+      <c r="K154" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="L154" s="13" t="s">
+      <c r="L154" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="M154" s="13" t="s">
+      <c r="M154" s="9" t="s">
         <v>451</v>
       </c>
       <c r="N154"/>
-      <c r="O154" s="13" t="s">
+      <c r="O154" s="9" t="s">
         <v>1448</v>
       </c>
-      <c r="P154" s="13" t="s">
+      <c r="P154" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="Q154" s="13" t="s">
+      <c r="Q154" s="9" t="s">
         <v>1449</v>
       </c>
-      <c r="R154" s="13" t="s">
+      <c r="R154" s="9" t="s">
         <v>1450</v>
       </c>
-      <c r="S154" s="13" t="s">
+      <c r="S154" s="9" t="s">
         <v>1451</v>
       </c>
-      <c r="T154" s="13" t="s">
+      <c r="T154" s="9" t="s">
         <v>1562</v>
       </c>
-      <c r="U154" s="13" t="s">
+      <c r="U154" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="V154" s="13" t="s">
+      <c r="V154" s="9" t="s">
         <v>1452</v>
       </c>
-      <c r="W154" s="13" t="s">
+      <c r="W154" s="9" t="s">
         <v>1453</v>
       </c>
-      <c r="X154" s="16" t="s">
+      <c r="X154" s="12" t="s">
         <v>1592</v>
       </c>
-      <c r="Y154" s="16" t="s">
+      <c r="Y154" s="12" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="155" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" hidden="1">
       <c r="A155" t="s">
         <v>62</v>
       </c>
@@ -14569,7 +14588,7 @@
       <c r="L155" t="s">
         <v>454</v>
       </c>
-      <c r="O155" s="8" t="s">
+      <c r="O155" s="7" t="s">
         <v>724</v>
       </c>
       <c r="P155" t="s">
@@ -14581,7 +14600,7 @@
       <c r="S155" t="s">
         <v>726</v>
       </c>
-      <c r="T155" s="10" t="s">
+      <c r="T155" t="s">
         <v>1557</v>
       </c>
       <c r="U155" t="s">
@@ -14594,7 +14613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" hidden="1">
       <c r="A156" t="s">
         <v>348</v>
       </c>
@@ -14610,11 +14629,9 @@
       <c r="E156" t="s">
         <v>278</v>
       </c>
-      <c r="F156"/>
       <c r="G156" t="s">
         <v>466</v>
       </c>
-      <c r="H156"/>
       <c r="I156" t="s">
         <v>1458</v>
       </c>
@@ -14630,8 +14647,7 @@
       <c r="M156" t="s">
         <v>455</v>
       </c>
-      <c r="N156"/>
-      <c r="O156" s="8" t="s">
+      <c r="O156" s="7" t="s">
         <v>1454</v>
       </c>
       <c r="P156" t="s">
@@ -14646,7 +14662,7 @@
       <c r="S156" t="s">
         <v>843</v>
       </c>
-      <c r="T156" s="10" t="s">
+      <c r="T156" t="s">
         <v>1555</v>
       </c>
       <c r="U156" t="s">
@@ -14659,7 +14675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" hidden="1">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -14687,7 +14703,7 @@
       <c r="L157" t="s">
         <v>456</v>
       </c>
-      <c r="O157" s="8" t="s">
+      <c r="O157" s="7" t="s">
         <v>1459</v>
       </c>
       <c r="P157" t="s">
@@ -14702,7 +14718,7 @@
       <c r="S157" t="s">
         <v>1463</v>
       </c>
-      <c r="T157" s="10" t="s">
+      <c r="T157" t="s">
         <v>1557</v>
       </c>
       <c r="U157" t="s">
@@ -14715,7 +14731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" hidden="1">
       <c r="A158" t="s">
         <v>436</v>
       </c>
@@ -14746,7 +14762,7 @@
       <c r="L158" t="s">
         <v>511</v>
       </c>
-      <c r="O158" s="8" t="s">
+      <c r="O158" s="7" t="s">
         <v>1466</v>
       </c>
       <c r="P158" t="s">
@@ -14758,7 +14774,7 @@
       <c r="S158" t="s">
         <v>777</v>
       </c>
-      <c r="T158" s="10" t="s">
+      <c r="T158" t="s">
         <v>627</v>
       </c>
       <c r="U158" t="s">
@@ -14771,7 +14787,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" hidden="1">
       <c r="A159" t="s">
         <v>64</v>
       </c>
@@ -14799,7 +14815,7 @@
       <c r="L159" t="s">
         <v>511</v>
       </c>
-      <c r="O159" s="8" t="s">
+      <c r="O159" s="7" t="s">
         <v>1471</v>
       </c>
       <c r="P159" t="s">
@@ -14808,7 +14824,7 @@
       <c r="S159" t="s">
         <v>1472</v>
       </c>
-      <c r="T159" s="10" t="s">
+      <c r="T159" t="s">
         <v>627</v>
       </c>
       <c r="U159" t="s">
@@ -14821,7 +14837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" hidden="1">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -14846,7 +14862,7 @@
       <c r="L160" t="s">
         <v>450</v>
       </c>
-      <c r="O160" s="8" t="s">
+      <c r="O160" s="7" t="s">
         <v>1475</v>
       </c>
       <c r="P160" t="s">
@@ -14858,7 +14874,7 @@
       <c r="S160" t="s">
         <v>1478</v>
       </c>
-      <c r="T160" s="10" t="s">
+      <c r="T160" t="s">
         <v>1555</v>
       </c>
       <c r="U160" t="s">
@@ -14871,7 +14887,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" hidden="1">
       <c r="A161" t="s">
         <v>439</v>
       </c>
@@ -14905,7 +14921,7 @@
       <c r="M161" t="s">
         <v>451</v>
       </c>
-      <c r="O161" s="8" t="s">
+      <c r="O161" s="7" t="s">
         <v>1480</v>
       </c>
       <c r="P161" t="s">
@@ -14917,7 +14933,7 @@
       <c r="S161" t="s">
         <v>843</v>
       </c>
-      <c r="T161" s="10" t="s">
+      <c r="T161" t="s">
         <v>1557</v>
       </c>
       <c r="U161" t="s">
@@ -14930,67 +14946,67 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="162" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="19" t="s">
+    <row r="162" spans="1:25" s="15" customFormat="1">
+      <c r="A162" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B162" s="19" t="s">
+      <c r="B162" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C162" s="19">
+      <c r="C162" s="15">
         <v>2015</v>
       </c>
-      <c r="D162" s="19" t="s">
+      <c r="D162" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E162" s="19" t="s">
+      <c r="E162" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F162" s="19" t="s">
+      <c r="F162" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="G162" s="19" t="s">
+      <c r="G162" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="J162" s="19" t="s">
+      <c r="J162" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="L162" s="19" t="s">
+      <c r="L162" s="15" t="s">
         <v>451</v>
       </c>
       <c r="N162"/>
-      <c r="O162" s="19" t="s">
+      <c r="O162" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="P162" s="19" t="s">
+      <c r="P162" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="Q162" s="19" t="s">
+      <c r="Q162" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="R162" s="19" t="s">
+      <c r="R162" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="S162" s="19" t="s">
+      <c r="S162" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="T162" s="19" t="s">
+      <c r="T162" s="15" t="s">
         <v>1555</v>
       </c>
-      <c r="U162" s="19" t="s">
+      <c r="U162" s="15" t="s">
         <v>1551</v>
       </c>
-      <c r="V162" s="19" t="s">
+      <c r="V162" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="X162" s="20" t="s">
+      <c r="X162" s="16" t="s">
         <v>1593</v>
       </c>
-      <c r="Y162" s="20" t="s">
+      <c r="Y162" s="16" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" hidden="1">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -15027,7 +15043,7 @@
       <c r="M163" t="s">
         <v>455</v>
       </c>
-      <c r="O163" s="8" t="s">
+      <c r="O163" s="7" t="s">
         <v>1486</v>
       </c>
       <c r="P163" t="s">
@@ -15042,7 +15058,7 @@
       <c r="S163" t="s">
         <v>1490</v>
       </c>
-      <c r="T163" s="10" t="s">
+      <c r="T163" t="s">
         <v>627</v>
       </c>
       <c r="U163" t="s">
@@ -15055,7 +15071,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" hidden="1">
       <c r="A164" t="s">
         <v>442</v>
       </c>
@@ -15080,7 +15096,7 @@
       <c r="L164" t="s">
         <v>457</v>
       </c>
-      <c r="O164" s="8" t="s">
+      <c r="O164" s="7" t="s">
         <v>1494</v>
       </c>
       <c r="P164" t="s">
@@ -15095,7 +15111,7 @@
       <c r="S164" t="s">
         <v>1498</v>
       </c>
-      <c r="T164" s="10" t="s">
+      <c r="T164" t="s">
         <v>1555</v>
       </c>
       <c r="U164" t="s">
@@ -15108,7 +15124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" hidden="1">
       <c r="A165" t="s">
         <v>66</v>
       </c>
@@ -15133,7 +15149,7 @@
       <c r="L165" t="s">
         <v>457</v>
       </c>
-      <c r="O165" s="8" t="s">
+      <c r="O165" s="7" t="s">
         <v>1500</v>
       </c>
       <c r="P165" t="s">
@@ -15148,7 +15164,7 @@
       <c r="S165" t="s">
         <v>1503</v>
       </c>
-      <c r="T165" s="10" t="s">
+      <c r="T165" t="s">
         <v>1555</v>
       </c>
       <c r="U165" t="s">
@@ -15161,67 +15177,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="17" t="s">
+    <row r="166" spans="1:25" s="13" customFormat="1">
+      <c r="A166" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C166" s="17">
+      <c r="C166" s="13">
         <v>2008</v>
       </c>
-      <c r="D166" s="17" t="s">
+      <c r="D166" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="E166" s="17" t="s">
+      <c r="E166" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G166" s="17" t="s">
+      <c r="G166" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="J166" s="17" t="s">
+      <c r="J166" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="L166" s="17" t="s">
+      <c r="L166" s="13" t="s">
         <v>457</v>
       </c>
       <c r="N166"/>
-      <c r="O166" s="17" t="s">
+      <c r="O166" s="13" t="s">
         <v>1505</v>
       </c>
-      <c r="P166" s="17" t="s">
+      <c r="P166" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="Q166" s="17" t="s">
+      <c r="Q166" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="R166" s="17" t="s">
+      <c r="R166" s="13" t="s">
         <v>1506</v>
       </c>
-      <c r="S166" s="17" t="s">
+      <c r="S166" s="13" t="s">
         <v>1507</v>
       </c>
-      <c r="T166" s="17" t="s">
+      <c r="T166" s="13" t="s">
         <v>1554</v>
       </c>
-      <c r="U166" s="17" t="s">
+      <c r="U166" s="13" t="s">
         <v>1550</v>
       </c>
-      <c r="V166" s="17" t="s">
+      <c r="V166" s="13" t="s">
         <v>1508</v>
       </c>
-      <c r="W166" s="17" t="s">
+      <c r="W166" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="X166" s="18" t="s">
+      <c r="X166" s="14" t="s">
         <v>1594</v>
       </c>
-      <c r="Y166" s="18" t="s">
+      <c r="Y166" s="14" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="167" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" hidden="1">
       <c r="A167" t="s">
         <v>269</v>
       </c>
@@ -15255,7 +15271,7 @@
       <c r="L167" t="s">
         <v>456</v>
       </c>
-      <c r="O167" s="8" t="s">
+      <c r="O167" s="7" t="s">
         <v>1509</v>
       </c>
       <c r="P167" t="s">
@@ -15270,7 +15286,7 @@
       <c r="S167" t="s">
         <v>732</v>
       </c>
-      <c r="T167" s="10" t="s">
+      <c r="T167" t="s">
         <v>627</v>
       </c>
       <c r="U167" t="s">
@@ -15283,7 +15299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" hidden="1">
       <c r="A168" t="s">
         <v>139</v>
       </c>
@@ -15314,7 +15330,7 @@
       <c r="L168" t="s">
         <v>452</v>
       </c>
-      <c r="O168" s="8" t="s">
+      <c r="O168" s="7" t="s">
         <v>1515</v>
       </c>
       <c r="P168" t="s">
@@ -15326,7 +15342,7 @@
       <c r="S168" t="s">
         <v>1261</v>
       </c>
-      <c r="T168" s="10" t="s">
+      <c r="T168" t="s">
         <v>627</v>
       </c>
       <c r="U168" t="s">
@@ -15339,70 +15355,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="19" t="s">
+    <row r="169" spans="1:25" s="15" customFormat="1">
+      <c r="A169" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B169" s="19" t="s">
+      <c r="B169" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C169" s="19">
+      <c r="C169" s="15">
         <v>2020</v>
       </c>
-      <c r="D169" s="19" t="s">
+      <c r="D169" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="E169" s="19" t="s">
+      <c r="E169" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="G169" s="19" t="s">
+      <c r="G169" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="I169" s="19" t="s">
+      <c r="I169" s="15" t="s">
         <v>1519</v>
       </c>
-      <c r="J169" s="19" t="s">
+      <c r="J169" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="L169" s="19" t="s">
+      <c r="L169" s="15" t="s">
         <v>451</v>
       </c>
       <c r="N169"/>
-      <c r="O169" s="19" t="s">
+      <c r="O169" s="15" t="s">
         <v>1520</v>
       </c>
-      <c r="P169" s="19" t="s">
+      <c r="P169" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="Q169" s="19" t="s">
+      <c r="Q169" s="15" t="s">
         <v>1522</v>
       </c>
-      <c r="R169" s="19" t="s">
+      <c r="R169" s="15" t="s">
         <v>1521</v>
       </c>
-      <c r="S169" s="19" t="s">
+      <c r="S169" s="15" t="s">
         <v>1523</v>
       </c>
-      <c r="T169" s="19" t="s">
+      <c r="T169" s="15" t="s">
         <v>1561</v>
       </c>
-      <c r="U169" s="19" t="s">
+      <c r="U169" s="15" t="s">
         <v>1551</v>
       </c>
-      <c r="V169" s="19" t="s">
+      <c r="V169" s="15" t="s">
         <v>1524</v>
       </c>
-      <c r="W169" s="19" t="s">
+      <c r="W169" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="X169" s="20" t="s">
+      <c r="X169" s="16" t="s">
         <v>1595</v>
       </c>
-      <c r="Y169" s="20" t="s">
+      <c r="Y169" s="16" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="170" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" hidden="1">
       <c r="A170" t="s">
         <v>166</v>
       </c>
@@ -15427,7 +15443,7 @@
       <c r="L170" t="s">
         <v>456</v>
       </c>
-      <c r="O170" s="8" t="s">
+      <c r="O170" s="7" t="s">
         <v>1525</v>
       </c>
       <c r="P170" t="s">
@@ -15442,7 +15458,7 @@
       <c r="S170" t="s">
         <v>1528</v>
       </c>
-      <c r="T170" s="10" t="s">
+      <c r="T170" t="s">
         <v>1555</v>
       </c>
       <c r="U170" t="s">
@@ -15455,7 +15471,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="171" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" hidden="1">
       <c r="A171" t="s">
         <v>141</v>
       </c>
@@ -15480,7 +15496,7 @@
       <c r="L171" t="s">
         <v>457</v>
       </c>
-      <c r="O171" s="8" t="s">
+      <c r="O171" s="7" t="s">
         <v>1531</v>
       </c>
       <c r="P171" t="s">
@@ -15495,7 +15511,7 @@
       <c r="S171" t="s">
         <v>1171</v>
       </c>
-      <c r="T171" s="10" t="s">
+      <c r="T171" t="s">
         <v>627</v>
       </c>
       <c r="U171" t="s">
@@ -15509,7 +15525,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W171">
+  <autoFilter ref="A1:W171" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="20">
       <filters>
         <filter val="instrumental;relational"/>
@@ -15517,11 +15533,11 @@
         <filter val="relational;instrumental"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:V171">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V171">
       <sortCondition ref="B1:B171"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:Q209">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q209">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15529,19 +15545,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>lists!$E$2:$E$31</xm:f>
           </x14:formula1>
           <xm:sqref>G2:H171</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>lists!$B$2:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>L2:M171</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>lists!$A$2:$A$12</xm:f>
           </x14:formula1>
@@ -15554,24 +15570,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1"/>
-    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="18.42578125" style="1"/>
+    <col min="2" max="2" width="22.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1"/>
+    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="18.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>493</v>
       </c>
@@ -15585,7 +15601,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13">
       <c r="A2" s="2" t="s">
         <v>453</v>
       </c>
@@ -15599,7 +15615,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13">
       <c r="A3" s="1" t="s">
         <v>458</v>
       </c>
@@ -15611,7 +15627,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="13">
       <c r="A4" s="1" t="s">
         <v>459</v>
       </c>
@@ -15623,7 +15639,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13">
       <c r="A5" s="1" t="s">
         <v>460</v>
       </c>
@@ -15635,7 +15651,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>461</v>
       </c>
@@ -15646,7 +15662,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13">
       <c r="A7" s="1" t="s">
         <v>462</v>
       </c>
@@ -15660,7 +15676,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13">
       <c r="A8" s="1" t="s">
         <v>463</v>
       </c>
@@ -15672,7 +15688,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13">
       <c r="A9" s="1" t="s">
         <v>457</v>
       </c>
@@ -15684,7 +15700,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13">
       <c r="A10" s="1" t="s">
         <v>464</v>
       </c>
@@ -15696,7 +15712,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13">
       <c r="A11" s="1" t="s">
         <v>509</v>
       </c>
@@ -15708,7 +15724,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="13">
       <c r="A12" s="1" t="s">
         <v>511</v>
       </c>
@@ -15719,13 +15735,13 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13">
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="13">
       <c r="D14" s="3" t="s">
         <v>497</v>
       </c>
@@ -15733,25 +15749,25 @@
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="13">
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="13">
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5" ht="13">
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:5" ht="13">
       <c r="D18" s="3" t="s">
         <v>498</v>
       </c>
@@ -15759,13 +15775,13 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5" ht="13">
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5" ht="13">
       <c r="D20" s="3" t="s">
         <v>499</v>
       </c>
@@ -15773,31 +15789,31 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5" ht="13">
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5" ht="13">
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5" ht="13">
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5" ht="13">
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="25" spans="4:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:5" ht="13">
       <c r="D25" s="3" t="s">
         <v>500</v>
       </c>
@@ -15805,37 +15821,37 @@
         <v>485</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:5" ht="13">
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:5" ht="13">
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="28" spans="4:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:5" ht="26">
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:5" ht="13">
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:5" ht="13">
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:5" ht="13">
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
         <v>491</v>

--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohara/github/sp1_systematic_map/_data/screened_fulltext/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casey\Documents\github\sp1_systematic_map\_data\screened_fulltext\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAFC8FC-15A0-4A4B-AEAB-DD82F39D0795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36840" yWindow="-900" windowWidth="31360" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36840" yWindow="-900" windowWidth="31365" windowHeight="15105"/>
   </bookViews>
   <sheets>
     <sheet name="ft_consolidated_revisit" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="1611">
   <si>
     <t>title</t>
   </si>
@@ -4826,14 +4825,47 @@
     <t xml:space="preserve">We are expanding beyond values related to the natural world.  I would argue that slavery is a (negative) relationship between an enslaved person and their oppressive society.  </t>
   </si>
   <si>
-    <t>agree in retrospect - the sentiments may be attached to relational values but these sentiments are not necessarily expressed directly, merely associated with words from interview transcripts…</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Justice is beyond instrumental; is it not a relationship between individuals and society?  Scroter (2020): "We here refer to justice as fundamental moral rights and  obligations, while equity comparatively evaluates relationships, including access and control among different societal groups regarding NCP and nature. Distributive equity and justice concerns the sense of a fair allocation, among individuals, groups or stakeholders, of positive and negative NCP resulting from management decisions and resulting distributive effects on people’s good quality of life" - in this case, distribution of tree canopy is a fair allocation of positive NCP</t>
+  </si>
+  <si>
+    <t>ok, agree with Rachelle in retrospect - the sentiments may be attached to relational values but these sentiments are not necessarily expressed directly, merely associated with words from interview transcripts…</t>
+  </si>
+  <si>
+    <t>ok, recoded - if going by their definition, they are focusing on accuracy of targeting toward a hypothetical policy, which indicates more instrumental, even if that *policy* is intended to reduce poverty</t>
+  </si>
+  <si>
+    <t>in addition to instrumental outcomes, they also study fairness "In addition, we assess the fairness of ML-based targeting with respect to several different demographic subgroups." (though they found their ML ESI did NOT improve fairness, it is still a method to assess a potential benefit!)</t>
+  </si>
+  <si>
+    <t>they may not measure the relational value, but they definitely link their outcome to it: "Evidence from several randomized control trials shows that this method of charity has large positive effects on multiple measures of recipients’ well-being.4"</t>
+  </si>
+  <si>
+    <t>manual add</t>
+  </si>
+  <si>
+    <t>Valuing Satellite Data for Harmful Algal Bloom Early Warning Systems</t>
+  </si>
+  <si>
+    <t>Newbold, Lindley, Albeke, Viers, Johnston</t>
+  </si>
+  <si>
+    <t>added per Yusuke recommendation Aug 2025</t>
+  </si>
+  <si>
+    <t>HAB warning system based on satellite imagery</t>
+  </si>
+  <si>
+    <t>newbold_valuingsatellitedataharmful_2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5738,39 +5770,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z126" sqref="Z126"/>
+      <selection pane="bottomRight" activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
-    <col min="10" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="7" customWidth="1"/>
-    <col min="16" max="20" width="12.33203125" customWidth="1"/>
-    <col min="21" max="21" width="13.5" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" customWidth="1"/>
-    <col min="23" max="23" width="16.1640625" customWidth="1"/>
-    <col min="24" max="24" width="28.5" customWidth="1"/>
-    <col min="25" max="25" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="45.75" customHeight="1">
+    <row r="1" spans="1:26" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5850,7 +5883,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="2" spans="1:26" hidden="1">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -5909,7 +5942,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="1:26" hidden="1">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -5968,7 +6001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -6027,7 +6060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1">
+    <row r="5" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>168</v>
       </c>
@@ -6095,7 +6128,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -6151,7 +6184,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="13" customFormat="1">
+    <row r="7" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>190</v>
       </c>
@@ -6217,7 +6250,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>352</v>
       </c>
@@ -6279,7 +6312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -6338,7 +6371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -6403,7 +6436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>355</v>
       </c>
@@ -6456,7 +6489,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -6512,7 +6545,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>358</v>
       </c>
@@ -6568,7 +6601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:26" hidden="1">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -6636,7 +6669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:26" hidden="1">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -6698,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:26" hidden="1">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -6754,7 +6787,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -6810,7 +6843,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -6866,7 +6899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -6925,7 +6958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -6981,7 +7014,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -7037,7 +7070,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -7096,7 +7129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>275</v>
       </c>
@@ -7155,7 +7188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -7208,7 +7241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -7273,7 +7306,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -7341,7 +7374,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -7400,7 +7433,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -7459,7 +7492,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>282</v>
       </c>
@@ -7512,7 +7545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="15" customFormat="1">
+    <row r="30" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>364</v>
       </c>
@@ -7578,7 +7611,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -7631,7 +7664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -7687,7 +7720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -7746,7 +7779,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>288</v>
       </c>
@@ -7802,7 +7835,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -7858,7 +7891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -7911,7 +7944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="9" customFormat="1">
+    <row r="37" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>291</v>
       </c>
@@ -7973,7 +8006,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -8032,7 +8065,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -8088,7 +8121,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>367</v>
       </c>
@@ -8144,7 +8177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="9" customFormat="1">
+    <row r="41" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>370</v>
       </c>
@@ -8216,7 +8249,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>294</v>
       </c>
@@ -8272,7 +8305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -8328,7 +8361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -8381,7 +8414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -8443,7 +8476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -8502,7 +8535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -8561,7 +8594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -8617,7 +8650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:26" hidden="1">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>373</v>
       </c>
@@ -8676,7 +8709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:26" hidden="1">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -8735,7 +8768,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="13" customFormat="1">
+    <row r="51" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>297</v>
       </c>
@@ -8801,10 +8834,10 @@
         <v>1570</v>
       </c>
       <c r="Z51" s="13" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" hidden="1">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -8860,7 +8893,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="53" spans="1:26" hidden="1">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>206</v>
       </c>
@@ -8907,7 +8940,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="54" spans="1:26" hidden="1">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -8960,7 +8993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="9" customFormat="1">
+    <row r="55" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>175</v>
       </c>
@@ -9026,7 +9059,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="56" spans="1:26" hidden="1">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -9079,7 +9112,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="57" spans="1:26" hidden="1">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>212</v>
       </c>
@@ -9132,7 +9165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:26" hidden="1">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>376</v>
       </c>
@@ -9188,7 +9221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:26" hidden="1">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>379</v>
       </c>
@@ -9247,7 +9280,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="60" spans="1:26" hidden="1">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>300</v>
       </c>
@@ -9300,7 +9333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:26" hidden="1">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -9362,7 +9395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:26" hidden="1">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>303</v>
       </c>
@@ -9424,7 +9457,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="15" customFormat="1">
+    <row r="63" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>178</v>
       </c>
@@ -9492,8 +9525,11 @@
       <c r="Y63" s="16" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" hidden="1">
+      <c r="Z63" s="15" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -9537,7 +9573,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -9590,7 +9626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -9652,7 +9688,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="67" spans="1:25" s="9" customFormat="1">
+    <row r="67" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>382</v>
       </c>
@@ -9721,7 +9757,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -9777,7 +9813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>385</v>
       </c>
@@ -9833,7 +9869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -9889,7 +9925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -9945,7 +9981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -9998,7 +10034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>388</v>
       </c>
@@ -10051,7 +10087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:25" hidden="1">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -10107,7 +10143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>218</v>
       </c>
@@ -10163,7 +10199,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="76" spans="1:25" hidden="1">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>391</v>
       </c>
@@ -10219,7 +10255,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="77" spans="1:25" hidden="1">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -10272,7 +10308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:25" hidden="1">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>394</v>
       </c>
@@ -10325,7 +10361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:25" hidden="1">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -10375,7 +10411,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="80" spans="1:25" hidden="1">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -10434,7 +10470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -10487,7 +10523,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="409.6" hidden="1">
+    <row r="82" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>309</v>
       </c>
@@ -10546,7 +10582,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -10602,7 +10638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -10655,7 +10691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>147</v>
       </c>
@@ -10708,7 +10744,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -10761,7 +10797,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>227</v>
       </c>
@@ -10817,7 +10853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>397</v>
       </c>
@@ -10870,7 +10906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="409.6" hidden="1">
+    <row r="89" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -10926,7 +10962,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -10979,7 +11015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>230</v>
       </c>
@@ -11032,7 +11068,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -11085,7 +11121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:23" hidden="1">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -11138,7 +11174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>312</v>
       </c>
@@ -11197,7 +11233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>233</v>
       </c>
@@ -11250,7 +11286,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>400</v>
       </c>
@@ -11306,7 +11342,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="97" spans="1:25" hidden="1">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>315</v>
       </c>
@@ -11362,7 +11398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="9" customFormat="1">
+    <row r="98" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>145</v>
       </c>
@@ -11431,7 +11467,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="99" spans="1:25" hidden="1">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -11487,7 +11523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -11540,7 +11576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:25" hidden="1">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -11599,7 +11635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="409.6" hidden="1">
+    <row r="102" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>318</v>
       </c>
@@ -11658,7 +11694,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="103" spans="1:25" hidden="1">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -11720,7 +11756,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="104" spans="1:25" hidden="1">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -11776,7 +11812,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="105" spans="1:25" hidden="1">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -11835,7 +11871,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="106" spans="1:25" hidden="1">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -11885,7 +11921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:25" hidden="1">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>321</v>
       </c>
@@ -11941,7 +11977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:25" hidden="1">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -12003,7 +12039,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="109" spans="1:25" hidden="1">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -12053,7 +12089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>76</v>
       </c>
@@ -12109,7 +12145,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="111" spans="1:25" hidden="1">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -12162,7 +12198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:25" hidden="1">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>403</v>
       </c>
@@ -12212,7 +12248,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>78</v>
       </c>
@@ -12262,7 +12298,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>324</v>
       </c>
@@ -12315,7 +12351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -12365,7 +12401,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="116" spans="1:25" s="9" customFormat="1">
+    <row r="116" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>239</v>
       </c>
@@ -12419,7 +12455,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="117" spans="1:25" s="13" customFormat="1">
+    <row r="117" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>80</v>
       </c>
@@ -12476,7 +12512,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>327</v>
       </c>
@@ -12532,7 +12568,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>409</v>
       </c>
@@ -12588,7 +12624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>412</v>
       </c>
@@ -12647,7 +12683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>415</v>
       </c>
@@ -12703,7 +12739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -12756,7 +12792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:25" hidden="1">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>54</v>
       </c>
@@ -12806,7 +12842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:25" hidden="1">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -12853,7 +12889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:25" hidden="1">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>330</v>
       </c>
@@ -12915,7 +12951,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="126" spans="1:25" s="15" customFormat="1">
+    <row r="126" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>160</v>
       </c>
@@ -12971,8 +13007,11 @@
       <c r="Y126" s="17" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" hidden="1">
+      <c r="Z126" s="15" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -13025,7 +13064,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="128" spans="1:25" hidden="1">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>333</v>
       </c>
@@ -13090,7 +13129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:25" hidden="1">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -13146,7 +13185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:25" hidden="1">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -13199,7 +13238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:25" hidden="1">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>418</v>
       </c>
@@ -13249,7 +13288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>421</v>
       </c>
@@ -13305,7 +13344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -13355,7 +13394,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>248</v>
       </c>
@@ -13411,7 +13450,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>424</v>
       </c>
@@ -13458,7 +13497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>251</v>
       </c>
@@ -13517,7 +13556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>56</v>
       </c>
@@ -13567,7 +13606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:25" hidden="1">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -13629,7 +13668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>427</v>
       </c>
@@ -13676,7 +13715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:25" s="9" customFormat="1">
+    <row r="140" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>254</v>
       </c>
@@ -13733,7 +13772,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>336</v>
       </c>
@@ -13789,7 +13828,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>257</v>
       </c>
@@ -13848,7 +13887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:25" s="13" customFormat="1">
+    <row r="143" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>339</v>
       </c>
@@ -13911,7 +13950,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>260</v>
       </c>
@@ -13967,7 +14006,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="145" spans="1:25" hidden="1">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -14026,7 +14065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:25" hidden="1">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -14082,7 +14121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:25" s="9" customFormat="1">
+    <row r="147" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>342</v>
       </c>
@@ -14151,7 +14190,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="148" spans="1:25" s="15" customFormat="1">
+    <row r="148" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>58</v>
       </c>
@@ -14213,8 +14252,11 @@
       <c r="Y148" s="16" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" hidden="1">
+      <c r="Z148" s="15" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>135</v>
       </c>
@@ -14267,7 +14309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:25" hidden="1">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>345</v>
       </c>
@@ -14323,7 +14365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:25" hidden="1">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>430</v>
       </c>
@@ -14379,7 +14421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:25" hidden="1">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -14432,7 +14474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:25" hidden="1">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>82</v>
       </c>
@@ -14451,6 +14493,9 @@
       <c r="G153" t="s">
         <v>466</v>
       </c>
+      <c r="H153" t="s">
+        <v>470</v>
+      </c>
       <c r="I153" t="s">
         <v>1447</v>
       </c>
@@ -14494,7 +14539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:25" s="9" customFormat="1">
+    <row r="154" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>433</v>
       </c>
@@ -14560,7 +14605,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="155" spans="1:25" hidden="1">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>62</v>
       </c>
@@ -14613,7 +14658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:25" hidden="1">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>348</v>
       </c>
@@ -14675,7 +14720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:25" hidden="1">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -14731,7 +14776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:25" hidden="1">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>436</v>
       </c>
@@ -14787,7 +14832,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="159" spans="1:25" hidden="1">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>64</v>
       </c>
@@ -14837,7 +14882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:25" hidden="1">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -14887,7 +14932,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="161" spans="1:25" hidden="1">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>439</v>
       </c>
@@ -14946,7 +14991,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="162" spans="1:25" s="15" customFormat="1">
+    <row r="162" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>263</v>
       </c>
@@ -15005,8 +15050,11 @@
       <c r="Y162" s="16" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" hidden="1">
+      <c r="Z162" s="15" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -15071,7 +15119,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="164" spans="1:25" hidden="1">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>442</v>
       </c>
@@ -15124,7 +15172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:25" hidden="1">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>66</v>
       </c>
@@ -15177,7 +15225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:25" s="13" customFormat="1">
+    <row r="166" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>137</v>
       </c>
@@ -15219,10 +15267,10 @@
         <v>1507</v>
       </c>
       <c r="T166" s="13" t="s">
-        <v>1554</v>
+        <v>627</v>
       </c>
       <c r="U166" s="13" t="s">
-        <v>1550</v>
+        <v>627</v>
       </c>
       <c r="V166" s="13" t="s">
         <v>1508</v>
@@ -15236,8 +15284,11 @@
       <c r="Y166" s="14" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" hidden="1">
+      <c r="Z166" s="13" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>269</v>
       </c>
@@ -15299,7 +15350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:25" hidden="1">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>139</v>
       </c>
@@ -15355,7 +15406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:25" s="15" customFormat="1">
+    <row r="169" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>272</v>
       </c>
@@ -15400,10 +15451,10 @@
         <v>1523</v>
       </c>
       <c r="T169" s="15" t="s">
-        <v>1561</v>
+        <v>627</v>
       </c>
       <c r="U169" s="15" t="s">
-        <v>1551</v>
+        <v>627</v>
       </c>
       <c r="V169" s="15" t="s">
         <v>1524</v>
@@ -15417,8 +15468,11 @@
       <c r="Y169" s="16" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" hidden="1">
+      <c r="Z169" s="15" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>166</v>
       </c>
@@ -15471,7 +15525,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="171" spans="1:25" hidden="1">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>141</v>
       </c>
@@ -15524,20 +15578,54 @@
         <v>7</v>
       </c>
     </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C172">
+        <v>2022</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G172" t="s">
+        <v>466</v>
+      </c>
+      <c r="H172" t="s">
+        <v>502</v>
+      </c>
+      <c r="J172" t="s">
+        <v>461</v>
+      </c>
+      <c r="L172" t="s">
+        <v>455</v>
+      </c>
+      <c r="S172" t="s">
+        <v>1609</v>
+      </c>
+      <c r="T172" t="s">
+        <v>627</v>
+      </c>
+      <c r="U172" t="s">
+        <v>627</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W171" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="20">
-      <filters>
-        <filter val="instrumental;relational"/>
-        <filter val="relational"/>
-        <filter val="relational;instrumental"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V171">
+  <autoFilter ref="A1:W171">
+    <sortState ref="A2:V171">
       <sortCondition ref="B1:B171"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q209">
+  <sortState ref="A2:Q209">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15545,19 +15633,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>lists!$E$2:$E$31</xm:f>
           </x14:formula1>
           <xm:sqref>G2:H171</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>lists!$B$2:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>L2:M171</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>lists!$A$2:$A$12</xm:f>
           </x14:formula1>
@@ -15570,24 +15658,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1"/>
-    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="18.5" style="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1"/>
+    <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="18.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>493</v>
       </c>
@@ -15601,7 +15689,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>453</v>
       </c>
@@ -15615,7 +15703,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>458</v>
       </c>
@@ -15627,7 +15715,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>459</v>
       </c>
@@ -15639,7 +15727,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>460</v>
       </c>
@@ -15651,7 +15739,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>461</v>
       </c>
@@ -15662,7 +15750,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>462</v>
       </c>
@@ -15676,7 +15764,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>463</v>
       </c>
@@ -15688,7 +15776,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>457</v>
       </c>
@@ -15700,7 +15788,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>464</v>
       </c>
@@ -15712,7 +15800,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>509</v>
       </c>
@@ -15724,7 +15812,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>511</v>
       </c>
@@ -15735,13 +15823,13 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13">
+    <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>497</v>
       </c>
@@ -15749,25 +15837,25 @@
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="13">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="13">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>498</v>
       </c>
@@ -15775,13 +15863,13 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="13">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="13">
+    <row r="20" spans="4:5" ht="24" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>499</v>
       </c>
@@ -15789,31 +15877,31 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="13">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="13">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="13">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="4:5" ht="13">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="25" spans="4:5" ht="13">
+    <row r="25" spans="4:5" ht="24" x14ac:dyDescent="0.2">
       <c r="D25" s="3" t="s">
         <v>500</v>
       </c>
@@ -15821,37 +15909,37 @@
         <v>485</v>
       </c>
     </row>
-    <row r="26" spans="4:5" ht="13">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="27" spans="4:5" ht="13">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="28" spans="4:5" ht="26">
+    <row r="28" spans="4:5" ht="24" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="13">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="30" spans="4:5" ht="13">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="13">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
         <v>491</v>

--- a/_data/screened_fulltext/ft_consolidated_coding.xlsx
+++ b/_data/screened_fulltext/ft_consolidated_coding.xlsx
@@ -16,7 +16,7 @@
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ft_consolidated_revisit!$A$1:$W$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ft_consolidated_revisit!$A$1:$W$172</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -5771,13 +5771,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D172" sqref="D172"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5791,16 +5792,15 @@
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" hidden="1" customWidth="1"/>
     <col min="10" max="13" width="6.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="7" customWidth="1"/>
+    <col min="16" max="20" width="12.28515625" customWidth="1"/>
     <col min="21" max="21" width="13.42578125" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="16.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="28.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" customWidth="1"/>
+    <col min="24" max="24" width="28.42578125" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5942,7 +5942,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>190</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>355</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>358</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>282</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>367</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>294</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>373</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>206</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>212</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>376</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>300</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>394</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>147</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>227</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>397</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>312</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>233</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>400</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>145</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>321</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>76</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>403</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>324</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>327</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>333</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>418</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>248</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>424</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>251</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>56</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>427</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>257</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>339</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>260</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>135</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>433</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>62</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>439</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="162" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>263</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>66</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>137</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>269</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>139</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>166</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>141</v>
       </c>
@@ -15620,7 +15620,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W171">
+  <autoFilter ref="A1:W172">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2019"/>
+        <filter val="2020"/>
+        <filter val="2021"/>
+        <filter val="2022"/>
+        <filter val="2023"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:V171">
       <sortCondition ref="B1:B171"/>
     </sortState>
